--- a/service/document/ServiceDescription.xlsx
+++ b/service/document/ServiceDescription.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18613"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sync\OneDrive\tài liệu\Doantotnghiep_20171\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\DATN\education_social_network\service\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="A6A019BB9E35E69720B0D0E774AE74C04DAEA713" xr6:coauthVersionLast="23" xr6:coauthVersionMax="23" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11745" tabRatio="702" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11745" tabRatio="702" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="FUNCTION_DESCRIPTION" sheetId="3" r:id="rId1"/>
@@ -19,7 +18,7 @@
     <sheet name="TECHNOLOGY_RESOURCE" sheetId="6" r:id="rId4"/>
     <sheet name="WORK_TIMELINE" sheetId="7" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="171026"/>
+  <calcPr calcId="152511"/>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="530">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1018" uniqueCount="535">
   <si>
     <t>SOCIAL NETWORK SUPPORT FOR EDUCATION: FUNCTION DESCRIPTION</t>
   </si>
@@ -1634,12 +1633,27 @@
   <si>
     <t>WORK</t>
   </si>
+  <si>
+    <t>Các chức năng với file</t>
+  </si>
+  <si>
+    <t>Xóa file</t>
+  </si>
+  <si>
+    <t>Upload file</t>
+  </si>
+  <si>
+    <t>Download file</t>
+  </si>
+  <si>
+    <t>Lấy thông tin file</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1970,10 +1984,17 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1982,16 +2003,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2003,34 +2018,33 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2307,23 +2321,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="C97" sqref="C97"/>
+    <sheetView topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="C121" sqref="C121"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.140625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="40.5703125" customWidth="1"/>
-    <col min="3" max="3" width="55.5703125" customWidth="1"/>
-    <col min="4" max="4" width="26.5703125" customWidth="1"/>
+    <col min="1" max="1" width="24.125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="40.625" customWidth="1"/>
+    <col min="3" max="3" width="55.625" customWidth="1"/>
+    <col min="4" max="4" width="26.625" customWidth="1"/>
     <col min="5" max="5" width="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
@@ -2344,7 +2358,7 @@
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>1</v>
       </c>
@@ -2352,10 +2366,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="9"/>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="30" t="s">
         <v>3</v>
       </c>
@@ -2366,7 +2380,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>1</v>
       </c>
@@ -2377,7 +2391,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>2</v>
       </c>
@@ -2388,7 +2402,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>3</v>
       </c>
@@ -2399,7 +2413,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>4</v>
       </c>
@@ -2410,7 +2424,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>5</v>
       </c>
@@ -2421,7 +2435,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>6</v>
       </c>
@@ -2432,7 +2446,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>7</v>
       </c>
@@ -2443,7 +2457,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>8</v>
       </c>
@@ -2454,7 +2468,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>9</v>
       </c>
@@ -2465,7 +2479,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>10</v>
       </c>
@@ -2476,7 +2490,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>11</v>
       </c>
@@ -2487,13 +2501,13 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B18" s="9"/>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B19" s="9"/>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="30" t="s">
         <v>3</v>
       </c>
@@ -2507,7 +2521,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>30</v>
       </c>
@@ -2518,7 +2532,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>33</v>
       </c>
@@ -2529,10 +2543,10 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B25" s="3"/>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
         <v>36</v>
       </c>
@@ -2540,7 +2554,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
         <v>38</v>
       </c>
@@ -2548,10 +2562,10 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B28" s="3"/>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
         <v>40</v>
       </c>
@@ -2559,7 +2573,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>42</v>
       </c>
@@ -2567,10 +2581,10 @@
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B31" s="3"/>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
         <v>44</v>
       </c>
@@ -2578,7 +2592,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
         <v>46</v>
       </c>
@@ -2586,7 +2600,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
         <v>48</v>
       </c>
@@ -2594,17 +2608,17 @@
         <v>49</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B35" s="3"/>
     </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="33" t="s">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="B36" s="33"/>
-      <c r="C36" s="33"/>
-    </row>
-    <row r="37" spans="1:4">
+      <c r="B36" s="39"/>
+      <c r="C36" s="39"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
         <v>51</v>
       </c>
@@ -2613,10 +2627,10 @@
         <v>52</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B38" s="3"/>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
         <v>53</v>
       </c>
@@ -2624,7 +2638,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>3</v>
       </c>
@@ -2638,7 +2652,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
         <v>56</v>
       </c>
@@ -2649,7 +2663,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
         <v>59</v>
       </c>
@@ -2660,7 +2674,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B45" s="3"/>
       <c r="C45" t="s">
         <v>62</v>
@@ -2669,7 +2683,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B46" s="3"/>
       <c r="C46" t="s">
         <v>64</v>
@@ -2678,13 +2692,13 @@
         <v>65</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B47" s="3"/>
       <c r="C47" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B48" s="3"/>
       <c r="C48" t="s">
         <v>67</v>
@@ -2693,7 +2707,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
         <v>69</v>
       </c>
@@ -2704,7 +2718,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B50" s="3"/>
       <c r="C50" t="s">
         <v>72</v>
@@ -2713,7 +2727,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B51" s="3"/>
       <c r="C51" t="s">
         <v>74</v>
@@ -2722,7 +2736,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B52" s="3"/>
       <c r="C52" t="s">
         <v>76</v>
@@ -2731,7 +2745,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B53" s="3"/>
       <c r="C53" t="s">
         <v>78</v>
@@ -2740,10 +2754,10 @@
         <v>79</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B54" s="3"/>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
         <v>80</v>
       </c>
@@ -2754,7 +2768,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B56" s="3"/>
       <c r="C56" t="s">
         <v>83</v>
@@ -2763,25 +2777,25 @@
         <v>84</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B57" s="3"/>
       <c r="C57" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B58" s="3"/>
       <c r="C58" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B59" s="3"/>
       <c r="C59" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
         <v>88</v>
       </c>
@@ -2789,7 +2803,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B61" s="3"/>
       <c r="C61" t="s">
         <v>90</v>
@@ -2798,7 +2812,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B62" s="3"/>
       <c r="C62" t="s">
         <v>92</v>
@@ -2807,10 +2821,10 @@
         <v>93</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B63" s="3"/>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="s">
         <v>94</v>
       </c>
@@ -2821,13 +2835,13 @@
         <v>96</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B65" s="3"/>
       <c r="C65" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B66" s="3"/>
       <c r="C66" t="s">
         <v>98</v>
@@ -2836,25 +2850,25 @@
         <v>99</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B67" s="3"/>
       <c r="C67" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B68" s="3"/>
       <c r="C68" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B69" s="3"/>
       <c r="C69" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B70" s="3"/>
       <c r="C70" t="s">
         <v>103</v>
@@ -2863,10 +2877,10 @@
         <v>104</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B71" s="3"/>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="8" t="s">
         <v>105</v>
       </c>
@@ -2877,7 +2891,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B73" s="3"/>
       <c r="C73" t="s">
         <v>108</v>
@@ -2886,19 +2900,19 @@
         <v>109</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B74" s="3"/>
       <c r="C74" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B75" s="3"/>
       <c r="C75" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B76" s="3"/>
       <c r="C76" t="s">
         <v>112</v>
@@ -2907,28 +2921,28 @@
         <v>113</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B77" s="3"/>
       <c r="C77" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B78" s="3"/>
       <c r="C78" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B79" s="3"/>
       <c r="C79" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B80" s="3"/>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="8" t="s">
         <v>117</v>
       </c>
@@ -2939,28 +2953,28 @@
         <v>119</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B82" s="3"/>
       <c r="C82" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B83" s="3"/>
       <c r="C83" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B84" s="3"/>
       <c r="C84" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B85" s="3"/>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="8" t="s">
         <v>123</v>
       </c>
@@ -2971,7 +2985,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B87" s="3"/>
       <c r="C87" t="s">
         <v>126</v>
@@ -2980,7 +2994,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B88" s="3"/>
       <c r="C88" t="s">
         <v>128</v>
@@ -2989,16 +3003,16 @@
         <v>129</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B89" s="3"/>
       <c r="C89" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B90" s="3"/>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="8" t="s">
         <v>131</v>
       </c>
@@ -3009,28 +3023,28 @@
         <v>133</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B92" s="3"/>
       <c r="C92" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B93" s="3"/>
       <c r="C93" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B94" s="3"/>
       <c r="C94" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B95" s="3"/>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="8" t="s">
         <v>137</v>
       </c>
@@ -3041,16 +3055,16 @@
         <v>139</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B97" s="3"/>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B98" s="3"/>
       <c r="C98" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B99" s="3"/>
       <c r="C99" t="s">
         <v>141</v>
@@ -3059,13 +3073,13 @@
         <v>142</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B100" s="3"/>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B101" s="3"/>
     </row>
-    <row r="102" spans="1:4">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="8" t="s">
         <v>143</v>
       </c>
@@ -3076,25 +3090,25 @@
         <v>145</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B103" s="3"/>
       <c r="C103" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="104" spans="1:4">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B104" s="3"/>
       <c r="C104" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B105" s="3"/>
     </row>
-    <row r="106" spans="1:4">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B106" s="3"/>
     </row>
-    <row r="107" spans="1:4">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="8" t="s">
         <v>148</v>
       </c>
@@ -3105,7 +3119,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="108" spans="1:4">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B108" s="3"/>
       <c r="C108" t="s">
         <v>151</v>
@@ -3114,19 +3128,19 @@
         <v>152</v>
       </c>
     </row>
-    <row r="109" spans="1:4">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B109" s="3"/>
       <c r="C109" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="110" spans="1:4">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B110" s="3"/>
       <c r="C110" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="111" spans="1:4">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B111" s="3"/>
       <c r="C111" t="s">
         <v>155</v>
@@ -3135,10 +3149,10 @@
         <v>156</v>
       </c>
     </row>
-    <row r="112" spans="1:4">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B112" s="3"/>
     </row>
-    <row r="113" spans="1:4">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="8" t="s">
         <v>157</v>
       </c>
@@ -3149,19 +3163,19 @@
         <v>159</v>
       </c>
     </row>
-    <row r="114" spans="1:4">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B114" s="3"/>
       <c r="C114" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="115" spans="1:4">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B115" s="3"/>
       <c r="C115" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="116" spans="1:4">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="8" t="s">
         <v>162</v>
       </c>
@@ -3169,13 +3183,13 @@
         <v>89</v>
       </c>
     </row>
-    <row r="117" spans="1:4">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B117" s="3"/>
       <c r="C117" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="119" spans="1:4">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C119" t="s">
         <v>164</v>
       </c>
@@ -3183,7 +3197,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="121" spans="1:4">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C121" t="s">
         <v>166</v>
       </c>
@@ -3191,7 +3205,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="123" spans="1:4">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C123" t="s">
         <v>168</v>
       </c>
@@ -3209,34 +3223,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A2:M252"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:M275"/>
   <sheetViews>
-    <sheetView topLeftCell="A124" zoomScale="70" zoomScaleNormal="70" workbookViewId="0" xr3:uid="{958C4451-9541-5A59-BF78-D2F731DF1C81}">
-      <selection activeCell="G233" sqref="G233"/>
+    <sheetView tabSelected="1" topLeftCell="A223" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E270" sqref="E270"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="27.7109375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="26.5703125" style="5" customWidth="1"/>
-    <col min="4" max="5" width="17.42578125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" style="5" customWidth="1"/>
-    <col min="7" max="9" width="14.7109375" style="5" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="5" customWidth="1"/>
-    <col min="11" max="11" width="24.42578125" style="5" customWidth="1"/>
-    <col min="12" max="12" width="24.28515625" style="5" customWidth="1"/>
-    <col min="13" max="13" width="23.42578125" style="5" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="6.875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="27.75" style="5" customWidth="1"/>
+    <col min="3" max="3" width="26.625" style="5" customWidth="1"/>
+    <col min="4" max="5" width="17.375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="16.875" style="5" customWidth="1"/>
+    <col min="7" max="9" width="14.75" style="5" customWidth="1"/>
+    <col min="10" max="10" width="14.375" style="5" customWidth="1"/>
+    <col min="11" max="11" width="24.375" style="5" customWidth="1"/>
+    <col min="12" max="12" width="24.25" style="5" customWidth="1"/>
+    <col min="13" max="13" width="23.375" style="5" customWidth="1"/>
+    <col min="14" max="16384" width="9.125" style="5"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" s="22" customFormat="1">
+    <row r="2" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="25" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="23"/>
       <c r="B3" s="23" t="s">
         <v>171</v>
@@ -3248,7 +3262,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>172</v>
       </c>
@@ -3256,8 +3270,8 @@
         <v>173</v>
       </c>
     </row>
-    <row r="7" spans="1:4" customFormat="1"/>
-    <row r="10" spans="1:4">
+    <row r="7" spans="1:4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>174</v>
       </c>
@@ -3265,7 +3279,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <v>200</v>
       </c>
@@ -3276,15 +3290,15 @@
         <v>177</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>178</v>
       </c>
@@ -3292,7 +3306,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
         <v>300</v>
       </c>
@@ -3300,15 +3314,15 @@
         <v>180</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>181</v>
       </c>
@@ -3316,11 +3330,11 @@
         <v>182</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
         <v>401</v>
       </c>
@@ -3331,11 +3345,11 @@
         <v>184</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>185</v>
       </c>
@@ -3343,40 +3357,40 @@
         <v>186</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B23" s="1">
         <v>500</v>
       </c>
       <c r="C23"/>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26"/>
     </row>
-    <row r="29" spans="1:4" s="22" customFormat="1"/>
-    <row r="30" spans="1:4">
+    <row r="29" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B30" s="7" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B31" s="7" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B32" s="7"/>
     </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="34" t="s">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="43" t="s">
         <v>189</v>
       </c>
-      <c r="B33" s="34"/>
-      <c r="C33" s="34"/>
-      <c r="D33" s="34"/>
-      <c r="E33" s="34"/>
-    </row>
-    <row r="34" spans="1:6">
+      <c r="B33" s="43"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="43"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="21" t="s">
         <v>190</v>
       </c>
@@ -3394,7 +3408,7 @@
       </c>
       <c r="F34" s="26"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B35" s="7" t="s">
         <v>194</v>
       </c>
@@ -3404,7 +3418,7 @@
       </c>
       <c r="F35" s="7"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B36" s="7" t="s">
         <v>196</v>
       </c>
@@ -3414,7 +3428,7 @@
       </c>
       <c r="F36" s="7"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B37" s="7" t="s">
         <v>198</v>
       </c>
@@ -3424,7 +3438,7 @@
       </c>
       <c r="F37" s="7"/>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B38" s="7" t="s">
         <v>200</v>
       </c>
@@ -3434,7 +3448,7 @@
       </c>
       <c r="F38" s="7"/>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B39" s="7" t="s">
         <v>202</v>
       </c>
@@ -3444,7 +3458,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="40" spans="1:6" s="22" customFormat="1">
+    <row r="40" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B40" s="27" t="s">
         <v>204</v>
       </c>
@@ -3454,13 +3468,13 @@
       </c>
       <c r="F40" s="27"/>
     </row>
-    <row r="42" spans="1:6" s="26" customFormat="1">
+    <row r="42" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B42" s="12" t="s">
         <v>206</v>
       </c>
       <c r="C42" s="12"/>
     </row>
-    <row r="43" spans="1:6" s="26" customFormat="1">
+    <row r="43" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D43" s="26">
         <v>1</v>
       </c>
@@ -3468,7 +3482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:6" s="22" customFormat="1">
+    <row r="44" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D44" s="22">
         <v>0</v>
       </c>
@@ -3476,7 +3490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B45" s="7" t="s">
         <v>207</v>
       </c>
@@ -3486,13 +3500,13 @@
       </c>
       <c r="F45" s="7"/>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B46" s="7"/>
       <c r="C46" s="7" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
       <c r="D47" s="7" t="s">
@@ -3502,7 +3516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
       <c r="D48" s="7" t="s">
@@ -3512,13 +3526,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B49" s="7"/>
       <c r="C49" s="7" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
       <c r="D50" s="7" t="s">
@@ -3528,7 +3542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B51" s="7"/>
       <c r="C51" s="7"/>
       <c r="D51" s="7" t="s">
@@ -3538,7 +3552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B52" s="7"/>
       <c r="C52" s="7"/>
       <c r="D52" s="7" t="s">
@@ -3548,13 +3562,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B53" s="7"/>
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
       <c r="E53" s="7"/>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B54" s="7"/>
       <c r="C54" s="7" t="s">
         <v>216</v>
@@ -3562,7 +3576,7 @@
       <c r="D54" s="7"/>
       <c r="E54" s="7"/>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B55" s="7"/>
       <c r="C55" s="7"/>
       <c r="D55" s="7" t="s">
@@ -3572,7 +3586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B56" s="7"/>
       <c r="C56" s="7"/>
       <c r="D56" s="7" t="s">
@@ -3582,18 +3596,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B57" s="7"/>
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
       <c r="E57" s="7"/>
     </row>
-    <row r="58" spans="1:8" s="22" customFormat="1">
+    <row r="58" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B58" s="27"/>
       <c r="C58" s="27"/>
       <c r="D58" s="27"/>
     </row>
-    <row r="59" spans="1:8" s="26" customFormat="1">
+    <row r="59" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="29" t="s">
         <v>218</v>
       </c>
@@ -3603,7 +3617,7 @@
       <c r="E59" s="29"/>
       <c r="F59" s="29"/>
     </row>
-    <row r="60" spans="1:8" s="26" customFormat="1">
+    <row r="60" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="31" t="s">
         <v>190</v>
       </c>
@@ -3625,134 +3639,134 @@
       <c r="G60" s="5"/>
       <c r="H60" s="28"/>
     </row>
-    <row r="61" spans="1:8" s="26" customFormat="1">
+    <row r="61" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B61" s="12" t="s">
         <v>223</v>
       </c>
       <c r="C61" s="12"/>
       <c r="D61" s="12"/>
     </row>
-    <row r="62" spans="1:8" s="26" customFormat="1">
+    <row r="62" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B62" s="12"/>
       <c r="C62" s="12"/>
       <c r="D62" s="12"/>
     </row>
-    <row r="63" spans="1:8" s="26" customFormat="1">
+    <row r="63" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B63" s="12"/>
       <c r="C63" s="12"/>
       <c r="D63" s="12"/>
     </row>
-    <row r="64" spans="1:8" s="26" customFormat="1">
+    <row r="64" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B64" s="12"/>
       <c r="C64" s="12"/>
       <c r="D64" s="12"/>
     </row>
-    <row r="65" spans="1:12" s="26" customFormat="1">
+    <row r="65" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B65" s="12" t="s">
         <v>224</v>
       </c>
       <c r="C65" s="12"/>
       <c r="D65" s="12"/>
     </row>
-    <row r="66" spans="1:12" s="26" customFormat="1">
+    <row r="66" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B66" s="12"/>
       <c r="C66" s="12"/>
       <c r="D66" s="12"/>
     </row>
-    <row r="67" spans="1:12" s="26" customFormat="1">
+    <row r="67" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B67" s="12"/>
       <c r="C67" s="12"/>
       <c r="D67" s="12"/>
     </row>
-    <row r="68" spans="1:12" s="26" customFormat="1">
+    <row r="68" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B68" s="12"/>
       <c r="C68" s="12"/>
       <c r="D68" s="12"/>
     </row>
-    <row r="69" spans="1:12" s="26" customFormat="1">
+    <row r="69" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B69" s="11" t="s">
         <v>225</v>
       </c>
       <c r="C69" s="12"/>
       <c r="D69" s="12"/>
     </row>
-    <row r="70" spans="1:12" s="26" customFormat="1">
+    <row r="70" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B70" s="12"/>
       <c r="C70" s="12"/>
       <c r="D70" s="12"/>
     </row>
-    <row r="71" spans="1:12" s="26" customFormat="1">
+    <row r="71" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B71" s="12"/>
       <c r="C71" s="12"/>
       <c r="D71" s="12"/>
     </row>
-    <row r="72" spans="1:12" s="26" customFormat="1">
+    <row r="72" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B72" s="12"/>
       <c r="C72" s="12"/>
     </row>
-    <row r="73" spans="1:12" s="26" customFormat="1">
+    <row r="73" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B73" s="12"/>
       <c r="C73" s="12"/>
     </row>
-    <row r="74" spans="1:12" s="26" customFormat="1">
+    <row r="74" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B74" s="12"/>
       <c r="C74" s="12"/>
     </row>
-    <row r="76" spans="1:12">
-      <c r="A76" s="39" t="s">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A76" s="42" t="s">
         <v>226</v>
       </c>
-      <c r="B76" s="39"/>
-      <c r="C76" s="39"/>
-      <c r="D76" s="39"/>
-      <c r="E76" s="39"/>
-      <c r="F76" s="39"/>
-      <c r="G76" s="39"/>
-      <c r="H76" s="39"/>
-      <c r="I76" s="39"/>
-      <c r="J76" s="39"/>
-      <c r="K76" s="39"/>
-      <c r="L76" s="39"/>
-    </row>
-    <row r="77" spans="1:12">
-      <c r="A77" s="35" t="s">
+      <c r="B76" s="42"/>
+      <c r="C76" s="42"/>
+      <c r="D76" s="42"/>
+      <c r="E76" s="42"/>
+      <c r="F76" s="42"/>
+      <c r="G76" s="42"/>
+      <c r="H76" s="42"/>
+      <c r="I76" s="42"/>
+      <c r="J76" s="42"/>
+      <c r="K76" s="42"/>
+      <c r="L76" s="42"/>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A77" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="B77" s="35" t="s">
+      <c r="B77" s="40" t="s">
         <v>227</v>
       </c>
-      <c r="C77" s="37" t="s">
+      <c r="C77" s="47" t="s">
         <v>228</v>
       </c>
-      <c r="D77" s="35" t="s">
+      <c r="D77" s="40" t="s">
         <v>229</v>
       </c>
-      <c r="E77" s="35" t="s">
+      <c r="E77" s="40" t="s">
         <v>230</v>
       </c>
-      <c r="F77" s="35" t="s">
+      <c r="F77" s="40" t="s">
         <v>231</v>
       </c>
-      <c r="G77" s="41" t="s">
+      <c r="G77" s="44" t="s">
         <v>232</v>
       </c>
-      <c r="H77" s="42"/>
-      <c r="I77" s="42"/>
-      <c r="J77" s="43"/>
-      <c r="K77" s="35" t="s">
+      <c r="H77" s="45"/>
+      <c r="I77" s="45"/>
+      <c r="J77" s="46"/>
+      <c r="K77" s="40" t="s">
         <v>233</v>
       </c>
-      <c r="L77" s="35" t="s">
+      <c r="L77" s="40" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="78" spans="1:12">
-      <c r="A78" s="36"/>
-      <c r="B78" s="36"/>
-      <c r="C78" s="38"/>
-      <c r="D78" s="36"/>
-      <c r="E78" s="36"/>
-      <c r="F78" s="36"/>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A78" s="41"/>
+      <c r="B78" s="41"/>
+      <c r="C78" s="48"/>
+      <c r="D78" s="41"/>
+      <c r="E78" s="41"/>
+      <c r="F78" s="41"/>
       <c r="G78" s="13" t="s">
         <v>234</v>
       </c>
@@ -3765,10 +3779,10 @@
       <c r="J78" s="13" t="s">
         <v>237</v>
       </c>
-      <c r="K78" s="36"/>
-      <c r="L78" s="36"/>
-    </row>
-    <row r="79" spans="1:12">
+      <c r="K78" s="41"/>
+      <c r="L78" s="41"/>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B79" s="7"/>
       <c r="F79" s="7" t="s">
         <v>238</v>
@@ -3777,16 +3791,16 @@
         <v>239</v>
       </c>
     </row>
-    <row r="80" spans="1:12">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B80" s="7"/>
     </row>
-    <row r="81" spans="1:13">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B81" s="7"/>
     </row>
-    <row r="82" spans="1:13">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B82" s="7"/>
     </row>
-    <row r="83" spans="1:13">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="s">
         <v>56</v>
       </c>
@@ -3797,7 +3811,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="84" spans="1:13">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C84" s="17" t="s">
         <v>242</v>
       </c>
@@ -3816,7 +3830,7 @@
       </c>
       <c r="M84" s="7"/>
     </row>
-    <row r="85" spans="1:13">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G85" s="11" t="s">
         <v>246</v>
       </c>
@@ -3833,7 +3847,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="86" spans="1:13">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G86" s="7" t="s">
         <v>250</v>
       </c>
@@ -3848,7 +3862,7 @@
       </c>
       <c r="K86" s="7"/>
     </row>
-    <row r="87" spans="1:13">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G87" s="11" t="s">
         <v>252</v>
       </c>
@@ -3862,7 +3876,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="88" spans="1:13">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G88" s="11" t="s">
         <v>255</v>
       </c>
@@ -3876,7 +3890,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="89" spans="1:13">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G89" s="11" t="s">
         <v>256</v>
       </c>
@@ -3896,7 +3910,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="90" spans="1:13">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G90" s="11" t="s">
         <v>260</v>
       </c>
@@ -3911,7 +3925,7 @@
       </c>
       <c r="K90" s="11"/>
     </row>
-    <row r="91" spans="1:13">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G91" s="11" t="s">
         <v>262</v>
       </c>
@@ -3925,7 +3939,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="92" spans="1:13">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G92" s="11" t="s">
         <v>265</v>
       </c>
@@ -3939,7 +3953,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="93" spans="1:13">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G93" s="11" t="s">
         <v>266</v>
       </c>
@@ -3953,13 +3967,13 @@
         <v>268</v>
       </c>
     </row>
-    <row r="94" spans="1:13">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G94" s="11"/>
       <c r="H94" s="11"/>
       <c r="I94" s="11"/>
       <c r="J94" s="11"/>
     </row>
-    <row r="95" spans="1:13">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B95" s="7"/>
       <c r="C95" s="18" t="s">
         <v>269</v>
@@ -3977,7 +3991,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="96" spans="1:13">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G96" s="7" t="s">
         <v>272</v>
       </c>
@@ -3991,7 +4005,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="97" spans="3:12">
+    <row r="97" spans="3:12" x14ac:dyDescent="0.25">
       <c r="G97" s="7" t="s">
         <v>250</v>
       </c>
@@ -4002,7 +4016,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="98" spans="3:12">
+    <row r="98" spans="3:12" x14ac:dyDescent="0.25">
       <c r="G98" s="7" t="s">
         <v>274</v>
       </c>
@@ -4016,12 +4030,12 @@
         <v>275</v>
       </c>
     </row>
-    <row r="99" spans="3:12">
+    <row r="99" spans="3:12" x14ac:dyDescent="0.25">
       <c r="K99" s="19" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="100" spans="3:12">
+    <row r="100" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C100" s="18" t="s">
         <v>276</v>
       </c>
@@ -4035,7 +4049,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="101" spans="3:12">
+    <row r="101" spans="3:12" x14ac:dyDescent="0.25">
       <c r="G101" s="7" t="s">
         <v>278</v>
       </c>
@@ -4052,12 +4066,12 @@
         <v>175</v>
       </c>
     </row>
-    <row r="102" spans="3:12">
+    <row r="102" spans="3:12" x14ac:dyDescent="0.25">
       <c r="G102" s="7"/>
       <c r="H102" s="7"/>
       <c r="I102" s="7"/>
     </row>
-    <row r="103" spans="3:12">
+    <row r="103" spans="3:12" x14ac:dyDescent="0.25">
       <c r="G103" s="7"/>
       <c r="H103" s="7"/>
       <c r="I103" s="7"/>
@@ -4065,7 +4079,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="105" spans="3:12">
+    <row r="105" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C105" s="18" t="s">
         <v>280</v>
       </c>
@@ -4082,7 +4096,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="106" spans="3:12">
+    <row r="106" spans="3:12" x14ac:dyDescent="0.25">
       <c r="G106" s="7" t="s">
         <v>256</v>
       </c>
@@ -4099,7 +4113,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="107" spans="3:12">
+    <row r="107" spans="3:12" x14ac:dyDescent="0.25">
       <c r="G107" s="7" t="s">
         <v>250</v>
       </c>
@@ -4113,12 +4127,12 @@
         <v>285</v>
       </c>
     </row>
-    <row r="108" spans="3:12">
+    <row r="108" spans="3:12" x14ac:dyDescent="0.25">
       <c r="K108" s="19" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="110" spans="3:12">
+    <row r="110" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C110" s="18" t="s">
         <v>286</v>
       </c>
@@ -4135,7 +4149,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="111" spans="3:12">
+    <row r="111" spans="3:12" x14ac:dyDescent="0.25">
       <c r="G111" s="7" t="s">
         <v>252</v>
       </c>
@@ -4152,7 +4166,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="112" spans="3:12">
+    <row r="112" spans="3:12" x14ac:dyDescent="0.25">
       <c r="G112" s="7" t="s">
         <v>255</v>
       </c>
@@ -4166,7 +4180,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="113" spans="3:12">
+    <row r="113" spans="3:12" x14ac:dyDescent="0.25">
       <c r="G113" s="7" t="s">
         <v>260</v>
       </c>
@@ -4180,7 +4194,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="114" spans="3:12">
+    <row r="114" spans="3:12" x14ac:dyDescent="0.25">
       <c r="G114" s="7" t="s">
         <v>289</v>
       </c>
@@ -4197,7 +4211,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="115" spans="3:12">
+    <row r="115" spans="3:12" x14ac:dyDescent="0.25">
       <c r="G115" s="7" t="s">
         <v>290</v>
       </c>
@@ -4211,7 +4225,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="116" spans="3:12">
+    <row r="116" spans="3:12" x14ac:dyDescent="0.25">
       <c r="G116" s="7" t="s">
         <v>250</v>
       </c>
@@ -4225,7 +4239,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="118" spans="3:12">
+    <row r="118" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C118" s="18" t="s">
         <v>291</v>
       </c>
@@ -4242,7 +4256,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="119" spans="3:12">
+    <row r="119" spans="3:12" x14ac:dyDescent="0.25">
       <c r="G119" s="7" t="s">
         <v>294</v>
       </c>
@@ -4256,7 +4270,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="120" spans="3:12">
+    <row r="120" spans="3:12" x14ac:dyDescent="0.25">
       <c r="G120" s="7" t="s">
         <v>295</v>
       </c>
@@ -4270,7 +4284,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="121" spans="3:12">
+    <row r="121" spans="3:12" x14ac:dyDescent="0.25">
       <c r="G121" s="7" t="s">
         <v>278</v>
       </c>
@@ -4290,7 +4304,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="123" spans="3:12">
+    <row r="123" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C123" s="18" t="s">
         <v>298</v>
       </c>
@@ -4310,7 +4324,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="124" spans="3:12">
+    <row r="124" spans="3:12" x14ac:dyDescent="0.25">
       <c r="G124" s="7" t="s">
         <v>301</v>
       </c>
@@ -4321,12 +4335,12 @@
         <v>248</v>
       </c>
     </row>
-    <row r="125" spans="3:12">
+    <row r="125" spans="3:12" x14ac:dyDescent="0.25">
       <c r="K125" s="19" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="127" spans="3:12">
+    <row r="127" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C127" s="18" t="s">
         <v>302</v>
       </c>
@@ -4340,17 +4354,17 @@
         <v>304</v>
       </c>
     </row>
-    <row r="128" spans="3:12">
+    <row r="128" spans="3:12" x14ac:dyDescent="0.25">
       <c r="K128" s="20" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="130" spans="3:12">
+    <row r="130" spans="3:12" x14ac:dyDescent="0.25">
       <c r="K130" s="19" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="132" spans="3:12">
+    <row r="132" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C132" s="18" t="s">
         <v>305</v>
       </c>
@@ -4364,17 +4378,17 @@
         <v>306</v>
       </c>
     </row>
-    <row r="133" spans="3:12">
+    <row r="133" spans="3:12" x14ac:dyDescent="0.25">
       <c r="K133" s="20" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="135" spans="3:12">
+    <row r="135" spans="3:12" x14ac:dyDescent="0.25">
       <c r="K135" s="19" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="137" spans="3:12">
+    <row r="137" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C137" s="18" t="s">
         <v>307</v>
       </c>
@@ -4391,17 +4405,17 @@
         <v>309</v>
       </c>
     </row>
-    <row r="138" spans="3:12">
+    <row r="138" spans="3:12" x14ac:dyDescent="0.25">
       <c r="K138" s="20" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="140" spans="3:12">
+    <row r="140" spans="3:12" x14ac:dyDescent="0.25">
       <c r="K140" s="19" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="142" spans="3:12">
+    <row r="142" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C142" s="18" t="s">
         <v>310</v>
       </c>
@@ -4418,17 +4432,17 @@
         <v>310</v>
       </c>
     </row>
-    <row r="143" spans="3:12">
+    <row r="143" spans="3:12" x14ac:dyDescent="0.25">
       <c r="K143" s="20" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="145" spans="3:12">
+    <row r="145" spans="3:12" x14ac:dyDescent="0.25">
       <c r="K145" s="19" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="147" spans="3:12">
+    <row r="147" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C147" s="18" t="s">
         <v>311</v>
       </c>
@@ -4445,18 +4459,18 @@
         <v>313</v>
       </c>
     </row>
-    <row r="148" spans="3:12">
+    <row r="148" spans="3:12" x14ac:dyDescent="0.25">
       <c r="K148" s="20" t="s">
         <v>175</v>
       </c>
       <c r="L148" s="7"/>
     </row>
-    <row r="150" spans="3:12">
+    <row r="150" spans="3:12" x14ac:dyDescent="0.25">
       <c r="K150" s="19" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="151" spans="3:12">
+    <row r="151" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C151" s="18" t="s">
         <v>314</v>
       </c>
@@ -4473,17 +4487,17 @@
         <v>314</v>
       </c>
     </row>
-    <row r="152" spans="3:12">
+    <row r="152" spans="3:12" x14ac:dyDescent="0.25">
       <c r="K152" s="20" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="154" spans="3:12">
+    <row r="154" spans="3:12" x14ac:dyDescent="0.25">
       <c r="K154" s="19" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="155" spans="3:12">
+    <row r="155" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C155" s="18" t="s">
         <v>316</v>
       </c>
@@ -4500,17 +4514,17 @@
         <v>318</v>
       </c>
     </row>
-    <row r="156" spans="3:12">
+    <row r="156" spans="3:12" x14ac:dyDescent="0.25">
       <c r="K156" s="20" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="158" spans="3:12">
+    <row r="158" spans="3:12" x14ac:dyDescent="0.25">
       <c r="K158" s="19" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="159" spans="3:12">
+    <row r="159" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C159" s="18" t="s">
         <v>319</v>
       </c>
@@ -4527,17 +4541,17 @@
         <v>321</v>
       </c>
     </row>
-    <row r="160" spans="3:12">
+    <row r="160" spans="3:12" x14ac:dyDescent="0.25">
       <c r="K160" s="20" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="162" spans="1:12">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K162" s="19" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="164" spans="1:12">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A164" s="7" t="s">
         <v>94</v>
       </c>
@@ -4548,7 +4562,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="165" spans="1:12">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C165" s="18" t="s">
         <v>324</v>
       </c>
@@ -4565,7 +4579,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="166" spans="1:12">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G166" s="7" t="s">
         <v>327</v>
       </c>
@@ -4579,7 +4593,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="167" spans="1:12">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G167" s="7" t="s">
         <v>328</v>
       </c>
@@ -4590,7 +4604,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="168" spans="1:12">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G168" s="7" t="s">
         <v>262</v>
       </c>
@@ -4601,7 +4615,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="169" spans="1:12">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G169" s="7" t="s">
         <v>265</v>
       </c>
@@ -4615,7 +4629,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="170" spans="1:12">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G170" s="7" t="s">
         <v>266</v>
       </c>
@@ -4630,14 +4644,14 @@
       </c>
       <c r="K170" s="7"/>
     </row>
-    <row r="171" spans="1:12">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G171" s="7"/>
       <c r="H171" s="7"/>
       <c r="I171" s="7"/>
       <c r="J171" s="7"/>
       <c r="K171" s="7"/>
     </row>
-    <row r="172" spans="1:12">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C172" s="18" t="s">
         <v>330</v>
       </c>
@@ -4656,7 +4670,7 @@
       <c r="J172" s="7"/>
       <c r="K172" s="7"/>
     </row>
-    <row r="173" spans="1:12">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G173" s="7"/>
       <c r="H173" s="7"/>
       <c r="I173" s="7"/>
@@ -4665,26 +4679,26 @@
         <v>175</v>
       </c>
     </row>
-    <row r="174" spans="1:12">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G174" s="7"/>
       <c r="H174" s="7"/>
       <c r="I174" s="7"/>
       <c r="J174" s="7"/>
       <c r="K174" s="7"/>
     </row>
-    <row r="175" spans="1:12">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G175" s="7"/>
       <c r="H175" s="7"/>
       <c r="I175" s="7"/>
       <c r="J175" s="7"/>
       <c r="K175" s="7"/>
     </row>
-    <row r="176" spans="1:12">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K176" s="19" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="177" spans="3:12">
+    <row r="177" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C177" s="18" t="s">
         <v>331</v>
       </c>
@@ -4701,7 +4715,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="178" spans="3:12">
+    <row r="178" spans="3:12" x14ac:dyDescent="0.25">
       <c r="G178" s="7" t="s">
         <v>334</v>
       </c>
@@ -4715,7 +4729,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="179" spans="3:12">
+    <row r="179" spans="3:12" x14ac:dyDescent="0.25">
       <c r="G179" s="7" t="s">
         <v>335</v>
       </c>
@@ -4729,12 +4743,12 @@
         <v>268</v>
       </c>
     </row>
-    <row r="181" spans="3:12">
+    <row r="181" spans="3:12" x14ac:dyDescent="0.25">
       <c r="K181" s="19" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="182" spans="3:12">
+    <row r="182" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C182" s="18" t="s">
         <v>337</v>
       </c>
@@ -4751,7 +4765,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="183" spans="3:12">
+    <row r="183" spans="3:12" x14ac:dyDescent="0.25">
       <c r="G183" s="7" t="s">
         <v>334</v>
       </c>
@@ -4765,7 +4779,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="184" spans="3:12">
+    <row r="184" spans="3:12" x14ac:dyDescent="0.25">
       <c r="G184" s="7" t="s">
         <v>335</v>
       </c>
@@ -4776,12 +4790,12 @@
         <v>248</v>
       </c>
     </row>
-    <row r="185" spans="3:12">
+    <row r="185" spans="3:12" x14ac:dyDescent="0.25">
       <c r="K185" s="19" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="186" spans="3:12">
+    <row r="186" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C186" s="18" t="s">
         <v>307</v>
       </c>
@@ -4795,7 +4809,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="187" spans="3:12">
+    <row r="187" spans="3:12" x14ac:dyDescent="0.25">
       <c r="G187" s="7" t="s">
         <v>341</v>
       </c>
@@ -4812,12 +4826,12 @@
         <v>342</v>
       </c>
     </row>
-    <row r="190" spans="3:12">
+    <row r="190" spans="3:12" x14ac:dyDescent="0.25">
       <c r="K190" s="19" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="192" spans="3:12">
+    <row r="192" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C192" s="18" t="s">
         <v>343</v>
       </c>
@@ -4834,17 +4848,17 @@
         <v>343</v>
       </c>
     </row>
-    <row r="193" spans="1:12">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K193" s="20" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="195" spans="1:12">
+    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K195" s="19" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="197" spans="1:12">
+    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C197" s="18" t="s">
         <v>344</v>
       </c>
@@ -4858,7 +4872,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="198" spans="1:12">
+    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G198" s="7" t="s">
         <v>346</v>
       </c>
@@ -4878,7 +4892,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="199" spans="1:12">
+    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G199" s="7" t="s">
         <v>349</v>
       </c>
@@ -4895,12 +4909,12 @@
         <v>350</v>
       </c>
     </row>
-    <row r="200" spans="1:12">
+    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K200" s="19" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="202" spans="1:12">
+    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C202" s="18" t="s">
         <v>351</v>
       </c>
@@ -4917,17 +4931,17 @@
         <v>353</v>
       </c>
     </row>
-    <row r="203" spans="1:12">
+    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K203" s="20" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="205" spans="1:12">
+    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K205" s="19" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="207" spans="1:12">
+    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A207" s="7" t="s">
         <v>105</v>
       </c>
@@ -4935,7 +4949,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="208" spans="1:12">
+    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C208" s="18" t="s">
         <v>355</v>
       </c>
@@ -4952,7 +4966,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="209" spans="3:12">
+    <row r="209" spans="3:12" x14ac:dyDescent="0.25">
       <c r="G209" s="7"/>
       <c r="H209" s="7"/>
       <c r="I209" s="7"/>
@@ -4960,12 +4974,12 @@
         <v>175</v>
       </c>
     </row>
-    <row r="211" spans="3:12">
+    <row r="211" spans="3:12" x14ac:dyDescent="0.25">
       <c r="K211" s="19" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="213" spans="3:12">
+    <row r="213" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C213" s="18" t="s">
         <v>358</v>
       </c>
@@ -4982,17 +4996,17 @@
         <v>358</v>
       </c>
     </row>
-    <row r="214" spans="3:12">
+    <row r="214" spans="3:12" x14ac:dyDescent="0.25">
       <c r="K214" s="20" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="216" spans="3:12">
+    <row r="216" spans="3:12" x14ac:dyDescent="0.25">
       <c r="K216" s="19" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="218" spans="3:12">
+    <row r="218" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C218" s="18" t="s">
         <v>359</v>
       </c>
@@ -5009,17 +5023,17 @@
         <v>359</v>
       </c>
     </row>
-    <row r="219" spans="3:12">
+    <row r="219" spans="3:12" x14ac:dyDescent="0.25">
       <c r="K219" s="20" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="221" spans="3:12">
+    <row r="221" spans="3:12" x14ac:dyDescent="0.25">
       <c r="K221" s="19" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="223" spans="3:12">
+    <row r="223" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C223" s="18" t="s">
         <v>360</v>
       </c>
@@ -5036,17 +5050,17 @@
         <v>362</v>
       </c>
     </row>
-    <row r="224" spans="3:12">
+    <row r="224" spans="3:12" x14ac:dyDescent="0.25">
       <c r="K224" s="20" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="226" spans="1:12">
+    <row r="226" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K226" s="19" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="228" spans="1:12">
+    <row r="228" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C228" s="18" t="s">
         <v>363</v>
       </c>
@@ -5060,17 +5074,17 @@
         <v>364</v>
       </c>
     </row>
-    <row r="229" spans="1:12">
+    <row r="229" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K229" s="20" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="231" spans="1:12">
+    <row r="231" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K231" s="19" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="233" spans="1:12">
+    <row r="233" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A233" s="7" t="s">
         <v>117</v>
       </c>
@@ -5081,7 +5095,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="234" spans="1:12">
+    <row r="234" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C234" s="18" t="s">
         <v>367</v>
       </c>
@@ -5095,7 +5109,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="235" spans="1:12">
+    <row r="235" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G235" s="7" t="s">
         <v>369</v>
       </c>
@@ -5109,7 +5123,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="236" spans="1:12">
+    <row r="236" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G236" s="7" t="s">
         <v>370</v>
       </c>
@@ -5120,12 +5134,12 @@
         <v>248</v>
       </c>
     </row>
-    <row r="237" spans="1:12">
+    <row r="237" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K237" s="19" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="239" spans="1:12">
+    <row r="239" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C239" s="18" t="s">
         <v>371</v>
       </c>
@@ -5142,7 +5156,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="240" spans="1:12">
+    <row r="240" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G240" s="7" t="s">
         <v>369</v>
       </c>
@@ -5156,7 +5170,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="241" spans="3:11">
+    <row r="241" spans="3:11" x14ac:dyDescent="0.25">
       <c r="G241" s="7" t="s">
         <v>370</v>
       </c>
@@ -5167,12 +5181,12 @@
         <v>248</v>
       </c>
     </row>
-    <row r="242" spans="3:11">
+    <row r="242" spans="3:11" x14ac:dyDescent="0.25">
       <c r="K242" s="19" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="244" spans="3:11">
+    <row r="244" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C244" s="18" t="s">
         <v>373</v>
       </c>
@@ -5186,17 +5200,17 @@
         <v>372</v>
       </c>
     </row>
-    <row r="245" spans="3:11">
+    <row r="245" spans="3:11" x14ac:dyDescent="0.25">
       <c r="K245" s="20" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="247" spans="3:11">
+    <row r="247" spans="3:11" x14ac:dyDescent="0.25">
       <c r="K247" s="19" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="249" spans="3:11">
+    <row r="249" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C249" s="18" t="s">
         <v>374</v>
       </c>
@@ -5210,29 +5224,81 @@
         <v>372</v>
       </c>
     </row>
-    <row r="250" spans="3:11">
+    <row r="250" spans="3:11" x14ac:dyDescent="0.25">
       <c r="K250" s="20" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="252" spans="3:11">
+    <row r="252" spans="3:11" x14ac:dyDescent="0.25">
       <c r="K252" s="19" t="s">
         <v>258</v>
       </c>
     </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A262" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="B262" s="18" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C263" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="D263" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="E263" s="7" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C267" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="D267" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="E267" s="7" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C271" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="D271" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="E271" s="7" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="275" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C275" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="D275" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="E275" s="7" t="s">
+        <v>248</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="K77:K78"/>
-    <mergeCell ref="L77:L78"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="A76:L76"/>
-    <mergeCell ref="E77:E78"/>
     <mergeCell ref="A33:E33"/>
     <mergeCell ref="G77:J77"/>
     <mergeCell ref="B77:B78"/>
     <mergeCell ref="C77:C78"/>
     <mergeCell ref="D77:D78"/>
     <mergeCell ref="F77:F78"/>
+    <mergeCell ref="K77:K78"/>
+    <mergeCell ref="L77:L78"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="A76:L76"/>
+    <mergeCell ref="E77:E78"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="37" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -5240,48 +5306,48 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N209"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0" xr3:uid="{842E5F09-E766-5B8D-85AF-A39847EA96FD}">
+    <sheetView topLeftCell="A79" workbookViewId="0">
       <selection activeCell="F79" sqref="F79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="15" customWidth="1"/>
-    <col min="2" max="2" width="24.42578125" style="14" customWidth="1"/>
+    <col min="1" max="1" width="8.75" style="15" customWidth="1"/>
+    <col min="2" max="2" width="24.375" style="14" customWidth="1"/>
     <col min="3" max="3" width="22" style="14" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" style="14" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" style="14" customWidth="1"/>
-    <col min="6" max="6" width="19.5703125" style="14" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="14"/>
+    <col min="4" max="4" width="15.75" style="14" customWidth="1"/>
+    <col min="5" max="5" width="13.125" style="14" customWidth="1"/>
+    <col min="6" max="6" width="19.625" style="14" customWidth="1"/>
+    <col min="7" max="16384" width="9.125" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
-      <c r="A1" s="40" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="51" t="s">
         <v>375</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="44" t="s">
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="53" t="s">
         <v>376</v>
       </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
@@ -5294,8 +5360,8 @@
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
     </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="45">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="33">
         <v>1</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -5314,8 +5380,8 @@
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
     </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="45"/>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="33"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5" t="s">
         <v>378</v>
@@ -5332,8 +5398,8 @@
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
     </row>
-    <row r="7" spans="1:14">
-      <c r="A7" s="45"/>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="33"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5" t="s">
         <v>379</v>
@@ -5350,8 +5416,8 @@
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
     </row>
-    <row r="8" spans="1:14">
-      <c r="A8" s="45"/>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="33"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5" t="s">
         <v>380</v>
@@ -5368,8 +5434,8 @@
       <c r="M8" s="5"/>
       <c r="N8" s="5"/>
     </row>
-    <row r="9" spans="1:14">
-      <c r="A9" s="45"/>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="33"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5" t="s">
         <v>381</v>
@@ -5386,8 +5452,8 @@
       <c r="M9" s="5"/>
       <c r="N9" s="5"/>
     </row>
-    <row r="10" spans="1:14">
-      <c r="A10" s="45">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="33">
         <v>2</v>
       </c>
       <c r="B10" s="5" t="s">
@@ -5406,8 +5472,8 @@
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
     </row>
-    <row r="11" spans="1:14">
-      <c r="A11" s="45"/>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="33"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5" t="s">
         <v>383</v>
@@ -5424,10 +5490,10 @@
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
     </row>
-    <row r="12" spans="1:14">
-      <c r="A12" s="45"/>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="33"/>
       <c r="B12" s="5"/>
-      <c r="C12" s="46" t="s">
+      <c r="C12" s="34" t="s">
         <v>384</v>
       </c>
       <c r="D12" s="5"/>
@@ -5442,10 +5508,10 @@
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
     </row>
-    <row r="13" spans="1:14">
-      <c r="A13" s="45"/>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="33"/>
       <c r="B13" s="5"/>
-      <c r="C13" s="46" t="s">
+      <c r="C13" s="34" t="s">
         <v>385</v>
       </c>
       <c r="D13" s="5"/>
@@ -5460,8 +5526,8 @@
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
     </row>
-    <row r="15" spans="1:14">
-      <c r="A15" s="45">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="33">
         <v>3</v>
       </c>
       <c r="B15" s="5" t="s">
@@ -5480,8 +5546,8 @@
       <c r="M15" s="5"/>
       <c r="N15" s="5"/>
     </row>
-    <row r="16" spans="1:14">
-      <c r="A16" s="45"/>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="33"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5" t="s">
         <v>387</v>
@@ -5498,40 +5564,40 @@
       <c r="M16" s="5"/>
       <c r="N16" s="5"/>
     </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="45"/>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="33"/>
       <c r="B17" s="5"/>
-      <c r="C17" s="46" t="s">
+      <c r="C17" s="34" t="s">
         <v>388</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
     </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="45"/>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="33"/>
       <c r="B18" s="5"/>
-      <c r="C18" s="46"/>
+      <c r="C18" s="34"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
     </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="45">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="33">
         <v>4</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="C19" s="46" t="s">
+      <c r="C19" s="34" t="s">
         <v>390</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
     </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="45"/>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="33"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5" t="s">
         <v>391</v>
@@ -5540,18 +5606,18 @@
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
     </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="47" t="s">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="50" t="s">
         <v>392</v>
       </c>
-      <c r="B22" s="47"/>
-      <c r="C22" s="47"/>
+      <c r="B22" s="50"/>
+      <c r="C22" s="50"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
     </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="45"/>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="33"/>
       <c r="B23" s="5" t="s">
         <v>393</v>
       </c>
@@ -5562,8 +5628,8 @@
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
     </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="45"/>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="33"/>
       <c r="B24" s="5" t="s">
         <v>395</v>
       </c>
@@ -5574,61 +5640,61 @@
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
     </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="40" t="s">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="51" t="s">
         <v>397</v>
       </c>
-      <c r="B27" s="40"/>
-      <c r="C27" s="40"/>
-      <c r="D27" s="40"/>
-      <c r="E27" s="40"/>
-      <c r="F27" s="40"/>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="48" t="s">
+      <c r="B27" s="51"/>
+      <c r="C27" s="51"/>
+      <c r="D27" s="51"/>
+      <c r="E27" s="51"/>
+      <c r="F27" s="51"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="B29" s="48" t="s">
+      <c r="B29" s="54" t="s">
         <v>398</v>
       </c>
-      <c r="C29" s="49" t="s">
+      <c r="C29" s="52" t="s">
         <v>220</v>
       </c>
-      <c r="D29" s="49"/>
-      <c r="E29" s="49"/>
-      <c r="F29" s="49"/>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="48"/>
-      <c r="B30" s="48"/>
-      <c r="C30" s="50" t="s">
+      <c r="D29" s="52"/>
+      <c r="E29" s="52"/>
+      <c r="F29" s="52"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="54"/>
+      <c r="B30" s="54"/>
+      <c r="C30" s="35" t="s">
         <v>234</v>
       </c>
-      <c r="D30" s="50" t="s">
+      <c r="D30" s="35" t="s">
         <v>235</v>
       </c>
-      <c r="E30" s="50" t="s">
+      <c r="E30" s="35" t="s">
         <v>399</v>
       </c>
-      <c r="F30" s="50" t="s">
+      <c r="F30" s="35" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="51" t="s">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="49" t="s">
         <v>401</v>
       </c>
-      <c r="B31" s="51"/>
-      <c r="C31" s="51"/>
-      <c r="D31" s="51"/>
-      <c r="E31" s="51"/>
-      <c r="F31" s="51"/>
-    </row>
-    <row r="32" spans="1:6">
+      <c r="B31" s="49"/>
+      <c r="C31" s="49"/>
+      <c r="D31" s="49"/>
+      <c r="E31" s="49"/>
+      <c r="F31" s="49"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="16">
         <v>1</v>
       </c>
-      <c r="B32" s="52" t="s">
+      <c r="B32" s="36" t="s">
         <v>402</v>
       </c>
       <c r="C32" s="5"/>
@@ -5638,8 +5704,8 @@
         <v>403</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="45"/>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="33"/>
       <c r="B33" s="5"/>
       <c r="C33" s="17" t="s">
         <v>404</v>
@@ -5648,8 +5714,8 @@
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
     </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="45"/>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="33"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5" t="s">
         <v>405</v>
@@ -5664,8 +5730,8 @@
         <v>408</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="45"/>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="33"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5" t="s">
         <v>409</v>
@@ -5680,8 +5746,8 @@
         <v>410</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="45"/>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="33"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5" t="s">
         <v>411</v>
@@ -5696,8 +5762,8 @@
         <v>410</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="45"/>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="33"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5" t="s">
         <v>412</v>
@@ -5712,8 +5778,8 @@
         <v>410</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="45"/>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="33"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5" t="s">
         <v>413</v>
@@ -5726,8 +5792,8 @@
       </c>
       <c r="F38" s="5"/>
     </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="45"/>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="33"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5" t="s">
         <v>416</v>
@@ -5742,8 +5808,8 @@
         <v>417</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="45"/>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="33"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5" t="s">
         <v>418</v>
@@ -5758,8 +5824,8 @@
         <v>417</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="45"/>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="33"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5" t="s">
         <v>419</v>
@@ -5774,8 +5840,8 @@
         <v>420</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="45"/>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="33"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5" t="s">
         <v>421</v>
@@ -5790,8 +5856,8 @@
         <v>420</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
-      <c r="A43" s="45"/>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="33"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5" t="s">
         <v>422</v>
@@ -5800,8 +5866,8 @@
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
     </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="45"/>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="33"/>
       <c r="B44" s="5"/>
       <c r="C44" s="17" t="s">
         <v>423</v>
@@ -5816,8 +5882,8 @@
         <v>425</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
-      <c r="A45" s="45"/>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="33"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5" t="s">
         <v>426</v>
@@ -5832,8 +5898,8 @@
         <v>428</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
-      <c r="A46" s="45"/>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="33"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5" t="s">
         <v>429</v>
@@ -5848,11 +5914,11 @@
         <v>430</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
-      <c r="A48" s="45">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="33">
         <v>2</v>
       </c>
-      <c r="B48" s="53" t="s">
+      <c r="B48" s="37" t="s">
         <v>431</v>
       </c>
       <c r="C48" s="5"/>
@@ -5862,8 +5928,8 @@
         <v>432</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
-      <c r="A49" s="45"/>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="33"/>
       <c r="B49" s="5"/>
       <c r="C49" s="17" t="s">
         <v>404</v>
@@ -5872,8 +5938,8 @@
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
     </row>
-    <row r="50" spans="1:6">
-      <c r="A50" s="45"/>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="33"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5" t="s">
         <v>405</v>
@@ -5888,8 +5954,8 @@
         <v>408</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
-      <c r="A51" s="45"/>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="33"/>
       <c r="B51" s="5"/>
       <c r="C51" s="5" t="s">
         <v>234</v>
@@ -5904,8 +5970,8 @@
         <v>410</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
-      <c r="A52" s="45"/>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="33"/>
       <c r="B52" s="5"/>
       <c r="C52" s="5" t="s">
         <v>433</v>
@@ -5920,8 +5986,8 @@
         <v>410</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
-      <c r="A53" s="45"/>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="33"/>
       <c r="B53" s="5"/>
       <c r="C53" s="5" t="s">
         <v>416</v>
@@ -5936,8 +6002,8 @@
         <v>417</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
-      <c r="A54" s="45"/>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="33"/>
       <c r="B54" s="5"/>
       <c r="C54" s="5" t="s">
         <v>418</v>
@@ -5952,8 +6018,8 @@
         <v>417</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
-      <c r="A55" s="45"/>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="33"/>
       <c r="B55" s="5"/>
       <c r="C55" s="5" t="s">
         <v>422</v>
@@ -5962,8 +6028,8 @@
       <c r="E55" s="5"/>
       <c r="F55" s="5"/>
     </row>
-    <row r="56" spans="1:6">
-      <c r="A56" s="45"/>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="33"/>
       <c r="B56" s="5"/>
       <c r="C56" s="17" t="s">
         <v>423</v>
@@ -5978,8 +6044,8 @@
         <v>434</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
-      <c r="A57" s="45"/>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="33"/>
       <c r="B57" s="5"/>
       <c r="C57" s="5" t="s">
         <v>435</v>
@@ -5994,8 +6060,8 @@
         <v>436</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
-      <c r="A58" s="45"/>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="33"/>
       <c r="B58" s="5"/>
       <c r="C58" s="5" t="s">
         <v>437</v>
@@ -6010,11 +6076,11 @@
         <v>438</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
-      <c r="A60" s="45">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="33">
         <v>3</v>
       </c>
-      <c r="B60" s="53" t="s">
+      <c r="B60" s="37" t="s">
         <v>243</v>
       </c>
       <c r="C60" s="5"/>
@@ -6022,8 +6088,8 @@
       <c r="E60" s="5"/>
       <c r="F60" s="5"/>
     </row>
-    <row r="61" spans="1:6">
-      <c r="A61" s="45"/>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="33"/>
       <c r="B61" s="5"/>
       <c r="C61" s="17" t="s">
         <v>404</v>
@@ -6032,8 +6098,8 @@
       <c r="E61" s="5"/>
       <c r="F61" s="5"/>
     </row>
-    <row r="62" spans="1:6">
-      <c r="A62" s="45"/>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="33"/>
       <c r="B62" s="5"/>
       <c r="C62" s="5" t="s">
         <v>405</v>
@@ -6048,8 +6114,8 @@
         <v>408</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
-      <c r="A63" s="45"/>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="33"/>
       <c r="B63" s="5"/>
       <c r="C63" s="5" t="s">
         <v>439</v>
@@ -6064,8 +6130,8 @@
         <v>410</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
-      <c r="A64" s="45"/>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="33"/>
       <c r="B64" s="5"/>
       <c r="C64" s="5" t="s">
         <v>440</v>
@@ -6080,8 +6146,8 @@
         <v>410</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
-      <c r="A65" s="45"/>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="33"/>
       <c r="B65" s="5"/>
       <c r="C65" s="5" t="s">
         <v>442</v>
@@ -6094,8 +6160,8 @@
       </c>
       <c r="F65" s="5"/>
     </row>
-    <row r="66" spans="1:6">
-      <c r="A66" s="45"/>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="33"/>
       <c r="B66" s="5"/>
       <c r="C66" s="5" t="s">
         <v>443</v>
@@ -6110,8 +6176,8 @@
         <v>417</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
-      <c r="A67" s="45"/>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="33"/>
       <c r="B67" s="5"/>
       <c r="C67" s="5" t="s">
         <v>444</v>
@@ -6124,8 +6190,8 @@
       </c>
       <c r="F67" s="5"/>
     </row>
-    <row r="68" spans="1:6">
-      <c r="A68" s="45"/>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="33"/>
       <c r="B68" s="5"/>
       <c r="C68" s="5" t="s">
         <v>445</v>
@@ -6140,8 +6206,8 @@
         <v>447</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
-      <c r="A69" s="45"/>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="33"/>
       <c r="B69" s="5"/>
       <c r="C69" s="17" t="s">
         <v>423</v>
@@ -6154,8 +6220,8 @@
       </c>
       <c r="F69" s="5"/>
     </row>
-    <row r="70" spans="1:6">
-      <c r="A70" s="45"/>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="33"/>
       <c r="B70" s="5"/>
       <c r="C70" s="5" t="s">
         <v>448</v>
@@ -6170,11 +6236,11 @@
         <v>449</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
-      <c r="A72" s="45">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="33">
         <v>4</v>
       </c>
-      <c r="B72" s="53" t="s">
+      <c r="B72" s="37" t="s">
         <v>450</v>
       </c>
       <c r="C72" s="5"/>
@@ -6182,8 +6248,8 @@
       <c r="E72" s="5"/>
       <c r="F72" s="5"/>
     </row>
-    <row r="73" spans="1:6">
-      <c r="A73" s="45"/>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="33"/>
       <c r="B73" s="5"/>
       <c r="C73" s="17" t="s">
         <v>404</v>
@@ -6192,8 +6258,8 @@
       <c r="E73" s="5"/>
       <c r="F73" s="5"/>
     </row>
-    <row r="74" spans="1:6">
-      <c r="A74" s="45"/>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="33"/>
       <c r="B74" s="5"/>
       <c r="C74" s="5" t="s">
         <v>405</v>
@@ -6208,8 +6274,8 @@
         <v>408</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
-      <c r="A75" s="45"/>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="33"/>
       <c r="B75" s="5"/>
       <c r="C75" s="5" t="s">
         <v>440</v>
@@ -6224,8 +6290,8 @@
         <v>410</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
-      <c r="A76" s="45"/>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="33"/>
       <c r="B76" s="5"/>
       <c r="C76" s="5" t="s">
         <v>443</v>
@@ -6240,8 +6306,8 @@
         <v>417</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
-      <c r="A77" s="45"/>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="33"/>
       <c r="B77" s="5"/>
       <c r="C77" s="5" t="s">
         <v>444</v>
@@ -6254,8 +6320,8 @@
       </c>
       <c r="F77" s="5"/>
     </row>
-    <row r="78" spans="1:6">
-      <c r="A78" s="45"/>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="33"/>
       <c r="B78" s="5"/>
       <c r="C78" s="5" t="s">
         <v>445</v>
@@ -6270,8 +6336,8 @@
         <v>451</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
-      <c r="A79" s="45"/>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="33"/>
       <c r="B79" s="5"/>
       <c r="C79" s="17" t="s">
         <v>423</v>
@@ -6284,8 +6350,8 @@
       </c>
       <c r="F79" s="5"/>
     </row>
-    <row r="80" spans="1:6">
-      <c r="A80" s="45"/>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="33"/>
       <c r="B80" s="5"/>
       <c r="C80" s="5" t="s">
         <v>452</v>
@@ -6300,22 +6366,22 @@
         <v>449</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
-      <c r="A83" s="45">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="33">
         <v>5</v>
       </c>
-      <c r="B83" s="53" t="s">
+      <c r="B83" s="37" t="s">
         <v>453</v>
       </c>
       <c r="C83" s="5"/>
       <c r="D83" s="5"/>
       <c r="E83" s="5"/>
-      <c r="F83" s="54" t="s">
+      <c r="F83" s="38" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
-      <c r="A84" s="45"/>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="33"/>
       <c r="B84" s="5"/>
       <c r="C84" s="17" t="s">
         <v>404</v>
@@ -6324,8 +6390,8 @@
       <c r="E84" s="5"/>
       <c r="F84" s="5"/>
     </row>
-    <row r="85" spans="1:6">
-      <c r="A85" s="45"/>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="33"/>
       <c r="B85" s="5"/>
       <c r="C85" s="5" t="s">
         <v>405</v>
@@ -6340,8 +6406,8 @@
         <v>408</v>
       </c>
     </row>
-    <row r="86" spans="1:6">
-      <c r="A86" s="45"/>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="33"/>
       <c r="B86" s="5"/>
       <c r="C86" s="5" t="s">
         <v>234</v>
@@ -6356,8 +6422,8 @@
         <v>410</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
-      <c r="A87" s="45"/>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="33"/>
       <c r="B87" s="5"/>
       <c r="C87" s="5" t="s">
         <v>433</v>
@@ -6372,8 +6438,8 @@
         <v>410</v>
       </c>
     </row>
-    <row r="90" spans="1:6">
-      <c r="A90" s="45"/>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="33"/>
       <c r="B90" s="5"/>
       <c r="C90" s="17" t="s">
         <v>455</v>
@@ -6384,8 +6450,8 @@
         <v>456</v>
       </c>
     </row>
-    <row r="91" spans="1:6">
-      <c r="A91" s="45"/>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="33"/>
       <c r="B91" s="5"/>
       <c r="C91" s="5" t="s">
         <v>457</v>
@@ -6400,8 +6466,8 @@
         <v>458</v>
       </c>
     </row>
-    <row r="92" spans="1:6">
-      <c r="A92" s="45"/>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="33"/>
       <c r="B92" s="5"/>
       <c r="C92" s="5" t="s">
         <v>459</v>
@@ -6416,8 +6482,8 @@
         <v>460</v>
       </c>
     </row>
-    <row r="93" spans="1:6">
-      <c r="A93" s="45"/>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" s="33"/>
       <c r="B93" s="5"/>
       <c r="C93" s="5" t="s">
         <v>461</v>
@@ -6432,8 +6498,8 @@
         <v>462</v>
       </c>
     </row>
-    <row r="94" spans="1:6">
-      <c r="A94" s="45"/>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="33"/>
       <c r="B94" s="5"/>
       <c r="C94" s="5" t="s">
         <v>463</v>
@@ -6446,8 +6512,8 @@
       </c>
       <c r="F94" s="5"/>
     </row>
-    <row r="96" spans="1:6">
-      <c r="A96" s="45"/>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="33"/>
       <c r="B96" s="5"/>
       <c r="C96" s="17" t="s">
         <v>423</v>
@@ -6456,8 +6522,8 @@
       <c r="E96" s="5"/>
       <c r="F96" s="5"/>
     </row>
-    <row r="97" spans="1:6">
-      <c r="A97" s="45"/>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" s="33"/>
       <c r="B97" s="5"/>
       <c r="C97" s="5" t="s">
         <v>464</v>
@@ -6472,22 +6538,22 @@
         <v>465</v>
       </c>
     </row>
-    <row r="101" spans="1:6">
-      <c r="A101" s="45">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" s="33">
         <v>6</v>
       </c>
-      <c r="B101" s="53" t="s">
+      <c r="B101" s="37" t="s">
         <v>466</v>
       </c>
       <c r="C101" s="5"/>
       <c r="D101" s="5"/>
       <c r="E101" s="5"/>
-      <c r="F101" s="54" t="s">
+      <c r="F101" s="38" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="102" spans="1:6">
-      <c r="A102" s="45"/>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" s="33"/>
       <c r="B102" s="5"/>
       <c r="C102" s="17" t="s">
         <v>404</v>
@@ -6496,8 +6562,8 @@
       <c r="E102" s="5"/>
       <c r="F102" s="5"/>
     </row>
-    <row r="103" spans="1:6">
-      <c r="A103" s="45"/>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" s="33"/>
       <c r="B103" s="5"/>
       <c r="C103" s="5" t="s">
         <v>405</v>
@@ -6506,8 +6572,8 @@
       <c r="E103" s="5"/>
       <c r="F103" s="5"/>
     </row>
-    <row r="104" spans="1:6">
-      <c r="A104" s="45"/>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" s="33"/>
       <c r="B104" s="5"/>
       <c r="C104" s="5" t="s">
         <v>468</v>
@@ -6516,8 +6582,8 @@
       <c r="E104" s="5"/>
       <c r="F104" s="5"/>
     </row>
-    <row r="106" spans="1:6">
-      <c r="A106" s="45"/>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" s="33"/>
       <c r="B106" s="5"/>
       <c r="C106" s="17" t="s">
         <v>455</v>
@@ -6526,8 +6592,8 @@
       <c r="E106" s="5"/>
       <c r="F106" s="5"/>
     </row>
-    <row r="111" spans="1:6">
-      <c r="A111" s="45"/>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" s="33"/>
       <c r="B111" s="5"/>
       <c r="C111" s="17" t="s">
         <v>423</v>
@@ -6536,8 +6602,8 @@
       <c r="E111" s="5"/>
       <c r="F111" s="5"/>
     </row>
-    <row r="112" spans="1:6">
-      <c r="A112" s="45"/>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" s="33"/>
       <c r="B112" s="5"/>
       <c r="C112" s="5" t="s">
         <v>469</v>
@@ -6552,11 +6618,11 @@
         <v>470</v>
       </c>
     </row>
-    <row r="114" spans="1:6">
-      <c r="A114" s="45">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" s="33">
         <v>7</v>
       </c>
-      <c r="B114" s="53" t="s">
+      <c r="B114" s="37" t="s">
         <v>471</v>
       </c>
       <c r="C114" s="5"/>
@@ -6566,8 +6632,8 @@
         <v>472</v>
       </c>
     </row>
-    <row r="115" spans="1:6">
-      <c r="A115" s="45"/>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" s="33"/>
       <c r="B115" s="5"/>
       <c r="C115" s="17" t="s">
         <v>404</v>
@@ -6576,8 +6642,8 @@
       <c r="E115" s="5"/>
       <c r="F115" s="5"/>
     </row>
-    <row r="116" spans="1:6">
-      <c r="A116" s="45"/>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" s="33"/>
       <c r="B116" s="5"/>
       <c r="C116" s="5" t="s">
         <v>405</v>
@@ -6586,8 +6652,8 @@
       <c r="E116" s="5"/>
       <c r="F116" s="5"/>
     </row>
-    <row r="117" spans="1:6">
-      <c r="A117" s="45"/>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" s="33"/>
       <c r="B117" s="5"/>
       <c r="C117" s="5" t="s">
         <v>468</v>
@@ -6596,8 +6662,8 @@
       <c r="E117" s="5"/>
       <c r="F117" s="5"/>
     </row>
-    <row r="118" spans="1:6">
-      <c r="A118" s="45"/>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" s="33"/>
       <c r="B118" s="5"/>
       <c r="C118" s="5" t="s">
         <v>440</v>
@@ -6606,8 +6672,8 @@
       <c r="E118" s="5"/>
       <c r="F118" s="5"/>
     </row>
-    <row r="120" spans="1:6">
-      <c r="A120" s="45"/>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" s="33"/>
       <c r="B120" s="5"/>
       <c r="C120" s="17" t="s">
         <v>423</v>
@@ -6616,8 +6682,8 @@
       <c r="E120" s="5"/>
       <c r="F120" s="5"/>
     </row>
-    <row r="121" spans="1:6">
-      <c r="A121" s="45"/>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" s="33"/>
       <c r="B121" s="5"/>
       <c r="C121" s="5" t="s">
         <v>473</v>
@@ -6632,11 +6698,11 @@
         <v>474</v>
       </c>
     </row>
-    <row r="125" spans="1:6">
-      <c r="A125" s="45">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" s="33">
         <v>8</v>
       </c>
-      <c r="B125" s="53" t="s">
+      <c r="B125" s="37" t="s">
         <v>475</v>
       </c>
       <c r="C125" s="5"/>
@@ -6646,8 +6712,8 @@
         <v>476</v>
       </c>
     </row>
-    <row r="126" spans="1:6">
-      <c r="A126" s="45"/>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" s="33"/>
       <c r="B126" s="5"/>
       <c r="C126" s="17" t="s">
         <v>404</v>
@@ -6656,8 +6722,8 @@
       <c r="E126" s="5"/>
       <c r="F126" s="5"/>
     </row>
-    <row r="127" spans="1:6">
-      <c r="A127" s="45"/>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127" s="33"/>
       <c r="B127" s="5"/>
       <c r="C127" s="5" t="s">
         <v>405</v>
@@ -6672,8 +6738,8 @@
         <v>477</v>
       </c>
     </row>
-    <row r="128" spans="1:6">
-      <c r="A128" s="45"/>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128" s="33"/>
       <c r="B128" s="5"/>
       <c r="C128" s="5" t="s">
         <v>234</v>
@@ -6688,8 +6754,8 @@
         <v>478</v>
       </c>
     </row>
-    <row r="129" spans="1:6">
-      <c r="A129" s="45"/>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129" s="33"/>
       <c r="B129" s="5"/>
       <c r="C129" s="5" t="s">
         <v>479</v>
@@ -6704,8 +6770,8 @@
         <v>480</v>
       </c>
     </row>
-    <row r="130" spans="1:6">
-      <c r="A130" s="45"/>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130" s="33"/>
       <c r="B130" s="5"/>
       <c r="C130" s="5" t="s">
         <v>481</v>
@@ -6716,8 +6782,8 @@
       <c r="E130" s="5"/>
       <c r="F130" s="5"/>
     </row>
-    <row r="131" spans="1:6">
-      <c r="A131" s="45"/>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131" s="33"/>
       <c r="B131" s="5"/>
       <c r="C131" s="5" t="s">
         <v>235</v>
@@ -6730,8 +6796,8 @@
         <v>482</v>
       </c>
     </row>
-    <row r="132" spans="1:6">
-      <c r="A132" s="45"/>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132" s="33"/>
       <c r="B132" s="5"/>
       <c r="C132" s="5" t="s">
         <v>483</v>
@@ -6742,8 +6808,8 @@
       <c r="E132" s="5"/>
       <c r="F132" s="5"/>
     </row>
-    <row r="133" spans="1:6">
-      <c r="A133" s="45"/>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133" s="33"/>
       <c r="B133" s="5"/>
       <c r="C133" s="5" t="s">
         <v>442</v>
@@ -6754,8 +6820,8 @@
       <c r="E133" s="5"/>
       <c r="F133" s="5"/>
     </row>
-    <row r="134" spans="1:6">
-      <c r="A134" s="45"/>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134" s="33"/>
       <c r="B134" s="5"/>
       <c r="C134" s="5" t="s">
         <v>484</v>
@@ -6770,8 +6836,8 @@
         <v>485</v>
       </c>
     </row>
-    <row r="136" spans="1:6">
-      <c r="A136" s="45"/>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136" s="33"/>
       <c r="B136" s="5"/>
       <c r="C136" s="5" t="s">
         <v>422</v>
@@ -6780,8 +6846,8 @@
       <c r="E136" s="5"/>
       <c r="F136" s="5"/>
     </row>
-    <row r="137" spans="1:6">
-      <c r="A137" s="45"/>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137" s="33"/>
       <c r="B137" s="5"/>
       <c r="C137" s="17" t="s">
         <v>423</v>
@@ -6790,8 +6856,8 @@
       <c r="E137" s="5"/>
       <c r="F137" s="5"/>
     </row>
-    <row r="138" spans="1:6">
-      <c r="A138" s="45"/>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138" s="33"/>
       <c r="B138" s="5"/>
       <c r="C138" s="5" t="s">
         <v>486</v>
@@ -6804,11 +6870,11 @@
         <v>487</v>
       </c>
     </row>
-    <row r="140" spans="1:6">
-      <c r="A140" s="45">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140" s="33">
         <v>9</v>
       </c>
-      <c r="B140" s="53" t="s">
+      <c r="B140" s="37" t="s">
         <v>488</v>
       </c>
       <c r="C140" s="5"/>
@@ -6816,8 +6882,8 @@
       <c r="E140" s="5"/>
       <c r="F140" s="5"/>
     </row>
-    <row r="141" spans="1:6">
-      <c r="A141" s="45"/>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141" s="33"/>
       <c r="B141" s="5"/>
       <c r="C141" s="17" t="s">
         <v>404</v>
@@ -6826,8 +6892,8 @@
       <c r="E141" s="5"/>
       <c r="F141" s="5"/>
     </row>
-    <row r="142" spans="1:6">
-      <c r="A142" s="45"/>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142" s="33"/>
       <c r="B142" s="5"/>
       <c r="C142" s="5" t="s">
         <v>405</v>
@@ -6836,8 +6902,8 @@
       <c r="E142" s="5"/>
       <c r="F142" s="5"/>
     </row>
-    <row r="143" spans="1:6">
-      <c r="A143" s="45"/>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143" s="33"/>
       <c r="B143" s="5"/>
       <c r="C143" s="5" t="s">
         <v>234</v>
@@ -6846,8 +6912,8 @@
       <c r="E143" s="5"/>
       <c r="F143" s="5"/>
     </row>
-    <row r="144" spans="1:6">
-      <c r="A144" s="45"/>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144" s="33"/>
       <c r="B144" s="5"/>
       <c r="C144" s="5" t="s">
         <v>483</v>
@@ -6856,8 +6922,8 @@
       <c r="E144" s="5"/>
       <c r="F144" s="5"/>
     </row>
-    <row r="145" spans="1:6">
-      <c r="A145" s="45"/>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145" s="33"/>
       <c r="B145" s="5"/>
       <c r="C145" s="5" t="s">
         <v>442</v>
@@ -6866,8 +6932,8 @@
       <c r="E145" s="5"/>
       <c r="F145" s="5"/>
     </row>
-    <row r="146" spans="1:6">
-      <c r="A146" s="45"/>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A146" s="33"/>
       <c r="B146" s="5"/>
       <c r="C146" s="5" t="s">
         <v>422</v>
@@ -6876,8 +6942,8 @@
       <c r="E146" s="5"/>
       <c r="F146" s="5"/>
     </row>
-    <row r="147" spans="1:6">
-      <c r="A147" s="45"/>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A147" s="33"/>
       <c r="B147" s="5"/>
       <c r="C147" s="17" t="s">
         <v>423</v>
@@ -6886,8 +6952,8 @@
       <c r="E147" s="5"/>
       <c r="F147" s="5"/>
     </row>
-    <row r="148" spans="1:6">
-      <c r="A148" s="45"/>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A148" s="33"/>
       <c r="B148" s="5"/>
       <c r="C148" s="5" t="s">
         <v>489</v>
@@ -6900,22 +6966,22 @@
         <v>436</v>
       </c>
     </row>
-    <row r="152" spans="1:6">
-      <c r="A152" s="45">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A152" s="33">
         <v>10</v>
       </c>
-      <c r="B152" s="53" t="s">
+      <c r="B152" s="37" t="s">
         <v>490</v>
       </c>
       <c r="C152" s="5"/>
       <c r="D152" s="5"/>
       <c r="E152" s="5"/>
-      <c r="F152" s="54" t="s">
+      <c r="F152" s="38" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="153" spans="1:6">
-      <c r="A153" s="45"/>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A153" s="33"/>
       <c r="B153" s="5"/>
       <c r="C153" s="17" t="s">
         <v>404</v>
@@ -6924,8 +6990,8 @@
       <c r="E153" s="5"/>
       <c r="F153" s="5"/>
     </row>
-    <row r="154" spans="1:6">
-      <c r="A154" s="45"/>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A154" s="33"/>
       <c r="B154" s="5"/>
       <c r="C154" s="5" t="s">
         <v>491</v>
@@ -6934,8 +7000,8 @@
       <c r="E154" s="5"/>
       <c r="F154" s="5"/>
     </row>
-    <row r="155" spans="1:6">
-      <c r="A155" s="45"/>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A155" s="33"/>
       <c r="B155" s="5"/>
       <c r="C155" s="5" t="s">
         <v>492</v>
@@ -6944,8 +7010,8 @@
       <c r="E155" s="5"/>
       <c r="F155" s="5"/>
     </row>
-    <row r="156" spans="1:6">
-      <c r="A156" s="45"/>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A156" s="33"/>
       <c r="B156" s="5"/>
       <c r="C156" s="5" t="s">
         <v>493</v>
@@ -6956,8 +7022,8 @@
       <c r="E156" s="5"/>
       <c r="F156" s="5"/>
     </row>
-    <row r="160" spans="1:6">
-      <c r="A160" s="45"/>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A160" s="33"/>
       <c r="B160" s="5"/>
       <c r="C160" s="17" t="s">
         <v>423</v>
@@ -6966,8 +7032,8 @@
       <c r="E160" s="5"/>
       <c r="F160" s="5"/>
     </row>
-    <row r="161" spans="1:6">
-      <c r="A161" s="45"/>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A161" s="33"/>
       <c r="B161" s="5"/>
       <c r="C161" s="5" t="s">
         <v>494</v>
@@ -6980,22 +7046,22 @@
         <v>495</v>
       </c>
     </row>
-    <row r="163" spans="1:6">
-      <c r="A163" s="45">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A163" s="33">
         <v>11</v>
       </c>
-      <c r="B163" s="53" t="s">
+      <c r="B163" s="37" t="s">
         <v>496</v>
       </c>
       <c r="C163" s="5"/>
       <c r="D163" s="5"/>
       <c r="E163" s="5"/>
-      <c r="F163" s="54" t="s">
+      <c r="F163" s="38" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="164" spans="1:6">
-      <c r="A164" s="45"/>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A164" s="33"/>
       <c r="B164" s="5"/>
       <c r="C164" s="17" t="s">
         <v>404</v>
@@ -7004,8 +7070,8 @@
       <c r="E164" s="5"/>
       <c r="F164" s="5"/>
     </row>
-    <row r="165" spans="1:6">
-      <c r="A165" s="45"/>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A165" s="33"/>
       <c r="B165" s="5"/>
       <c r="C165" s="5" t="s">
         <v>405</v>
@@ -7020,8 +7086,8 @@
         <v>498</v>
       </c>
     </row>
-    <row r="166" spans="1:6">
-      <c r="A166" s="45"/>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A166" s="33"/>
       <c r="B166" s="5"/>
       <c r="C166" s="5" t="s">
         <v>457</v>
@@ -7036,8 +7102,8 @@
         <v>499</v>
       </c>
     </row>
-    <row r="167" spans="1:6">
-      <c r="A167" s="45"/>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A167" s="33"/>
       <c r="B167" s="5"/>
       <c r="C167" s="5" t="s">
         <v>459</v>
@@ -7052,8 +7118,8 @@
         <v>500</v>
       </c>
     </row>
-    <row r="168" spans="1:6">
-      <c r="A168" s="45"/>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A168" s="33"/>
       <c r="B168" s="5"/>
       <c r="C168" s="5" t="s">
         <v>433</v>
@@ -7068,8 +7134,8 @@
         <v>501</v>
       </c>
     </row>
-    <row r="170" spans="1:6">
-      <c r="A170" s="45"/>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A170" s="33"/>
       <c r="B170" s="5"/>
       <c r="C170" s="17" t="s">
         <v>423</v>
@@ -7078,8 +7144,8 @@
       <c r="E170" s="5"/>
       <c r="F170" s="5"/>
     </row>
-    <row r="171" spans="1:6">
-      <c r="A171" s="45"/>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A171" s="33"/>
       <c r="B171" s="5"/>
       <c r="C171" s="5" t="s">
         <v>502</v>
@@ -7094,8 +7160,8 @@
         <v>503</v>
       </c>
     </row>
-    <row r="172" spans="1:6">
-      <c r="A172" s="45"/>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A172" s="33"/>
       <c r="B172" s="5"/>
       <c r="C172" s="5" t="s">
         <v>504</v>
@@ -7110,32 +7176,32 @@
         <v>505</v>
       </c>
     </row>
-    <row r="180" spans="1:6">
-      <c r="A180" s="47" t="s">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A180" s="50" t="s">
         <v>506</v>
       </c>
-      <c r="B180" s="47"/>
-      <c r="C180" s="47"/>
-      <c r="D180" s="47"/>
-      <c r="E180" s="47"/>
-      <c r="F180" s="47"/>
-    </row>
-    <row r="182" spans="1:6">
-      <c r="A182" s="45">
+      <c r="B180" s="50"/>
+      <c r="C180" s="50"/>
+      <c r="D180" s="50"/>
+      <c r="E180" s="50"/>
+      <c r="F180" s="50"/>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A182" s="33">
         <v>11</v>
       </c>
-      <c r="B182" s="53" t="s">
+      <c r="B182" s="37" t="s">
         <v>507</v>
       </c>
       <c r="C182" s="5"/>
       <c r="D182" s="5"/>
       <c r="E182" s="5"/>
-      <c r="F182" s="54" t="s">
+      <c r="F182" s="38" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="183" spans="1:6">
-      <c r="A183" s="45"/>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A183" s="33"/>
       <c r="B183" s="5"/>
       <c r="C183" s="17" t="s">
         <v>404</v>
@@ -7144,8 +7210,8 @@
       <c r="E183" s="5"/>
       <c r="F183" s="5"/>
     </row>
-    <row r="184" spans="1:6">
-      <c r="A184" s="45"/>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A184" s="33"/>
       <c r="B184" s="5"/>
       <c r="C184" s="5" t="s">
         <v>405</v>
@@ -7154,8 +7220,8 @@
       <c r="E184" s="5"/>
       <c r="F184" s="5"/>
     </row>
-    <row r="186" spans="1:6">
-      <c r="A186" s="45"/>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A186" s="33"/>
       <c r="B186" s="5"/>
       <c r="C186" s="5" t="s">
         <v>509</v>
@@ -7164,8 +7230,8 @@
       <c r="E186" s="5"/>
       <c r="F186" s="5"/>
     </row>
-    <row r="188" spans="1:6">
-      <c r="A188" s="45"/>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A188" s="33"/>
       <c r="B188" s="5"/>
       <c r="C188" s="17" t="s">
         <v>423</v>
@@ -7174,8 +7240,8 @@
       <c r="E188" s="5"/>
       <c r="F188" s="5"/>
     </row>
-    <row r="189" spans="1:6">
-      <c r="A189" s="45"/>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A189" s="33"/>
       <c r="B189" s="5"/>
       <c r="C189" s="5" t="s">
         <v>510</v>
@@ -7188,22 +7254,22 @@
         <v>511</v>
       </c>
     </row>
-    <row r="193" spans="1:6">
-      <c r="A193" s="45">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A193" s="33">
         <v>12</v>
       </c>
-      <c r="B193" s="53" t="s">
+      <c r="B193" s="37" t="s">
         <v>512</v>
       </c>
       <c r="C193" s="5"/>
       <c r="D193" s="5"/>
       <c r="E193" s="5"/>
-      <c r="F193" s="54" t="s">
+      <c r="F193" s="38" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="194" spans="1:6">
-      <c r="A194" s="45"/>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A194" s="33"/>
       <c r="B194" s="5"/>
       <c r="C194" s="17" t="s">
         <v>404</v>
@@ -7212,8 +7278,8 @@
       <c r="E194" s="5"/>
       <c r="F194" s="5"/>
     </row>
-    <row r="195" spans="1:6">
-      <c r="A195" s="45"/>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A195" s="33"/>
       <c r="B195" s="5"/>
       <c r="C195" s="5" t="s">
         <v>405</v>
@@ -7226,8 +7292,8 @@
       </c>
       <c r="F195" s="5"/>
     </row>
-    <row r="197" spans="1:6">
-      <c r="A197" s="45"/>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A197" s="33"/>
       <c r="B197" s="5"/>
       <c r="C197" s="5" t="s">
         <v>513</v>
@@ -7240,8 +7306,8 @@
       </c>
       <c r="F197" s="5"/>
     </row>
-    <row r="198" spans="1:6">
-      <c r="A198" s="45"/>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A198" s="33"/>
       <c r="B198" s="5"/>
       <c r="C198" s="5" t="s">
         <v>422</v>
@@ -7250,8 +7316,8 @@
       <c r="E198" s="5"/>
       <c r="F198" s="5"/>
     </row>
-    <row r="199" spans="1:6">
-      <c r="A199" s="45"/>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A199" s="33"/>
       <c r="B199" s="5"/>
       <c r="C199" s="17" t="s">
         <v>423</v>
@@ -7260,8 +7326,8 @@
       <c r="E199" s="5"/>
       <c r="F199" s="5"/>
     </row>
-    <row r="200" spans="1:6">
-      <c r="A200" s="45"/>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A200" s="33"/>
       <c r="B200" s="5"/>
       <c r="C200" s="5" t="s">
         <v>510</v>
@@ -7274,11 +7340,11 @@
         <v>514</v>
       </c>
     </row>
-    <row r="202" spans="1:6">
-      <c r="A202" s="45">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A202" s="33">
         <v>13</v>
       </c>
-      <c r="B202" s="53" t="s">
+      <c r="B202" s="37" t="s">
         <v>515</v>
       </c>
       <c r="C202" s="5"/>
@@ -7286,20 +7352,20 @@
       <c r="E202" s="5"/>
       <c r="F202" s="5"/>
     </row>
-    <row r="203" spans="1:6">
-      <c r="A203" s="45"/>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A203" s="33"/>
       <c r="B203" s="5"/>
       <c r="C203" s="17" t="s">
         <v>404</v>
       </c>
       <c r="D203" s="5"/>
       <c r="E203" s="5"/>
-      <c r="F203" s="54" t="s">
+      <c r="F203" s="38" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="204" spans="1:6">
-      <c r="A204" s="45"/>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A204" s="33"/>
       <c r="B204" s="5"/>
       <c r="C204" s="5" t="s">
         <v>405</v>
@@ -7308,8 +7374,8 @@
       <c r="E204" s="5"/>
       <c r="F204" s="5"/>
     </row>
-    <row r="208" spans="1:6">
-      <c r="A208" s="45"/>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A208" s="33"/>
       <c r="B208" s="5"/>
       <c r="C208" s="17" t="s">
         <v>423</v>
@@ -7318,7 +7384,7 @@
       <c r="E208" s="5"/>
       <c r="F208" s="5"/>
     </row>
-    <row r="209" spans="3:5">
+    <row r="209" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C209" s="5" t="s">
         <v>516</v>
       </c>
@@ -7347,49 +7413,49 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O14"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{51F8DEE0-4D01-5F28-A812-FC0BD7CAC4A5}">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" style="10" customWidth="1"/>
-    <col min="2" max="2" width="34.42578125" customWidth="1"/>
-    <col min="3" max="3" width="32.140625" customWidth="1"/>
-    <col min="4" max="4" width="28.28515625" customWidth="1"/>
-    <col min="5" max="5" width="23.5703125" customWidth="1"/>
+    <col min="1" max="1" width="13.75" style="10" customWidth="1"/>
+    <col min="2" max="2" width="34.375" customWidth="1"/>
+    <col min="3" max="3" width="32.125" customWidth="1"/>
+    <col min="4" max="4" width="28.25" customWidth="1"/>
+    <col min="5" max="5" width="23.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
-      <c r="A1" s="40" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="51" t="s">
         <v>517</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="40" t="s">
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="51"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="51" t="s">
         <v>518</v>
       </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>519</v>
       </c>
@@ -7397,17 +7463,17 @@
         <v>520</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="32" t="s">
         <v>3</v>
       </c>
@@ -7427,7 +7493,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
         <v>1</v>
       </c>
@@ -7442,39 +7508,39 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{F9CF3CF3-643B-5BE6-8B46-32C596A47465}">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="26.42578125" customWidth="1"/>
-    <col min="4" max="4" width="28.85546875" customWidth="1"/>
+    <col min="3" max="3" width="26.375" customWidth="1"/>
+    <col min="4" max="4" width="28.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="40" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="51" t="s">
         <v>526</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
         <v>527</v>
       </c>

--- a/service/document/ServiceDescription.xlsx
+++ b/service/document/ServiceDescription.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\DATN\education_social_network\service\document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\WORKSPACE\DATN\education_social_network\service\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11745" tabRatio="702" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11745" tabRatio="702" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="FUNCTION_DESCRIPTION" sheetId="3" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1018" uniqueCount="535">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1041" uniqueCount="546">
   <si>
     <t>SOCIAL NETWORK SUPPORT FOR EDUCATION: FUNCTION DESCRIPTION</t>
   </si>
@@ -1478,15 +1478,6 @@
     <t>UNIQUE</t>
   </si>
   <si>
-    <t>MAXLENGTH, DEFAULT VALUE((display name)</t>
-  </si>
-  <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>MAXLENGTH, DEFAULT VALUE</t>
-  </si>
-  <si>
     <t>Size</t>
   </si>
   <si>
@@ -1647,13 +1638,55 @@
   </si>
   <si>
     <t>Lấy thông tin file</t>
+  </si>
+  <si>
+    <t>UserID</t>
+  </si>
+  <si>
+    <t>IsDeleted</t>
+  </si>
+  <si>
+    <t>BOOLEAN</t>
+  </si>
+  <si>
+    <t>File đã được đánh dấu xóa</t>
+  </si>
+  <si>
+    <t>DisplayName</t>
+  </si>
+  <si>
+    <t>DefaultValue</t>
+  </si>
+  <si>
+    <t>size file</t>
+  </si>
+  <si>
+    <t>Qua form với name cho trước, giới hạn dung lượng (hiện tại 8M, định dạng mọi kiểu)</t>
+  </si>
+  <si>
+    <t>Upload ảnh</t>
+  </si>
+  <si>
+    <t>/images/upload</t>
+  </si>
+  <si>
+    <t>Qua form với name cho trước, giới hạn dung lượng 4M, hỗ trợ các kiểu: jpg/jpeg, png, gif</t>
+  </si>
+  <si>
+    <t>/files/{:file_id}</t>
+  </si>
+  <si>
+    <t>/files/info/{:file_id}</t>
+  </si>
+  <si>
+    <t>/files/upload</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1712,8 +1745,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1753,6 +1800,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1926,16 +1979,12 @@
   </cellStyleXfs>
   <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1946,11 +1995,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1959,26 +2003,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1996,33 +2021,6 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2042,6 +2040,63 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2330,36 +2385,36 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="40.625" customWidth="1"/>
-    <col min="3" max="3" width="55.625" customWidth="1"/>
-    <col min="4" max="4" width="26.625" customWidth="1"/>
+    <col min="1" max="1" width="24.140625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="40.5703125" customWidth="1"/>
+    <col min="3" max="3" width="55.5703125" customWidth="1"/>
+    <col min="4" max="4" width="26.5703125" customWidth="1"/>
     <col min="5" max="5" width="35" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
@@ -2367,24 +2422,24 @@
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
+      <c r="A5" s="7"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="13" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
+      <c r="A7" s="6">
         <v>1</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C7" t="s">
@@ -2392,10 +2447,10 @@
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
+      <c r="A8" s="6">
         <v>2</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C8" t="s">
@@ -2403,10 +2458,10 @@
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
+      <c r="A9" s="6">
         <v>3</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="7" t="s">
         <v>10</v>
       </c>
       <c r="C9" t="s">
@@ -2414,10 +2469,10 @@
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
+      <c r="A10" s="6">
         <v>4</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="C10" t="s">
@@ -2425,10 +2480,10 @@
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
+      <c r="A11" s="6">
         <v>5</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C11" t="s">
@@ -2436,10 +2491,10 @@
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
+      <c r="A12" s="6">
         <v>6</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="7" t="s">
         <v>16</v>
       </c>
       <c r="C12" t="s">
@@ -2447,10 +2502,10 @@
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="8">
+      <c r="A13" s="6">
         <v>7</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="7" t="s">
         <v>18</v>
       </c>
       <c r="C13" t="s">
@@ -2458,10 +2513,10 @@
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="8">
+      <c r="A14" s="6">
         <v>8</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="7" t="s">
         <v>20</v>
       </c>
       <c r="C14" t="s">
@@ -2469,10 +2524,10 @@
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="8">
+      <c r="A15" s="6">
         <v>9</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="7" t="s">
         <v>22</v>
       </c>
       <c r="C15" t="s">
@@ -2480,10 +2535,10 @@
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="8">
+      <c r="A16" s="6">
         <v>10</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="7" t="s">
         <v>24</v>
       </c>
       <c r="C16" t="s">
@@ -2491,10 +2546,10 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="8">
+      <c r="A17" s="6">
         <v>11</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="7" t="s">
         <v>26</v>
       </c>
       <c r="C17" t="s">
@@ -2502,30 +2557,30 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="9"/>
+      <c r="B18" s="7"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="9"/>
+      <c r="B19" s="7"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="30" t="s">
+      <c r="A21" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="30" t="s">
+      <c r="B21" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="30" t="s">
+      <c r="C21" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D21" s="30" t="s">
+      <c r="D21" s="13" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C23" t="s">
@@ -2533,10 +2588,10 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C24" t="s">
@@ -2544,94 +2599,94 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B25" s="3"/>
+      <c r="B25" s="2"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="2" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="2" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B28" s="3"/>
+      <c r="B28" s="2"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="2" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="2" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B31" s="3"/>
+      <c r="B31" s="2"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="8" t="s">
+      <c r="A32" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="2" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="8" t="s">
+      <c r="A33" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="2" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="8" t="s">
+      <c r="A34" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="2" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B35" s="3"/>
+      <c r="B35" s="2"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="39" t="s">
+      <c r="A36" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="B36" s="39"/>
-      <c r="C36" s="39"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="21"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="9" t="s">
+      <c r="A37" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B37" s="3"/>
+      <c r="B37" s="2"/>
       <c r="C37" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B38" s="3"/>
+      <c r="B38" s="2"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="9" t="s">
+      <c r="A39" s="7" t="s">
         <v>53</v>
       </c>
       <c r="C39" t="s">
@@ -2639,24 +2694,24 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
+      <c r="A41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B41" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C41" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="D41" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="8" t="s">
+      <c r="A43" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="2" t="s">
         <v>57</v>
       </c>
       <c r="D43" t="s">
@@ -2664,10 +2719,10 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="8" t="s">
+      <c r="A44" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="2" t="s">
         <v>60</v>
       </c>
       <c r="D44" t="s">
@@ -2675,7 +2730,7 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B45" s="3"/>
+      <c r="B45" s="2"/>
       <c r="C45" t="s">
         <v>62</v>
       </c>
@@ -2684,7 +2739,7 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B46" s="3"/>
+      <c r="B46" s="2"/>
       <c r="C46" t="s">
         <v>64</v>
       </c>
@@ -2693,13 +2748,13 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B47" s="3"/>
+      <c r="B47" s="2"/>
       <c r="C47" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B48" s="3"/>
+      <c r="B48" s="2"/>
       <c r="C48" t="s">
         <v>67</v>
       </c>
@@ -2708,10 +2763,10 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="8" t="s">
+      <c r="A49" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B49" s="2" t="s">
         <v>70</v>
       </c>
       <c r="D49" t="s">
@@ -2719,7 +2774,7 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B50" s="3"/>
+      <c r="B50" s="2"/>
       <c r="C50" t="s">
         <v>72</v>
       </c>
@@ -2728,7 +2783,7 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B51" s="3"/>
+      <c r="B51" s="2"/>
       <c r="C51" t="s">
         <v>74</v>
       </c>
@@ -2737,7 +2792,7 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B52" s="3"/>
+      <c r="B52" s="2"/>
       <c r="C52" t="s">
         <v>76</v>
       </c>
@@ -2746,7 +2801,7 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B53" s="3"/>
+      <c r="B53" s="2"/>
       <c r="C53" t="s">
         <v>78</v>
       </c>
@@ -2755,13 +2810,13 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B54" s="3"/>
+      <c r="B54" s="2"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="8" t="s">
+      <c r="A55" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B55" s="2" t="s">
         <v>81</v>
       </c>
       <c r="D55" t="s">
@@ -2769,7 +2824,7 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B56" s="3"/>
+      <c r="B56" s="2"/>
       <c r="C56" t="s">
         <v>83</v>
       </c>
@@ -2778,33 +2833,33 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B57" s="3"/>
+      <c r="B57" s="2"/>
       <c r="C57" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B58" s="3"/>
+      <c r="B58" s="2"/>
       <c r="C58" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B59" s="3"/>
+      <c r="B59" s="2"/>
       <c r="C59" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="8" t="s">
+      <c r="A60" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="B60" s="2" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B61" s="3"/>
+      <c r="B61" s="2"/>
       <c r="C61" t="s">
         <v>90</v>
       </c>
@@ -2813,7 +2868,7 @@
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B62" s="3"/>
+      <c r="B62" s="2"/>
       <c r="C62" t="s">
         <v>92</v>
       </c>
@@ -2822,13 +2877,13 @@
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B63" s="3"/>
+      <c r="B63" s="2"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="8" t="s">
+      <c r="A64" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="B64" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D64" t="s">
@@ -2836,13 +2891,13 @@
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B65" s="3"/>
+      <c r="B65" s="2"/>
       <c r="C65" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B66" s="3"/>
+      <c r="B66" s="2"/>
       <c r="C66" t="s">
         <v>98</v>
       </c>
@@ -2851,25 +2906,25 @@
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B67" s="3"/>
+      <c r="B67" s="2"/>
       <c r="C67" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B68" s="3"/>
+      <c r="B68" s="2"/>
       <c r="C68" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B69" s="3"/>
+      <c r="B69" s="2"/>
       <c r="C69" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B70" s="3"/>
+      <c r="B70" s="2"/>
       <c r="C70" t="s">
         <v>103</v>
       </c>
@@ -2878,13 +2933,13 @@
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B71" s="3"/>
+      <c r="B71" s="2"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="8" t="s">
+      <c r="A72" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="B72" s="3" t="s">
+      <c r="B72" s="2" t="s">
         <v>106</v>
       </c>
       <c r="D72" t="s">
@@ -2892,7 +2947,7 @@
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B73" s="3"/>
+      <c r="B73" s="2"/>
       <c r="C73" t="s">
         <v>108</v>
       </c>
@@ -2901,19 +2956,19 @@
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B74" s="3"/>
+      <c r="B74" s="2"/>
       <c r="C74" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B75" s="3"/>
+      <c r="B75" s="2"/>
       <c r="C75" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B76" s="3"/>
+      <c r="B76" s="2"/>
       <c r="C76" t="s">
         <v>112</v>
       </c>
@@ -2922,31 +2977,31 @@
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B77" s="3"/>
+      <c r="B77" s="2"/>
       <c r="C77" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B78" s="3"/>
+      <c r="B78" s="2"/>
       <c r="C78" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B79" s="3"/>
+      <c r="B79" s="2"/>
       <c r="C79" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B80" s="3"/>
+      <c r="B80" s="2"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="8" t="s">
+      <c r="A81" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="B81" s="3" t="s">
+      <c r="B81" s="2" t="s">
         <v>118</v>
       </c>
       <c r="D81" t="s">
@@ -2954,31 +3009,31 @@
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B82" s="3"/>
+      <c r="B82" s="2"/>
       <c r="C82" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B83" s="3"/>
+      <c r="B83" s="2"/>
       <c r="C83" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B84" s="3"/>
+      <c r="B84" s="2"/>
       <c r="C84" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B85" s="3"/>
+      <c r="B85" s="2"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="8" t="s">
+      <c r="A86" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B86" s="3" t="s">
+      <c r="B86" s="2" t="s">
         <v>124</v>
       </c>
       <c r="D86" t="s">
@@ -2986,7 +3041,7 @@
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B87" s="3"/>
+      <c r="B87" s="2"/>
       <c r="C87" t="s">
         <v>126</v>
       </c>
@@ -2995,7 +3050,7 @@
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B88" s="3"/>
+      <c r="B88" s="2"/>
       <c r="C88" t="s">
         <v>128</v>
       </c>
@@ -3004,19 +3059,19 @@
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B89" s="3"/>
+      <c r="B89" s="2"/>
       <c r="C89" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B90" s="3"/>
+      <c r="B90" s="2"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="8" t="s">
+      <c r="A91" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="B91" s="3" t="s">
+      <c r="B91" s="2" t="s">
         <v>132</v>
       </c>
       <c r="D91" t="s">
@@ -3024,31 +3079,31 @@
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B92" s="3"/>
+      <c r="B92" s="2"/>
       <c r="C92" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B93" s="3"/>
+      <c r="B93" s="2"/>
       <c r="C93" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B94" s="3"/>
+      <c r="B94" s="2"/>
       <c r="C94" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B95" s="3"/>
+      <c r="B95" s="2"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="8" t="s">
+      <c r="A96" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="B96" s="3" t="s">
+      <c r="B96" s="2" t="s">
         <v>138</v>
       </c>
       <c r="D96" t="s">
@@ -3056,16 +3111,16 @@
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B97" s="3"/>
+      <c r="B97" s="2"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B98" s="3"/>
+      <c r="B98" s="2"/>
       <c r="C98" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B99" s="3"/>
+      <c r="B99" s="2"/>
       <c r="C99" t="s">
         <v>141</v>
       </c>
@@ -3074,16 +3129,16 @@
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B100" s="3"/>
+      <c r="B100" s="2"/>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B101" s="3"/>
+      <c r="B101" s="2"/>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" s="8" t="s">
+      <c r="A102" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="B102" s="3" t="s">
+      <c r="B102" s="2" t="s">
         <v>144</v>
       </c>
       <c r="D102" t="s">
@@ -3091,28 +3146,28 @@
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B103" s="3"/>
+      <c r="B103" s="2"/>
       <c r="C103" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B104" s="3"/>
+      <c r="B104" s="2"/>
       <c r="C104" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B105" s="3"/>
+      <c r="B105" s="2"/>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B106" s="3"/>
+      <c r="B106" s="2"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" s="8" t="s">
+      <c r="A107" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="B107" s="3" t="s">
+      <c r="B107" s="2" t="s">
         <v>149</v>
       </c>
       <c r="D107" t="s">
@@ -3120,7 +3175,7 @@
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B108" s="3"/>
+      <c r="B108" s="2"/>
       <c r="C108" t="s">
         <v>151</v>
       </c>
@@ -3129,19 +3184,19 @@
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B109" s="3"/>
+      <c r="B109" s="2"/>
       <c r="C109" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B110" s="3"/>
+      <c r="B110" s="2"/>
       <c r="C110" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B111" s="3"/>
+      <c r="B111" s="2"/>
       <c r="C111" t="s">
         <v>155</v>
       </c>
@@ -3150,13 +3205,13 @@
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B112" s="3"/>
+      <c r="B112" s="2"/>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" s="8" t="s">
+      <c r="A113" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="B113" s="3" t="s">
+      <c r="B113" s="2" t="s">
         <v>158</v>
       </c>
       <c r="D113" t="s">
@@ -3164,27 +3219,27 @@
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B114" s="3"/>
+      <c r="B114" s="2"/>
       <c r="C114" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B115" s="3"/>
+      <c r="B115" s="2"/>
       <c r="C115" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" s="8" t="s">
+      <c r="A116" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="B116" s="3" t="s">
+      <c r="B116" s="2" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B117" s="3"/>
+      <c r="B117" s="2"/>
       <c r="C117" t="s">
         <v>163</v>
       </c>
@@ -3224,494 +3279,367 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:M275"/>
+  <dimension ref="A2:L284"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A223" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E270" sqref="E270"/>
+    <sheetView topLeftCell="A249" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K265" sqref="K265"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="27.75" style="5" customWidth="1"/>
-    <col min="3" max="3" width="26.625" style="5" customWidth="1"/>
-    <col min="4" max="5" width="17.375" style="5" customWidth="1"/>
-    <col min="6" max="6" width="16.875" style="5" customWidth="1"/>
-    <col min="7" max="9" width="14.75" style="5" customWidth="1"/>
-    <col min="10" max="10" width="14.375" style="5" customWidth="1"/>
-    <col min="11" max="11" width="24.375" style="5" customWidth="1"/>
-    <col min="12" max="12" width="24.25" style="5" customWidth="1"/>
-    <col min="13" max="13" width="23.375" style="5" customWidth="1"/>
-    <col min="14" max="16384" width="9.125" style="5"/>
+    <col min="1" max="1" width="6.85546875" style="32" customWidth="1"/>
+    <col min="2" max="2" width="27.7109375" style="32" customWidth="1"/>
+    <col min="3" max="3" width="26.5703125" style="32" customWidth="1"/>
+    <col min="4" max="5" width="17.42578125" style="32" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" style="32" customWidth="1"/>
+    <col min="7" max="9" width="14.7109375" style="32" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="32" customWidth="1"/>
+    <col min="11" max="11" width="24.42578125" style="32" customWidth="1"/>
+    <col min="12" max="12" width="24.28515625" style="32" customWidth="1"/>
+    <col min="13" max="13" width="23.42578125" style="32" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="32"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="25" t="s">
+    <row r="2" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="29" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="23"/>
-      <c r="B3" s="23" t="s">
+      <c r="A3" s="30"/>
+      <c r="B3" s="30" t="s">
         <v>171</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="31" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="32" t="s">
         <v>172</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="32" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="7" spans="1:4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="32" t="s">
         <v>174</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="32" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="1">
+      <c r="B11" s="33">
         <v>200</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="32" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-    </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="32" t="s">
         <v>178</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="32" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="1">
+      <c r="B15" s="33">
         <v>300</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="32" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-    </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="32" t="s">
         <v>181</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="32" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-    </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="1">
+      <c r="B20" s="33">
         <v>401</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="32" t="s">
         <v>183</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="32" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-    </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="32" t="s">
         <v>185</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="32" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B23" s="1">
+      <c r="B23" s="33">
         <v>500</v>
       </c>
-      <c r="C23"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B26" s="1"/>
-      <c r="C26"/>
-    </row>
-    <row r="29" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+      <c r="B26" s="33"/>
+    </row>
+    <row r="29" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="32" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="32" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B32" s="7"/>
-    </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="43" t="s">
+      <c r="A33" s="34" t="s">
         <v>189</v>
       </c>
-      <c r="B33" s="43"/>
-      <c r="C33" s="43"/>
-      <c r="D33" s="43"/>
-      <c r="E33" s="43"/>
+      <c r="B33" s="34"/>
+      <c r="C33" s="34"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="34"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="21" t="s">
+      <c r="A34" s="35" t="s">
         <v>190</v>
       </c>
-      <c r="B34" s="32" t="s">
+      <c r="B34" s="36" t="s">
         <v>191</v>
       </c>
-      <c r="C34" s="32" t="s">
+      <c r="C34" s="36" t="s">
         <v>192</v>
       </c>
-      <c r="D34" s="32" t="s">
+      <c r="D34" s="36" t="s">
         <v>193</v>
       </c>
-      <c r="E34" s="32" t="s">
+      <c r="E34" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="F34" s="26"/>
+      <c r="F34" s="37"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="32" t="s">
         <v>194</v>
       </c>
-      <c r="C35" s="7"/>
-      <c r="E35" s="7" t="s">
+      <c r="E35" s="32" t="s">
         <v>195</v>
       </c>
-      <c r="F35" s="7"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="32" t="s">
         <v>196</v>
       </c>
-      <c r="C36" s="7"/>
-      <c r="E36" s="7" t="s">
+      <c r="E36" s="32" t="s">
         <v>197</v>
       </c>
-      <c r="F36" s="7"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="32" t="s">
         <v>198</v>
       </c>
-      <c r="C37" s="7"/>
-      <c r="E37" s="7" t="s">
+      <c r="E37" s="32" t="s">
         <v>199</v>
       </c>
-      <c r="F37" s="7"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="32" t="s">
         <v>200</v>
       </c>
-      <c r="C38" s="7"/>
-      <c r="E38" s="7" t="s">
+      <c r="E38" s="32" t="s">
         <v>201</v>
       </c>
-      <c r="F38" s="7"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="32" t="s">
         <v>202</v>
       </c>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7" t="s">
+      <c r="E39" s="32" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="40" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="27" t="s">
+    <row r="40" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="28" t="s">
         <v>204</v>
       </c>
-      <c r="C40" s="27"/>
-      <c r="E40" s="27" t="s">
+      <c r="E40" s="28" t="s">
         <v>205</v>
       </c>
-      <c r="F40" s="27"/>
-    </row>
-    <row r="42" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="12" t="s">
+    </row>
+    <row r="42" spans="1:6" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="37" t="s">
         <v>206</v>
       </c>
-      <c r="C42" s="12"/>
-    </row>
-    <row r="43" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D43" s="26">
+    </row>
+    <row r="43" spans="1:6" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D43" s="37">
         <v>1</v>
       </c>
-      <c r="E43" s="26" t="b">
+      <c r="E43" s="37" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D44" s="22">
+    <row r="44" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D44" s="28">
         <v>0</v>
       </c>
-      <c r="E44" s="22" t="b">
+      <c r="E44" s="28" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B45" s="7" t="s">
+      <c r="B45" s="32" t="s">
         <v>207</v>
       </c>
-      <c r="C45" s="7"/>
-      <c r="E45" s="7" t="s">
+      <c r="E45" s="32" t="s">
         <v>208</v>
       </c>
-      <c r="F45" s="7"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B46" s="7"/>
-      <c r="C46" s="7" t="s">
+      <c r="C46" s="32" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B47" s="7"/>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7" t="s">
+      <c r="D47" s="32" t="s">
         <v>210</v>
       </c>
-      <c r="E47" s="5">
+      <c r="E47" s="32">
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B48" s="7"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7" t="s">
+      <c r="D48" s="32" t="s">
         <v>211</v>
       </c>
-      <c r="E48" s="5">
+      <c r="E48" s="32">
         <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B49" s="7"/>
-      <c r="C49" s="7" t="s">
+      <c r="C49" s="32" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B50" s="7"/>
-      <c r="C50" s="7"/>
-      <c r="D50" s="7" t="s">
+      <c r="D50" s="32" t="s">
         <v>213</v>
       </c>
-      <c r="E50" s="5">
+      <c r="E50" s="32">
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B51" s="7"/>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7" t="s">
+      <c r="D51" s="32" t="s">
         <v>214</v>
       </c>
-      <c r="E51" s="7">
+      <c r="E51" s="32">
         <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B52" s="7"/>
-      <c r="C52" s="7"/>
-      <c r="D52" s="7" t="s">
+      <c r="D52" s="32" t="s">
         <v>215</v>
       </c>
-      <c r="E52" s="7">
+      <c r="E52" s="32">
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B53" s="7"/>
-      <c r="C53" s="7"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="7"/>
-    </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B54" s="7"/>
-      <c r="C54" s="7" t="s">
+      <c r="C54" s="32" t="s">
         <v>216</v>
       </c>
-      <c r="D54" s="7"/>
-      <c r="E54" s="7"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B55" s="7"/>
-      <c r="C55" s="7"/>
-      <c r="D55" s="7" t="s">
+      <c r="D55" s="32" t="s">
         <v>210</v>
       </c>
-      <c r="E55" s="7">
+      <c r="E55" s="32">
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B56" s="7"/>
-      <c r="C56" s="7"/>
-      <c r="D56" s="7" t="s">
+      <c r="D56" s="32" t="s">
         <v>217</v>
       </c>
-      <c r="E56" s="7">
+      <c r="E56" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B57" s="7"/>
-      <c r="C57" s="7"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="7"/>
-    </row>
-    <row r="58" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="27"/>
-      <c r="C58" s="27"/>
-      <c r="D58" s="27"/>
-    </row>
-    <row r="59" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="29" t="s">
+    <row r="58" spans="1:8" s="28" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="59" spans="1:8" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="38" t="s">
         <v>218</v>
       </c>
-      <c r="B59" s="29"/>
-      <c r="C59" s="29"/>
-      <c r="D59" s="29"/>
-      <c r="E59" s="29"/>
-      <c r="F59" s="29"/>
-    </row>
-    <row r="60" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="31" t="s">
+      <c r="B59" s="38"/>
+      <c r="C59" s="38"/>
+      <c r="D59" s="38"/>
+      <c r="E59" s="38"/>
+      <c r="F59" s="38"/>
+    </row>
+    <row r="60" spans="1:8" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="39" t="s">
         <v>190</v>
       </c>
-      <c r="B60" s="31" t="s">
+      <c r="B60" s="39" t="s">
         <v>219</v>
       </c>
-      <c r="C60" s="31" t="s">
+      <c r="C60" s="39" t="s">
         <v>220</v>
       </c>
-      <c r="D60" s="31" t="s">
+      <c r="D60" s="39" t="s">
         <v>193</v>
       </c>
-      <c r="E60" s="31" t="s">
+      <c r="E60" s="39" t="s">
         <v>221</v>
       </c>
-      <c r="F60" s="31" t="s">
+      <c r="F60" s="39" t="s">
         <v>222</v>
       </c>
-      <c r="G60" s="5"/>
-      <c r="H60" s="28"/>
-    </row>
-    <row r="61" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="12" t="s">
+      <c r="G60" s="32"/>
+      <c r="H60" s="40"/>
+    </row>
+    <row r="61" spans="1:8" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="37" t="s">
         <v>223</v>
       </c>
-      <c r="C61" s="12"/>
-      <c r="D61" s="12"/>
-    </row>
-    <row r="62" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="12"/>
-      <c r="C62" s="12"/>
-      <c r="D62" s="12"/>
-    </row>
-    <row r="63" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="12"/>
-      <c r="C63" s="12"/>
-      <c r="D63" s="12"/>
-    </row>
-    <row r="64" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="12"/>
-      <c r="C64" s="12"/>
-      <c r="D64" s="12"/>
-    </row>
-    <row r="65" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="12" t="s">
+    </row>
+    <row r="62" spans="1:8" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="63" spans="1:8" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="1:8" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="65" spans="1:12" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="37" t="s">
         <v>224</v>
       </c>
-      <c r="C65" s="12"/>
-      <c r="D65" s="12"/>
-    </row>
-    <row r="66" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="12"/>
-      <c r="C66" s="12"/>
-      <c r="D66" s="12"/>
-    </row>
-    <row r="67" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="12"/>
-      <c r="C67" s="12"/>
-      <c r="D67" s="12"/>
-    </row>
-    <row r="68" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="12"/>
-      <c r="C68" s="12"/>
-      <c r="D68" s="12"/>
-    </row>
-    <row r="69" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="11" t="s">
+    </row>
+    <row r="66" spans="1:12" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="67" spans="1:12" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="68" spans="1:12" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="69" spans="1:12" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="41" t="s">
         <v>225</v>
       </c>
-      <c r="C69" s="12"/>
-      <c r="D69" s="12"/>
-    </row>
-    <row r="70" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="12"/>
-      <c r="C70" s="12"/>
-      <c r="D70" s="12"/>
-    </row>
-    <row r="71" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="12"/>
-      <c r="C71" s="12"/>
-      <c r="D71" s="12"/>
-    </row>
-    <row r="72" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="12"/>
-      <c r="C72" s="12"/>
-    </row>
-    <row r="73" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="12"/>
-      <c r="C73" s="12"/>
-    </row>
-    <row r="74" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="12"/>
-      <c r="C74" s="12"/>
-    </row>
+    </row>
+    <row r="70" spans="1:12" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="71" spans="1:12" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="72" spans="1:12" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="73" spans="1:12" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="74" spans="1:12" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="42" t="s">
         <v>226</v>
@@ -3729,1576 +3657,1562 @@
       <c r="L76" s="42"/>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A77" s="40" t="s">
+      <c r="A77" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="B77" s="40" t="s">
+      <c r="B77" s="43" t="s">
         <v>227</v>
       </c>
-      <c r="C77" s="47" t="s">
+      <c r="C77" s="44" t="s">
         <v>228</v>
       </c>
-      <c r="D77" s="40" t="s">
+      <c r="D77" s="43" t="s">
         <v>229</v>
       </c>
-      <c r="E77" s="40" t="s">
+      <c r="E77" s="43" t="s">
         <v>230</v>
       </c>
-      <c r="F77" s="40" t="s">
+      <c r="F77" s="43" t="s">
         <v>231</v>
       </c>
-      <c r="G77" s="44" t="s">
+      <c r="G77" s="45" t="s">
         <v>232</v>
       </c>
-      <c r="H77" s="45"/>
-      <c r="I77" s="45"/>
-      <c r="J77" s="46"/>
-      <c r="K77" s="40" t="s">
+      <c r="H77" s="46"/>
+      <c r="I77" s="46"/>
+      <c r="J77" s="47"/>
+      <c r="K77" s="43" t="s">
         <v>233</v>
       </c>
-      <c r="L77" s="40" t="s">
+      <c r="L77" s="43" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A78" s="41"/>
-      <c r="B78" s="41"/>
-      <c r="C78" s="48"/>
-      <c r="D78" s="41"/>
-      <c r="E78" s="41"/>
-      <c r="F78" s="41"/>
-      <c r="G78" s="13" t="s">
+      <c r="A78" s="48"/>
+      <c r="B78" s="48"/>
+      <c r="C78" s="49"/>
+      <c r="D78" s="48"/>
+      <c r="E78" s="48"/>
+      <c r="F78" s="48"/>
+      <c r="G78" s="50" t="s">
         <v>234</v>
       </c>
-      <c r="H78" s="13" t="s">
+      <c r="H78" s="50" t="s">
         <v>235</v>
       </c>
-      <c r="I78" s="13" t="s">
+      <c r="I78" s="50" t="s">
         <v>236</v>
       </c>
-      <c r="J78" s="13" t="s">
+      <c r="J78" s="50" t="s">
         <v>237</v>
       </c>
-      <c r="K78" s="41"/>
-      <c r="L78" s="41"/>
+      <c r="K78" s="48"/>
+      <c r="L78" s="48"/>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B79" s="7"/>
-      <c r="F79" s="7" t="s">
+      <c r="F79" s="32" t="s">
         <v>238</v>
       </c>
-      <c r="K79" s="7" t="s">
+      <c r="K79" s="32" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B80" s="7"/>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B81" s="7"/>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B82" s="7"/>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A83" s="7" t="s">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A83" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="B83" s="18" t="s">
+      <c r="B83" s="51" t="s">
         <v>240</v>
       </c>
-      <c r="F83" s="7" t="s">
+      <c r="F83" s="32" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C84" s="17" t="s">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C84" s="51" t="s">
         <v>242</v>
       </c>
-      <c r="D84" s="12" t="s">
+      <c r="D84" s="37" t="s">
         <v>243</v>
       </c>
-      <c r="E84" s="12" t="s">
+      <c r="E84" s="37" t="s">
         <v>244</v>
       </c>
-      <c r="F84" s="12" t="s">
+      <c r="F84" s="37" t="s">
         <v>241</v>
       </c>
-      <c r="K84" s="6"/>
-      <c r="L84" s="11" t="s">
+      <c r="K84" s="41"/>
+      <c r="L84" s="41" t="s">
         <v>245</v>
       </c>
-      <c r="M84" s="7"/>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G85" s="11" t="s">
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G85" s="41" t="s">
         <v>246</v>
       </c>
-      <c r="H85" s="11" t="s">
+      <c r="H85" s="41" t="s">
         <v>247</v>
       </c>
-      <c r="I85" s="11" t="s">
+      <c r="I85" s="41" t="s">
         <v>248</v>
       </c>
-      <c r="J85" s="11" t="s">
+      <c r="J85" s="41" t="s">
         <v>249</v>
       </c>
-      <c r="K85" s="20" t="s">
+      <c r="K85" s="52" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G86" s="7" t="s">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G86" s="32" t="s">
         <v>250</v>
       </c>
-      <c r="H86" s="7" t="s">
+      <c r="H86" s="32" t="s">
         <v>247</v>
       </c>
-      <c r="I86" s="7" t="s">
+      <c r="I86" s="32" t="s">
         <v>248</v>
       </c>
-      <c r="J86" s="7" t="s">
+      <c r="J86" s="32" t="s">
         <v>251</v>
       </c>
-      <c r="K86" s="7"/>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G87" s="11" t="s">
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G87" s="41" t="s">
         <v>252</v>
       </c>
-      <c r="H87" s="11" t="s">
+      <c r="H87" s="41" t="s">
         <v>247</v>
       </c>
-      <c r="I87" s="11" t="s">
+      <c r="I87" s="41" t="s">
         <v>253</v>
       </c>
-      <c r="J87" s="11" t="s">
+      <c r="J87" s="41" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G88" s="11" t="s">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G88" s="41" t="s">
         <v>255</v>
       </c>
-      <c r="H88" s="11" t="s">
+      <c r="H88" s="41" t="s">
         <v>247</v>
       </c>
-      <c r="I88" s="11" t="s">
+      <c r="I88" s="41" t="s">
         <v>253</v>
       </c>
-      <c r="J88" s="11" t="s">
+      <c r="J88" s="41" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G89" s="11" t="s">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G89" s="41" t="s">
         <v>256</v>
       </c>
-      <c r="H89" s="11" t="s">
+      <c r="H89" s="41" t="s">
         <v>247</v>
       </c>
-      <c r="I89" s="11" t="s">
+      <c r="I89" s="41" t="s">
         <v>248</v>
       </c>
-      <c r="J89" s="11" t="s">
+      <c r="J89" s="41" t="s">
         <v>257</v>
       </c>
-      <c r="K89" s="19" t="s">
+      <c r="K89" s="53" t="s">
         <v>258</v>
       </c>
-      <c r="L89" s="11" t="s">
+      <c r="L89" s="41" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G90" s="11" t="s">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G90" s="41" t="s">
         <v>260</v>
       </c>
-      <c r="H90" s="11" t="s">
+      <c r="H90" s="41" t="s">
         <v>247</v>
       </c>
-      <c r="I90" s="11" t="s">
+      <c r="I90" s="41" t="s">
         <v>253</v>
       </c>
-      <c r="J90" s="11" t="s">
+      <c r="J90" s="41" t="s">
         <v>261</v>
       </c>
-      <c r="K90" s="11"/>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G91" s="11" t="s">
+      <c r="K90" s="41"/>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G91" s="41" t="s">
         <v>262</v>
       </c>
-      <c r="H91" s="11" t="s">
+      <c r="H91" s="41" t="s">
         <v>263</v>
       </c>
-      <c r="I91" s="11" t="s">
+      <c r="I91" s="41" t="s">
         <v>253</v>
       </c>
-      <c r="J91" s="11" t="s">
+      <c r="J91" s="41" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G92" s="11" t="s">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G92" s="41" t="s">
         <v>265</v>
       </c>
-      <c r="H92" s="11" t="s">
+      <c r="H92" s="41" t="s">
         <v>263</v>
       </c>
-      <c r="I92" s="11" t="s">
+      <c r="I92" s="41" t="s">
         <v>253</v>
       </c>
-      <c r="J92" s="11" t="s">
+      <c r="J92" s="41" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G93" s="11" t="s">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G93" s="41" t="s">
         <v>266</v>
       </c>
-      <c r="H93" s="11" t="s">
+      <c r="H93" s="41" t="s">
         <v>267</v>
       </c>
-      <c r="I93" s="11" t="s">
+      <c r="I93" s="41" t="s">
         <v>253</v>
       </c>
-      <c r="J93" s="11" t="s">
+      <c r="J93" s="41" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G94" s="11"/>
-      <c r="H94" s="11"/>
-      <c r="I94" s="11"/>
-      <c r="J94" s="11"/>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B95" s="7"/>
-      <c r="C95" s="18" t="s">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G94" s="41"/>
+      <c r="H94" s="41"/>
+      <c r="I94" s="41"/>
+      <c r="J94" s="41"/>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C95" s="51" t="s">
         <v>269</v>
       </c>
-      <c r="D95" s="7" t="s">
+      <c r="D95" s="32" t="s">
         <v>243</v>
       </c>
-      <c r="E95" s="7" t="s">
+      <c r="E95" s="32" t="s">
         <v>253</v>
       </c>
-      <c r="F95" s="7" t="s">
+      <c r="F95" s="32" t="s">
         <v>270</v>
       </c>
-      <c r="L95" s="7" t="s">
+      <c r="L95" s="32" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G96" s="7" t="s">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G96" s="32" t="s">
         <v>272</v>
       </c>
-      <c r="H96" s="7" t="s">
+      <c r="H96" s="32" t="s">
         <v>247</v>
       </c>
-      <c r="I96" s="7" t="s">
+      <c r="I96" s="32" t="s">
         <v>248</v>
       </c>
-      <c r="K96" s="20" t="s">
+      <c r="K96" s="52" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="97" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="G97" s="7" t="s">
+      <c r="G97" s="32" t="s">
         <v>250</v>
       </c>
-      <c r="H97" s="7" t="s">
+      <c r="H97" s="32" t="s">
         <v>273</v>
       </c>
-      <c r="I97" s="7" t="s">
+      <c r="I97" s="32" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="98" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="G98" s="7" t="s">
+      <c r="G98" s="32" t="s">
         <v>274</v>
       </c>
-      <c r="H98" s="7" t="s">
+      <c r="H98" s="32" t="s">
         <v>247</v>
       </c>
-      <c r="I98" s="7" t="s">
+      <c r="I98" s="32" t="s">
         <v>253</v>
       </c>
-      <c r="L98" s="7" t="s">
+      <c r="L98" s="32" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="99" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="K99" s="19" t="s">
+      <c r="K99" s="53" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="100" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C100" s="18" t="s">
+      <c r="C100" s="51" t="s">
         <v>276</v>
       </c>
-      <c r="D100" s="7" t="s">
+      <c r="D100" s="32" t="s">
         <v>243</v>
       </c>
-      <c r="E100" s="7" t="s">
+      <c r="E100" s="32" t="s">
         <v>248</v>
       </c>
-      <c r="F100" s="7" t="s">
+      <c r="F100" s="32" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="101" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="G101" s="7" t="s">
+      <c r="G101" s="32" t="s">
         <v>278</v>
       </c>
-      <c r="H101" s="7" t="s">
+      <c r="H101" s="32" t="s">
         <v>279</v>
       </c>
-      <c r="I101" s="7" t="s">
+      <c r="I101" s="32" t="s">
         <v>253</v>
       </c>
-      <c r="J101" s="7" t="s">
+      <c r="J101" s="32" t="s">
         <v>268</v>
       </c>
-      <c r="K101" s="20" t="s">
+      <c r="K101" s="52" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="G102" s="7"/>
-      <c r="H102" s="7"/>
-      <c r="I102" s="7"/>
-    </row>
     <row r="103" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="G103" s="7"/>
-      <c r="H103" s="7"/>
-      <c r="I103" s="7"/>
-      <c r="K103" s="19" t="s">
+      <c r="K103" s="53" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="105" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C105" s="18" t="s">
+      <c r="C105" s="51" t="s">
         <v>280</v>
       </c>
-      <c r="D105" s="7" t="s">
+      <c r="D105" s="32" t="s">
         <v>281</v>
       </c>
-      <c r="E105" s="7" t="s">
+      <c r="E105" s="32" t="s">
         <v>248</v>
       </c>
-      <c r="F105" s="7" t="s">
+      <c r="F105" s="32" t="s">
         <v>282</v>
       </c>
-      <c r="L105" s="7" t="s">
+      <c r="L105" s="32" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="106" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="G106" s="7" t="s">
+      <c r="G106" s="32" t="s">
         <v>256</v>
       </c>
-      <c r="H106" s="7" t="s">
+      <c r="H106" s="32" t="s">
         <v>247</v>
       </c>
-      <c r="I106" s="7" t="s">
+      <c r="I106" s="32" t="s">
         <v>248</v>
       </c>
-      <c r="J106" s="7" t="s">
+      <c r="J106" s="32" t="s">
         <v>284</v>
       </c>
-      <c r="K106" s="20" t="s">
+      <c r="K106" s="52" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="107" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="G107" s="7" t="s">
+      <c r="G107" s="32" t="s">
         <v>250</v>
       </c>
-      <c r="H107" s="7" t="s">
+      <c r="H107" s="32" t="s">
         <v>247</v>
       </c>
-      <c r="I107" s="7" t="s">
+      <c r="I107" s="32" t="s">
         <v>248</v>
       </c>
-      <c r="L107" s="7" t="s">
+      <c r="L107" s="32" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="108" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="K108" s="19" t="s">
+      <c r="K108" s="53" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="110" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C110" s="18" t="s">
+      <c r="C110" s="51" t="s">
         <v>286</v>
       </c>
-      <c r="D110" s="7" t="s">
+      <c r="D110" s="32" t="s">
         <v>281</v>
       </c>
-      <c r="E110" s="7" t="s">
+      <c r="E110" s="32" t="s">
         <v>248</v>
       </c>
-      <c r="F110" s="7" t="s">
+      <c r="F110" s="32" t="s">
         <v>287</v>
       </c>
-      <c r="L110" s="7" t="s">
+      <c r="L110" s="32" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="111" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="G111" s="7" t="s">
+      <c r="G111" s="32" t="s">
         <v>252</v>
       </c>
-      <c r="H111" s="7" t="s">
+      <c r="H111" s="32" t="s">
         <v>247</v>
       </c>
-      <c r="I111" s="7" t="s">
+      <c r="I111" s="32" t="s">
         <v>253</v>
       </c>
-      <c r="J111" s="7" t="s">
+      <c r="J111" s="32" t="s">
         <v>254</v>
       </c>
-      <c r="K111" s="20" t="s">
+      <c r="K111" s="52" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="112" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="G112" s="7" t="s">
+      <c r="G112" s="32" t="s">
         <v>255</v>
       </c>
-      <c r="H112" s="7" t="s">
+      <c r="H112" s="32" t="s">
         <v>247</v>
       </c>
-      <c r="I112" s="7" t="s">
+      <c r="I112" s="32" t="s">
         <v>253</v>
       </c>
-      <c r="J112" s="7" t="s">
+      <c r="J112" s="32" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="113" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="G113" s="7" t="s">
+      <c r="G113" s="32" t="s">
         <v>260</v>
       </c>
-      <c r="H113" s="7" t="s">
+      <c r="H113" s="32" t="s">
         <v>247</v>
       </c>
-      <c r="I113" s="7" t="s">
+      <c r="I113" s="32" t="s">
         <v>253</v>
       </c>
-      <c r="J113" s="7" t="s">
+      <c r="J113" s="32" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="114" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="G114" s="7" t="s">
+      <c r="G114" s="32" t="s">
         <v>289</v>
       </c>
-      <c r="H114" s="7" t="s">
+      <c r="H114" s="32" t="s">
         <v>263</v>
       </c>
-      <c r="I114" s="7" t="s">
+      <c r="I114" s="32" t="s">
         <v>253</v>
       </c>
-      <c r="J114" s="7" t="s">
+      <c r="J114" s="32" t="s">
         <v>264</v>
       </c>
-      <c r="K114" s="19" t="s">
+      <c r="K114" s="53" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="115" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="G115" s="7" t="s">
+      <c r="G115" s="32" t="s">
         <v>290</v>
       </c>
-      <c r="H115" s="7" t="s">
+      <c r="H115" s="32" t="s">
         <v>263</v>
       </c>
-      <c r="I115" s="7" t="s">
+      <c r="I115" s="32" t="s">
         <v>253</v>
       </c>
-      <c r="J115" s="7" t="s">
+      <c r="J115" s="32" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="116" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="G116" s="7" t="s">
+      <c r="G116" s="32" t="s">
         <v>250</v>
       </c>
-      <c r="H116" s="7" t="s">
+      <c r="H116" s="32" t="s">
         <v>247</v>
       </c>
-      <c r="I116" s="7" t="s">
+      <c r="I116" s="32" t="s">
         <v>248</v>
       </c>
-      <c r="L116" s="7" t="s">
+      <c r="L116" s="32" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="118" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C118" s="18" t="s">
+      <c r="C118" s="51" t="s">
         <v>291</v>
       </c>
-      <c r="D118" s="7" t="s">
+      <c r="D118" s="32" t="s">
         <v>281</v>
       </c>
-      <c r="E118" s="7" t="s">
+      <c r="E118" s="32" t="s">
         <v>248</v>
       </c>
-      <c r="F118" s="7" t="s">
+      <c r="F118" s="32" t="s">
         <v>292</v>
       </c>
-      <c r="L118" s="7" t="s">
+      <c r="L118" s="32" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="119" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="G119" s="7" t="s">
+      <c r="G119" s="32" t="s">
         <v>294</v>
       </c>
-      <c r="H119" s="7" t="s">
+      <c r="H119" s="32" t="s">
         <v>247</v>
       </c>
-      <c r="I119" s="7" t="s">
+      <c r="I119" s="32" t="s">
         <v>248</v>
       </c>
-      <c r="K119" s="20" t="s">
+      <c r="K119" s="52" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="120" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="G120" s="7" t="s">
+      <c r="G120" s="32" t="s">
         <v>295</v>
       </c>
-      <c r="H120" s="7" t="s">
+      <c r="H120" s="32" t="s">
         <v>247</v>
       </c>
-      <c r="I120" s="7" t="s">
+      <c r="I120" s="32" t="s">
         <v>248</v>
       </c>
-      <c r="J120" s="7" t="s">
+      <c r="J120" s="32" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="121" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="G121" s="7" t="s">
+      <c r="G121" s="32" t="s">
         <v>278</v>
       </c>
-      <c r="H121" s="7" t="s">
+      <c r="H121" s="32" t="s">
         <v>279</v>
       </c>
-      <c r="I121" s="7" t="s">
+      <c r="I121" s="32" t="s">
         <v>253</v>
       </c>
-      <c r="J121" s="7" t="s">
+      <c r="J121" s="32" t="s">
         <v>296</v>
       </c>
-      <c r="K121" s="19" t="s">
+      <c r="K121" s="53" t="s">
         <v>258</v>
       </c>
-      <c r="L121" s="7" t="s">
+      <c r="L121" s="32" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="123" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C123" s="18" t="s">
+      <c r="C123" s="51" t="s">
         <v>298</v>
       </c>
-      <c r="D123" s="7" t="s">
+      <c r="D123" s="32" t="s">
         <v>281</v>
       </c>
-      <c r="E123" s="7" t="s">
+      <c r="E123" s="32" t="s">
         <v>248</v>
       </c>
-      <c r="F123" s="7" t="s">
+      <c r="F123" s="32" t="s">
         <v>299</v>
       </c>
-      <c r="K123" s="20" t="s">
+      <c r="K123" s="52" t="s">
         <v>175</v>
       </c>
-      <c r="L123" s="7" t="s">
+      <c r="L123" s="32" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="124" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="G124" s="7" t="s">
+      <c r="G124" s="32" t="s">
         <v>301</v>
       </c>
-      <c r="H124" s="7" t="s">
+      <c r="H124" s="32" t="s">
         <v>279</v>
       </c>
-      <c r="I124" s="7" t="s">
+      <c r="I124" s="32" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="125" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="K125" s="19" t="s">
+      <c r="K125" s="53" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="127" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C127" s="18" t="s">
+      <c r="C127" s="51" t="s">
         <v>302</v>
       </c>
-      <c r="D127" s="7" t="s">
+      <c r="D127" s="32" t="s">
         <v>303</v>
       </c>
-      <c r="E127" s="7" t="s">
+      <c r="E127" s="32" t="s">
         <v>248</v>
       </c>
-      <c r="F127" s="7" t="s">
+      <c r="F127" s="32" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="128" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="K128" s="20" t="s">
+      <c r="K128" s="52" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="130" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="K130" s="19" t="s">
+      <c r="K130" s="53" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="132" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C132" s="18" t="s">
+      <c r="C132" s="51" t="s">
         <v>305</v>
       </c>
-      <c r="D132" s="7" t="s">
+      <c r="D132" s="32" t="s">
         <v>303</v>
       </c>
-      <c r="E132" s="7" t="s">
+      <c r="E132" s="32" t="s">
         <v>248</v>
       </c>
-      <c r="F132" s="7" t="s">
+      <c r="F132" s="32" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="133" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="K133" s="20" t="s">
+      <c r="K133" s="52" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="135" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="K135" s="19" t="s">
+      <c r="K135" s="53" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="137" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C137" s="18" t="s">
+      <c r="C137" s="51" t="s">
         <v>307</v>
       </c>
-      <c r="D137" s="7" t="s">
+      <c r="D137" s="32" t="s">
         <v>308</v>
       </c>
-      <c r="E137" s="7" t="s">
+      <c r="E137" s="32" t="s">
         <v>248</v>
       </c>
-      <c r="F137" s="7" t="s">
+      <c r="F137" s="32" t="s">
         <v>241</v>
       </c>
-      <c r="L137" s="7" t="s">
+      <c r="L137" s="32" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="138" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="K138" s="20" t="s">
+      <c r="K138" s="52" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="140" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="K140" s="19" t="s">
+      <c r="K140" s="53" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="142" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C142" s="18" t="s">
+      <c r="C142" s="51" t="s">
         <v>310</v>
       </c>
-      <c r="D142" s="7" t="s">
+      <c r="D142" s="32" t="s">
         <v>281</v>
       </c>
-      <c r="E142" s="7" t="s">
+      <c r="E142" s="32" t="s">
         <v>248</v>
       </c>
-      <c r="F142" s="7" t="s">
+      <c r="F142" s="32" t="s">
         <v>299</v>
       </c>
-      <c r="L142" s="7" t="s">
+      <c r="L142" s="32" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="143" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="K143" s="20" t="s">
+      <c r="K143" s="52" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="145" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="K145" s="19" t="s">
+      <c r="K145" s="53" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="147" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C147" s="18" t="s">
+      <c r="C147" s="51" t="s">
         <v>311</v>
       </c>
-      <c r="D147" s="7" t="s">
+      <c r="D147" s="32" t="s">
         <v>303</v>
       </c>
-      <c r="E147" s="7" t="s">
+      <c r="E147" s="32" t="s">
         <v>248</v>
       </c>
-      <c r="F147" s="7" t="s">
+      <c r="F147" s="32" t="s">
         <v>312</v>
       </c>
-      <c r="L147" s="7" t="s">
+      <c r="L147" s="32" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="148" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="K148" s="20" t="s">
+      <c r="K148" s="52" t="s">
         <v>175</v>
       </c>
-      <c r="L148" s="7"/>
     </row>
     <row r="150" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="K150" s="19" t="s">
+      <c r="K150" s="53" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="151" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C151" s="18" t="s">
+      <c r="C151" s="51" t="s">
         <v>314</v>
       </c>
-      <c r="D151" s="7" t="s">
+      <c r="D151" s="32" t="s">
         <v>303</v>
       </c>
-      <c r="E151" s="7" t="s">
+      <c r="E151" s="32" t="s">
         <v>248</v>
       </c>
-      <c r="F151" s="7" t="s">
+      <c r="F151" s="32" t="s">
         <v>315</v>
       </c>
-      <c r="L151" s="7" t="s">
+      <c r="L151" s="32" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="152" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="K152" s="20" t="s">
+      <c r="K152" s="52" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="154" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="K154" s="19" t="s">
+      <c r="K154" s="53" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="155" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C155" s="18" t="s">
+      <c r="C155" s="51" t="s">
         <v>316</v>
       </c>
-      <c r="D155" s="7" t="s">
+      <c r="D155" s="32" t="s">
         <v>303</v>
       </c>
-      <c r="E155" s="7" t="s">
+      <c r="E155" s="32" t="s">
         <v>248</v>
       </c>
-      <c r="F155" s="7" t="s">
+      <c r="F155" s="32" t="s">
         <v>317</v>
       </c>
-      <c r="L155" s="7" t="s">
+      <c r="L155" s="32" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="156" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="K156" s="20" t="s">
+      <c r="K156" s="52" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="158" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="K158" s="19" t="s">
+      <c r="K158" s="53" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="159" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C159" s="18" t="s">
+      <c r="C159" s="51" t="s">
         <v>319</v>
       </c>
-      <c r="D159" s="7" t="s">
+      <c r="D159" s="32" t="s">
         <v>303</v>
       </c>
-      <c r="E159" s="7" t="s">
+      <c r="E159" s="32" t="s">
         <v>248</v>
       </c>
-      <c r="F159" s="7" t="s">
+      <c r="F159" s="32" t="s">
         <v>320</v>
       </c>
-      <c r="L159" s="7" t="s">
+      <c r="L159" s="32" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="160" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="K160" s="20" t="s">
+      <c r="K160" s="52" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="K162" s="19" t="s">
+      <c r="K162" s="53" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A164" s="7" t="s">
+      <c r="A164" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="B164" s="18" t="s">
+      <c r="B164" s="51" t="s">
         <v>322</v>
       </c>
-      <c r="F164" s="5" t="s">
+      <c r="F164" s="32" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C165" s="18" t="s">
+      <c r="C165" s="51" t="s">
         <v>324</v>
       </c>
-      <c r="D165" s="7" t="s">
+      <c r="D165" s="32" t="s">
         <v>243</v>
       </c>
-      <c r="E165" s="7" t="s">
+      <c r="E165" s="32" t="s">
         <v>248</v>
       </c>
-      <c r="F165" s="7" t="s">
+      <c r="F165" s="32" t="s">
         <v>325</v>
       </c>
-      <c r="L165" s="7" t="s">
+      <c r="L165" s="32" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G166" s="7" t="s">
+      <c r="G166" s="32" t="s">
         <v>327</v>
       </c>
-      <c r="H166" s="7" t="s">
+      <c r="H166" s="32" t="s">
         <v>247</v>
       </c>
-      <c r="I166" s="7" t="s">
+      <c r="I166" s="32" t="s">
         <v>248</v>
       </c>
-      <c r="K166" s="20" t="s">
+      <c r="K166" s="52" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G167" s="7" t="s">
+      <c r="G167" s="32" t="s">
         <v>328</v>
       </c>
-      <c r="H167" s="7" t="s">
+      <c r="H167" s="32" t="s">
         <v>196</v>
       </c>
-      <c r="I167" s="7" t="s">
+      <c r="I167" s="32" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G168" s="7" t="s">
+      <c r="G168" s="32" t="s">
         <v>262</v>
       </c>
-      <c r="H168" s="7" t="s">
+      <c r="H168" s="32" t="s">
         <v>263</v>
       </c>
-      <c r="I168" s="7" t="s">
+      <c r="I168" s="32" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G169" s="7" t="s">
+      <c r="G169" s="32" t="s">
         <v>265</v>
       </c>
-      <c r="H169" s="7" t="s">
+      <c r="H169" s="32" t="s">
         <v>263</v>
       </c>
-      <c r="I169" s="7" t="s">
+      <c r="I169" s="32" t="s">
         <v>253</v>
       </c>
-      <c r="K169" s="19" t="s">
+      <c r="K169" s="53" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G170" s="7" t="s">
+      <c r="G170" s="32" t="s">
         <v>266</v>
       </c>
-      <c r="H170" s="7" t="s">
+      <c r="H170" s="32" t="s">
         <v>329</v>
       </c>
-      <c r="I170" s="7" t="s">
+      <c r="I170" s="32" t="s">
         <v>253</v>
       </c>
-      <c r="J170" s="7" t="s">
+      <c r="J170" s="32" t="s">
         <v>268</v>
       </c>
-      <c r="K170" s="7"/>
-    </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G171" s="7"/>
-      <c r="H171" s="7"/>
-      <c r="I171" s="7"/>
-      <c r="J171" s="7"/>
-      <c r="K171" s="7"/>
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C172" s="18" t="s">
+      <c r="C172" s="51" t="s">
         <v>330</v>
       </c>
-      <c r="D172" s="7" t="s">
+      <c r="D172" s="32" t="s">
         <v>303</v>
       </c>
-      <c r="E172" s="7" t="s">
+      <c r="E172" s="32" t="s">
         <v>248</v>
       </c>
-      <c r="F172" s="7" t="s">
+      <c r="F172" s="32" t="s">
         <v>323</v>
       </c>
-      <c r="G172" s="7"/>
-      <c r="H172" s="7"/>
-      <c r="I172" s="7"/>
-      <c r="J172" s="7"/>
-      <c r="K172" s="7"/>
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G173" s="7"/>
-      <c r="H173" s="7"/>
-      <c r="I173" s="7"/>
-      <c r="J173" s="7"/>
-      <c r="K173" s="20" t="s">
+      <c r="K173" s="52" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G174" s="7"/>
-      <c r="H174" s="7"/>
-      <c r="I174" s="7"/>
-      <c r="J174" s="7"/>
-      <c r="K174" s="7"/>
-    </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G175" s="7"/>
-      <c r="H175" s="7"/>
-      <c r="I175" s="7"/>
-      <c r="J175" s="7"/>
-      <c r="K175" s="7"/>
-    </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="K176" s="19" t="s">
+      <c r="K176" s="53" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="177" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C177" s="18" t="s">
+      <c r="C177" s="51" t="s">
         <v>331</v>
       </c>
-      <c r="D177" s="7" t="s">
+      <c r="D177" s="32" t="s">
         <v>243</v>
       </c>
-      <c r="E177" s="7" t="s">
+      <c r="E177" s="32" t="s">
         <v>248</v>
       </c>
-      <c r="F177" s="7" t="s">
+      <c r="F177" s="32" t="s">
         <v>332</v>
       </c>
-      <c r="L177" s="7" t="s">
+      <c r="L177" s="32" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="178" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="G178" s="7" t="s">
+      <c r="G178" s="32" t="s">
         <v>334</v>
       </c>
-      <c r="H178" s="7" t="s">
+      <c r="H178" s="32" t="s">
         <v>247</v>
       </c>
-      <c r="I178" s="7" t="s">
+      <c r="I178" s="32" t="s">
         <v>248</v>
       </c>
-      <c r="K178" s="20" t="s">
+      <c r="K178" s="52" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="179" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="G179" s="7" t="s">
+      <c r="G179" s="32" t="s">
         <v>335</v>
       </c>
-      <c r="H179" s="7" t="s">
+      <c r="H179" s="32" t="s">
         <v>336</v>
       </c>
-      <c r="I179" s="7" t="s">
+      <c r="I179" s="32" t="s">
         <v>253</v>
       </c>
-      <c r="J179" s="7" t="s">
+      <c r="J179" s="32" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="181" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="K181" s="19" t="s">
+      <c r="K181" s="53" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="182" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C182" s="18" t="s">
+      <c r="C182" s="51" t="s">
         <v>337</v>
       </c>
-      <c r="D182" s="7" t="s">
+      <c r="D182" s="32" t="s">
         <v>281</v>
       </c>
-      <c r="E182" s="7" t="s">
+      <c r="E182" s="32" t="s">
         <v>248</v>
       </c>
-      <c r="F182" s="7" t="s">
+      <c r="F182" s="32" t="s">
         <v>338</v>
       </c>
-      <c r="L182" s="7" t="s">
+      <c r="L182" s="32" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="183" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="G183" s="7" t="s">
+      <c r="G183" s="32" t="s">
         <v>334</v>
       </c>
-      <c r="H183" s="7" t="s">
+      <c r="H183" s="32" t="s">
         <v>247</v>
       </c>
-      <c r="I183" s="7" t="s">
+      <c r="I183" s="32" t="s">
         <v>248</v>
       </c>
-      <c r="K183" s="20" t="s">
+      <c r="K183" s="52" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="184" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="G184" s="7" t="s">
+      <c r="G184" s="32" t="s">
         <v>335</v>
       </c>
-      <c r="H184" s="7" t="s">
+      <c r="H184" s="32" t="s">
         <v>336</v>
       </c>
-      <c r="I184" s="7" t="s">
+      <c r="I184" s="32" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="185" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="K185" s="19" t="s">
+      <c r="K185" s="53" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="186" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C186" s="18" t="s">
+      <c r="C186" s="51" t="s">
         <v>307</v>
       </c>
-      <c r="D186" s="7" t="s">
+      <c r="D186" s="32" t="s">
         <v>308</v>
       </c>
-      <c r="E186" s="7" t="s">
+      <c r="E186" s="32" t="s">
         <v>248</v>
       </c>
-      <c r="F186" s="7" t="s">
+      <c r="F186" s="32" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="187" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="G187" s="7" t="s">
+      <c r="G187" s="32" t="s">
         <v>341</v>
       </c>
-      <c r="H187" s="7" t="s">
+      <c r="H187" s="32" t="s">
         <v>247</v>
       </c>
-      <c r="I187" s="7" t="s">
+      <c r="I187" s="32" t="s">
         <v>248</v>
       </c>
-      <c r="K187" s="20" t="s">
+      <c r="K187" s="52" t="s">
         <v>175</v>
       </c>
-      <c r="L187" s="7" t="s">
+      <c r="L187" s="32" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="190" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="K190" s="19" t="s">
+      <c r="K190" s="53" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="192" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C192" s="18" t="s">
+      <c r="C192" s="51" t="s">
         <v>343</v>
       </c>
-      <c r="D192" s="7" t="s">
+      <c r="D192" s="32" t="s">
         <v>308</v>
       </c>
-      <c r="E192" s="7" t="s">
+      <c r="E192" s="32" t="s">
         <v>248</v>
       </c>
-      <c r="F192" s="5" t="s">
+      <c r="F192" s="32" t="s">
         <v>323</v>
       </c>
-      <c r="L192" s="7" t="s">
+      <c r="L192" s="32" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="K193" s="20" t="s">
+      <c r="K193" s="52" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="K195" s="19" t="s">
+      <c r="K195" s="53" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C197" s="18" t="s">
+      <c r="C197" s="51" t="s">
         <v>344</v>
       </c>
-      <c r="D197" s="7" t="s">
+      <c r="D197" s="32" t="s">
         <v>303</v>
       </c>
-      <c r="E197" s="7" t="s">
+      <c r="E197" s="32" t="s">
         <v>248</v>
       </c>
-      <c r="F197" s="7" t="s">
+      <c r="F197" s="32" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G198" s="7" t="s">
+      <c r="G198" s="32" t="s">
         <v>346</v>
       </c>
-      <c r="H198" s="7" t="s">
+      <c r="H198" s="32" t="s">
         <v>347</v>
       </c>
-      <c r="I198" s="7" t="s">
+      <c r="I198" s="32" t="s">
         <v>253</v>
       </c>
-      <c r="J198" s="7" t="s">
+      <c r="J198" s="32" t="s">
         <v>268</v>
       </c>
-      <c r="K198" s="20" t="s">
+      <c r="K198" s="52" t="s">
         <v>175</v>
       </c>
-      <c r="L198" s="7" t="s">
+      <c r="L198" s="32" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G199" s="7" t="s">
+      <c r="G199" s="32" t="s">
         <v>349</v>
       </c>
-      <c r="H199" s="7" t="s">
+      <c r="H199" s="32" t="s">
         <v>347</v>
       </c>
-      <c r="I199" s="7" t="s">
+      <c r="I199" s="32" t="s">
         <v>253</v>
       </c>
-      <c r="J199" s="7" t="s">
+      <c r="J199" s="32" t="s">
         <v>268</v>
       </c>
-      <c r="L199" s="7" t="s">
+      <c r="L199" s="32" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="K200" s="19" t="s">
+      <c r="K200" s="53" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C202" s="18" t="s">
+      <c r="C202" s="51" t="s">
         <v>351</v>
       </c>
-      <c r="D202" s="7" t="s">
+      <c r="D202" s="32" t="s">
         <v>303</v>
       </c>
-      <c r="E202" s="7" t="s">
+      <c r="E202" s="32" t="s">
         <v>248</v>
       </c>
-      <c r="F202" s="7" t="s">
+      <c r="F202" s="32" t="s">
         <v>352</v>
       </c>
-      <c r="L202" s="7" t="s">
+      <c r="L202" s="32" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="203" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="K203" s="20" t="s">
+      <c r="K203" s="52" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="205" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="K205" s="19" t="s">
+      <c r="K205" s="53" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="207" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A207" s="7" t="s">
+      <c r="A207" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="B207" s="18" t="s">
+      <c r="B207" s="51" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C208" s="18" t="s">
+      <c r="C208" s="51" t="s">
         <v>355</v>
       </c>
-      <c r="D208" s="7" t="s">
+      <c r="D208" s="32" t="s">
         <v>308</v>
       </c>
-      <c r="E208" s="7" t="s">
+      <c r="E208" s="32" t="s">
         <v>248</v>
       </c>
-      <c r="F208" s="7" t="s">
+      <c r="F208" s="32" t="s">
         <v>356</v>
       </c>
-      <c r="L208" s="7" t="s">
+      <c r="L208" s="32" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="209" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="G209" s="7"/>
-      <c r="H209" s="7"/>
-      <c r="I209" s="7"/>
-      <c r="K209" s="20" t="s">
+      <c r="K209" s="52" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="211" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="K211" s="19" t="s">
+      <c r="K211" s="53" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="213" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C213" s="18" t="s">
+      <c r="C213" s="51" t="s">
         <v>358</v>
       </c>
-      <c r="D213" s="7" t="s">
+      <c r="D213" s="32" t="s">
         <v>281</v>
       </c>
-      <c r="E213" s="7" t="s">
+      <c r="E213" s="32" t="s">
         <v>248</v>
       </c>
-      <c r="F213" s="7" t="s">
+      <c r="F213" s="32" t="s">
         <v>356</v>
       </c>
-      <c r="L213" s="7" t="s">
+      <c r="L213" s="32" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="214" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="K214" s="20" t="s">
+      <c r="K214" s="52" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="216" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="K216" s="19" t="s">
+      <c r="K216" s="53" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="218" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C218" s="18" t="s">
+      <c r="C218" s="51" t="s">
         <v>359</v>
       </c>
-      <c r="D218" s="7" t="s">
+      <c r="D218" s="32" t="s">
         <v>303</v>
       </c>
-      <c r="E218" s="7" t="s">
+      <c r="E218" s="32" t="s">
         <v>248</v>
       </c>
-      <c r="F218" s="7" t="s">
+      <c r="F218" s="32" t="s">
         <v>356</v>
       </c>
-      <c r="L218" s="7" t="s">
+      <c r="L218" s="32" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="219" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="K219" s="20" t="s">
+      <c r="K219" s="52" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="221" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="K221" s="19" t="s">
+      <c r="K221" s="53" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="223" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C223" s="18" t="s">
+      <c r="C223" s="51" t="s">
         <v>360</v>
       </c>
-      <c r="D223" s="7" t="s">
+      <c r="D223" s="32" t="s">
         <v>243</v>
       </c>
-      <c r="E223" s="7" t="s">
+      <c r="E223" s="32" t="s">
         <v>248</v>
       </c>
-      <c r="F223" s="7" t="s">
+      <c r="F223" s="32" t="s">
         <v>361</v>
       </c>
-      <c r="L223" s="7" t="s">
+      <c r="L223" s="32" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="224" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="K224" s="20" t="s">
+      <c r="K224" s="52" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="226" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="K226" s="19" t="s">
+      <c r="K226" s="53" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="228" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C228" s="18" t="s">
+      <c r="C228" s="51" t="s">
         <v>363</v>
       </c>
-      <c r="D228" s="7" t="s">
+      <c r="D228" s="32" t="s">
         <v>243</v>
       </c>
-      <c r="E228" s="7" t="s">
+      <c r="E228" s="32" t="s">
         <v>248</v>
       </c>
-      <c r="F228" s="7" t="s">
+      <c r="F228" s="32" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="229" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="K229" s="20" t="s">
+      <c r="K229" s="52" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="231" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="K231" s="19" t="s">
+      <c r="K231" s="53" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="233" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A233" s="7" t="s">
+      <c r="A233" s="32" t="s">
         <v>117</v>
       </c>
-      <c r="B233" s="18" t="s">
+      <c r="B233" s="51" t="s">
         <v>365</v>
       </c>
-      <c r="K233" s="7" t="s">
+      <c r="K233" s="32" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="234" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C234" s="18" t="s">
+      <c r="C234" s="51" t="s">
         <v>367</v>
       </c>
-      <c r="D234" s="7" t="s">
+      <c r="D234" s="32" t="s">
         <v>243</v>
       </c>
-      <c r="E234" s="7" t="s">
+      <c r="E234" s="32" t="s">
         <v>248</v>
       </c>
-      <c r="F234" s="7" t="s">
+      <c r="F234" s="32" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="235" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G235" s="7" t="s">
+      <c r="G235" s="32" t="s">
         <v>369</v>
       </c>
-      <c r="H235" s="7" t="s">
+      <c r="H235" s="32" t="s">
         <v>247</v>
       </c>
-      <c r="I235" s="7" t="s">
+      <c r="I235" s="32" t="s">
         <v>248</v>
       </c>
-      <c r="K235" s="20" t="s">
+      <c r="K235" s="52" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="236" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G236" s="7" t="s">
+      <c r="G236" s="32" t="s">
         <v>370</v>
       </c>
-      <c r="H236" s="7" t="s">
+      <c r="H236" s="32" t="s">
         <v>196</v>
       </c>
-      <c r="I236" s="7" t="s">
+      <c r="I236" s="32" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="237" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="K237" s="19" t="s">
+      <c r="K237" s="53" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="239" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C239" s="18" t="s">
+      <c r="C239" s="51" t="s">
         <v>371</v>
       </c>
-      <c r="D239" s="7" t="s">
+      <c r="D239" s="32" t="s">
         <v>281</v>
       </c>
-      <c r="E239" s="7" t="s">
+      <c r="E239" s="32" t="s">
         <v>248</v>
       </c>
-      <c r="F239" s="7" t="s">
+      <c r="F239" s="32" t="s">
         <v>372</v>
       </c>
-      <c r="L239" s="7" t="s">
+      <c r="L239" s="32" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="240" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G240" s="7" t="s">
+      <c r="G240" s="32" t="s">
         <v>369</v>
       </c>
-      <c r="H240" s="7" t="s">
+      <c r="H240" s="32" t="s">
         <v>247</v>
       </c>
-      <c r="I240" s="7" t="s">
+      <c r="I240" s="32" t="s">
         <v>248</v>
       </c>
-      <c r="K240" s="20" t="s">
+      <c r="K240" s="52" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="241" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="G241" s="7" t="s">
+      <c r="G241" s="32" t="s">
         <v>370</v>
       </c>
-      <c r="H241" s="7" t="s">
+      <c r="H241" s="32" t="s">
         <v>196</v>
       </c>
-      <c r="I241" s="7" t="s">
+      <c r="I241" s="32" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="242" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="K242" s="19" t="s">
+      <c r="K242" s="53" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="244" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C244" s="18" t="s">
+      <c r="C244" s="51" t="s">
         <v>373</v>
       </c>
-      <c r="D244" s="7" t="s">
+      <c r="D244" s="32" t="s">
         <v>308</v>
       </c>
-      <c r="E244" s="7" t="s">
+      <c r="E244" s="32" t="s">
         <v>248</v>
       </c>
-      <c r="F244" s="7" t="s">
+      <c r="F244" s="32" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="245" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="K245" s="20" t="s">
+      <c r="K245" s="52" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="247" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="K247" s="19" t="s">
+      <c r="K247" s="53" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="249" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C249" s="18" t="s">
+      <c r="C249" s="51" t="s">
         <v>374</v>
       </c>
-      <c r="D249" s="7" t="s">
+      <c r="D249" s="32" t="s">
         <v>303</v>
       </c>
-      <c r="E249" s="7" t="s">
+      <c r="E249" s="32" t="s">
         <v>248</v>
       </c>
-      <c r="F249" s="7" t="s">
+      <c r="F249" s="32" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="250" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="K250" s="20" t="s">
+      <c r="K250" s="52" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="252" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="K252" s="19" t="s">
+      <c r="K252" s="53" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A262" s="7" t="s">
+    <row r="262" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A262" s="32" t="s">
         <v>123</v>
       </c>
-      <c r="B262" s="18" t="s">
+      <c r="B262" s="51" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="263" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C263" s="32" t="s">
+        <v>529</v>
+      </c>
+      <c r="D263" s="32" t="s">
+        <v>243</v>
+      </c>
+      <c r="E263" s="32" t="s">
+        <v>248</v>
+      </c>
+      <c r="F263" s="32" t="s">
+        <v>545</v>
+      </c>
+      <c r="L263" s="32" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="264" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K264" s="52" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="267" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K267" s="53" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="271" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C271" s="32" t="s">
+        <v>540</v>
+      </c>
+      <c r="D271" s="32" t="s">
+        <v>243</v>
+      </c>
+      <c r="E271" s="32" t="s">
+        <v>248</v>
+      </c>
+      <c r="F271" s="32" t="s">
+        <v>541</v>
+      </c>
+      <c r="L271" s="32" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="276" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C276" s="32" t="s">
         <v>530</v>
       </c>
-    </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C263" s="7" t="s">
-        <v>532</v>
-      </c>
-      <c r="D263" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="E263" s="7" t="s">
+      <c r="D276" s="32" t="s">
+        <v>303</v>
+      </c>
+      <c r="E276" s="32" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C267" s="7" t="s">
-        <v>533</v>
-      </c>
-      <c r="D267" s="7" t="s">
+      <c r="F276" s="32" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="280" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C280" s="32" t="s">
+        <v>528</v>
+      </c>
+      <c r="D280" s="32" t="s">
+        <v>308</v>
+      </c>
+      <c r="E280" s="32" t="s">
+        <v>248</v>
+      </c>
+      <c r="F280" s="32" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="284" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C284" s="32" t="s">
+        <v>531</v>
+      </c>
+      <c r="D284" s="32" t="s">
         <v>303</v>
       </c>
-      <c r="E267" s="7" t="s">
+      <c r="E284" s="32" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C271" s="7" t="s">
-        <v>531</v>
-      </c>
-      <c r="D271" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="E271" s="7" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="275" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C275" s="7" t="s">
-        <v>534</v>
-      </c>
-      <c r="D275" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="E275" s="7" t="s">
-        <v>248</v>
+      <c r="F284" s="32" t="s">
+        <v>544</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="K77:K78"/>
+    <mergeCell ref="L77:L78"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="A76:L76"/>
+    <mergeCell ref="E77:E78"/>
     <mergeCell ref="A33:E33"/>
     <mergeCell ref="G77:J77"/>
     <mergeCell ref="B77:B78"/>
     <mergeCell ref="C77:C78"/>
     <mergeCell ref="D77:D78"/>
     <mergeCell ref="F77:F78"/>
-    <mergeCell ref="K77:K78"/>
-    <mergeCell ref="L77:L78"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="A76:L76"/>
-    <mergeCell ref="E77:E78"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="37" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -5309,2089 +5223,2117 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N209"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="F79" sqref="F79"/>
+    <sheetView tabSelected="1" topLeftCell="A117" workbookViewId="0">
+      <selection activeCell="F130" sqref="F130"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.75" style="15" customWidth="1"/>
-    <col min="2" max="2" width="24.375" style="14" customWidth="1"/>
-    <col min="3" max="3" width="22" style="14" customWidth="1"/>
-    <col min="4" max="4" width="15.75" style="14" customWidth="1"/>
-    <col min="5" max="5" width="13.125" style="14" customWidth="1"/>
-    <col min="6" max="6" width="19.625" style="14" customWidth="1"/>
-    <col min="7" max="16384" width="9.125" style="14"/>
+    <col min="1" max="1" width="8.7109375" style="10" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="22" style="9" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" style="9" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" style="9" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" style="9" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="24" t="s">
         <v>375</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="26" t="s">
         <v>376</v>
       </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="33">
+      <c r="A5" s="15">
         <v>1</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>377</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="33"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5" t="s">
+      <c r="A6" s="15"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4" t="s">
         <v>378</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="33"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5" t="s">
+      <c r="A7" s="15"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="33"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5" t="s">
+      <c r="A8" s="15"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4" t="s">
         <v>380</v>
       </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="33"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5" t="s">
+      <c r="A9" s="15"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4" t="s">
         <v>381</v>
       </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="33">
+      <c r="A10" s="15">
         <v>2</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>382</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="33"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5" t="s">
+      <c r="A11" s="15"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4" t="s">
         <v>383</v>
       </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="33"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="34" t="s">
+      <c r="A12" s="15"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="16" t="s">
         <v>384</v>
       </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="33"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="34" t="s">
+      <c r="A13" s="15"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="16" t="s">
         <v>385</v>
       </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="33">
+      <c r="A15" s="15">
         <v>3</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>386</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="33"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5" t="s">
+      <c r="A16" s="15"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="33"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="34" t="s">
+      <c r="A17" s="15"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="16" t="s">
         <v>388</v>
       </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="33"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
+      <c r="A18" s="15"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="33">
+      <c r="A19" s="15">
         <v>4</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="4" t="s">
         <v>389</v>
       </c>
-      <c r="C19" s="34" t="s">
+      <c r="C19" s="16" t="s">
         <v>390</v>
       </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="33"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5" t="s">
+      <c r="A20" s="15"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="50" t="s">
+      <c r="A22" s="23" t="s">
         <v>392</v>
       </c>
-      <c r="B22" s="50"/>
-      <c r="C22" s="50"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="33"/>
-      <c r="B23" s="5" t="s">
+      <c r="A23" s="15"/>
+      <c r="B23" s="4" t="s">
         <v>393</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="4" t="s">
         <v>394</v>
       </c>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="33"/>
-      <c r="B24" s="5" t="s">
+      <c r="A24" s="15"/>
+      <c r="B24" s="4" t="s">
         <v>395</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="4" t="s">
         <v>396</v>
       </c>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="51" t="s">
+      <c r="A27" s="24" t="s">
         <v>397</v>
       </c>
-      <c r="B27" s="51"/>
-      <c r="C27" s="51"/>
-      <c r="D27" s="51"/>
-      <c r="E27" s="51"/>
-      <c r="F27" s="51"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="54" t="s">
+      <c r="A29" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="B29" s="54" t="s">
+      <c r="B29" s="27" t="s">
         <v>398</v>
       </c>
-      <c r="C29" s="52" t="s">
+      <c r="C29" s="25" t="s">
         <v>220</v>
       </c>
-      <c r="D29" s="52"/>
-      <c r="E29" s="52"/>
-      <c r="F29" s="52"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="54"/>
-      <c r="B30" s="54"/>
-      <c r="C30" s="35" t="s">
+      <c r="A30" s="27"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="17" t="s">
         <v>234</v>
       </c>
-      <c r="D30" s="35" t="s">
+      <c r="D30" s="17" t="s">
         <v>235</v>
       </c>
-      <c r="E30" s="35" t="s">
+      <c r="E30" s="17" t="s">
         <v>399</v>
       </c>
-      <c r="F30" s="35" t="s">
+      <c r="F30" s="17" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="49" t="s">
+      <c r="A31" s="22" t="s">
         <v>401</v>
       </c>
-      <c r="B31" s="49"/>
-      <c r="C31" s="49"/>
-      <c r="D31" s="49"/>
-      <c r="E31" s="49"/>
-      <c r="F31" s="49"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="16">
+      <c r="A32" s="11">
         <v>1</v>
       </c>
-      <c r="B32" s="36" t="s">
+      <c r="B32" s="18" t="s">
         <v>402</v>
       </c>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5" t="s">
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="33"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="17" t="s">
+      <c r="A33" s="15"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="12" t="s">
         <v>404</v>
       </c>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="33"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5" t="s">
+      <c r="A34" s="15"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4" t="s">
         <v>405</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="D34" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="E34" s="5" t="s">
+      <c r="E34" s="4" t="s">
         <v>407</v>
       </c>
-      <c r="F34" s="5" t="s">
+      <c r="F34" s="4" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="33"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5" t="s">
+      <c r="A35" s="15"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4" t="s">
         <v>409</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="D35" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="E35" s="5" t="s">
+      <c r="E35" s="4" t="s">
         <v>407</v>
       </c>
-      <c r="F35" s="5" t="s">
+      <c r="F35" s="4" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="33"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5" t="s">
+      <c r="A36" s="15"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4" t="s">
         <v>411</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="D36" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="E36" s="5" t="s">
+      <c r="E36" s="4" t="s">
         <v>407</v>
       </c>
-      <c r="F36" s="5" t="s">
+      <c r="F36" s="4" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="33"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5" t="s">
+      <c r="A37" s="15"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4" t="s">
         <v>412</v>
       </c>
-      <c r="D37" s="5" t="s">
+      <c r="D37" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="E37" s="5" t="s">
+      <c r="E37" s="4" t="s">
         <v>407</v>
       </c>
-      <c r="F37" s="5" t="s">
+      <c r="F37" s="4" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="33"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5" t="s">
+      <c r="A38" s="15"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4" t="s">
         <v>413</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="D38" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="E38" s="5" t="s">
+      <c r="E38" s="4" t="s">
         <v>415</v>
       </c>
-      <c r="F38" s="5"/>
+      <c r="F38" s="4"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="33"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5" t="s">
+      <c r="A39" s="15"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4" t="s">
         <v>416</v>
       </c>
-      <c r="D39" s="5" t="s">
+      <c r="D39" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="E39" s="5" t="s">
+      <c r="E39" s="4" t="s">
         <v>415</v>
       </c>
-      <c r="F39" s="5" t="s">
+      <c r="F39" s="4" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="33"/>
-      <c r="B40" s="5"/>
-      <c r="C40" s="5" t="s">
+      <c r="A40" s="15"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4" t="s">
         <v>418</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="D40" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="E40" s="5" t="s">
+      <c r="E40" s="4" t="s">
         <v>415</v>
       </c>
-      <c r="F40" s="5" t="s">
+      <c r="F40" s="4" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="33"/>
-      <c r="B41" s="5"/>
-      <c r="C41" s="5" t="s">
+      <c r="A41" s="15"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4" t="s">
         <v>419</v>
       </c>
-      <c r="D41" s="5" t="s">
+      <c r="D41" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="E41" s="5" t="s">
+      <c r="E41" s="4" t="s">
         <v>407</v>
       </c>
-      <c r="F41" s="5" t="s">
+      <c r="F41" s="4" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="33"/>
-      <c r="B42" s="5"/>
-      <c r="C42" s="5" t="s">
+      <c r="A42" s="15"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4" t="s">
         <v>421</v>
       </c>
-      <c r="D42" s="5" t="s">
+      <c r="D42" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="E42" s="5" t="s">
+      <c r="E42" s="4" t="s">
         <v>415</v>
       </c>
-      <c r="F42" s="5" t="s">
+      <c r="F42" s="4" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="33"/>
-      <c r="B43" s="5"/>
-      <c r="C43" s="5" t="s">
+      <c r="A43" s="15"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4" t="s">
         <v>422</v>
       </c>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="33"/>
-      <c r="B44" s="5"/>
-      <c r="C44" s="17" t="s">
+      <c r="A44" s="15"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="12" t="s">
         <v>423</v>
       </c>
-      <c r="D44" s="5" t="s">
+      <c r="D44" s="4" t="s">
         <v>424</v>
       </c>
-      <c r="E44" s="5" t="s">
+      <c r="E44" s="4" t="s">
         <v>407</v>
       </c>
-      <c r="F44" s="5" t="s">
+      <c r="F44" s="4" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="33"/>
-      <c r="B45" s="5"/>
-      <c r="C45" s="5" t="s">
+      <c r="A45" s="15"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4" t="s">
         <v>426</v>
       </c>
-      <c r="D45" s="5" t="s">
+      <c r="D45" s="4" t="s">
         <v>427</v>
       </c>
-      <c r="E45" s="5" t="s">
+      <c r="E45" s="4" t="s">
         <v>407</v>
       </c>
-      <c r="F45" s="5" t="s">
+      <c r="F45" s="4" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="33"/>
-      <c r="B46" s="5"/>
-      <c r="C46" s="5" t="s">
+      <c r="A46" s="15"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4" t="s">
         <v>429</v>
       </c>
-      <c r="D46" s="5" t="s">
+      <c r="D46" s="4" t="s">
         <v>427</v>
       </c>
-      <c r="E46" s="5" t="s">
+      <c r="E46" s="4" t="s">
         <v>407</v>
       </c>
-      <c r="F46" s="5" t="s">
+      <c r="F46" s="4" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="33">
+      <c r="A48" s="15">
         <v>2</v>
       </c>
-      <c r="B48" s="37" t="s">
+      <c r="B48" s="19" t="s">
         <v>431</v>
       </c>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5" t="s">
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="33"/>
-      <c r="B49" s="5"/>
-      <c r="C49" s="17" t="s">
+      <c r="A49" s="15"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="12" t="s">
         <v>404</v>
       </c>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
-      <c r="F49" s="5"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="33"/>
-      <c r="B50" s="5"/>
-      <c r="C50" s="5" t="s">
+      <c r="A50" s="15"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4" t="s">
         <v>405</v>
       </c>
-      <c r="D50" s="5" t="s">
+      <c r="D50" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="E50" s="5" t="s">
+      <c r="E50" s="4" t="s">
         <v>407</v>
       </c>
-      <c r="F50" s="5" t="s">
+      <c r="F50" s="4" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="33"/>
-      <c r="B51" s="5"/>
-      <c r="C51" s="5" t="s">
+      <c r="A51" s="15"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="D51" s="5" t="s">
+      <c r="D51" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="E51" s="5" t="s">
+      <c r="E51" s="4" t="s">
         <v>407</v>
       </c>
-      <c r="F51" s="5" t="s">
+      <c r="F51" s="4" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="33"/>
-      <c r="B52" s="5"/>
-      <c r="C52" s="5" t="s">
+      <c r="A52" s="15"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="4" t="s">
         <v>433</v>
       </c>
-      <c r="D52" s="5" t="s">
+      <c r="D52" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="E52" s="5" t="s">
+      <c r="E52" s="4" t="s">
         <v>415</v>
       </c>
-      <c r="F52" s="5" t="s">
+      <c r="F52" s="4" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="33"/>
-      <c r="B53" s="5"/>
-      <c r="C53" s="5" t="s">
+      <c r="A53" s="15"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="4" t="s">
         <v>416</v>
       </c>
-      <c r="D53" s="5" t="s">
+      <c r="D53" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="E53" s="5" t="s">
+      <c r="E53" s="4" t="s">
         <v>415</v>
       </c>
-      <c r="F53" s="5" t="s">
+      <c r="F53" s="4" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="33"/>
-      <c r="B54" s="5"/>
-      <c r="C54" s="5" t="s">
+      <c r="A54" s="15"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="4" t="s">
         <v>418</v>
       </c>
-      <c r="D54" s="5" t="s">
+      <c r="D54" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="E54" s="5" t="s">
+      <c r="E54" s="4" t="s">
         <v>415</v>
       </c>
-      <c r="F54" s="5" t="s">
+      <c r="F54" s="4" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="33"/>
-      <c r="B55" s="5"/>
-      <c r="C55" s="5" t="s">
+      <c r="A55" s="15"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="4" t="s">
         <v>422</v>
       </c>
-      <c r="D55" s="5"/>
-      <c r="E55" s="5"/>
-      <c r="F55" s="5"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="33"/>
-      <c r="B56" s="5"/>
-      <c r="C56" s="17" t="s">
+      <c r="A56" s="15"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="12" t="s">
         <v>423</v>
       </c>
-      <c r="D56" s="5" t="s">
+      <c r="D56" s="4" t="s">
         <v>424</v>
       </c>
-      <c r="E56" s="5" t="s">
+      <c r="E56" s="4" t="s">
         <v>407</v>
       </c>
-      <c r="F56" s="5" t="s">
+      <c r="F56" s="4" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="33"/>
-      <c r="B57" s="5"/>
-      <c r="C57" s="5" t="s">
+      <c r="A57" s="15"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="4" t="s">
         <v>435</v>
       </c>
-      <c r="D57" s="5" t="s">
+      <c r="D57" s="4" t="s">
         <v>427</v>
       </c>
-      <c r="E57" s="5" t="s">
+      <c r="E57" s="4" t="s">
         <v>407</v>
       </c>
-      <c r="F57" s="5" t="s">
+      <c r="F57" s="4" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="33"/>
-      <c r="B58" s="5"/>
-      <c r="C58" s="5" t="s">
+      <c r="A58" s="15"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="4" t="s">
         <v>437</v>
       </c>
-      <c r="D58" s="5" t="s">
+      <c r="D58" s="4" t="s">
         <v>427</v>
       </c>
-      <c r="E58" s="5" t="s">
+      <c r="E58" s="4" t="s">
         <v>407</v>
       </c>
-      <c r="F58" s="5" t="s">
+      <c r="F58" s="4" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="33">
+      <c r="A60" s="15">
         <v>3</v>
       </c>
-      <c r="B60" s="37" t="s">
+      <c r="B60" s="19" t="s">
         <v>243</v>
       </c>
-      <c r="C60" s="5"/>
-      <c r="D60" s="5"/>
-      <c r="E60" s="5"/>
-      <c r="F60" s="5"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="33"/>
-      <c r="B61" s="5"/>
-      <c r="C61" s="17" t="s">
+      <c r="A61" s="15"/>
+      <c r="B61" s="4"/>
+      <c r="C61" s="12" t="s">
         <v>404</v>
       </c>
-      <c r="D61" s="5"/>
-      <c r="E61" s="5"/>
-      <c r="F61" s="5"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="33"/>
-      <c r="B62" s="5"/>
-      <c r="C62" s="5" t="s">
+      <c r="A62" s="15"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="4" t="s">
         <v>405</v>
       </c>
-      <c r="D62" s="5" t="s">
+      <c r="D62" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="E62" s="5" t="s">
+      <c r="E62" s="4" t="s">
         <v>407</v>
       </c>
-      <c r="F62" s="5" t="s">
+      <c r="F62" s="4" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="33"/>
-      <c r="B63" s="5"/>
-      <c r="C63" s="5" t="s">
+      <c r="A63" s="15"/>
+      <c r="B63" s="4"/>
+      <c r="C63" s="4" t="s">
         <v>439</v>
       </c>
-      <c r="D63" s="5" t="s">
+      <c r="D63" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="E63" s="5" t="s">
+      <c r="E63" s="4" t="s">
         <v>407</v>
       </c>
-      <c r="F63" s="5" t="s">
+      <c r="F63" s="4" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="33"/>
-      <c r="B64" s="5"/>
-      <c r="C64" s="5" t="s">
+      <c r="A64" s="15"/>
+      <c r="B64" s="4"/>
+      <c r="C64" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="D64" s="5" t="s">
+      <c r="D64" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="E64" s="5" t="s">
+      <c r="E64" s="4" t="s">
         <v>407</v>
       </c>
-      <c r="F64" s="5" t="s">
+      <c r="F64" s="4" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="33"/>
-      <c r="B65" s="5"/>
-      <c r="C65" s="5" t="s">
+      <c r="A65" s="15"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="4" t="s">
         <v>442</v>
       </c>
-      <c r="D65" s="5" t="s">
+      <c r="D65" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="E65" s="5" t="s">
+      <c r="E65" s="4" t="s">
         <v>415</v>
       </c>
-      <c r="F65" s="5"/>
+      <c r="F65" s="4"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="33"/>
-      <c r="B66" s="5"/>
-      <c r="C66" s="5" t="s">
+      <c r="A66" s="15"/>
+      <c r="B66" s="4"/>
+      <c r="C66" s="4" t="s">
         <v>443</v>
       </c>
-      <c r="D66" s="5" t="s">
+      <c r="D66" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="E66" s="5" t="s">
+      <c r="E66" s="4" t="s">
         <v>407</v>
       </c>
-      <c r="F66" s="5" t="s">
+      <c r="F66" s="4" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="33"/>
-      <c r="B67" s="5"/>
-      <c r="C67" s="5" t="s">
+      <c r="A67" s="15"/>
+      <c r="B67" s="4"/>
+      <c r="C67" s="4" t="s">
         <v>444</v>
       </c>
-      <c r="D67" s="5" t="s">
+      <c r="D67" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="E67" s="5" t="s">
+      <c r="E67" s="4" t="s">
         <v>407</v>
       </c>
-      <c r="F67" s="5"/>
+      <c r="F67" s="4"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="33"/>
-      <c r="B68" s="5"/>
-      <c r="C68" s="5" t="s">
+      <c r="A68" s="15"/>
+      <c r="B68" s="4"/>
+      <c r="C68" s="4" t="s">
         <v>445</v>
       </c>
-      <c r="D68" s="5" t="s">
+      <c r="D68" s="4" t="s">
         <v>446</v>
       </c>
-      <c r="E68" s="5" t="s">
+      <c r="E68" s="4" t="s">
         <v>407</v>
       </c>
-      <c r="F68" s="5" t="s">
+      <c r="F68" s="4" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="33"/>
-      <c r="B69" s="5"/>
-      <c r="C69" s="17" t="s">
+      <c r="A69" s="15"/>
+      <c r="B69" s="4"/>
+      <c r="C69" s="12" t="s">
         <v>423</v>
       </c>
-      <c r="D69" s="5" t="s">
+      <c r="D69" s="4" t="s">
         <v>424</v>
       </c>
-      <c r="E69" s="5" t="s">
+      <c r="E69" s="4" t="s">
         <v>407</v>
       </c>
-      <c r="F69" s="5"/>
+      <c r="F69" s="4"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="33"/>
-      <c r="B70" s="5"/>
-      <c r="C70" s="5" t="s">
+      <c r="A70" s="15"/>
+      <c r="B70" s="4"/>
+      <c r="C70" s="4" t="s">
         <v>448</v>
       </c>
-      <c r="D70" s="5" t="s">
+      <c r="D70" s="4" t="s">
         <v>427</v>
       </c>
-      <c r="E70" s="5" t="s">
+      <c r="E70" s="4" t="s">
         <v>407</v>
       </c>
-      <c r="F70" s="5" t="s">
+      <c r="F70" s="4" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="33">
+      <c r="A72" s="15">
         <v>4</v>
       </c>
-      <c r="B72" s="37" t="s">
+      <c r="B72" s="19" t="s">
         <v>450</v>
       </c>
-      <c r="C72" s="5"/>
-      <c r="D72" s="5"/>
-      <c r="E72" s="5"/>
-      <c r="F72" s="5"/>
+      <c r="C72" s="4"/>
+      <c r="D72" s="4"/>
+      <c r="E72" s="4"/>
+      <c r="F72" s="4"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="33"/>
-      <c r="B73" s="5"/>
-      <c r="C73" s="17" t="s">
+      <c r="A73" s="15"/>
+      <c r="B73" s="4"/>
+      <c r="C73" s="12" t="s">
         <v>404</v>
       </c>
-      <c r="D73" s="5"/>
-      <c r="E73" s="5"/>
-      <c r="F73" s="5"/>
+      <c r="D73" s="4"/>
+      <c r="E73" s="4"/>
+      <c r="F73" s="4"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="33"/>
-      <c r="B74" s="5"/>
-      <c r="C74" s="5" t="s">
+      <c r="A74" s="15"/>
+      <c r="B74" s="4"/>
+      <c r="C74" s="4" t="s">
         <v>405</v>
       </c>
-      <c r="D74" s="5" t="s">
+      <c r="D74" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="E74" s="5" t="s">
+      <c r="E74" s="4" t="s">
         <v>407</v>
       </c>
-      <c r="F74" s="5" t="s">
+      <c r="F74" s="4" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="33"/>
-      <c r="B75" s="5"/>
-      <c r="C75" s="5" t="s">
+      <c r="A75" s="15"/>
+      <c r="B75" s="4"/>
+      <c r="C75" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="D75" s="5" t="s">
+      <c r="D75" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="E75" s="5" t="s">
+      <c r="E75" s="4" t="s">
         <v>407</v>
       </c>
-      <c r="F75" s="5" t="s">
+      <c r="F75" s="4" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="33"/>
-      <c r="B76" s="5"/>
-      <c r="C76" s="5" t="s">
+      <c r="A76" s="15"/>
+      <c r="B76" s="4"/>
+      <c r="C76" s="4" t="s">
         <v>443</v>
       </c>
-      <c r="D76" s="5" t="s">
+      <c r="D76" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="E76" s="5" t="s">
+      <c r="E76" s="4" t="s">
         <v>407</v>
       </c>
-      <c r="F76" s="5" t="s">
+      <c r="F76" s="4" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="33"/>
-      <c r="B77" s="5"/>
-      <c r="C77" s="5" t="s">
+      <c r="A77" s="15"/>
+      <c r="B77" s="4"/>
+      <c r="C77" s="4" t="s">
         <v>444</v>
       </c>
-      <c r="D77" s="5" t="s">
+      <c r="D77" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="E77" s="5" t="s">
+      <c r="E77" s="4" t="s">
         <v>407</v>
       </c>
-      <c r="F77" s="5"/>
+      <c r="F77" s="4"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="33"/>
-      <c r="B78" s="5"/>
-      <c r="C78" s="5" t="s">
+      <c r="A78" s="15"/>
+      <c r="B78" s="4"/>
+      <c r="C78" s="4" t="s">
         <v>445</v>
       </c>
-      <c r="D78" s="5" t="s">
+      <c r="D78" s="4" t="s">
         <v>446</v>
       </c>
-      <c r="E78" s="5" t="s">
+      <c r="E78" s="4" t="s">
         <v>407</v>
       </c>
-      <c r="F78" s="5" t="s">
+      <c r="F78" s="4" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="33"/>
-      <c r="B79" s="5"/>
-      <c r="C79" s="17" t="s">
+      <c r="A79" s="15"/>
+      <c r="B79" s="4"/>
+      <c r="C79" s="12" t="s">
         <v>423</v>
       </c>
-      <c r="D79" s="5" t="s">
+      <c r="D79" s="4" t="s">
         <v>424</v>
       </c>
-      <c r="E79" s="5" t="s">
+      <c r="E79" s="4" t="s">
         <v>407</v>
       </c>
-      <c r="F79" s="5"/>
+      <c r="F79" s="4"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="33"/>
-      <c r="B80" s="5"/>
-      <c r="C80" s="5" t="s">
+      <c r="A80" s="15"/>
+      <c r="B80" s="4"/>
+      <c r="C80" s="4" t="s">
         <v>452</v>
       </c>
-      <c r="D80" s="5" t="s">
+      <c r="D80" s="4" t="s">
         <v>427</v>
       </c>
-      <c r="E80" s="5" t="s">
+      <c r="E80" s="4" t="s">
         <v>407</v>
       </c>
-      <c r="F80" s="5" t="s">
+      <c r="F80" s="4" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="33">
+      <c r="A83" s="15">
         <v>5</v>
       </c>
-      <c r="B83" s="37" t="s">
+      <c r="B83" s="19" t="s">
         <v>453</v>
       </c>
-      <c r="C83" s="5"/>
-      <c r="D83" s="5"/>
-      <c r="E83" s="5"/>
-      <c r="F83" s="38" t="s">
+      <c r="C83" s="4"/>
+      <c r="D83" s="4"/>
+      <c r="E83" s="4"/>
+      <c r="F83" s="20" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="33"/>
-      <c r="B84" s="5"/>
-      <c r="C84" s="17" t="s">
+      <c r="A84" s="15"/>
+      <c r="B84" s="4"/>
+      <c r="C84" s="12" t="s">
         <v>404</v>
       </c>
-      <c r="D84" s="5"/>
-      <c r="E84" s="5"/>
-      <c r="F84" s="5"/>
+      <c r="D84" s="4"/>
+      <c r="E84" s="4"/>
+      <c r="F84" s="4"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="33"/>
-      <c r="B85" s="5"/>
-      <c r="C85" s="5" t="s">
+      <c r="A85" s="15"/>
+      <c r="B85" s="4"/>
+      <c r="C85" s="4" t="s">
         <v>405</v>
       </c>
-      <c r="D85" s="5" t="s">
+      <c r="D85" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="E85" s="5" t="s">
+      <c r="E85" s="4" t="s">
         <v>407</v>
       </c>
-      <c r="F85" s="5" t="s">
+      <c r="F85" s="4" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="33"/>
-      <c r="B86" s="5"/>
-      <c r="C86" s="5" t="s">
+      <c r="A86" s="15"/>
+      <c r="B86" s="4"/>
+      <c r="C86" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="D86" s="5" t="s">
+      <c r="D86" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="E86" s="5" t="s">
+      <c r="E86" s="4" t="s">
         <v>407</v>
       </c>
-      <c r="F86" s="5" t="s">
+      <c r="F86" s="4" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="33"/>
-      <c r="B87" s="5"/>
-      <c r="C87" s="5" t="s">
+      <c r="A87" s="15"/>
+      <c r="B87" s="4"/>
+      <c r="C87" s="4" t="s">
         <v>433</v>
       </c>
-      <c r="D87" s="5" t="s">
+      <c r="D87" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="E87" s="5" t="s">
+      <c r="E87" s="4" t="s">
         <v>415</v>
       </c>
-      <c r="F87" s="5" t="s">
+      <c r="F87" s="4" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" s="33"/>
-      <c r="B90" s="5"/>
-      <c r="C90" s="17" t="s">
+      <c r="A90" s="15"/>
+      <c r="B90" s="4"/>
+      <c r="C90" s="12" t="s">
         <v>455</v>
       </c>
-      <c r="D90" s="5"/>
-      <c r="E90" s="5"/>
-      <c r="F90" s="5" t="s">
+      <c r="D90" s="4"/>
+      <c r="E90" s="4"/>
+      <c r="F90" s="4" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" s="33"/>
-      <c r="B91" s="5"/>
-      <c r="C91" s="5" t="s">
+      <c r="A91" s="15"/>
+      <c r="B91" s="4"/>
+      <c r="C91" s="4" t="s">
         <v>457</v>
       </c>
-      <c r="D91" s="5" t="s">
+      <c r="D91" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="E91" s="5" t="s">
+      <c r="E91" s="4" t="s">
         <v>407</v>
       </c>
-      <c r="F91" s="5" t="s">
+      <c r="F91" s="4" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" s="33"/>
-      <c r="B92" s="5"/>
-      <c r="C92" s="5" t="s">
+      <c r="A92" s="15"/>
+      <c r="B92" s="4"/>
+      <c r="C92" s="4" t="s">
         <v>459</v>
       </c>
-      <c r="D92" s="5" t="s">
+      <c r="D92" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="E92" s="5" t="s">
+      <c r="E92" s="4" t="s">
         <v>407</v>
       </c>
-      <c r="F92" s="5" t="s">
+      <c r="F92" s="4" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" s="33"/>
-      <c r="B93" s="5"/>
-      <c r="C93" s="5" t="s">
+      <c r="A93" s="15"/>
+      <c r="B93" s="4"/>
+      <c r="C93" s="4" t="s">
         <v>461</v>
       </c>
-      <c r="D93" s="5" t="s">
+      <c r="D93" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="E93" s="5" t="s">
+      <c r="E93" s="4" t="s">
         <v>415</v>
       </c>
-      <c r="F93" s="5" t="s">
+      <c r="F93" s="4" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" s="33"/>
-      <c r="B94" s="5"/>
-      <c r="C94" s="5" t="s">
+      <c r="A94" s="15"/>
+      <c r="B94" s="4"/>
+      <c r="C94" s="4" t="s">
         <v>463</v>
       </c>
-      <c r="D94" s="5" t="s">
+      <c r="D94" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="E94" s="5" t="s">
+      <c r="E94" s="4" t="s">
         <v>415</v>
       </c>
-      <c r="F94" s="5"/>
+      <c r="F94" s="4"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" s="33"/>
-      <c r="B96" s="5"/>
-      <c r="C96" s="17" t="s">
+      <c r="A96" s="15"/>
+      <c r="B96" s="4"/>
+      <c r="C96" s="12" t="s">
         <v>423</v>
       </c>
-      <c r="D96" s="5"/>
-      <c r="E96" s="5"/>
-      <c r="F96" s="5"/>
+      <c r="D96" s="4"/>
+      <c r="E96" s="4"/>
+      <c r="F96" s="4"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" s="33"/>
-      <c r="B97" s="5"/>
-      <c r="C97" s="5" t="s">
+      <c r="A97" s="15"/>
+      <c r="B97" s="4"/>
+      <c r="C97" s="4" t="s">
         <v>464</v>
       </c>
-      <c r="D97" s="5" t="s">
+      <c r="D97" s="4" t="s">
         <v>427</v>
       </c>
-      <c r="E97" s="5" t="s">
+      <c r="E97" s="4" t="s">
         <v>407</v>
       </c>
-      <c r="F97" s="5" t="s">
+      <c r="F97" s="4" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101" s="33">
+      <c r="A101" s="15">
         <v>6</v>
       </c>
-      <c r="B101" s="37" t="s">
+      <c r="B101" s="19" t="s">
         <v>466</v>
       </c>
-      <c r="C101" s="5"/>
-      <c r="D101" s="5"/>
-      <c r="E101" s="5"/>
-      <c r="F101" s="38" t="s">
+      <c r="C101" s="4"/>
+      <c r="D101" s="4"/>
+      <c r="E101" s="4"/>
+      <c r="F101" s="20" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102" s="33"/>
-      <c r="B102" s="5"/>
-      <c r="C102" s="17" t="s">
+      <c r="A102" s="15"/>
+      <c r="B102" s="4"/>
+      <c r="C102" s="12" t="s">
         <v>404</v>
       </c>
-      <c r="D102" s="5"/>
-      <c r="E102" s="5"/>
-      <c r="F102" s="5"/>
+      <c r="D102" s="4"/>
+      <c r="E102" s="4"/>
+      <c r="F102" s="4"/>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103" s="33"/>
-      <c r="B103" s="5"/>
-      <c r="C103" s="5" t="s">
+      <c r="A103" s="15"/>
+      <c r="B103" s="4"/>
+      <c r="C103" s="4" t="s">
         <v>405</v>
       </c>
-      <c r="D103" s="5"/>
-      <c r="E103" s="5"/>
-      <c r="F103" s="5"/>
+      <c r="D103" s="4"/>
+      <c r="E103" s="4"/>
+      <c r="F103" s="4"/>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104" s="33"/>
-      <c r="B104" s="5"/>
-      <c r="C104" s="5" t="s">
+      <c r="A104" s="15"/>
+      <c r="B104" s="4"/>
+      <c r="C104" s="4" t="s">
         <v>468</v>
       </c>
-      <c r="D104" s="5"/>
-      <c r="E104" s="5"/>
-      <c r="F104" s="5"/>
+      <c r="D104" s="4"/>
+      <c r="E104" s="4"/>
+      <c r="F104" s="4"/>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A106" s="33"/>
-      <c r="B106" s="5"/>
-      <c r="C106" s="17" t="s">
+      <c r="A106" s="15"/>
+      <c r="B106" s="4"/>
+      <c r="C106" s="12" t="s">
         <v>455</v>
       </c>
-      <c r="D106" s="5"/>
-      <c r="E106" s="5"/>
-      <c r="F106" s="5"/>
+      <c r="D106" s="4"/>
+      <c r="E106" s="4"/>
+      <c r="F106" s="4"/>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A111" s="33"/>
-      <c r="B111" s="5"/>
-      <c r="C111" s="17" t="s">
+      <c r="A111" s="15"/>
+      <c r="B111" s="4"/>
+      <c r="C111" s="12" t="s">
         <v>423</v>
       </c>
-      <c r="D111" s="5"/>
-      <c r="E111" s="5"/>
-      <c r="F111" s="5"/>
+      <c r="D111" s="4"/>
+      <c r="E111" s="4"/>
+      <c r="F111" s="4"/>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A112" s="33"/>
-      <c r="B112" s="5"/>
-      <c r="C112" s="5" t="s">
+      <c r="A112" s="15"/>
+      <c r="B112" s="4"/>
+      <c r="C112" s="4" t="s">
         <v>469</v>
       </c>
-      <c r="D112" s="5" t="s">
+      <c r="D112" s="4" t="s">
         <v>427</v>
       </c>
-      <c r="E112" s="5" t="s">
+      <c r="E112" s="4" t="s">
         <v>407</v>
       </c>
-      <c r="F112" s="5" t="s">
+      <c r="F112" s="4" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A114" s="33">
+      <c r="A114" s="15">
         <v>7</v>
       </c>
-      <c r="B114" s="37" t="s">
+      <c r="B114" s="19" t="s">
         <v>471</v>
       </c>
-      <c r="C114" s="5"/>
-      <c r="D114" s="5"/>
-      <c r="E114" s="5"/>
-      <c r="F114" s="5" t="s">
+      <c r="C114" s="4"/>
+      <c r="D114" s="4"/>
+      <c r="E114" s="4"/>
+      <c r="F114" s="4" t="s">
         <v>472</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A115" s="33"/>
-      <c r="B115" s="5"/>
-      <c r="C115" s="17" t="s">
+      <c r="A115" s="15"/>
+      <c r="B115" s="4"/>
+      <c r="C115" s="12" t="s">
         <v>404</v>
       </c>
-      <c r="D115" s="5"/>
-      <c r="E115" s="5"/>
-      <c r="F115" s="5"/>
+      <c r="D115" s="4"/>
+      <c r="E115" s="4"/>
+      <c r="F115" s="4"/>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A116" s="33"/>
-      <c r="B116" s="5"/>
-      <c r="C116" s="5" t="s">
+      <c r="A116" s="15"/>
+      <c r="B116" s="4"/>
+      <c r="C116" s="4" t="s">
         <v>405</v>
       </c>
-      <c r="D116" s="5"/>
-      <c r="E116" s="5"/>
-      <c r="F116" s="5"/>
+      <c r="D116" s="4"/>
+      <c r="E116" s="4"/>
+      <c r="F116" s="4"/>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A117" s="33"/>
-      <c r="B117" s="5"/>
-      <c r="C117" s="5" t="s">
+      <c r="A117" s="15"/>
+      <c r="B117" s="4"/>
+      <c r="C117" s="4" t="s">
         <v>468</v>
       </c>
-      <c r="D117" s="5"/>
-      <c r="E117" s="5"/>
-      <c r="F117" s="5"/>
+      <c r="D117" s="4"/>
+      <c r="E117" s="4"/>
+      <c r="F117" s="4"/>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A118" s="33"/>
-      <c r="B118" s="5"/>
-      <c r="C118" s="5" t="s">
+      <c r="A118" s="15"/>
+      <c r="B118" s="4"/>
+      <c r="C118" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="D118" s="5"/>
-      <c r="E118" s="5"/>
-      <c r="F118" s="5"/>
+      <c r="D118" s="4"/>
+      <c r="E118" s="4"/>
+      <c r="F118" s="4"/>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A120" s="33"/>
-      <c r="B120" s="5"/>
-      <c r="C120" s="17" t="s">
+      <c r="A120" s="15"/>
+      <c r="B120" s="4"/>
+      <c r="C120" s="12" t="s">
         <v>423</v>
       </c>
-      <c r="D120" s="5"/>
-      <c r="E120" s="5"/>
-      <c r="F120" s="5"/>
+      <c r="D120" s="4"/>
+      <c r="E120" s="4"/>
+      <c r="F120" s="4"/>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A121" s="33"/>
-      <c r="B121" s="5"/>
-      <c r="C121" s="5" t="s">
+      <c r="A121" s="15"/>
+      <c r="B121" s="4"/>
+      <c r="C121" s="4" t="s">
         <v>473</v>
       </c>
-      <c r="D121" s="5" t="s">
+      <c r="D121" s="4" t="s">
         <v>427</v>
       </c>
-      <c r="E121" s="5" t="s">
+      <c r="E121" s="4" t="s">
         <v>407</v>
       </c>
-      <c r="F121" s="5" t="s">
+      <c r="F121" s="4" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A125" s="33">
+      <c r="A125" s="15">
         <v>8</v>
       </c>
-      <c r="B125" s="37" t="s">
+      <c r="B125" s="19" t="s">
         <v>475</v>
       </c>
-      <c r="C125" s="5"/>
-      <c r="D125" s="5"/>
-      <c r="E125" s="5"/>
-      <c r="F125" s="5" t="s">
+      <c r="C125" s="4"/>
+      <c r="D125" s="4"/>
+      <c r="E125" s="4"/>
+      <c r="F125" s="4" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A126" s="33"/>
-      <c r="B126" s="5"/>
-      <c r="C126" s="17" t="s">
+      <c r="A126" s="15"/>
+      <c r="B126" s="4"/>
+      <c r="C126" s="12" t="s">
         <v>404</v>
       </c>
-      <c r="D126" s="5"/>
-      <c r="E126" s="5"/>
-      <c r="F126" s="5"/>
+      <c r="D126" s="4"/>
+      <c r="E126" s="4"/>
+      <c r="F126" s="4"/>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A127" s="33"/>
-      <c r="B127" s="5"/>
-      <c r="C127" s="5" t="s">
+      <c r="A127" s="15"/>
+      <c r="B127" s="4"/>
+      <c r="C127" s="4" t="s">
         <v>405</v>
       </c>
-      <c r="D127" s="5" t="s">
+      <c r="D127" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="E127" s="5" t="s">
+      <c r="E127" s="4" t="s">
         <v>407</v>
       </c>
-      <c r="F127" s="5" t="s">
+      <c r="F127" s="4" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A128" s="33"/>
-      <c r="B128" s="5"/>
-      <c r="C128" s="5" t="s">
+      <c r="A128" s="15"/>
+      <c r="B128" s="4"/>
+      <c r="C128" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="D128" s="5" t="s">
+      <c r="D128" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="E128" s="5" t="s">
+      <c r="E128" s="4" t="s">
         <v>407</v>
       </c>
       <c r="F128" s="5" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129" s="15"/>
+      <c r="B129" s="4"/>
+      <c r="C129" s="4" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A129" s="33"/>
-      <c r="B129" s="5"/>
-      <c r="C129" s="5" t="s">
-        <v>479</v>
-      </c>
-      <c r="D129" s="5" t="s">
-        <v>406</v>
+      <c r="D129" s="4" t="s">
+        <v>446</v>
       </c>
       <c r="E129" s="5" t="s">
         <v>407</v>
       </c>
       <c r="F129" s="5" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130" s="15"/>
+      <c r="B130" s="4"/>
+      <c r="C130" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="D130" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="E130" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="F130" s="4" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131" s="15"/>
+      <c r="B131" s="4"/>
+      <c r="C131" s="4" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A130" s="33"/>
-      <c r="B130" s="5"/>
-      <c r="C130" s="5" t="s">
+      <c r="D131" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="E131" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="F131" s="5" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132" s="15"/>
+      <c r="B132" s="4"/>
+      <c r="C132" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="D132" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="E132" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="F132" s="5" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133" s="15"/>
+      <c r="B133" s="4"/>
+      <c r="C133" s="4" t="s">
         <v>481</v>
       </c>
-      <c r="D130" s="5" t="s">
+      <c r="D133" s="4" t="s">
         <v>446</v>
       </c>
-      <c r="E130" s="5"/>
-      <c r="F130" s="5"/>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A131" s="33"/>
-      <c r="B131" s="5"/>
-      <c r="C131" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="D131" s="5" t="s">
-        <v>427</v>
-      </c>
-      <c r="E131" s="5"/>
-      <c r="F131" s="5" t="s">
+      <c r="E133" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="F133" s="4" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A132" s="33"/>
-      <c r="B132" s="5"/>
-      <c r="C132" s="5" t="s">
-        <v>483</v>
-      </c>
-      <c r="D132" s="5" t="s">
-        <v>414</v>
-      </c>
-      <c r="E132" s="5"/>
-      <c r="F132" s="5"/>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A133" s="33"/>
-      <c r="B133" s="5"/>
-      <c r="C133" s="5" t="s">
-        <v>442</v>
-      </c>
-      <c r="D133" s="5" t="s">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C134" s="5" t="s">
+        <v>532</v>
+      </c>
+      <c r="D134" s="5" t="s">
         <v>406</v>
-      </c>
-      <c r="E133" s="5"/>
-      <c r="F133" s="5"/>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A134" s="33"/>
-      <c r="B134" s="5"/>
-      <c r="C134" s="5" t="s">
-        <v>484</v>
-      </c>
-      <c r="D134" s="5" t="s">
-        <v>446</v>
       </c>
       <c r="E134" s="5" t="s">
         <v>415</v>
       </c>
       <c r="F134" s="5" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135" s="15"/>
+      <c r="B135" s="4"/>
+      <c r="C135" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="D135" s="4"/>
+      <c r="E135" s="4"/>
+      <c r="F135" s="4"/>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136" s="15"/>
+      <c r="B136" s="4"/>
+      <c r="C136" s="12" t="s">
+        <v>423</v>
+      </c>
+      <c r="D136" s="4"/>
+      <c r="E136" s="4"/>
+      <c r="F136" s="4"/>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137" s="15"/>
+      <c r="B137" s="4"/>
+      <c r="C137" s="5" t="s">
+        <v>533</v>
+      </c>
+      <c r="D137" s="5" t="s">
+        <v>534</v>
+      </c>
+      <c r="E137" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="F137" s="5" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138" s="15"/>
+      <c r="B138" s="4"/>
+      <c r="C138" s="54" t="s">
+        <v>483</v>
+      </c>
+      <c r="D138" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="E138" s="4"/>
+      <c r="F138" s="4" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140" s="15">
+        <v>9</v>
+      </c>
+      <c r="B140" s="19" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A136" s="33"/>
-      <c r="B136" s="5"/>
-      <c r="C136" s="5" t="s">
+      <c r="C140" s="4"/>
+      <c r="D140" s="4"/>
+      <c r="E140" s="4"/>
+      <c r="F140" s="4"/>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141" s="15"/>
+      <c r="B141" s="4"/>
+      <c r="C141" s="12" t="s">
+        <v>404</v>
+      </c>
+      <c r="D141" s="4"/>
+      <c r="E141" s="4"/>
+      <c r="F141" s="4"/>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142" s="15"/>
+      <c r="B142" s="4"/>
+      <c r="C142" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="D142" s="4"/>
+      <c r="E142" s="4"/>
+      <c r="F142" s="4"/>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143" s="15"/>
+      <c r="B143" s="4"/>
+      <c r="C143" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="D143" s="4"/>
+      <c r="E143" s="4"/>
+      <c r="F143" s="4"/>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144" s="15"/>
+      <c r="B144" s="4"/>
+      <c r="C144" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="D144" s="4"/>
+      <c r="E144" s="4"/>
+      <c r="F144" s="4"/>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145" s="15"/>
+      <c r="B145" s="4"/>
+      <c r="C145" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="D145" s="4"/>
+      <c r="E145" s="4"/>
+      <c r="F145" s="4"/>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A146" s="15"/>
+      <c r="B146" s="4"/>
+      <c r="C146" s="4" t="s">
         <v>422</v>
       </c>
-      <c r="D136" s="5"/>
-      <c r="E136" s="5"/>
-      <c r="F136" s="5"/>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A137" s="33"/>
-      <c r="B137" s="5"/>
-      <c r="C137" s="17" t="s">
+      <c r="D146" s="4"/>
+      <c r="E146" s="4"/>
+      <c r="F146" s="4"/>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A147" s="15"/>
+      <c r="B147" s="4"/>
+      <c r="C147" s="12" t="s">
         <v>423</v>
       </c>
-      <c r="D137" s="5"/>
-      <c r="E137" s="5"/>
-      <c r="F137" s="5"/>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A138" s="33"/>
-      <c r="B138" s="5"/>
-      <c r="C138" s="5" t="s">
+      <c r="D147" s="4"/>
+      <c r="E147" s="4"/>
+      <c r="F147" s="4"/>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A148" s="15"/>
+      <c r="B148" s="4"/>
+      <c r="C148" s="4" t="s">
         <v>486</v>
       </c>
-      <c r="D138" s="5" t="s">
+      <c r="D148" s="4" t="s">
         <v>427</v>
       </c>
-      <c r="E138" s="5"/>
-      <c r="F138" s="5" t="s">
+      <c r="E148" s="4"/>
+      <c r="F148" s="4" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A152" s="15">
+        <v>10</v>
+      </c>
+      <c r="B152" s="19" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A140" s="33">
-        <v>9</v>
-      </c>
-      <c r="B140" s="37" t="s">
+      <c r="C152" s="4"/>
+      <c r="D152" s="4"/>
+      <c r="E152" s="4"/>
+      <c r="F152" s="20" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A153" s="15"/>
+      <c r="B153" s="4"/>
+      <c r="C153" s="12" t="s">
+        <v>404</v>
+      </c>
+      <c r="D153" s="4"/>
+      <c r="E153" s="4"/>
+      <c r="F153" s="4"/>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A154" s="15"/>
+      <c r="B154" s="4"/>
+      <c r="C154" s="4" t="s">
         <v>488</v>
       </c>
-      <c r="C140" s="5"/>
-      <c r="D140" s="5"/>
-      <c r="E140" s="5"/>
-      <c r="F140" s="5"/>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A141" s="33"/>
-      <c r="B141" s="5"/>
-      <c r="C141" s="17" t="s">
+      <c r="D154" s="4"/>
+      <c r="E154" s="4"/>
+      <c r="F154" s="4"/>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A155" s="15"/>
+      <c r="B155" s="4"/>
+      <c r="C155" s="4" t="s">
+        <v>489</v>
+      </c>
+      <c r="D155" s="4"/>
+      <c r="E155" s="4"/>
+      <c r="F155" s="4"/>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A156" s="15"/>
+      <c r="B156" s="4"/>
+      <c r="C156" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="D156" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="E156" s="4"/>
+      <c r="F156" s="4"/>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A160" s="15"/>
+      <c r="B160" s="4"/>
+      <c r="C160" s="12" t="s">
+        <v>423</v>
+      </c>
+      <c r="D160" s="4"/>
+      <c r="E160" s="4"/>
+      <c r="F160" s="4"/>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A161" s="15"/>
+      <c r="B161" s="4"/>
+      <c r="C161" s="4" t="s">
+        <v>491</v>
+      </c>
+      <c r="D161" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="E161" s="4"/>
+      <c r="F161" s="4" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A163" s="15">
+        <v>11</v>
+      </c>
+      <c r="B163" s="19" t="s">
+        <v>493</v>
+      </c>
+      <c r="C163" s="4"/>
+      <c r="D163" s="4"/>
+      <c r="E163" s="4"/>
+      <c r="F163" s="20" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A164" s="15"/>
+      <c r="B164" s="4"/>
+      <c r="C164" s="12" t="s">
         <v>404</v>
       </c>
-      <c r="D141" s="5"/>
-      <c r="E141" s="5"/>
-      <c r="F141" s="5"/>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A142" s="33"/>
-      <c r="B142" s="5"/>
-      <c r="C142" s="5" t="s">
+      <c r="D164" s="4"/>
+      <c r="E164" s="4"/>
+      <c r="F164" s="4"/>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A165" s="15"/>
+      <c r="B165" s="4"/>
+      <c r="C165" s="4" t="s">
         <v>405</v>
       </c>
-      <c r="D142" s="5"/>
-      <c r="E142" s="5"/>
-      <c r="F142" s="5"/>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A143" s="33"/>
-      <c r="B143" s="5"/>
-      <c r="C143" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="D143" s="5"/>
-      <c r="E143" s="5"/>
-      <c r="F143" s="5"/>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A144" s="33"/>
-      <c r="B144" s="5"/>
-      <c r="C144" s="5" t="s">
-        <v>483</v>
-      </c>
-      <c r="D144" s="5"/>
-      <c r="E144" s="5"/>
-      <c r="F144" s="5"/>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A145" s="33"/>
-      <c r="B145" s="5"/>
-      <c r="C145" s="5" t="s">
-        <v>442</v>
-      </c>
-      <c r="D145" s="5"/>
-      <c r="E145" s="5"/>
-      <c r="F145" s="5"/>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A146" s="33"/>
-      <c r="B146" s="5"/>
-      <c r="C146" s="5" t="s">
+      <c r="D165" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="E165" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="F165" s="4" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A166" s="15"/>
+      <c r="B166" s="4"/>
+      <c r="C166" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="D166" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="E166" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="F166" s="4" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A167" s="15"/>
+      <c r="B167" s="4"/>
+      <c r="C167" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="D167" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="E167" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="F167" s="4" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A168" s="15"/>
+      <c r="B168" s="4"/>
+      <c r="C168" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="D168" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="E168" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="F168" s="4" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A170" s="15"/>
+      <c r="B170" s="4"/>
+      <c r="C170" s="12" t="s">
+        <v>423</v>
+      </c>
+      <c r="D170" s="4"/>
+      <c r="E170" s="4"/>
+      <c r="F170" s="4"/>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A171" s="15"/>
+      <c r="B171" s="4"/>
+      <c r="C171" s="4" t="s">
+        <v>499</v>
+      </c>
+      <c r="D171" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="E171" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="F171" s="4" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A172" s="15"/>
+      <c r="B172" s="4"/>
+      <c r="C172" s="4" t="s">
+        <v>501</v>
+      </c>
+      <c r="D172" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="E172" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="F172" s="4" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A180" s="23" t="s">
+        <v>503</v>
+      </c>
+      <c r="B180" s="23"/>
+      <c r="C180" s="23"/>
+      <c r="D180" s="23"/>
+      <c r="E180" s="23"/>
+      <c r="F180" s="23"/>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A182" s="15">
+        <v>11</v>
+      </c>
+      <c r="B182" s="19" t="s">
+        <v>504</v>
+      </c>
+      <c r="C182" s="4"/>
+      <c r="D182" s="4"/>
+      <c r="E182" s="4"/>
+      <c r="F182" s="20" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A183" s="15"/>
+      <c r="B183" s="4"/>
+      <c r="C183" s="12" t="s">
+        <v>404</v>
+      </c>
+      <c r="D183" s="4"/>
+      <c r="E183" s="4"/>
+      <c r="F183" s="4"/>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A184" s="15"/>
+      <c r="B184" s="4"/>
+      <c r="C184" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="D184" s="4"/>
+      <c r="E184" s="4"/>
+      <c r="F184" s="4"/>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A186" s="15"/>
+      <c r="B186" s="4"/>
+      <c r="C186" s="4" t="s">
+        <v>506</v>
+      </c>
+      <c r="D186" s="4"/>
+      <c r="E186" s="4"/>
+      <c r="F186" s="4"/>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A188" s="15"/>
+      <c r="B188" s="4"/>
+      <c r="C188" s="12" t="s">
+        <v>423</v>
+      </c>
+      <c r="D188" s="4"/>
+      <c r="E188" s="4"/>
+      <c r="F188" s="4"/>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A189" s="15"/>
+      <c r="B189" s="4"/>
+      <c r="C189" s="4" t="s">
+        <v>507</v>
+      </c>
+      <c r="D189" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="E189" s="4"/>
+      <c r="F189" s="4" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A193" s="15">
+        <v>12</v>
+      </c>
+      <c r="B193" s="19" t="s">
+        <v>509</v>
+      </c>
+      <c r="C193" s="4"/>
+      <c r="D193" s="4"/>
+      <c r="E193" s="4"/>
+      <c r="F193" s="20" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A194" s="15"/>
+      <c r="B194" s="4"/>
+      <c r="C194" s="12" t="s">
+        <v>404</v>
+      </c>
+      <c r="D194" s="4"/>
+      <c r="E194" s="4"/>
+      <c r="F194" s="4"/>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A195" s="15"/>
+      <c r="B195" s="4"/>
+      <c r="C195" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="D195" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="E195" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="F195" s="4"/>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A197" s="15"/>
+      <c r="B197" s="4"/>
+      <c r="C197" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="D197" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="E197" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="F197" s="4"/>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A198" s="15"/>
+      <c r="B198" s="4"/>
+      <c r="C198" s="4" t="s">
         <v>422</v>
       </c>
-      <c r="D146" s="5"/>
-      <c r="E146" s="5"/>
-      <c r="F146" s="5"/>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A147" s="33"/>
-      <c r="B147" s="5"/>
-      <c r="C147" s="17" t="s">
+      <c r="D198" s="4"/>
+      <c r="E198" s="4"/>
+      <c r="F198" s="4"/>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A199" s="15"/>
+      <c r="B199" s="4"/>
+      <c r="C199" s="12" t="s">
         <v>423</v>
       </c>
-      <c r="D147" s="5"/>
-      <c r="E147" s="5"/>
-      <c r="F147" s="5"/>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A148" s="33"/>
-      <c r="B148" s="5"/>
-      <c r="C148" s="5" t="s">
-        <v>489</v>
-      </c>
-      <c r="D148" s="5" t="s">
+      <c r="D199" s="4"/>
+      <c r="E199" s="4"/>
+      <c r="F199" s="4"/>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A200" s="15"/>
+      <c r="B200" s="4"/>
+      <c r="C200" s="4" t="s">
+        <v>507</v>
+      </c>
+      <c r="D200" s="4" t="s">
         <v>427</v>
       </c>
-      <c r="E148" s="5"/>
-      <c r="F148" s="5" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A152" s="33">
-        <v>10</v>
-      </c>
-      <c r="B152" s="37" t="s">
-        <v>490</v>
-      </c>
-      <c r="C152" s="5"/>
-      <c r="D152" s="5"/>
-      <c r="E152" s="5"/>
-      <c r="F152" s="38" t="s">
+      <c r="E200" s="4"/>
+      <c r="F200" s="4" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A202" s="15">
+        <v>13</v>
+      </c>
+      <c r="B202" s="19" t="s">
+        <v>512</v>
+      </c>
+      <c r="C202" s="4"/>
+      <c r="D202" s="4"/>
+      <c r="E202" s="4"/>
+      <c r="F202" s="4"/>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A203" s="15"/>
+      <c r="B203" s="4"/>
+      <c r="C203" s="12" t="s">
+        <v>404</v>
+      </c>
+      <c r="D203" s="4"/>
+      <c r="E203" s="4"/>
+      <c r="F203" s="20" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A153" s="33"/>
-      <c r="B153" s="5"/>
-      <c r="C153" s="17" t="s">
-        <v>404</v>
-      </c>
-      <c r="D153" s="5"/>
-      <c r="E153" s="5"/>
-      <c r="F153" s="5"/>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A154" s="33"/>
-      <c r="B154" s="5"/>
-      <c r="C154" s="5" t="s">
-        <v>491</v>
-      </c>
-      <c r="D154" s="5"/>
-      <c r="E154" s="5"/>
-      <c r="F154" s="5"/>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A155" s="33"/>
-      <c r="B155" s="5"/>
-      <c r="C155" s="5" t="s">
-        <v>492</v>
-      </c>
-      <c r="D155" s="5"/>
-      <c r="E155" s="5"/>
-      <c r="F155" s="5"/>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A156" s="33"/>
-      <c r="B156" s="5"/>
-      <c r="C156" s="5" t="s">
-        <v>493</v>
-      </c>
-      <c r="D156" s="5" t="s">
-        <v>414</v>
-      </c>
-      <c r="E156" s="5"/>
-      <c r="F156" s="5"/>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A160" s="33"/>
-      <c r="B160" s="5"/>
-      <c r="C160" s="17" t="s">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A204" s="15"/>
+      <c r="B204" s="4"/>
+      <c r="C204" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="D204" s="4"/>
+      <c r="E204" s="4"/>
+      <c r="F204" s="4"/>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A208" s="15"/>
+      <c r="B208" s="4"/>
+      <c r="C208" s="12" t="s">
         <v>423</v>
       </c>
-      <c r="D160" s="5"/>
-      <c r="E160" s="5"/>
-      <c r="F160" s="5"/>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A161" s="33"/>
-      <c r="B161" s="5"/>
-      <c r="C161" s="5" t="s">
-        <v>494</v>
-      </c>
-      <c r="D161" s="5" t="s">
+      <c r="D208" s="4"/>
+      <c r="E208" s="4"/>
+      <c r="F208" s="4"/>
+    </row>
+    <row r="209" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C209" s="4" t="s">
+        <v>513</v>
+      </c>
+      <c r="D209" s="4" t="s">
         <v>427</v>
       </c>
-      <c r="E161" s="5"/>
-      <c r="F161" s="5" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A163" s="33">
-        <v>11</v>
-      </c>
-      <c r="B163" s="37" t="s">
-        <v>496</v>
-      </c>
-      <c r="C163" s="5"/>
-      <c r="D163" s="5"/>
-      <c r="E163" s="5"/>
-      <c r="F163" s="38" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A164" s="33"/>
-      <c r="B164" s="5"/>
-      <c r="C164" s="17" t="s">
-        <v>404</v>
-      </c>
-      <c r="D164" s="5"/>
-      <c r="E164" s="5"/>
-      <c r="F164" s="5"/>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A165" s="33"/>
-      <c r="B165" s="5"/>
-      <c r="C165" s="5" t="s">
-        <v>405</v>
-      </c>
-      <c r="D165" s="5" t="s">
-        <v>406</v>
-      </c>
-      <c r="E165" s="5" t="s">
-        <v>407</v>
-      </c>
-      <c r="F165" s="5" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A166" s="33"/>
-      <c r="B166" s="5"/>
-      <c r="C166" s="5" t="s">
-        <v>457</v>
-      </c>
-      <c r="D166" s="5" t="s">
-        <v>414</v>
-      </c>
-      <c r="E166" s="5" t="s">
-        <v>407</v>
-      </c>
-      <c r="F166" s="5" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A167" s="33"/>
-      <c r="B167" s="5"/>
-      <c r="C167" s="5" t="s">
-        <v>459</v>
-      </c>
-      <c r="D167" s="5" t="s">
-        <v>414</v>
-      </c>
-      <c r="E167" s="5" t="s">
-        <v>407</v>
-      </c>
-      <c r="F167" s="5" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A168" s="33"/>
-      <c r="B168" s="5"/>
-      <c r="C168" s="5" t="s">
-        <v>433</v>
-      </c>
-      <c r="D168" s="5" t="s">
-        <v>406</v>
-      </c>
-      <c r="E168" s="5" t="s">
-        <v>415</v>
-      </c>
-      <c r="F168" s="5" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A170" s="33"/>
-      <c r="B170" s="5"/>
-      <c r="C170" s="17" t="s">
-        <v>423</v>
-      </c>
-      <c r="D170" s="5"/>
-      <c r="E170" s="5"/>
-      <c r="F170" s="5"/>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A171" s="33"/>
-      <c r="B171" s="5"/>
-      <c r="C171" s="5" t="s">
-        <v>502</v>
-      </c>
-      <c r="D171" s="5" t="s">
-        <v>427</v>
-      </c>
-      <c r="E171" s="5" t="s">
-        <v>407</v>
-      </c>
-      <c r="F171" s="5" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A172" s="33"/>
-      <c r="B172" s="5"/>
-      <c r="C172" s="5" t="s">
-        <v>504</v>
-      </c>
-      <c r="D172" s="5" t="s">
-        <v>427</v>
-      </c>
-      <c r="E172" s="5" t="s">
-        <v>407</v>
-      </c>
-      <c r="F172" s="5" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A180" s="50" t="s">
-        <v>506</v>
-      </c>
-      <c r="B180" s="50"/>
-      <c r="C180" s="50"/>
-      <c r="D180" s="50"/>
-      <c r="E180" s="50"/>
-      <c r="F180" s="50"/>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A182" s="33">
-        <v>11</v>
-      </c>
-      <c r="B182" s="37" t="s">
-        <v>507</v>
-      </c>
-      <c r="C182" s="5"/>
-      <c r="D182" s="5"/>
-      <c r="E182" s="5"/>
-      <c r="F182" s="38" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A183" s="33"/>
-      <c r="B183" s="5"/>
-      <c r="C183" s="17" t="s">
-        <v>404</v>
-      </c>
-      <c r="D183" s="5"/>
-      <c r="E183" s="5"/>
-      <c r="F183" s="5"/>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A184" s="33"/>
-      <c r="B184" s="5"/>
-      <c r="C184" s="5" t="s">
-        <v>405</v>
-      </c>
-      <c r="D184" s="5"/>
-      <c r="E184" s="5"/>
-      <c r="F184" s="5"/>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A186" s="33"/>
-      <c r="B186" s="5"/>
-      <c r="C186" s="5" t="s">
-        <v>509</v>
-      </c>
-      <c r="D186" s="5"/>
-      <c r="E186" s="5"/>
-      <c r="F186" s="5"/>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A188" s="33"/>
-      <c r="B188" s="5"/>
-      <c r="C188" s="17" t="s">
-        <v>423</v>
-      </c>
-      <c r="D188" s="5"/>
-      <c r="E188" s="5"/>
-      <c r="F188" s="5"/>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A189" s="33"/>
-      <c r="B189" s="5"/>
-      <c r="C189" s="5" t="s">
-        <v>510</v>
-      </c>
-      <c r="D189" s="5" t="s">
-        <v>427</v>
-      </c>
-      <c r="E189" s="5"/>
-      <c r="F189" s="5" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A193" s="33">
-        <v>12</v>
-      </c>
-      <c r="B193" s="37" t="s">
-        <v>512</v>
-      </c>
-      <c r="C193" s="5"/>
-      <c r="D193" s="5"/>
-      <c r="E193" s="5"/>
-      <c r="F193" s="38" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A194" s="33"/>
-      <c r="B194" s="5"/>
-      <c r="C194" s="17" t="s">
-        <v>404</v>
-      </c>
-      <c r="D194" s="5"/>
-      <c r="E194" s="5"/>
-      <c r="F194" s="5"/>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A195" s="33"/>
-      <c r="B195" s="5"/>
-      <c r="C195" s="5" t="s">
-        <v>405</v>
-      </c>
-      <c r="D195" s="5" t="s">
-        <v>406</v>
-      </c>
-      <c r="E195" s="5" t="s">
-        <v>407</v>
-      </c>
-      <c r="F195" s="5"/>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A197" s="33"/>
-      <c r="B197" s="5"/>
-      <c r="C197" s="5" t="s">
-        <v>513</v>
-      </c>
-      <c r="D197" s="5" t="s">
-        <v>414</v>
-      </c>
-      <c r="E197" s="5" t="s">
-        <v>407</v>
-      </c>
-      <c r="F197" s="5"/>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A198" s="33"/>
-      <c r="B198" s="5"/>
-      <c r="C198" s="5" t="s">
-        <v>422</v>
-      </c>
-      <c r="D198" s="5"/>
-      <c r="E198" s="5"/>
-      <c r="F198" s="5"/>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A199" s="33"/>
-      <c r="B199" s="5"/>
-      <c r="C199" s="17" t="s">
-        <v>423</v>
-      </c>
-      <c r="D199" s="5"/>
-      <c r="E199" s="5"/>
-      <c r="F199" s="5"/>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A200" s="33"/>
-      <c r="B200" s="5"/>
-      <c r="C200" s="5" t="s">
-        <v>510</v>
-      </c>
-      <c r="D200" s="5" t="s">
-        <v>427</v>
-      </c>
-      <c r="E200" s="5"/>
-      <c r="F200" s="5" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A202" s="33">
-        <v>13</v>
-      </c>
-      <c r="B202" s="37" t="s">
-        <v>515</v>
-      </c>
-      <c r="C202" s="5"/>
-      <c r="D202" s="5"/>
-      <c r="E202" s="5"/>
-      <c r="F202" s="5"/>
-    </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A203" s="33"/>
-      <c r="B203" s="5"/>
-      <c r="C203" s="17" t="s">
-        <v>404</v>
-      </c>
-      <c r="D203" s="5"/>
-      <c r="E203" s="5"/>
-      <c r="F203" s="38" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A204" s="33"/>
-      <c r="B204" s="5"/>
-      <c r="C204" s="5" t="s">
-        <v>405</v>
-      </c>
-      <c r="D204" s="5"/>
-      <c r="E204" s="5"/>
-      <c r="F204" s="5"/>
-    </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A208" s="33"/>
-      <c r="B208" s="5"/>
-      <c r="C208" s="17" t="s">
-        <v>423</v>
-      </c>
-      <c r="D208" s="5"/>
-      <c r="E208" s="5"/>
-      <c r="F208" s="5"/>
-    </row>
-    <row r="209" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C209" s="5" t="s">
-        <v>516</v>
-      </c>
-      <c r="D209" s="5" t="s">
-        <v>427</v>
-      </c>
-      <c r="E209" s="5" t="s">
+      <c r="E209" s="4" t="s">
         <v>407</v>
       </c>
     </row>
@@ -7422,79 +7364,79 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.75" style="10" customWidth="1"/>
-    <col min="2" max="2" width="34.375" customWidth="1"/>
-    <col min="3" max="3" width="32.125" customWidth="1"/>
-    <col min="4" max="4" width="28.25" customWidth="1"/>
-    <col min="5" max="5" width="23.625" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" style="8" customWidth="1"/>
+    <col min="2" max="2" width="34.42578125" customWidth="1"/>
+    <col min="3" max="3" width="32.140625" customWidth="1"/>
+    <col min="4" max="4" width="28.28515625" customWidth="1"/>
+    <col min="5" max="5" width="23.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="24" t="s">
+        <v>514</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="24" t="s">
+        <v>515</v>
+      </c>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>516</v>
+      </c>
+      <c r="B5" t="s">
         <v>517</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
-      <c r="O1" s="51"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="51" t="s">
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
         <v>518</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
         <v>519</v>
       </c>
-      <c r="B5" t="s">
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="14" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+      <c r="C13" s="14" t="s">
         <v>521</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+      <c r="D13" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="14" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" s="32" t="s">
-        <v>523</v>
-      </c>
-      <c r="C13" s="32" t="s">
-        <v>524</v>
-      </c>
-      <c r="D13" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="E13" s="32" t="s">
-        <v>525</v>
-      </c>
-      <c r="F13" s="32" t="s">
+      <c r="F13" s="14" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="10">
+      <c r="A14" s="8">
         <v>1</v>
       </c>
     </row>
@@ -7519,38 +7461,38 @@
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="26.375" customWidth="1"/>
-    <col min="4" max="4" width="28.875" customWidth="1"/>
+    <col min="3" max="3" width="26.42578125" customWidth="1"/>
+    <col min="4" max="4" width="28.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="24" t="s">
+        <v>523</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>524</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>525</v>
+      </c>
+      <c r="C3" s="14" t="s">
         <v>526</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="32" t="s">
-        <v>527</v>
-      </c>
-      <c r="B3" s="32" t="s">
-        <v>528</v>
-      </c>
-      <c r="C3" s="32" t="s">
-        <v>529</v>
-      </c>
-      <c r="D3" s="32" t="s">
+      <c r="D3" s="14" t="s">
         <v>221</v>
       </c>
     </row>

--- a/service/document/ServiceDescription.xlsx
+++ b/service/document/ServiceDescription.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11745" tabRatio="702" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11745" tabRatio="702" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="FUNCTION_DESCRIPTION" sheetId="3" r:id="rId1"/>
@@ -1667,9 +1667,6 @@
     <t>Upload ảnh</t>
   </si>
   <si>
-    <t>/images/upload</t>
-  </si>
-  <si>
     <t>Qua form với name cho trước, giới hạn dung lượng 4M, hỗ trợ các kiểu: jpg/jpeg, png, gif</t>
   </si>
   <si>
@@ -1680,13 +1677,16 @@
   </si>
   <si>
     <t>/files/upload</t>
+  </si>
+  <si>
+    <t>/files/image</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1718,6 +1718,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1734,27 +1763,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1977,14 +1985,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1995,108 +2002,108 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2385,7 +2392,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.140625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="24.140625" style="5" customWidth="1"/>
     <col min="2" max="2" width="40.5703125" customWidth="1"/>
     <col min="3" max="3" width="55.5703125" customWidth="1"/>
     <col min="4" max="4" width="26.5703125" customWidth="1"/>
@@ -2393,7 +2400,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
@@ -2414,7 +2421,7 @@
       <c r="Q1" s="1"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
@@ -2422,24 +2429,24 @@
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
+      <c r="A5" s="6"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+      <c r="A7" s="5">
         <v>1</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C7" t="s">
@@ -2447,10 +2454,10 @@
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+      <c r="A8" s="5">
         <v>2</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C8" t="s">
@@ -2458,10 +2465,10 @@
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
+      <c r="A9" s="5">
         <v>3</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C9" t="s">
@@ -2469,10 +2476,10 @@
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
+      <c r="A10" s="5">
         <v>4</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C10" t="s">
@@ -2480,10 +2487,10 @@
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
+      <c r="A11" s="5">
         <v>5</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C11" t="s">
@@ -2491,10 +2498,10 @@
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
+      <c r="A12" s="5">
         <v>6</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C12" t="s">
@@ -2502,10 +2509,10 @@
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
+      <c r="A13" s="5">
         <v>7</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C13" t="s">
@@ -2513,10 +2520,10 @@
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
+      <c r="A14" s="5">
         <v>8</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="6" t="s">
         <v>20</v>
       </c>
       <c r="C14" t="s">
@@ -2524,10 +2531,10 @@
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
+      <c r="A15" s="5">
         <v>9</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C15" t="s">
@@ -2535,10 +2542,10 @@
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
+      <c r="A16" s="5">
         <v>10</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="6" t="s">
         <v>24</v>
       </c>
       <c r="C16" t="s">
@@ -2546,10 +2553,10 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
+      <c r="A17" s="5">
         <v>11</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="6" t="s">
         <v>26</v>
       </c>
       <c r="C17" t="s">
@@ -2557,27 +2564,27 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="7"/>
+      <c r="B18" s="6"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="7"/>
+      <c r="B19" s="6"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="D21" s="8" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="5" t="s">
         <v>30</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -2588,7 +2595,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="5" t="s">
         <v>33</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -2602,7 +2609,7 @@
       <c r="B25" s="2"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="5" t="s">
         <v>36</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -2610,7 +2617,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="5" t="s">
         <v>38</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -2621,7 +2628,7 @@
       <c r="B28" s="2"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="5" t="s">
         <v>40</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -2629,7 +2636,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="5" t="s">
         <v>42</v>
       </c>
       <c r="B30" s="2" t="s">
@@ -2640,7 +2647,7 @@
       <c r="B31" s="2"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="s">
+      <c r="A32" s="5" t="s">
         <v>44</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -2648,7 +2655,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="6" t="s">
+      <c r="A33" s="5" t="s">
         <v>46</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -2656,7 +2663,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="s">
+      <c r="A34" s="5" t="s">
         <v>48</v>
       </c>
       <c r="B34" s="2" t="s">
@@ -2667,14 +2674,14 @@
       <c r="B35" s="2"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="21" t="s">
+      <c r="A36" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="B36" s="21"/>
-      <c r="C36" s="21"/>
+      <c r="B36" s="27"/>
+      <c r="C36" s="27"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="7" t="s">
+      <c r="A37" s="6" t="s">
         <v>51</v>
       </c>
       <c r="B37" s="2"/>
@@ -2686,7 +2693,7 @@
       <c r="B38" s="2"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="7" t="s">
+      <c r="A39" s="6" t="s">
         <v>53</v>
       </c>
       <c r="C39" t="s">
@@ -2708,7 +2715,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="6" t="s">
+      <c r="A43" s="5" t="s">
         <v>56</v>
       </c>
       <c r="B43" s="2" t="s">
@@ -2719,7 +2726,7 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="6" t="s">
+      <c r="A44" s="5" t="s">
         <v>59</v>
       </c>
       <c r="B44" s="2" t="s">
@@ -2763,7 +2770,7 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="6" t="s">
+      <c r="A49" s="5" t="s">
         <v>69</v>
       </c>
       <c r="B49" s="2" t="s">
@@ -2813,7 +2820,7 @@
       <c r="B54" s="2"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="6" t="s">
+      <c r="A55" s="5" t="s">
         <v>80</v>
       </c>
       <c r="B55" s="2" t="s">
@@ -2851,7 +2858,7 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="6" t="s">
+      <c r="A60" s="5" t="s">
         <v>88</v>
       </c>
       <c r="B60" s="2" t="s">
@@ -2880,7 +2887,7 @@
       <c r="B63" s="2"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="6" t="s">
+      <c r="A64" s="5" t="s">
         <v>94</v>
       </c>
       <c r="B64" s="2" t="s">
@@ -2936,7 +2943,7 @@
       <c r="B71" s="2"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="6" t="s">
+      <c r="A72" s="5" t="s">
         <v>105</v>
       </c>
       <c r="B72" s="2" t="s">
@@ -2998,7 +3005,7 @@
       <c r="B80" s="2"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="6" t="s">
+      <c r="A81" s="5" t="s">
         <v>117</v>
       </c>
       <c r="B81" s="2" t="s">
@@ -3030,7 +3037,7 @@
       <c r="B85" s="2"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="6" t="s">
+      <c r="A86" s="5" t="s">
         <v>123</v>
       </c>
       <c r="B86" s="2" t="s">
@@ -3068,7 +3075,7 @@
       <c r="B90" s="2"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="6" t="s">
+      <c r="A91" s="5" t="s">
         <v>131</v>
       </c>
       <c r="B91" s="2" t="s">
@@ -3100,7 +3107,7 @@
       <c r="B95" s="2"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="6" t="s">
+      <c r="A96" s="5" t="s">
         <v>137</v>
       </c>
       <c r="B96" s="2" t="s">
@@ -3135,7 +3142,7 @@
       <c r="B101" s="2"/>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" s="6" t="s">
+      <c r="A102" s="5" t="s">
         <v>143</v>
       </c>
       <c r="B102" s="2" t="s">
@@ -3164,7 +3171,7 @@
       <c r="B106" s="2"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" s="6" t="s">
+      <c r="A107" s="5" t="s">
         <v>148</v>
       </c>
       <c r="B107" s="2" t="s">
@@ -3208,7 +3215,7 @@
       <c r="B112" s="2"/>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" s="6" t="s">
+      <c r="A113" s="5" t="s">
         <v>157</v>
       </c>
       <c r="B113" s="2" t="s">
@@ -3231,7 +3238,7 @@
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" s="6" t="s">
+      <c r="A116" s="5" t="s">
         <v>162</v>
       </c>
       <c r="B116" s="2" t="s">
@@ -3281,1938 +3288,1938 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L284"/>
   <sheetViews>
-    <sheetView topLeftCell="A249" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K265" sqref="K265"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F271" sqref="F271"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" style="32" customWidth="1"/>
-    <col min="2" max="2" width="27.7109375" style="32" customWidth="1"/>
-    <col min="3" max="3" width="26.5703125" style="32" customWidth="1"/>
-    <col min="4" max="5" width="17.42578125" style="32" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" style="32" customWidth="1"/>
-    <col min="7" max="9" width="14.7109375" style="32" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="32" customWidth="1"/>
-    <col min="11" max="11" width="24.42578125" style="32" customWidth="1"/>
-    <col min="12" max="12" width="24.28515625" style="32" customWidth="1"/>
-    <col min="13" max="13" width="23.42578125" style="32" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="32"/>
+    <col min="1" max="1" width="6.85546875" style="14" customWidth="1"/>
+    <col min="2" max="2" width="27.7109375" style="14" customWidth="1"/>
+    <col min="3" max="3" width="26.5703125" style="14" customWidth="1"/>
+    <col min="4" max="5" width="17.42578125" style="14" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" style="14" customWidth="1"/>
+    <col min="7" max="9" width="14.7109375" style="14" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="14" customWidth="1"/>
+    <col min="11" max="11" width="24.42578125" style="14" customWidth="1"/>
+    <col min="12" max="12" width="24.28515625" style="14" customWidth="1"/>
+    <col min="13" max="13" width="23.42578125" style="14" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="14"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="29" t="s">
+    <row r="2" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="11" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="30"/>
-      <c r="B3" s="30" t="s">
+      <c r="A3" s="12"/>
+      <c r="B3" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="31" t="s">
+      <c r="D3" s="13" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="14" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="32" t="s">
+      <c r="A10" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="14" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="33">
+      <c r="B11" s="15">
         <v>200</v>
       </c>
-      <c r="C11" s="32" t="s">
+      <c r="C11" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="D11" s="32" t="s">
+      <c r="D11" s="14" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="32" t="s">
+      <c r="A14" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="14" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="33">
+      <c r="B15" s="15">
         <v>300</v>
       </c>
-      <c r="C15" s="32" t="s">
+      <c r="C15" s="14" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="32" t="s">
+      <c r="A18" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="B18" s="32" t="s">
+      <c r="B18" s="14" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="33">
+      <c r="B20" s="15">
         <v>401</v>
       </c>
-      <c r="C20" s="32" t="s">
+      <c r="C20" s="14" t="s">
         <v>183</v>
       </c>
-      <c r="D20" s="32" t="s">
+      <c r="D20" s="14" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="32" t="s">
+      <c r="A22" s="14" t="s">
         <v>185</v>
       </c>
-      <c r="B22" s="32" t="s">
+      <c r="B22" s="14" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B23" s="33">
+      <c r="B23" s="15">
         <v>500</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B26" s="33"/>
-    </row>
-    <row r="29" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25"/>
+      <c r="B26" s="15"/>
+    </row>
+    <row r="29" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B30" s="32" t="s">
+      <c r="B30" s="14" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B31" s="32" t="s">
+      <c r="B31" s="14" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="34" t="s">
+      <c r="A33" s="31" t="s">
         <v>189</v>
       </c>
-      <c r="B33" s="34"/>
-      <c r="C33" s="34"/>
-      <c r="D33" s="34"/>
-      <c r="E33" s="34"/>
+      <c r="B33" s="31"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="31"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="35" t="s">
+      <c r="A34" s="16" t="s">
         <v>190</v>
       </c>
-      <c r="B34" s="36" t="s">
+      <c r="B34" s="17" t="s">
         <v>191</v>
       </c>
-      <c r="C34" s="36" t="s">
+      <c r="C34" s="17" t="s">
         <v>192</v>
       </c>
-      <c r="D34" s="36" t="s">
+      <c r="D34" s="17" t="s">
         <v>193</v>
       </c>
-      <c r="E34" s="36" t="s">
+      <c r="E34" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="F34" s="37"/>
+      <c r="F34" s="18"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B35" s="32" t="s">
+      <c r="B35" s="14" t="s">
         <v>194</v>
       </c>
-      <c r="E35" s="32" t="s">
+      <c r="E35" s="14" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B36" s="32" t="s">
+      <c r="B36" s="14" t="s">
         <v>196</v>
       </c>
-      <c r="E36" s="32" t="s">
+      <c r="E36" s="14" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B37" s="32" t="s">
+      <c r="B37" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="E37" s="32" t="s">
+      <c r="E37" s="14" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B38" s="32" t="s">
+      <c r="B38" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="E38" s="32" t="s">
+      <c r="E38" s="14" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B39" s="32" t="s">
+      <c r="B39" s="14" t="s">
         <v>202</v>
       </c>
-      <c r="E39" s="32" t="s">
+      <c r="E39" s="14" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="40" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="28" t="s">
+    <row r="40" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="E40" s="28" t="s">
+      <c r="E40" s="10" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="42" spans="1:6" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="37" t="s">
+    <row r="42" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="18" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="43" spans="1:6" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D43" s="37">
+    <row r="43" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D43" s="18">
         <v>1</v>
       </c>
-      <c r="E43" s="37" t="b">
+      <c r="E43" s="18" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D44" s="28">
+    <row r="44" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D44" s="10">
         <v>0</v>
       </c>
-      <c r="E44" s="28" t="b">
+      <c r="E44" s="10" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B45" s="32" t="s">
+      <c r="B45" s="14" t="s">
         <v>207</v>
       </c>
-      <c r="E45" s="32" t="s">
+      <c r="E45" s="14" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C46" s="32" t="s">
+      <c r="C46" s="14" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D47" s="32" t="s">
+      <c r="D47" s="14" t="s">
         <v>210</v>
       </c>
-      <c r="E47" s="32">
+      <c r="E47" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D48" s="32" t="s">
+      <c r="D48" s="14" t="s">
         <v>211</v>
       </c>
-      <c r="E48" s="32">
+      <c r="E48" s="14">
         <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C49" s="32" t="s">
+      <c r="C49" s="14" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D50" s="32" t="s">
+      <c r="D50" s="14" t="s">
         <v>213</v>
       </c>
-      <c r="E50" s="32">
+      <c r="E50" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D51" s="32" t="s">
+      <c r="D51" s="14" t="s">
         <v>214</v>
       </c>
-      <c r="E51" s="32">
+      <c r="E51" s="14">
         <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D52" s="32" t="s">
+      <c r="D52" s="14" t="s">
         <v>215</v>
       </c>
-      <c r="E52" s="32">
+      <c r="E52" s="14">
         <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C54" s="32" t="s">
+      <c r="C54" s="14" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D55" s="32" t="s">
+      <c r="D55" s="14" t="s">
         <v>210</v>
       </c>
-      <c r="E55" s="32">
+      <c r="E55" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D56" s="32" t="s">
+      <c r="D56" s="14" t="s">
         <v>217</v>
       </c>
-      <c r="E56" s="32">
+      <c r="E56" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:8" s="28" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="59" spans="1:8" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="38" t="s">
+    <row r="58" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="59" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="B59" s="38"/>
-      <c r="C59" s="38"/>
-      <c r="D59" s="38"/>
-      <c r="E59" s="38"/>
-      <c r="F59" s="38"/>
-    </row>
-    <row r="60" spans="1:8" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="39" t="s">
+      <c r="B59" s="19"/>
+      <c r="C59" s="19"/>
+      <c r="D59" s="19"/>
+      <c r="E59" s="19"/>
+      <c r="F59" s="19"/>
+    </row>
+    <row r="60" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="20" t="s">
         <v>190</v>
       </c>
-      <c r="B60" s="39" t="s">
+      <c r="B60" s="20" t="s">
         <v>219</v>
       </c>
-      <c r="C60" s="39" t="s">
+      <c r="C60" s="20" t="s">
         <v>220</v>
       </c>
-      <c r="D60" s="39" t="s">
+      <c r="D60" s="20" t="s">
         <v>193</v>
       </c>
-      <c r="E60" s="39" t="s">
+      <c r="E60" s="20" t="s">
         <v>221</v>
       </c>
-      <c r="F60" s="39" t="s">
+      <c r="F60" s="20" t="s">
         <v>222</v>
       </c>
-      <c r="G60" s="32"/>
-      <c r="H60" s="40"/>
-    </row>
-    <row r="61" spans="1:8" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="37" t="s">
+      <c r="G60" s="14"/>
+      <c r="H60" s="21"/>
+    </row>
+    <row r="61" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="18" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="62" spans="1:8" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="63" spans="1:8" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="64" spans="1:8" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="65" spans="1:12" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="37" t="s">
+    <row r="62" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="63" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="65" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="18" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="66" spans="1:12" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="67" spans="1:12" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="68" spans="1:12" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="69" spans="1:12" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="41" t="s">
+    <row r="66" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="67" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="68" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="69" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="22" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="70" spans="1:12" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="71" spans="1:12" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="72" spans="1:12" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="73" spans="1:12" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="74" spans="1:12" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="70" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="71" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="72" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="73" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="74" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A76" s="42" t="s">
+      <c r="A76" s="30" t="s">
         <v>226</v>
       </c>
-      <c r="B76" s="42"/>
-      <c r="C76" s="42"/>
-      <c r="D76" s="42"/>
-      <c r="E76" s="42"/>
-      <c r="F76" s="42"/>
-      <c r="G76" s="42"/>
-      <c r="H76" s="42"/>
-      <c r="I76" s="42"/>
-      <c r="J76" s="42"/>
-      <c r="K76" s="42"/>
-      <c r="L76" s="42"/>
+      <c r="B76" s="30"/>
+      <c r="C76" s="30"/>
+      <c r="D76" s="30"/>
+      <c r="E76" s="30"/>
+      <c r="F76" s="30"/>
+      <c r="G76" s="30"/>
+      <c r="H76" s="30"/>
+      <c r="I76" s="30"/>
+      <c r="J76" s="30"/>
+      <c r="K76" s="30"/>
+      <c r="L76" s="30"/>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A77" s="43" t="s">
+      <c r="A77" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="B77" s="43" t="s">
+      <c r="B77" s="28" t="s">
         <v>227</v>
       </c>
-      <c r="C77" s="44" t="s">
+      <c r="C77" s="35" t="s">
         <v>228</v>
       </c>
-      <c r="D77" s="43" t="s">
+      <c r="D77" s="28" t="s">
         <v>229</v>
       </c>
-      <c r="E77" s="43" t="s">
+      <c r="E77" s="28" t="s">
         <v>230</v>
       </c>
-      <c r="F77" s="43" t="s">
+      <c r="F77" s="28" t="s">
         <v>231</v>
       </c>
-      <c r="G77" s="45" t="s">
+      <c r="G77" s="32" t="s">
         <v>232</v>
       </c>
-      <c r="H77" s="46"/>
-      <c r="I77" s="46"/>
-      <c r="J77" s="47"/>
-      <c r="K77" s="43" t="s">
+      <c r="H77" s="33"/>
+      <c r="I77" s="33"/>
+      <c r="J77" s="34"/>
+      <c r="K77" s="28" t="s">
         <v>233</v>
       </c>
-      <c r="L77" s="43" t="s">
+      <c r="L77" s="28" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A78" s="48"/>
-      <c r="B78" s="48"/>
-      <c r="C78" s="49"/>
-      <c r="D78" s="48"/>
-      <c r="E78" s="48"/>
-      <c r="F78" s="48"/>
-      <c r="G78" s="50" t="s">
+      <c r="A78" s="29"/>
+      <c r="B78" s="29"/>
+      <c r="C78" s="36"/>
+      <c r="D78" s="29"/>
+      <c r="E78" s="29"/>
+      <c r="F78" s="29"/>
+      <c r="G78" s="23" t="s">
         <v>234</v>
       </c>
-      <c r="H78" s="50" t="s">
+      <c r="H78" s="23" t="s">
         <v>235</v>
       </c>
-      <c r="I78" s="50" t="s">
+      <c r="I78" s="23" t="s">
         <v>236</v>
       </c>
-      <c r="J78" s="50" t="s">
+      <c r="J78" s="23" t="s">
         <v>237</v>
       </c>
-      <c r="K78" s="48"/>
-      <c r="L78" s="48"/>
+      <c r="K78" s="29"/>
+      <c r="L78" s="29"/>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F79" s="32" t="s">
+      <c r="F79" s="14" t="s">
         <v>238</v>
       </c>
-      <c r="K79" s="32" t="s">
+      <c r="K79" s="14" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A83" s="32" t="s">
+      <c r="A83" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="B83" s="51" t="s">
+      <c r="B83" s="24" t="s">
         <v>240</v>
       </c>
-      <c r="F83" s="32" t="s">
+      <c r="F83" s="14" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C84" s="51" t="s">
+      <c r="C84" s="24" t="s">
         <v>242</v>
       </c>
-      <c r="D84" s="37" t="s">
+      <c r="D84" s="18" t="s">
         <v>243</v>
       </c>
-      <c r="E84" s="37" t="s">
+      <c r="E84" s="18" t="s">
         <v>244</v>
       </c>
-      <c r="F84" s="37" t="s">
+      <c r="F84" s="18" t="s">
         <v>241</v>
       </c>
-      <c r="K84" s="41"/>
-      <c r="L84" s="41" t="s">
+      <c r="K84" s="22"/>
+      <c r="L84" s="22" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G85" s="41" t="s">
+      <c r="G85" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="H85" s="41" t="s">
+      <c r="H85" s="22" t="s">
         <v>247</v>
       </c>
-      <c r="I85" s="41" t="s">
+      <c r="I85" s="22" t="s">
         <v>248</v>
       </c>
-      <c r="J85" s="41" t="s">
+      <c r="J85" s="22" t="s">
         <v>249</v>
       </c>
-      <c r="K85" s="52" t="s">
+      <c r="K85" s="25" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G86" s="32" t="s">
+      <c r="G86" s="14" t="s">
         <v>250</v>
       </c>
-      <c r="H86" s="32" t="s">
+      <c r="H86" s="14" t="s">
         <v>247</v>
       </c>
-      <c r="I86" s="32" t="s">
+      <c r="I86" s="14" t="s">
         <v>248</v>
       </c>
-      <c r="J86" s="32" t="s">
+      <c r="J86" s="14" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G87" s="41" t="s">
+      <c r="G87" s="22" t="s">
         <v>252</v>
       </c>
-      <c r="H87" s="41" t="s">
+      <c r="H87" s="22" t="s">
         <v>247</v>
       </c>
-      <c r="I87" s="41" t="s">
+      <c r="I87" s="22" t="s">
         <v>253</v>
       </c>
-      <c r="J87" s="41" t="s">
+      <c r="J87" s="22" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G88" s="41" t="s">
+      <c r="G88" s="22" t="s">
         <v>255</v>
       </c>
-      <c r="H88" s="41" t="s">
+      <c r="H88" s="22" t="s">
         <v>247</v>
       </c>
-      <c r="I88" s="41" t="s">
+      <c r="I88" s="22" t="s">
         <v>253</v>
       </c>
-      <c r="J88" s="41" t="s">
+      <c r="J88" s="22" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G89" s="41" t="s">
+      <c r="G89" s="22" t="s">
         <v>256</v>
       </c>
-      <c r="H89" s="41" t="s">
+      <c r="H89" s="22" t="s">
         <v>247</v>
       </c>
-      <c r="I89" s="41" t="s">
+      <c r="I89" s="22" t="s">
         <v>248</v>
       </c>
-      <c r="J89" s="41" t="s">
+      <c r="J89" s="22" t="s">
         <v>257</v>
       </c>
-      <c r="K89" s="53" t="s">
+      <c r="K89" s="26" t="s">
         <v>258</v>
       </c>
-      <c r="L89" s="41" t="s">
+      <c r="L89" s="22" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G90" s="41" t="s">
+      <c r="G90" s="22" t="s">
         <v>260</v>
       </c>
-      <c r="H90" s="41" t="s">
+      <c r="H90" s="22" t="s">
         <v>247</v>
       </c>
-      <c r="I90" s="41" t="s">
+      <c r="I90" s="22" t="s">
         <v>253</v>
       </c>
-      <c r="J90" s="41" t="s">
+      <c r="J90" s="22" t="s">
         <v>261</v>
       </c>
-      <c r="K90" s="41"/>
+      <c r="K90" s="22"/>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G91" s="41" t="s">
+      <c r="G91" s="22" t="s">
         <v>262</v>
       </c>
-      <c r="H91" s="41" t="s">
+      <c r="H91" s="22" t="s">
         <v>263</v>
       </c>
-      <c r="I91" s="41" t="s">
+      <c r="I91" s="22" t="s">
         <v>253</v>
       </c>
-      <c r="J91" s="41" t="s">
+      <c r="J91" s="22" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G92" s="41" t="s">
+      <c r="G92" s="22" t="s">
         <v>265</v>
       </c>
-      <c r="H92" s="41" t="s">
+      <c r="H92" s="22" t="s">
         <v>263</v>
       </c>
-      <c r="I92" s="41" t="s">
+      <c r="I92" s="22" t="s">
         <v>253</v>
       </c>
-      <c r="J92" s="41" t="s">
+      <c r="J92" s="22" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G93" s="41" t="s">
+      <c r="G93" s="22" t="s">
         <v>266</v>
       </c>
-      <c r="H93" s="41" t="s">
+      <c r="H93" s="22" t="s">
         <v>267</v>
       </c>
-      <c r="I93" s="41" t="s">
+      <c r="I93" s="22" t="s">
         <v>253</v>
       </c>
-      <c r="J93" s="41" t="s">
+      <c r="J93" s="22" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G94" s="41"/>
-      <c r="H94" s="41"/>
-      <c r="I94" s="41"/>
-      <c r="J94" s="41"/>
+      <c r="G94" s="22"/>
+      <c r="H94" s="22"/>
+      <c r="I94" s="22"/>
+      <c r="J94" s="22"/>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C95" s="51" t="s">
+      <c r="C95" s="24" t="s">
         <v>269</v>
       </c>
-      <c r="D95" s="32" t="s">
+      <c r="D95" s="14" t="s">
         <v>243</v>
       </c>
-      <c r="E95" s="32" t="s">
+      <c r="E95" s="14" t="s">
         <v>253</v>
       </c>
-      <c r="F95" s="32" t="s">
+      <c r="F95" s="14" t="s">
         <v>270</v>
       </c>
-      <c r="L95" s="32" t="s">
+      <c r="L95" s="14" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G96" s="32" t="s">
+      <c r="G96" s="14" t="s">
         <v>272</v>
       </c>
-      <c r="H96" s="32" t="s">
+      <c r="H96" s="14" t="s">
         <v>247</v>
       </c>
-      <c r="I96" s="32" t="s">
+      <c r="I96" s="14" t="s">
         <v>248</v>
       </c>
-      <c r="K96" s="52" t="s">
+      <c r="K96" s="25" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="97" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="G97" s="32" t="s">
+      <c r="G97" s="14" t="s">
         <v>250</v>
       </c>
-      <c r="H97" s="32" t="s">
+      <c r="H97" s="14" t="s">
         <v>273</v>
       </c>
-      <c r="I97" s="32" t="s">
+      <c r="I97" s="14" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="98" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="G98" s="32" t="s">
+      <c r="G98" s="14" t="s">
         <v>274</v>
       </c>
-      <c r="H98" s="32" t="s">
+      <c r="H98" s="14" t="s">
         <v>247</v>
       </c>
-      <c r="I98" s="32" t="s">
+      <c r="I98" s="14" t="s">
         <v>253</v>
       </c>
-      <c r="L98" s="32" t="s">
+      <c r="L98" s="14" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="99" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="K99" s="53" t="s">
+      <c r="K99" s="26" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="100" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C100" s="51" t="s">
+      <c r="C100" s="24" t="s">
         <v>276</v>
       </c>
-      <c r="D100" s="32" t="s">
+      <c r="D100" s="14" t="s">
         <v>243</v>
       </c>
-      <c r="E100" s="32" t="s">
+      <c r="E100" s="14" t="s">
         <v>248</v>
       </c>
-      <c r="F100" s="32" t="s">
+      <c r="F100" s="14" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="101" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="G101" s="32" t="s">
+      <c r="G101" s="14" t="s">
         <v>278</v>
       </c>
-      <c r="H101" s="32" t="s">
+      <c r="H101" s="14" t="s">
         <v>279</v>
       </c>
-      <c r="I101" s="32" t="s">
+      <c r="I101" s="14" t="s">
         <v>253</v>
       </c>
-      <c r="J101" s="32" t="s">
+      <c r="J101" s="14" t="s">
         <v>268</v>
       </c>
-      <c r="K101" s="52" t="s">
+      <c r="K101" s="25" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="103" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="K103" s="53" t="s">
+      <c r="K103" s="26" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="105" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C105" s="51" t="s">
+      <c r="C105" s="24" t="s">
         <v>280</v>
       </c>
-      <c r="D105" s="32" t="s">
+      <c r="D105" s="14" t="s">
         <v>281</v>
       </c>
-      <c r="E105" s="32" t="s">
+      <c r="E105" s="14" t="s">
         <v>248</v>
       </c>
-      <c r="F105" s="32" t="s">
+      <c r="F105" s="14" t="s">
         <v>282</v>
       </c>
-      <c r="L105" s="32" t="s">
+      <c r="L105" s="14" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="106" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="G106" s="32" t="s">
+      <c r="G106" s="14" t="s">
         <v>256</v>
       </c>
-      <c r="H106" s="32" t="s">
+      <c r="H106" s="14" t="s">
         <v>247</v>
       </c>
-      <c r="I106" s="32" t="s">
+      <c r="I106" s="14" t="s">
         <v>248</v>
       </c>
-      <c r="J106" s="32" t="s">
+      <c r="J106" s="14" t="s">
         <v>284</v>
       </c>
-      <c r="K106" s="52" t="s">
+      <c r="K106" s="25" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="107" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="G107" s="32" t="s">
+      <c r="G107" s="14" t="s">
         <v>250</v>
       </c>
-      <c r="H107" s="32" t="s">
+      <c r="H107" s="14" t="s">
         <v>247</v>
       </c>
-      <c r="I107" s="32" t="s">
+      <c r="I107" s="14" t="s">
         <v>248</v>
       </c>
-      <c r="L107" s="32" t="s">
+      <c r="L107" s="14" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="108" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="K108" s="53" t="s">
+      <c r="K108" s="26" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="110" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C110" s="51" t="s">
+      <c r="C110" s="24" t="s">
         <v>286</v>
       </c>
-      <c r="D110" s="32" t="s">
+      <c r="D110" s="14" t="s">
         <v>281</v>
       </c>
-      <c r="E110" s="32" t="s">
+      <c r="E110" s="14" t="s">
         <v>248</v>
       </c>
-      <c r="F110" s="32" t="s">
+      <c r="F110" s="14" t="s">
         <v>287</v>
       </c>
-      <c r="L110" s="32" t="s">
+      <c r="L110" s="14" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="111" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="G111" s="32" t="s">
+      <c r="G111" s="14" t="s">
         <v>252</v>
       </c>
-      <c r="H111" s="32" t="s">
+      <c r="H111" s="14" t="s">
         <v>247</v>
       </c>
-      <c r="I111" s="32" t="s">
+      <c r="I111" s="14" t="s">
         <v>253</v>
       </c>
-      <c r="J111" s="32" t="s">
+      <c r="J111" s="14" t="s">
         <v>254</v>
       </c>
-      <c r="K111" s="52" t="s">
+      <c r="K111" s="25" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="112" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="G112" s="32" t="s">
+      <c r="G112" s="14" t="s">
         <v>255</v>
       </c>
-      <c r="H112" s="32" t="s">
+      <c r="H112" s="14" t="s">
         <v>247</v>
       </c>
-      <c r="I112" s="32" t="s">
+      <c r="I112" s="14" t="s">
         <v>253</v>
       </c>
-      <c r="J112" s="32" t="s">
+      <c r="J112" s="14" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="113" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="G113" s="32" t="s">
+      <c r="G113" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="H113" s="32" t="s">
+      <c r="H113" s="14" t="s">
         <v>247</v>
       </c>
-      <c r="I113" s="32" t="s">
+      <c r="I113" s="14" t="s">
         <v>253</v>
       </c>
-      <c r="J113" s="32" t="s">
+      <c r="J113" s="14" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="114" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="G114" s="32" t="s">
+      <c r="G114" s="14" t="s">
         <v>289</v>
       </c>
-      <c r="H114" s="32" t="s">
+      <c r="H114" s="14" t="s">
         <v>263</v>
       </c>
-      <c r="I114" s="32" t="s">
+      <c r="I114" s="14" t="s">
         <v>253</v>
       </c>
-      <c r="J114" s="32" t="s">
+      <c r="J114" s="14" t="s">
         <v>264</v>
       </c>
-      <c r="K114" s="53" t="s">
+      <c r="K114" s="26" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="115" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="G115" s="32" t="s">
+      <c r="G115" s="14" t="s">
         <v>290</v>
       </c>
-      <c r="H115" s="32" t="s">
+      <c r="H115" s="14" t="s">
         <v>263</v>
       </c>
-      <c r="I115" s="32" t="s">
+      <c r="I115" s="14" t="s">
         <v>253</v>
       </c>
-      <c r="J115" s="32" t="s">
+      <c r="J115" s="14" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="116" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="G116" s="32" t="s">
+      <c r="G116" s="14" t="s">
         <v>250</v>
       </c>
-      <c r="H116" s="32" t="s">
+      <c r="H116" s="14" t="s">
         <v>247</v>
       </c>
-      <c r="I116" s="32" t="s">
+      <c r="I116" s="14" t="s">
         <v>248</v>
       </c>
-      <c r="L116" s="32" t="s">
+      <c r="L116" s="14" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="118" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C118" s="51" t="s">
+      <c r="C118" s="24" t="s">
         <v>291</v>
       </c>
-      <c r="D118" s="32" t="s">
+      <c r="D118" s="14" t="s">
         <v>281</v>
       </c>
-      <c r="E118" s="32" t="s">
+      <c r="E118" s="14" t="s">
         <v>248</v>
       </c>
-      <c r="F118" s="32" t="s">
+      <c r="F118" s="14" t="s">
         <v>292</v>
       </c>
-      <c r="L118" s="32" t="s">
+      <c r="L118" s="14" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="119" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="G119" s="32" t="s">
+      <c r="G119" s="14" t="s">
         <v>294</v>
       </c>
-      <c r="H119" s="32" t="s">
+      <c r="H119" s="14" t="s">
         <v>247</v>
       </c>
-      <c r="I119" s="32" t="s">
+      <c r="I119" s="14" t="s">
         <v>248</v>
       </c>
-      <c r="K119" s="52" t="s">
+      <c r="K119" s="25" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="120" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="G120" s="32" t="s">
+      <c r="G120" s="14" t="s">
         <v>295</v>
       </c>
-      <c r="H120" s="32" t="s">
+      <c r="H120" s="14" t="s">
         <v>247</v>
       </c>
-      <c r="I120" s="32" t="s">
+      <c r="I120" s="14" t="s">
         <v>248</v>
       </c>
-      <c r="J120" s="32" t="s">
+      <c r="J120" s="14" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="121" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="G121" s="32" t="s">
+      <c r="G121" s="14" t="s">
         <v>278</v>
       </c>
-      <c r="H121" s="32" t="s">
+      <c r="H121" s="14" t="s">
         <v>279</v>
       </c>
-      <c r="I121" s="32" t="s">
+      <c r="I121" s="14" t="s">
         <v>253</v>
       </c>
-      <c r="J121" s="32" t="s">
+      <c r="J121" s="14" t="s">
         <v>296</v>
       </c>
-      <c r="K121" s="53" t="s">
+      <c r="K121" s="26" t="s">
         <v>258</v>
       </c>
-      <c r="L121" s="32" t="s">
+      <c r="L121" s="14" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="123" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C123" s="51" t="s">
+      <c r="C123" s="24" t="s">
         <v>298</v>
       </c>
-      <c r="D123" s="32" t="s">
+      <c r="D123" s="14" t="s">
         <v>281</v>
       </c>
-      <c r="E123" s="32" t="s">
+      <c r="E123" s="14" t="s">
         <v>248</v>
       </c>
-      <c r="F123" s="32" t="s">
+      <c r="F123" s="14" t="s">
         <v>299</v>
       </c>
-      <c r="K123" s="52" t="s">
+      <c r="K123" s="25" t="s">
         <v>175</v>
       </c>
-      <c r="L123" s="32" t="s">
+      <c r="L123" s="14" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="124" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="G124" s="32" t="s">
+      <c r="G124" s="14" t="s">
         <v>301</v>
       </c>
-      <c r="H124" s="32" t="s">
+      <c r="H124" s="14" t="s">
         <v>279</v>
       </c>
-      <c r="I124" s="32" t="s">
+      <c r="I124" s="14" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="125" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="K125" s="53" t="s">
+      <c r="K125" s="26" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="127" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C127" s="51" t="s">
+      <c r="C127" s="24" t="s">
         <v>302</v>
       </c>
-      <c r="D127" s="32" t="s">
+      <c r="D127" s="14" t="s">
         <v>303</v>
       </c>
-      <c r="E127" s="32" t="s">
+      <c r="E127" s="14" t="s">
         <v>248</v>
       </c>
-      <c r="F127" s="32" t="s">
+      <c r="F127" s="14" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="128" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="K128" s="52" t="s">
+      <c r="K128" s="25" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="130" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="K130" s="53" t="s">
+      <c r="K130" s="26" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="132" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C132" s="51" t="s">
+      <c r="C132" s="24" t="s">
         <v>305</v>
       </c>
-      <c r="D132" s="32" t="s">
+      <c r="D132" s="14" t="s">
         <v>303</v>
       </c>
-      <c r="E132" s="32" t="s">
+      <c r="E132" s="14" t="s">
         <v>248</v>
       </c>
-      <c r="F132" s="32" t="s">
+      <c r="F132" s="14" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="133" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="K133" s="52" t="s">
+      <c r="K133" s="25" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="135" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="K135" s="53" t="s">
+      <c r="K135" s="26" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="137" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C137" s="51" t="s">
+      <c r="C137" s="24" t="s">
         <v>307</v>
       </c>
-      <c r="D137" s="32" t="s">
+      <c r="D137" s="14" t="s">
         <v>308</v>
       </c>
-      <c r="E137" s="32" t="s">
+      <c r="E137" s="14" t="s">
         <v>248</v>
       </c>
-      <c r="F137" s="32" t="s">
+      <c r="F137" s="14" t="s">
         <v>241</v>
       </c>
-      <c r="L137" s="32" t="s">
+      <c r="L137" s="14" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="138" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="K138" s="52" t="s">
+      <c r="K138" s="25" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="140" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="K140" s="53" t="s">
+      <c r="K140" s="26" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="142" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C142" s="51" t="s">
+      <c r="C142" s="24" t="s">
         <v>310</v>
       </c>
-      <c r="D142" s="32" t="s">
+      <c r="D142" s="14" t="s">
         <v>281</v>
       </c>
-      <c r="E142" s="32" t="s">
+      <c r="E142" s="14" t="s">
         <v>248</v>
       </c>
-      <c r="F142" s="32" t="s">
+      <c r="F142" s="14" t="s">
         <v>299</v>
       </c>
-      <c r="L142" s="32" t="s">
+      <c r="L142" s="14" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="143" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="K143" s="52" t="s">
+      <c r="K143" s="25" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="145" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="K145" s="53" t="s">
+      <c r="K145" s="26" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="147" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C147" s="51" t="s">
+      <c r="C147" s="24" t="s">
         <v>311</v>
       </c>
-      <c r="D147" s="32" t="s">
+      <c r="D147" s="14" t="s">
         <v>303</v>
       </c>
-      <c r="E147" s="32" t="s">
+      <c r="E147" s="14" t="s">
         <v>248</v>
       </c>
-      <c r="F147" s="32" t="s">
+      <c r="F147" s="14" t="s">
         <v>312</v>
       </c>
-      <c r="L147" s="32" t="s">
+      <c r="L147" s="14" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="148" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="K148" s="52" t="s">
+      <c r="K148" s="25" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="150" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="K150" s="53" t="s">
+      <c r="K150" s="26" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="151" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C151" s="51" t="s">
+      <c r="C151" s="24" t="s">
         <v>314</v>
       </c>
-      <c r="D151" s="32" t="s">
+      <c r="D151" s="14" t="s">
         <v>303</v>
       </c>
-      <c r="E151" s="32" t="s">
+      <c r="E151" s="14" t="s">
         <v>248</v>
       </c>
-      <c r="F151" s="32" t="s">
+      <c r="F151" s="14" t="s">
         <v>315</v>
       </c>
-      <c r="L151" s="32" t="s">
+      <c r="L151" s="14" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="152" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="K152" s="52" t="s">
+      <c r="K152" s="25" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="154" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="K154" s="53" t="s">
+      <c r="K154" s="26" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="155" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C155" s="51" t="s">
+      <c r="C155" s="24" t="s">
         <v>316</v>
       </c>
-      <c r="D155" s="32" t="s">
+      <c r="D155" s="14" t="s">
         <v>303</v>
       </c>
-      <c r="E155" s="32" t="s">
+      <c r="E155" s="14" t="s">
         <v>248</v>
       </c>
-      <c r="F155" s="32" t="s">
+      <c r="F155" s="14" t="s">
         <v>317</v>
       </c>
-      <c r="L155" s="32" t="s">
+      <c r="L155" s="14" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="156" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="K156" s="52" t="s">
+      <c r="K156" s="25" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="158" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="K158" s="53" t="s">
+      <c r="K158" s="26" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="159" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C159" s="51" t="s">
+      <c r="C159" s="24" t="s">
         <v>319</v>
       </c>
-      <c r="D159" s="32" t="s">
+      <c r="D159" s="14" t="s">
         <v>303</v>
       </c>
-      <c r="E159" s="32" t="s">
+      <c r="E159" s="14" t="s">
         <v>248</v>
       </c>
-      <c r="F159" s="32" t="s">
+      <c r="F159" s="14" t="s">
         <v>320</v>
       </c>
-      <c r="L159" s="32" t="s">
+      <c r="L159" s="14" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="160" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="K160" s="52" t="s">
+      <c r="K160" s="25" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="K162" s="53" t="s">
+      <c r="K162" s="26" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A164" s="32" t="s">
+      <c r="A164" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="B164" s="51" t="s">
+      <c r="B164" s="24" t="s">
         <v>322</v>
       </c>
-      <c r="F164" s="32" t="s">
+      <c r="F164" s="14" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C165" s="51" t="s">
+      <c r="C165" s="24" t="s">
         <v>324</v>
       </c>
-      <c r="D165" s="32" t="s">
+      <c r="D165" s="14" t="s">
         <v>243</v>
       </c>
-      <c r="E165" s="32" t="s">
+      <c r="E165" s="14" t="s">
         <v>248</v>
       </c>
-      <c r="F165" s="32" t="s">
+      <c r="F165" s="14" t="s">
         <v>325</v>
       </c>
-      <c r="L165" s="32" t="s">
+      <c r="L165" s="14" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G166" s="32" t="s">
+      <c r="G166" s="14" t="s">
         <v>327</v>
       </c>
-      <c r="H166" s="32" t="s">
+      <c r="H166" s="14" t="s">
         <v>247</v>
       </c>
-      <c r="I166" s="32" t="s">
+      <c r="I166" s="14" t="s">
         <v>248</v>
       </c>
-      <c r="K166" s="52" t="s">
+      <c r="K166" s="25" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G167" s="32" t="s">
+      <c r="G167" s="14" t="s">
         <v>328</v>
       </c>
-      <c r="H167" s="32" t="s">
+      <c r="H167" s="14" t="s">
         <v>196</v>
       </c>
-      <c r="I167" s="32" t="s">
+      <c r="I167" s="14" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G168" s="32" t="s">
+      <c r="G168" s="14" t="s">
         <v>262</v>
       </c>
-      <c r="H168" s="32" t="s">
+      <c r="H168" s="14" t="s">
         <v>263</v>
       </c>
-      <c r="I168" s="32" t="s">
+      <c r="I168" s="14" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G169" s="32" t="s">
+      <c r="G169" s="14" t="s">
         <v>265</v>
       </c>
-      <c r="H169" s="32" t="s">
+      <c r="H169" s="14" t="s">
         <v>263</v>
       </c>
-      <c r="I169" s="32" t="s">
+      <c r="I169" s="14" t="s">
         <v>253</v>
       </c>
-      <c r="K169" s="53" t="s">
+      <c r="K169" s="26" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G170" s="32" t="s">
+      <c r="G170" s="14" t="s">
         <v>266</v>
       </c>
-      <c r="H170" s="32" t="s">
+      <c r="H170" s="14" t="s">
         <v>329</v>
       </c>
-      <c r="I170" s="32" t="s">
+      <c r="I170" s="14" t="s">
         <v>253</v>
       </c>
-      <c r="J170" s="32" t="s">
+      <c r="J170" s="14" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C172" s="51" t="s">
+      <c r="C172" s="24" t="s">
         <v>330</v>
       </c>
-      <c r="D172" s="32" t="s">
+      <c r="D172" s="14" t="s">
         <v>303</v>
       </c>
-      <c r="E172" s="32" t="s">
+      <c r="E172" s="14" t="s">
         <v>248</v>
       </c>
-      <c r="F172" s="32" t="s">
+      <c r="F172" s="14" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="K173" s="52" t="s">
+      <c r="K173" s="25" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="K176" s="53" t="s">
+      <c r="K176" s="26" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="177" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C177" s="51" t="s">
+      <c r="C177" s="24" t="s">
         <v>331</v>
       </c>
-      <c r="D177" s="32" t="s">
+      <c r="D177" s="14" t="s">
         <v>243</v>
       </c>
-      <c r="E177" s="32" t="s">
+      <c r="E177" s="14" t="s">
         <v>248</v>
       </c>
-      <c r="F177" s="32" t="s">
+      <c r="F177" s="14" t="s">
         <v>332</v>
       </c>
-      <c r="L177" s="32" t="s">
+      <c r="L177" s="14" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="178" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="G178" s="32" t="s">
+      <c r="G178" s="14" t="s">
         <v>334</v>
       </c>
-      <c r="H178" s="32" t="s">
+      <c r="H178" s="14" t="s">
         <v>247</v>
       </c>
-      <c r="I178" s="32" t="s">
+      <c r="I178" s="14" t="s">
         <v>248</v>
       </c>
-      <c r="K178" s="52" t="s">
+      <c r="K178" s="25" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="179" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="G179" s="32" t="s">
+      <c r="G179" s="14" t="s">
         <v>335</v>
       </c>
-      <c r="H179" s="32" t="s">
+      <c r="H179" s="14" t="s">
         <v>336</v>
       </c>
-      <c r="I179" s="32" t="s">
+      <c r="I179" s="14" t="s">
         <v>253</v>
       </c>
-      <c r="J179" s="32" t="s">
+      <c r="J179" s="14" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="181" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="K181" s="53" t="s">
+      <c r="K181" s="26" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="182" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C182" s="51" t="s">
+      <c r="C182" s="24" t="s">
         <v>337</v>
       </c>
-      <c r="D182" s="32" t="s">
+      <c r="D182" s="14" t="s">
         <v>281</v>
       </c>
-      <c r="E182" s="32" t="s">
+      <c r="E182" s="14" t="s">
         <v>248</v>
       </c>
-      <c r="F182" s="32" t="s">
+      <c r="F182" s="14" t="s">
         <v>338</v>
       </c>
-      <c r="L182" s="32" t="s">
+      <c r="L182" s="14" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="183" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="G183" s="32" t="s">
+      <c r="G183" s="14" t="s">
         <v>334</v>
       </c>
-      <c r="H183" s="32" t="s">
+      <c r="H183" s="14" t="s">
         <v>247</v>
       </c>
-      <c r="I183" s="32" t="s">
+      <c r="I183" s="14" t="s">
         <v>248</v>
       </c>
-      <c r="K183" s="52" t="s">
+      <c r="K183" s="25" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="184" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="G184" s="32" t="s">
+      <c r="G184" s="14" t="s">
         <v>335</v>
       </c>
-      <c r="H184" s="32" t="s">
+      <c r="H184" s="14" t="s">
         <v>336</v>
       </c>
-      <c r="I184" s="32" t="s">
+      <c r="I184" s="14" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="185" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="K185" s="53" t="s">
+      <c r="K185" s="26" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="186" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C186" s="51" t="s">
+      <c r="C186" s="24" t="s">
         <v>307</v>
       </c>
-      <c r="D186" s="32" t="s">
+      <c r="D186" s="14" t="s">
         <v>308</v>
       </c>
-      <c r="E186" s="32" t="s">
+      <c r="E186" s="14" t="s">
         <v>248</v>
       </c>
-      <c r="F186" s="32" t="s">
+      <c r="F186" s="14" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="187" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="G187" s="32" t="s">
+      <c r="G187" s="14" t="s">
         <v>341</v>
       </c>
-      <c r="H187" s="32" t="s">
+      <c r="H187" s="14" t="s">
         <v>247</v>
       </c>
-      <c r="I187" s="32" t="s">
+      <c r="I187" s="14" t="s">
         <v>248</v>
       </c>
-      <c r="K187" s="52" t="s">
+      <c r="K187" s="25" t="s">
         <v>175</v>
       </c>
-      <c r="L187" s="32" t="s">
+      <c r="L187" s="14" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="190" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="K190" s="53" t="s">
+      <c r="K190" s="26" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="192" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C192" s="51" t="s">
+      <c r="C192" s="24" t="s">
         <v>343</v>
       </c>
-      <c r="D192" s="32" t="s">
+      <c r="D192" s="14" t="s">
         <v>308</v>
       </c>
-      <c r="E192" s="32" t="s">
+      <c r="E192" s="14" t="s">
         <v>248</v>
       </c>
-      <c r="F192" s="32" t="s">
+      <c r="F192" s="14" t="s">
         <v>323</v>
       </c>
-      <c r="L192" s="32" t="s">
+      <c r="L192" s="14" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="K193" s="52" t="s">
+      <c r="K193" s="25" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="K195" s="53" t="s">
+      <c r="K195" s="26" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C197" s="51" t="s">
+      <c r="C197" s="24" t="s">
         <v>344</v>
       </c>
-      <c r="D197" s="32" t="s">
+      <c r="D197" s="14" t="s">
         <v>303</v>
       </c>
-      <c r="E197" s="32" t="s">
+      <c r="E197" s="14" t="s">
         <v>248</v>
       </c>
-      <c r="F197" s="32" t="s">
+      <c r="F197" s="14" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G198" s="32" t="s">
+      <c r="G198" s="14" t="s">
         <v>346</v>
       </c>
-      <c r="H198" s="32" t="s">
+      <c r="H198" s="14" t="s">
         <v>347</v>
       </c>
-      <c r="I198" s="32" t="s">
+      <c r="I198" s="14" t="s">
         <v>253</v>
       </c>
-      <c r="J198" s="32" t="s">
+      <c r="J198" s="14" t="s">
         <v>268</v>
       </c>
-      <c r="K198" s="52" t="s">
+      <c r="K198" s="25" t="s">
         <v>175</v>
       </c>
-      <c r="L198" s="32" t="s">
+      <c r="L198" s="14" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G199" s="32" t="s">
+      <c r="G199" s="14" t="s">
         <v>349</v>
       </c>
-      <c r="H199" s="32" t="s">
+      <c r="H199" s="14" t="s">
         <v>347</v>
       </c>
-      <c r="I199" s="32" t="s">
+      <c r="I199" s="14" t="s">
         <v>253</v>
       </c>
-      <c r="J199" s="32" t="s">
+      <c r="J199" s="14" t="s">
         <v>268</v>
       </c>
-      <c r="L199" s="32" t="s">
+      <c r="L199" s="14" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="K200" s="53" t="s">
+      <c r="K200" s="26" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C202" s="51" t="s">
+      <c r="C202" s="24" t="s">
         <v>351</v>
       </c>
-      <c r="D202" s="32" t="s">
+      <c r="D202" s="14" t="s">
         <v>303</v>
       </c>
-      <c r="E202" s="32" t="s">
+      <c r="E202" s="14" t="s">
         <v>248</v>
       </c>
-      <c r="F202" s="32" t="s">
+      <c r="F202" s="14" t="s">
         <v>352</v>
       </c>
-      <c r="L202" s="32" t="s">
+      <c r="L202" s="14" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="203" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="K203" s="52" t="s">
+      <c r="K203" s="25" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="205" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="K205" s="53" t="s">
+      <c r="K205" s="26" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="207" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A207" s="32" t="s">
+      <c r="A207" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="B207" s="51" t="s">
+      <c r="B207" s="24" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C208" s="51" t="s">
+      <c r="C208" s="24" t="s">
         <v>355</v>
       </c>
-      <c r="D208" s="32" t="s">
+      <c r="D208" s="14" t="s">
         <v>308</v>
       </c>
-      <c r="E208" s="32" t="s">
+      <c r="E208" s="14" t="s">
         <v>248</v>
       </c>
-      <c r="F208" s="32" t="s">
+      <c r="F208" s="14" t="s">
         <v>356</v>
       </c>
-      <c r="L208" s="32" t="s">
+      <c r="L208" s="14" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="209" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="K209" s="52" t="s">
+      <c r="K209" s="25" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="211" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="K211" s="53" t="s">
+      <c r="K211" s="26" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="213" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C213" s="51" t="s">
+      <c r="C213" s="24" t="s">
         <v>358</v>
       </c>
-      <c r="D213" s="32" t="s">
+      <c r="D213" s="14" t="s">
         <v>281</v>
       </c>
-      <c r="E213" s="32" t="s">
+      <c r="E213" s="14" t="s">
         <v>248</v>
       </c>
-      <c r="F213" s="32" t="s">
+      <c r="F213" s="14" t="s">
         <v>356</v>
       </c>
-      <c r="L213" s="32" t="s">
+      <c r="L213" s="14" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="214" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="K214" s="52" t="s">
+      <c r="K214" s="25" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="216" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="K216" s="53" t="s">
+      <c r="K216" s="26" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="218" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C218" s="51" t="s">
+      <c r="C218" s="24" t="s">
         <v>359</v>
       </c>
-      <c r="D218" s="32" t="s">
+      <c r="D218" s="14" t="s">
         <v>303</v>
       </c>
-      <c r="E218" s="32" t="s">
+      <c r="E218" s="14" t="s">
         <v>248</v>
       </c>
-      <c r="F218" s="32" t="s">
+      <c r="F218" s="14" t="s">
         <v>356</v>
       </c>
-      <c r="L218" s="32" t="s">
+      <c r="L218" s="14" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="219" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="K219" s="52" t="s">
+      <c r="K219" s="25" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="221" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="K221" s="53" t="s">
+      <c r="K221" s="26" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="223" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C223" s="51" t="s">
+      <c r="C223" s="24" t="s">
         <v>360</v>
       </c>
-      <c r="D223" s="32" t="s">
+      <c r="D223" s="14" t="s">
         <v>243</v>
       </c>
-      <c r="E223" s="32" t="s">
+      <c r="E223" s="14" t="s">
         <v>248</v>
       </c>
-      <c r="F223" s="32" t="s">
+      <c r="F223" s="14" t="s">
         <v>361</v>
       </c>
-      <c r="L223" s="32" t="s">
+      <c r="L223" s="14" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="224" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="K224" s="52" t="s">
+      <c r="K224" s="25" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="226" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="K226" s="53" t="s">
+      <c r="K226" s="26" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="228" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C228" s="51" t="s">
+      <c r="C228" s="24" t="s">
         <v>363</v>
       </c>
-      <c r="D228" s="32" t="s">
+      <c r="D228" s="14" t="s">
         <v>243</v>
       </c>
-      <c r="E228" s="32" t="s">
+      <c r="E228" s="14" t="s">
         <v>248</v>
       </c>
-      <c r="F228" s="32" t="s">
+      <c r="F228" s="14" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="229" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="K229" s="52" t="s">
+      <c r="K229" s="25" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="231" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="K231" s="53" t="s">
+      <c r="K231" s="26" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="233" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A233" s="32" t="s">
+      <c r="A233" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="B233" s="51" t="s">
+      <c r="B233" s="24" t="s">
         <v>365</v>
       </c>
-      <c r="K233" s="32" t="s">
+      <c r="K233" s="14" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="234" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C234" s="51" t="s">
+      <c r="C234" s="24" t="s">
         <v>367</v>
       </c>
-      <c r="D234" s="32" t="s">
+      <c r="D234" s="14" t="s">
         <v>243</v>
       </c>
-      <c r="E234" s="32" t="s">
+      <c r="E234" s="14" t="s">
         <v>248</v>
       </c>
-      <c r="F234" s="32" t="s">
+      <c r="F234" s="14" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="235" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G235" s="32" t="s">
+      <c r="G235" s="14" t="s">
         <v>369</v>
       </c>
-      <c r="H235" s="32" t="s">
+      <c r="H235" s="14" t="s">
         <v>247</v>
       </c>
-      <c r="I235" s="32" t="s">
+      <c r="I235" s="14" t="s">
         <v>248</v>
       </c>
-      <c r="K235" s="52" t="s">
+      <c r="K235" s="25" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="236" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G236" s="32" t="s">
+      <c r="G236" s="14" t="s">
         <v>370</v>
       </c>
-      <c r="H236" s="32" t="s">
+      <c r="H236" s="14" t="s">
         <v>196</v>
       </c>
-      <c r="I236" s="32" t="s">
+      <c r="I236" s="14" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="237" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="K237" s="53" t="s">
+      <c r="K237" s="26" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="239" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C239" s="51" t="s">
+      <c r="C239" s="24" t="s">
         <v>371</v>
       </c>
-      <c r="D239" s="32" t="s">
+      <c r="D239" s="14" t="s">
         <v>281</v>
       </c>
-      <c r="E239" s="32" t="s">
+      <c r="E239" s="14" t="s">
         <v>248</v>
       </c>
-      <c r="F239" s="32" t="s">
+      <c r="F239" s="14" t="s">
         <v>372</v>
       </c>
-      <c r="L239" s="32" t="s">
+      <c r="L239" s="14" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="240" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G240" s="32" t="s">
+      <c r="G240" s="14" t="s">
         <v>369</v>
       </c>
-      <c r="H240" s="32" t="s">
+      <c r="H240" s="14" t="s">
         <v>247</v>
       </c>
-      <c r="I240" s="32" t="s">
+      <c r="I240" s="14" t="s">
         <v>248</v>
       </c>
-      <c r="K240" s="52" t="s">
+      <c r="K240" s="25" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="241" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="G241" s="32" t="s">
+      <c r="G241" s="14" t="s">
         <v>370</v>
       </c>
-      <c r="H241" s="32" t="s">
+      <c r="H241" s="14" t="s">
         <v>196</v>
       </c>
-      <c r="I241" s="32" t="s">
+      <c r="I241" s="14" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="242" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="K242" s="53" t="s">
+      <c r="K242" s="26" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="244" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C244" s="51" t="s">
+      <c r="C244" s="24" t="s">
         <v>373</v>
       </c>
-      <c r="D244" s="32" t="s">
+      <c r="D244" s="14" t="s">
         <v>308</v>
       </c>
-      <c r="E244" s="32" t="s">
+      <c r="E244" s="14" t="s">
         <v>248</v>
       </c>
-      <c r="F244" s="32" t="s">
+      <c r="F244" s="14" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="245" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="K245" s="52" t="s">
+      <c r="K245" s="25" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="247" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="K247" s="53" t="s">
+      <c r="K247" s="26" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="249" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C249" s="51" t="s">
+      <c r="C249" s="24" t="s">
         <v>374</v>
       </c>
-      <c r="D249" s="32" t="s">
+      <c r="D249" s="14" t="s">
         <v>303</v>
       </c>
-      <c r="E249" s="32" t="s">
+      <c r="E249" s="14" t="s">
         <v>248</v>
       </c>
-      <c r="F249" s="32" t="s">
+      <c r="F249" s="14" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="250" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="K250" s="52" t="s">
+      <c r="K250" s="25" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="252" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="K252" s="53" t="s">
+      <c r="K252" s="26" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="262" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A262" s="32" t="s">
+      <c r="A262" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="B262" s="51" t="s">
+      <c r="B262" s="24" t="s">
         <v>527</v>
       </c>
     </row>
     <row r="263" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C263" s="32" t="s">
+      <c r="C263" s="14" t="s">
         <v>529</v>
       </c>
-      <c r="D263" s="32" t="s">
+      <c r="D263" s="14" t="s">
         <v>243</v>
       </c>
-      <c r="E263" s="32" t="s">
+      <c r="E263" s="14" t="s">
         <v>248</v>
       </c>
-      <c r="F263" s="32" t="s">
+      <c r="F263" s="14" t="s">
+        <v>544</v>
+      </c>
+      <c r="L263" s="14" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="264" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K264" s="25" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="267" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K267" s="26" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="271" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C271" s="14" t="s">
+        <v>540</v>
+      </c>
+      <c r="D271" s="14" t="s">
+        <v>243</v>
+      </c>
+      <c r="E271" s="14" t="s">
+        <v>248</v>
+      </c>
+      <c r="F271" s="4" t="s">
         <v>545</v>
       </c>
-      <c r="L263" s="32" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="264" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="K264" s="52" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="267" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="K267" s="53" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="271" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C271" s="32" t="s">
-        <v>540</v>
-      </c>
-      <c r="D271" s="32" t="s">
-        <v>243</v>
-      </c>
-      <c r="E271" s="32" t="s">
+      <c r="L271" s="14" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="276" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C276" s="14" t="s">
+        <v>530</v>
+      </c>
+      <c r="D276" s="14" t="s">
+        <v>303</v>
+      </c>
+      <c r="E276" s="14" t="s">
         <v>248</v>
       </c>
-      <c r="F271" s="32" t="s">
-        <v>541</v>
-      </c>
-      <c r="L271" s="32" t="s">
+      <c r="F276" s="14" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="276" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C276" s="32" t="s">
-        <v>530</v>
-      </c>
-      <c r="D276" s="32" t="s">
+    <row r="280" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C280" s="14" t="s">
+        <v>528</v>
+      </c>
+      <c r="D280" s="14" t="s">
+        <v>308</v>
+      </c>
+      <c r="E280" s="14" t="s">
+        <v>248</v>
+      </c>
+      <c r="F280" s="14" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="284" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C284" s="14" t="s">
+        <v>531</v>
+      </c>
+      <c r="D284" s="14" t="s">
         <v>303</v>
       </c>
-      <c r="E276" s="32" t="s">
+      <c r="E284" s="14" t="s">
         <v>248</v>
       </c>
-      <c r="F276" s="32" t="s">
+      <c r="F284" s="14" t="s">
         <v>543</v>
-      </c>
-    </row>
-    <row r="280" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C280" s="32" t="s">
-        <v>528</v>
-      </c>
-      <c r="D280" s="32" t="s">
-        <v>308</v>
-      </c>
-      <c r="E280" s="32" t="s">
-        <v>248</v>
-      </c>
-      <c r="F280" s="32" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="284" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C284" s="32" t="s">
-        <v>531</v>
-      </c>
-      <c r="D284" s="32" t="s">
-        <v>303</v>
-      </c>
-      <c r="E284" s="32" t="s">
-        <v>248</v>
-      </c>
-      <c r="F284" s="32" t="s">
-        <v>544</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="K77:K78"/>
-    <mergeCell ref="L77:L78"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="A76:L76"/>
-    <mergeCell ref="E77:E78"/>
     <mergeCell ref="A33:E33"/>
     <mergeCell ref="G77:J77"/>
     <mergeCell ref="B77:B78"/>
     <mergeCell ref="C77:C78"/>
     <mergeCell ref="D77:D78"/>
     <mergeCell ref="F77:F78"/>
+    <mergeCell ref="K77:K78"/>
+    <mergeCell ref="L77:L78"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="A76:L76"/>
+    <mergeCell ref="E77:E78"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="37" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -5223,2117 +5230,1516 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N209"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A117" workbookViewId="0">
+    <sheetView topLeftCell="A117" workbookViewId="0">
       <selection activeCell="F130" sqref="F130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="10" customWidth="1"/>
-    <col min="2" max="2" width="24.42578125" style="9" customWidth="1"/>
-    <col min="3" max="3" width="22" style="9" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" style="9" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" style="9" customWidth="1"/>
-    <col min="6" max="6" width="19.5703125" style="9" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="9"/>
+    <col min="1" max="1" width="8.7109375" style="41" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" style="39" customWidth="1"/>
+    <col min="3" max="3" width="22" style="39" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" style="39" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" style="39" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" style="39" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="39"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="38" t="s">
         <v>375</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="40" t="s">
         <v>376</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="15">
+      <c r="A5" s="41">
         <v>1</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="39" t="s">
         <v>377</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="15"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="39" t="s">
         <v>378</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="15"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="39" t="s">
         <v>379</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="15"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="39" t="s">
         <v>380</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="15"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="39" t="s">
         <v>381</v>
       </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="15">
+      <c r="A10" s="41">
         <v>2</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="39" t="s">
         <v>382</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="15"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="39" t="s">
         <v>383</v>
       </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="15"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="42" t="s">
         <v>384</v>
       </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="15"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="42" t="s">
         <v>385</v>
       </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="15">
+      <c r="A15" s="41">
         <v>3</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="39" t="s">
         <v>386</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="15"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="39" t="s">
         <v>387</v>
       </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="15"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="42" t="s">
         <v>388</v>
       </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="15"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
+      <c r="C18" s="42"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="15">
+      <c r="A19" s="41">
         <v>4</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="39" t="s">
         <v>389</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="42" t="s">
         <v>390</v>
       </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="15"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="39" t="s">
         <v>391</v>
       </c>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="23" t="s">
+      <c r="A22" s="43" t="s">
         <v>392</v>
       </c>
-      <c r="B22" s="23"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
+      <c r="B22" s="43"/>
+      <c r="C22" s="43"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="15"/>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="39" t="s">
         <v>393</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="39" t="s">
         <v>394</v>
       </c>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="15"/>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="39" t="s">
         <v>395</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="39" t="s">
         <v>396</v>
       </c>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="24" t="s">
+      <c r="A27" s="38" t="s">
         <v>397</v>
       </c>
-      <c r="B27" s="24"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="38"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="27" t="s">
+      <c r="A29" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="B29" s="27" t="s">
+      <c r="B29" s="44" t="s">
         <v>398</v>
       </c>
-      <c r="C29" s="25" t="s">
+      <c r="C29" s="45" t="s">
         <v>220</v>
       </c>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="25"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="45"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="27"/>
-      <c r="B30" s="27"/>
-      <c r="C30" s="17" t="s">
+      <c r="A30" s="44"/>
+      <c r="B30" s="44"/>
+      <c r="C30" s="46" t="s">
         <v>234</v>
       </c>
-      <c r="D30" s="17" t="s">
+      <c r="D30" s="46" t="s">
         <v>235</v>
       </c>
-      <c r="E30" s="17" t="s">
+      <c r="E30" s="46" t="s">
         <v>399</v>
       </c>
-      <c r="F30" s="17" t="s">
+      <c r="F30" s="46" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="22" t="s">
+      <c r="A31" s="47" t="s">
         <v>401</v>
       </c>
-      <c r="B31" s="22"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="22"/>
+      <c r="B31" s="47"/>
+      <c r="C31" s="47"/>
+      <c r="D31" s="47"/>
+      <c r="E31" s="47"/>
+      <c r="F31" s="47"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="11">
+      <c r="A32" s="48">
         <v>1</v>
       </c>
-      <c r="B32" s="18" t="s">
+      <c r="B32" s="49" t="s">
         <v>402</v>
       </c>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4" t="s">
+      <c r="F32" s="39" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="15"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="12" t="s">
+      <c r="C33" s="50" t="s">
         <v>404</v>
       </c>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="15"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4" t="s">
+      <c r="C34" s="39" t="s">
         <v>405</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="D34" s="39" t="s">
         <v>406</v>
       </c>
-      <c r="E34" s="4" t="s">
+      <c r="E34" s="39" t="s">
         <v>407</v>
       </c>
-      <c r="F34" s="4" t="s">
+      <c r="F34" s="39" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="15"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="39" t="s">
         <v>409</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="D35" s="39" t="s">
         <v>406</v>
       </c>
-      <c r="E35" s="4" t="s">
+      <c r="E35" s="39" t="s">
         <v>407</v>
       </c>
-      <c r="F35" s="4" t="s">
+      <c r="F35" s="39" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="15"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4" t="s">
+      <c r="C36" s="39" t="s">
         <v>411</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="D36" s="39" t="s">
         <v>406</v>
       </c>
-      <c r="E36" s="4" t="s">
+      <c r="E36" s="39" t="s">
         <v>407</v>
       </c>
-      <c r="F36" s="4" t="s">
+      <c r="F36" s="39" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="15"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4" t="s">
+      <c r="C37" s="39" t="s">
         <v>412</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="D37" s="39" t="s">
         <v>406</v>
       </c>
-      <c r="E37" s="4" t="s">
+      <c r="E37" s="39" t="s">
         <v>407</v>
       </c>
-      <c r="F37" s="4" t="s">
+      <c r="F37" s="39" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="15"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4" t="s">
+      <c r="C38" s="39" t="s">
         <v>413</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="D38" s="39" t="s">
         <v>414</v>
       </c>
-      <c r="E38" s="4" t="s">
+      <c r="E38" s="39" t="s">
         <v>415</v>
       </c>
-      <c r="F38" s="4"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="15"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4" t="s">
+      <c r="C39" s="39" t="s">
         <v>416</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="D39" s="39" t="s">
         <v>406</v>
       </c>
-      <c r="E39" s="4" t="s">
+      <c r="E39" s="39" t="s">
         <v>415</v>
       </c>
-      <c r="F39" s="4" t="s">
+      <c r="F39" s="39" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="15"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4" t="s">
+      <c r="C40" s="39" t="s">
         <v>418</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="D40" s="39" t="s">
         <v>406</v>
       </c>
-      <c r="E40" s="4" t="s">
+      <c r="E40" s="39" t="s">
         <v>415</v>
       </c>
-      <c r="F40" s="4" t="s">
+      <c r="F40" s="39" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="15"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4" t="s">
+      <c r="C41" s="39" t="s">
         <v>419</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="D41" s="39" t="s">
         <v>406</v>
       </c>
-      <c r="E41" s="4" t="s">
+      <c r="E41" s="39" t="s">
         <v>407</v>
       </c>
-      <c r="F41" s="4" t="s">
+      <c r="F41" s="39" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="15"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4" t="s">
+      <c r="C42" s="39" t="s">
         <v>421</v>
       </c>
-      <c r="D42" s="4" t="s">
+      <c r="D42" s="39" t="s">
         <v>406</v>
       </c>
-      <c r="E42" s="4" t="s">
+      <c r="E42" s="39" t="s">
         <v>415</v>
       </c>
-      <c r="F42" s="4" t="s">
+      <c r="F42" s="39" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="15"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4" t="s">
+      <c r="C43" s="39" t="s">
         <v>422</v>
       </c>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="15"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="12" t="s">
+      <c r="C44" s="50" t="s">
         <v>423</v>
       </c>
-      <c r="D44" s="4" t="s">
+      <c r="D44" s="39" t="s">
         <v>424</v>
       </c>
-      <c r="E44" s="4" t="s">
+      <c r="E44" s="39" t="s">
         <v>407</v>
       </c>
-      <c r="F44" s="4" t="s">
+      <c r="F44" s="39" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="15"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="4" t="s">
+      <c r="C45" s="39" t="s">
         <v>426</v>
       </c>
-      <c r="D45" s="4" t="s">
+      <c r="D45" s="39" t="s">
         <v>427</v>
       </c>
-      <c r="E45" s="4" t="s">
+      <c r="E45" s="39" t="s">
         <v>407</v>
       </c>
-      <c r="F45" s="4" t="s">
+      <c r="F45" s="39" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="15"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="4" t="s">
+      <c r="C46" s="39" t="s">
         <v>429</v>
       </c>
-      <c r="D46" s="4" t="s">
+      <c r="D46" s="39" t="s">
         <v>427</v>
       </c>
-      <c r="E46" s="4" t="s">
+      <c r="E46" s="39" t="s">
         <v>407</v>
       </c>
-      <c r="F46" s="4" t="s">
+      <c r="F46" s="39" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="15">
+      <c r="A48" s="41">
         <v>2</v>
       </c>
-      <c r="B48" s="19" t="s">
+      <c r="B48" s="51" t="s">
         <v>431</v>
       </c>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4" t="s">
+      <c r="F48" s="39" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="15"/>
-      <c r="B49" s="4"/>
-      <c r="C49" s="12" t="s">
+      <c r="C49" s="50" t="s">
         <v>404</v>
       </c>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="15"/>
-      <c r="B50" s="4"/>
-      <c r="C50" s="4" t="s">
+      <c r="C50" s="39" t="s">
         <v>405</v>
       </c>
-      <c r="D50" s="4" t="s">
+      <c r="D50" s="39" t="s">
         <v>406</v>
       </c>
-      <c r="E50" s="4" t="s">
+      <c r="E50" s="39" t="s">
         <v>407</v>
       </c>
-      <c r="F50" s="4" t="s">
+      <c r="F50" s="39" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="15"/>
-      <c r="B51" s="4"/>
-      <c r="C51" s="4" t="s">
+      <c r="C51" s="39" t="s">
         <v>234</v>
       </c>
-      <c r="D51" s="4" t="s">
+      <c r="D51" s="39" t="s">
         <v>406</v>
       </c>
-      <c r="E51" s="4" t="s">
+      <c r="E51" s="39" t="s">
         <v>407</v>
       </c>
-      <c r="F51" s="4" t="s">
+      <c r="F51" s="39" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="15"/>
-      <c r="B52" s="4"/>
-      <c r="C52" s="4" t="s">
+      <c r="C52" s="39" t="s">
         <v>433</v>
       </c>
-      <c r="D52" s="4" t="s">
+      <c r="D52" s="39" t="s">
         <v>406</v>
       </c>
-      <c r="E52" s="4" t="s">
+      <c r="E52" s="39" t="s">
         <v>415</v>
       </c>
-      <c r="F52" s="4" t="s">
+      <c r="F52" s="39" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="15"/>
-      <c r="B53" s="4"/>
-      <c r="C53" s="4" t="s">
+      <c r="C53" s="39" t="s">
         <v>416</v>
       </c>
-      <c r="D53" s="4" t="s">
+      <c r="D53" s="39" t="s">
         <v>406</v>
       </c>
-      <c r="E53" s="4" t="s">
+      <c r="E53" s="39" t="s">
         <v>415</v>
       </c>
-      <c r="F53" s="4" t="s">
+      <c r="F53" s="39" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="15"/>
-      <c r="B54" s="4"/>
-      <c r="C54" s="4" t="s">
+      <c r="C54" s="39" t="s">
         <v>418</v>
       </c>
-      <c r="D54" s="4" t="s">
+      <c r="D54" s="39" t="s">
         <v>406</v>
       </c>
-      <c r="E54" s="4" t="s">
+      <c r="E54" s="39" t="s">
         <v>415</v>
       </c>
-      <c r="F54" s="4" t="s">
+      <c r="F54" s="39" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="15"/>
-      <c r="B55" s="4"/>
-      <c r="C55" s="4" t="s">
+      <c r="C55" s="39" t="s">
         <v>422</v>
       </c>
-      <c r="D55" s="4"/>
-      <c r="E55" s="4"/>
-      <c r="F55" s="4"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="15"/>
-      <c r="B56" s="4"/>
-      <c r="C56" s="12" t="s">
+      <c r="C56" s="50" t="s">
         <v>423</v>
       </c>
-      <c r="D56" s="4" t="s">
+      <c r="D56" s="39" t="s">
         <v>424</v>
       </c>
-      <c r="E56" s="4" t="s">
+      <c r="E56" s="39" t="s">
         <v>407</v>
       </c>
-      <c r="F56" s="4" t="s">
+      <c r="F56" s="39" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="15"/>
-      <c r="B57" s="4"/>
-      <c r="C57" s="4" t="s">
+      <c r="C57" s="39" t="s">
         <v>435</v>
       </c>
-      <c r="D57" s="4" t="s">
+      <c r="D57" s="39" t="s">
         <v>427</v>
       </c>
-      <c r="E57" s="4" t="s">
+      <c r="E57" s="39" t="s">
         <v>407</v>
       </c>
-      <c r="F57" s="4" t="s">
+      <c r="F57" s="39" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="15"/>
-      <c r="B58" s="4"/>
-      <c r="C58" s="4" t="s">
+      <c r="C58" s="39" t="s">
         <v>437</v>
       </c>
-      <c r="D58" s="4" t="s">
+      <c r="D58" s="39" t="s">
         <v>427</v>
       </c>
-      <c r="E58" s="4" t="s">
+      <c r="E58" s="39" t="s">
         <v>407</v>
       </c>
-      <c r="F58" s="4" t="s">
+      <c r="F58" s="39" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="15">
+      <c r="A60" s="41">
         <v>3</v>
       </c>
-      <c r="B60" s="19" t="s">
+      <c r="B60" s="51" t="s">
         <v>243</v>
       </c>
-      <c r="C60" s="4"/>
-      <c r="D60" s="4"/>
-      <c r="E60" s="4"/>
-      <c r="F60" s="4"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="15"/>
-      <c r="B61" s="4"/>
-      <c r="C61" s="12" t="s">
+      <c r="C61" s="50" t="s">
         <v>404</v>
       </c>
-      <c r="D61" s="4"/>
-      <c r="E61" s="4"/>
-      <c r="F61" s="4"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="15"/>
-      <c r="B62" s="4"/>
-      <c r="C62" s="4" t="s">
+      <c r="C62" s="39" t="s">
         <v>405</v>
       </c>
-      <c r="D62" s="4" t="s">
+      <c r="D62" s="39" t="s">
         <v>406</v>
       </c>
-      <c r="E62" s="4" t="s">
+      <c r="E62" s="39" t="s">
         <v>407</v>
       </c>
-      <c r="F62" s="4" t="s">
+      <c r="F62" s="39" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="15"/>
-      <c r="B63" s="4"/>
-      <c r="C63" s="4" t="s">
+      <c r="C63" s="39" t="s">
         <v>439</v>
       </c>
-      <c r="D63" s="4" t="s">
+      <c r="D63" s="39" t="s">
         <v>406</v>
       </c>
-      <c r="E63" s="4" t="s">
+      <c r="E63" s="39" t="s">
         <v>407</v>
       </c>
-      <c r="F63" s="4" t="s">
+      <c r="F63" s="39" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="15"/>
-      <c r="B64" s="4"/>
-      <c r="C64" s="4" t="s">
+      <c r="C64" s="39" t="s">
         <v>440</v>
       </c>
-      <c r="D64" s="4" t="s">
+      <c r="D64" s="39" t="s">
         <v>441</v>
       </c>
-      <c r="E64" s="4" t="s">
+      <c r="E64" s="39" t="s">
         <v>407</v>
       </c>
-      <c r="F64" s="4" t="s">
+      <c r="F64" s="39" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="15"/>
-      <c r="B65" s="4"/>
-      <c r="C65" s="4" t="s">
+      <c r="C65" s="39" t="s">
         <v>442</v>
       </c>
-      <c r="D65" s="4" t="s">
+      <c r="D65" s="39" t="s">
         <v>406</v>
       </c>
-      <c r="E65" s="4" t="s">
+      <c r="E65" s="39" t="s">
         <v>415</v>
       </c>
-      <c r="F65" s="4"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="15"/>
-      <c r="B66" s="4"/>
-      <c r="C66" s="4" t="s">
+      <c r="C66" s="39" t="s">
         <v>443</v>
       </c>
-      <c r="D66" s="4" t="s">
+      <c r="D66" s="39" t="s">
         <v>414</v>
       </c>
-      <c r="E66" s="4" t="s">
+      <c r="E66" s="39" t="s">
         <v>407</v>
       </c>
-      <c r="F66" s="4" t="s">
+      <c r="F66" s="39" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="15"/>
-      <c r="B67" s="4"/>
-      <c r="C67" s="4" t="s">
+      <c r="C67" s="39" t="s">
         <v>444</v>
       </c>
-      <c r="D67" s="4" t="s">
+      <c r="D67" s="39" t="s">
         <v>414</v>
       </c>
-      <c r="E67" s="4" t="s">
+      <c r="E67" s="39" t="s">
         <v>407</v>
       </c>
-      <c r="F67" s="4"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="15"/>
-      <c r="B68" s="4"/>
-      <c r="C68" s="4" t="s">
+      <c r="C68" s="39" t="s">
         <v>445</v>
       </c>
-      <c r="D68" s="4" t="s">
+      <c r="D68" s="39" t="s">
         <v>446</v>
       </c>
-      <c r="E68" s="4" t="s">
+      <c r="E68" s="39" t="s">
         <v>407</v>
       </c>
-      <c r="F68" s="4" t="s">
+      <c r="F68" s="39" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="15"/>
-      <c r="B69" s="4"/>
-      <c r="C69" s="12" t="s">
+      <c r="C69" s="50" t="s">
         <v>423</v>
       </c>
-      <c r="D69" s="4" t="s">
+      <c r="D69" s="39" t="s">
         <v>424</v>
       </c>
-      <c r="E69" s="4" t="s">
+      <c r="E69" s="39" t="s">
         <v>407</v>
       </c>
-      <c r="F69" s="4"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="15"/>
-      <c r="B70" s="4"/>
-      <c r="C70" s="4" t="s">
+      <c r="C70" s="39" t="s">
         <v>448</v>
       </c>
-      <c r="D70" s="4" t="s">
+      <c r="D70" s="39" t="s">
         <v>427</v>
       </c>
-      <c r="E70" s="4" t="s">
+      <c r="E70" s="39" t="s">
         <v>407</v>
       </c>
-      <c r="F70" s="4" t="s">
+      <c r="F70" s="39" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="15">
+      <c r="A72" s="41">
         <v>4</v>
       </c>
-      <c r="B72" s="19" t="s">
+      <c r="B72" s="51" t="s">
         <v>450</v>
       </c>
-      <c r="C72" s="4"/>
-      <c r="D72" s="4"/>
-      <c r="E72" s="4"/>
-      <c r="F72" s="4"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="15"/>
-      <c r="B73" s="4"/>
-      <c r="C73" s="12" t="s">
+      <c r="C73" s="50" t="s">
         <v>404</v>
       </c>
-      <c r="D73" s="4"/>
-      <c r="E73" s="4"/>
-      <c r="F73" s="4"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="15"/>
-      <c r="B74" s="4"/>
-      <c r="C74" s="4" t="s">
+      <c r="C74" s="39" t="s">
         <v>405</v>
       </c>
-      <c r="D74" s="4" t="s">
+      <c r="D74" s="39" t="s">
         <v>406</v>
       </c>
-      <c r="E74" s="4" t="s">
+      <c r="E74" s="39" t="s">
         <v>407</v>
       </c>
-      <c r="F74" s="4" t="s">
+      <c r="F74" s="39" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="15"/>
-      <c r="B75" s="4"/>
-      <c r="C75" s="4" t="s">
+      <c r="C75" s="39" t="s">
         <v>440</v>
       </c>
-      <c r="D75" s="4" t="s">
+      <c r="D75" s="39" t="s">
         <v>406</v>
       </c>
-      <c r="E75" s="4" t="s">
+      <c r="E75" s="39" t="s">
         <v>407</v>
       </c>
-      <c r="F75" s="4" t="s">
+      <c r="F75" s="39" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="15"/>
-      <c r="B76" s="4"/>
-      <c r="C76" s="4" t="s">
+      <c r="C76" s="39" t="s">
         <v>443</v>
       </c>
-      <c r="D76" s="4" t="s">
+      <c r="D76" s="39" t="s">
         <v>414</v>
       </c>
-      <c r="E76" s="4" t="s">
+      <c r="E76" s="39" t="s">
         <v>407</v>
       </c>
-      <c r="F76" s="4" t="s">
+      <c r="F76" s="39" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="15"/>
-      <c r="B77" s="4"/>
-      <c r="C77" s="4" t="s">
+      <c r="C77" s="39" t="s">
         <v>444</v>
       </c>
-      <c r="D77" s="4" t="s">
+      <c r="D77" s="39" t="s">
         <v>414</v>
       </c>
-      <c r="E77" s="4" t="s">
+      <c r="E77" s="39" t="s">
         <v>407</v>
       </c>
-      <c r="F77" s="4"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="15"/>
-      <c r="B78" s="4"/>
-      <c r="C78" s="4" t="s">
+      <c r="C78" s="39" t="s">
         <v>445</v>
       </c>
-      <c r="D78" s="4" t="s">
+      <c r="D78" s="39" t="s">
         <v>446</v>
       </c>
-      <c r="E78" s="4" t="s">
+      <c r="E78" s="39" t="s">
         <v>407</v>
       </c>
-      <c r="F78" s="4" t="s">
+      <c r="F78" s="39" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="15"/>
-      <c r="B79" s="4"/>
-      <c r="C79" s="12" t="s">
+      <c r="C79" s="50" t="s">
         <v>423</v>
       </c>
-      <c r="D79" s="4" t="s">
+      <c r="D79" s="39" t="s">
         <v>424</v>
       </c>
-      <c r="E79" s="4" t="s">
+      <c r="E79" s="39" t="s">
         <v>407</v>
       </c>
-      <c r="F79" s="4"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="15"/>
-      <c r="B80" s="4"/>
-      <c r="C80" s="4" t="s">
+      <c r="C80" s="39" t="s">
         <v>452</v>
       </c>
-      <c r="D80" s="4" t="s">
+      <c r="D80" s="39" t="s">
         <v>427</v>
       </c>
-      <c r="E80" s="4" t="s">
+      <c r="E80" s="39" t="s">
         <v>407</v>
       </c>
-      <c r="F80" s="4" t="s">
+      <c r="F80" s="39" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="15">
+      <c r="A83" s="41">
         <v>5</v>
       </c>
-      <c r="B83" s="19" t="s">
+      <c r="B83" s="51" t="s">
         <v>453</v>
       </c>
-      <c r="C83" s="4"/>
-      <c r="D83" s="4"/>
-      <c r="E83" s="4"/>
-      <c r="F83" s="20" t="s">
+      <c r="F83" s="52" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="15"/>
-      <c r="B84" s="4"/>
-      <c r="C84" s="12" t="s">
+      <c r="C84" s="50" t="s">
         <v>404</v>
       </c>
-      <c r="D84" s="4"/>
-      <c r="E84" s="4"/>
-      <c r="F84" s="4"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="15"/>
-      <c r="B85" s="4"/>
-      <c r="C85" s="4" t="s">
+      <c r="C85" s="39" t="s">
         <v>405</v>
       </c>
-      <c r="D85" s="4" t="s">
+      <c r="D85" s="39" t="s">
         <v>406</v>
       </c>
-      <c r="E85" s="4" t="s">
+      <c r="E85" s="39" t="s">
         <v>407</v>
       </c>
-      <c r="F85" s="4" t="s">
+      <c r="F85" s="39" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="15"/>
-      <c r="B86" s="4"/>
-      <c r="C86" s="4" t="s">
+      <c r="C86" s="39" t="s">
         <v>234</v>
       </c>
-      <c r="D86" s="4" t="s">
+      <c r="D86" s="39" t="s">
         <v>406</v>
       </c>
-      <c r="E86" s="4" t="s">
+      <c r="E86" s="39" t="s">
         <v>407</v>
       </c>
-      <c r="F86" s="4" t="s">
+      <c r="F86" s="39" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="15"/>
-      <c r="B87" s="4"/>
-      <c r="C87" s="4" t="s">
+      <c r="C87" s="39" t="s">
         <v>433</v>
       </c>
-      <c r="D87" s="4" t="s">
+      <c r="D87" s="39" t="s">
         <v>406</v>
       </c>
-      <c r="E87" s="4" t="s">
+      <c r="E87" s="39" t="s">
         <v>415</v>
       </c>
-      <c r="F87" s="4" t="s">
+      <c r="F87" s="39" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" s="15"/>
-      <c r="B90" s="4"/>
-      <c r="C90" s="12" t="s">
+      <c r="C90" s="50" t="s">
         <v>455</v>
       </c>
-      <c r="D90" s="4"/>
-      <c r="E90" s="4"/>
-      <c r="F90" s="4" t="s">
+      <c r="F90" s="39" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" s="15"/>
-      <c r="B91" s="4"/>
-      <c r="C91" s="4" t="s">
+      <c r="C91" s="39" t="s">
         <v>457</v>
       </c>
-      <c r="D91" s="4" t="s">
+      <c r="D91" s="39" t="s">
         <v>414</v>
       </c>
-      <c r="E91" s="4" t="s">
+      <c r="E91" s="39" t="s">
         <v>407</v>
       </c>
-      <c r="F91" s="4" t="s">
+      <c r="F91" s="39" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" s="15"/>
-      <c r="B92" s="4"/>
-      <c r="C92" s="4" t="s">
+      <c r="C92" s="39" t="s">
         <v>459</v>
       </c>
-      <c r="D92" s="4" t="s">
+      <c r="D92" s="39" t="s">
         <v>414</v>
       </c>
-      <c r="E92" s="4" t="s">
+      <c r="E92" s="39" t="s">
         <v>407</v>
       </c>
-      <c r="F92" s="4" t="s">
+      <c r="F92" s="39" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" s="15"/>
-      <c r="B93" s="4"/>
-      <c r="C93" s="4" t="s">
+      <c r="C93" s="39" t="s">
         <v>461</v>
       </c>
-      <c r="D93" s="4" t="s">
+      <c r="D93" s="39" t="s">
         <v>406</v>
       </c>
-      <c r="E93" s="4" t="s">
+      <c r="E93" s="39" t="s">
         <v>415</v>
       </c>
-      <c r="F93" s="4" t="s">
+      <c r="F93" s="39" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" s="15"/>
-      <c r="B94" s="4"/>
-      <c r="C94" s="4" t="s">
+      <c r="C94" s="39" t="s">
         <v>463</v>
       </c>
-      <c r="D94" s="4" t="s">
+      <c r="D94" s="39" t="s">
         <v>406</v>
       </c>
-      <c r="E94" s="4" t="s">
+      <c r="E94" s="39" t="s">
         <v>415</v>
       </c>
-      <c r="F94" s="4"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" s="15"/>
-      <c r="B96" s="4"/>
-      <c r="C96" s="12" t="s">
+      <c r="C96" s="50" t="s">
         <v>423</v>
       </c>
-      <c r="D96" s="4"/>
-      <c r="E96" s="4"/>
-      <c r="F96" s="4"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" s="15"/>
-      <c r="B97" s="4"/>
-      <c r="C97" s="4" t="s">
+      <c r="C97" s="39" t="s">
         <v>464</v>
       </c>
-      <c r="D97" s="4" t="s">
+      <c r="D97" s="39" t="s">
         <v>427</v>
       </c>
-      <c r="E97" s="4" t="s">
+      <c r="E97" s="39" t="s">
         <v>407</v>
       </c>
-      <c r="F97" s="4" t="s">
+      <c r="F97" s="39" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101" s="15">
+      <c r="A101" s="41">
         <v>6</v>
       </c>
-      <c r="B101" s="19" t="s">
+      <c r="B101" s="51" t="s">
         <v>466</v>
       </c>
-      <c r="C101" s="4"/>
-      <c r="D101" s="4"/>
-      <c r="E101" s="4"/>
-      <c r="F101" s="20" t="s">
+      <c r="F101" s="52" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102" s="15"/>
-      <c r="B102" s="4"/>
-      <c r="C102" s="12" t="s">
+      <c r="C102" s="50" t="s">
         <v>404</v>
       </c>
-      <c r="D102" s="4"/>
-      <c r="E102" s="4"/>
-      <c r="F102" s="4"/>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103" s="15"/>
-      <c r="B103" s="4"/>
-      <c r="C103" s="4" t="s">
+      <c r="C103" s="39" t="s">
         <v>405</v>
       </c>
-      <c r="D103" s="4"/>
-      <c r="E103" s="4"/>
-      <c r="F103" s="4"/>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104" s="15"/>
-      <c r="B104" s="4"/>
-      <c r="C104" s="4" t="s">
+      <c r="C104" s="39" t="s">
         <v>468</v>
       </c>
-      <c r="D104" s="4"/>
-      <c r="E104" s="4"/>
-      <c r="F104" s="4"/>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A106" s="15"/>
-      <c r="B106" s="4"/>
-      <c r="C106" s="12" t="s">
+      <c r="C106" s="50" t="s">
         <v>455</v>
       </c>
-      <c r="D106" s="4"/>
-      <c r="E106" s="4"/>
-      <c r="F106" s="4"/>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A111" s="15"/>
-      <c r="B111" s="4"/>
-      <c r="C111" s="12" t="s">
+      <c r="C111" s="50" t="s">
         <v>423</v>
       </c>
-      <c r="D111" s="4"/>
-      <c r="E111" s="4"/>
-      <c r="F111" s="4"/>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A112" s="15"/>
-      <c r="B112" s="4"/>
-      <c r="C112" s="4" t="s">
+      <c r="C112" s="39" t="s">
         <v>469</v>
       </c>
-      <c r="D112" s="4" t="s">
+      <c r="D112" s="39" t="s">
         <v>427</v>
       </c>
-      <c r="E112" s="4" t="s">
+      <c r="E112" s="39" t="s">
         <v>407</v>
       </c>
-      <c r="F112" s="4" t="s">
+      <c r="F112" s="39" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A114" s="15">
+      <c r="A114" s="41">
         <v>7</v>
       </c>
-      <c r="B114" s="19" t="s">
+      <c r="B114" s="51" t="s">
         <v>471</v>
       </c>
-      <c r="C114" s="4"/>
-      <c r="D114" s="4"/>
-      <c r="E114" s="4"/>
-      <c r="F114" s="4" t="s">
+      <c r="F114" s="39" t="s">
         <v>472</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A115" s="15"/>
-      <c r="B115" s="4"/>
-      <c r="C115" s="12" t="s">
+      <c r="C115" s="50" t="s">
         <v>404</v>
       </c>
-      <c r="D115" s="4"/>
-      <c r="E115" s="4"/>
-      <c r="F115" s="4"/>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A116" s="15"/>
-      <c r="B116" s="4"/>
-      <c r="C116" s="4" t="s">
+      <c r="C116" s="39" t="s">
         <v>405</v>
       </c>
-      <c r="D116" s="4"/>
-      <c r="E116" s="4"/>
-      <c r="F116" s="4"/>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A117" s="15"/>
-      <c r="B117" s="4"/>
-      <c r="C117" s="4" t="s">
+      <c r="C117" s="39" t="s">
         <v>468</v>
       </c>
-      <c r="D117" s="4"/>
-      <c r="E117" s="4"/>
-      <c r="F117" s="4"/>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A118" s="15"/>
-      <c r="B118" s="4"/>
-      <c r="C118" s="4" t="s">
+      <c r="C118" s="39" t="s">
         <v>440</v>
       </c>
-      <c r="D118" s="4"/>
-      <c r="E118" s="4"/>
-      <c r="F118" s="4"/>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A120" s="15"/>
-      <c r="B120" s="4"/>
-      <c r="C120" s="12" t="s">
+      <c r="C120" s="50" t="s">
         <v>423</v>
       </c>
-      <c r="D120" s="4"/>
-      <c r="E120" s="4"/>
-      <c r="F120" s="4"/>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A121" s="15"/>
-      <c r="B121" s="4"/>
-      <c r="C121" s="4" t="s">
+      <c r="C121" s="39" t="s">
         <v>473</v>
       </c>
-      <c r="D121" s="4" t="s">
+      <c r="D121" s="39" t="s">
         <v>427</v>
       </c>
-      <c r="E121" s="4" t="s">
+      <c r="E121" s="39" t="s">
         <v>407</v>
       </c>
-      <c r="F121" s="4" t="s">
+      <c r="F121" s="39" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A125" s="15">
+      <c r="A125" s="41">
         <v>8</v>
       </c>
-      <c r="B125" s="19" t="s">
+      <c r="B125" s="51" t="s">
         <v>475</v>
       </c>
-      <c r="C125" s="4"/>
-      <c r="D125" s="4"/>
-      <c r="E125" s="4"/>
-      <c r="F125" s="4" t="s">
+      <c r="F125" s="39" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A126" s="15"/>
-      <c r="B126" s="4"/>
-      <c r="C126" s="12" t="s">
+      <c r="C126" s="50" t="s">
         <v>404</v>
       </c>
-      <c r="D126" s="4"/>
-      <c r="E126" s="4"/>
-      <c r="F126" s="4"/>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A127" s="15"/>
-      <c r="B127" s="4"/>
-      <c r="C127" s="4" t="s">
+      <c r="C127" s="39" t="s">
         <v>405</v>
       </c>
-      <c r="D127" s="4" t="s">
+      <c r="D127" s="39" t="s">
         <v>406</v>
       </c>
-      <c r="E127" s="4" t="s">
+      <c r="E127" s="39" t="s">
         <v>407</v>
       </c>
-      <c r="F127" s="4" t="s">
+      <c r="F127" s="39" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A128" s="15"/>
-      <c r="B128" s="4"/>
-      <c r="C128" s="4" t="s">
+      <c r="C128" s="39" t="s">
         <v>234</v>
       </c>
-      <c r="D128" s="4" t="s">
+      <c r="D128" s="39" t="s">
         <v>406</v>
       </c>
-      <c r="E128" s="4" t="s">
+      <c r="E128" s="39" t="s">
         <v>407</v>
       </c>
-      <c r="F128" s="5" t="s">
+      <c r="F128" s="39" t="s">
         <v>536</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A129" s="15"/>
-      <c r="B129" s="4"/>
-      <c r="C129" s="4" t="s">
+      <c r="C129" s="39" t="s">
         <v>478</v>
       </c>
-      <c r="D129" s="4" t="s">
+      <c r="D129" s="39" t="s">
         <v>446</v>
       </c>
-      <c r="E129" s="5" t="s">
+      <c r="E129" s="39" t="s">
         <v>407</v>
       </c>
-      <c r="F129" s="5" t="s">
+      <c r="F129" s="39" t="s">
         <v>538</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A130" s="15"/>
-      <c r="B130" s="4"/>
-      <c r="C130" s="4" t="s">
+      <c r="C130" s="39" t="s">
         <v>235</v>
       </c>
-      <c r="D130" s="5" t="s">
+      <c r="D130" s="39" t="s">
         <v>406</v>
       </c>
-      <c r="E130" s="5" t="s">
+      <c r="E130" s="39" t="s">
         <v>407</v>
       </c>
-      <c r="F130" s="4" t="s">
+      <c r="F130" s="39" t="s">
         <v>479</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A131" s="15"/>
-      <c r="B131" s="4"/>
-      <c r="C131" s="4" t="s">
+      <c r="C131" s="39" t="s">
         <v>480</v>
       </c>
-      <c r="D131" s="4" t="s">
+      <c r="D131" s="39" t="s">
         <v>414</v>
       </c>
-      <c r="E131" s="5" t="s">
+      <c r="E131" s="39" t="s">
         <v>407</v>
       </c>
-      <c r="F131" s="5" t="s">
+      <c r="F131" s="39" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A132" s="15"/>
-      <c r="B132" s="4"/>
-      <c r="C132" s="4" t="s">
+      <c r="C132" s="39" t="s">
         <v>442</v>
       </c>
-      <c r="D132" s="4" t="s">
+      <c r="D132" s="39" t="s">
         <v>406</v>
       </c>
-      <c r="E132" s="5" t="s">
+      <c r="E132" s="39" t="s">
         <v>415</v>
       </c>
-      <c r="F132" s="5" t="s">
+      <c r="F132" s="39" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A133" s="15"/>
-      <c r="B133" s="4"/>
-      <c r="C133" s="4" t="s">
+      <c r="C133" s="39" t="s">
         <v>481</v>
       </c>
-      <c r="D133" s="4" t="s">
+      <c r="D133" s="39" t="s">
         <v>446</v>
       </c>
-      <c r="E133" s="4" t="s">
+      <c r="E133" s="39" t="s">
         <v>415</v>
       </c>
-      <c r="F133" s="4" t="s">
+      <c r="F133" s="39" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C134" s="5" t="s">
+      <c r="C134" s="39" t="s">
         <v>532</v>
       </c>
-      <c r="D134" s="5" t="s">
+      <c r="D134" s="39" t="s">
         <v>406</v>
       </c>
-      <c r="E134" s="5" t="s">
+      <c r="E134" s="39" t="s">
         <v>415</v>
       </c>
-      <c r="F134" s="5" t="s">
+      <c r="F134" s="39" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A135" s="15"/>
-      <c r="B135" s="4"/>
-      <c r="C135" s="4" t="s">
+      <c r="C135" s="39" t="s">
         <v>422</v>
       </c>
-      <c r="D135" s="4"/>
-      <c r="E135" s="4"/>
-      <c r="F135" s="4"/>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A136" s="15"/>
-      <c r="B136" s="4"/>
-      <c r="C136" s="12" t="s">
+      <c r="C136" s="50" t="s">
         <v>423</v>
       </c>
-      <c r="D136" s="4"/>
-      <c r="E136" s="4"/>
-      <c r="F136" s="4"/>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A137" s="15"/>
-      <c r="B137" s="4"/>
-      <c r="C137" s="5" t="s">
+      <c r="C137" s="39" t="s">
         <v>533</v>
       </c>
-      <c r="D137" s="5" t="s">
+      <c r="D137" s="39" t="s">
         <v>534</v>
       </c>
-      <c r="E137" s="5" t="s">
+      <c r="E137" s="39" t="s">
         <v>407</v>
       </c>
-      <c r="F137" s="5" t="s">
+      <c r="F137" s="39" t="s">
         <v>535</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A138" s="15"/>
-      <c r="B138" s="4"/>
-      <c r="C138" s="54" t="s">
+      <c r="C138" s="53" t="s">
         <v>483</v>
       </c>
-      <c r="D138" s="4" t="s">
+      <c r="D138" s="39" t="s">
         <v>427</v>
       </c>
-      <c r="E138" s="4"/>
-      <c r="F138" s="4" t="s">
+      <c r="F138" s="39" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A140" s="15">
+      <c r="A140" s="41">
         <v>9</v>
       </c>
-      <c r="B140" s="19" t="s">
+      <c r="B140" s="51" t="s">
         <v>485</v>
       </c>
-      <c r="C140" s="4"/>
-      <c r="D140" s="4"/>
-      <c r="E140" s="4"/>
-      <c r="F140" s="4"/>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A141" s="15"/>
-      <c r="B141" s="4"/>
-      <c r="C141" s="12" t="s">
+      <c r="C141" s="50" t="s">
         <v>404</v>
       </c>
-      <c r="D141" s="4"/>
-      <c r="E141" s="4"/>
-      <c r="F141" s="4"/>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A142" s="15"/>
-      <c r="B142" s="4"/>
-      <c r="C142" s="4" t="s">
+      <c r="C142" s="39" t="s">
         <v>405</v>
       </c>
-      <c r="D142" s="4"/>
-      <c r="E142" s="4"/>
-      <c r="F142" s="4"/>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A143" s="15"/>
-      <c r="B143" s="4"/>
-      <c r="C143" s="4" t="s">
+      <c r="C143" s="39" t="s">
         <v>234</v>
       </c>
-      <c r="D143" s="4"/>
-      <c r="E143" s="4"/>
-      <c r="F143" s="4"/>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A144" s="15"/>
-      <c r="B144" s="4"/>
-      <c r="C144" s="4" t="s">
+      <c r="C144" s="39" t="s">
         <v>480</v>
       </c>
-      <c r="D144" s="4"/>
-      <c r="E144" s="4"/>
-      <c r="F144" s="4"/>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A145" s="15"/>
-      <c r="B145" s="4"/>
-      <c r="C145" s="4" t="s">
+      <c r="C145" s="39" t="s">
         <v>442</v>
       </c>
-      <c r="D145" s="4"/>
-      <c r="E145" s="4"/>
-      <c r="F145" s="4"/>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A146" s="15"/>
-      <c r="B146" s="4"/>
-      <c r="C146" s="4" t="s">
+      <c r="C146" s="39" t="s">
         <v>422</v>
       </c>
-      <c r="D146" s="4"/>
-      <c r="E146" s="4"/>
-      <c r="F146" s="4"/>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A147" s="15"/>
-      <c r="B147" s="4"/>
-      <c r="C147" s="12" t="s">
+      <c r="C147" s="50" t="s">
         <v>423</v>
       </c>
-      <c r="D147" s="4"/>
-      <c r="E147" s="4"/>
-      <c r="F147" s="4"/>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A148" s="15"/>
-      <c r="B148" s="4"/>
-      <c r="C148" s="4" t="s">
+      <c r="C148" s="39" t="s">
         <v>486</v>
       </c>
-      <c r="D148" s="4" t="s">
+      <c r="D148" s="39" t="s">
         <v>427</v>
       </c>
-      <c r="E148" s="4"/>
-      <c r="F148" s="4" t="s">
+      <c r="F148" s="39" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A152" s="15">
+      <c r="A152" s="41">
         <v>10</v>
       </c>
-      <c r="B152" s="19" t="s">
+      <c r="B152" s="51" t="s">
         <v>487</v>
       </c>
-      <c r="C152" s="4"/>
-      <c r="D152" s="4"/>
-      <c r="E152" s="4"/>
-      <c r="F152" s="20" t="s">
+      <c r="F152" s="52" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A153" s="15"/>
-      <c r="B153" s="4"/>
-      <c r="C153" s="12" t="s">
+      <c r="C153" s="50" t="s">
         <v>404</v>
       </c>
-      <c r="D153" s="4"/>
-      <c r="E153" s="4"/>
-      <c r="F153" s="4"/>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A154" s="15"/>
-      <c r="B154" s="4"/>
-      <c r="C154" s="4" t="s">
+      <c r="C154" s="39" t="s">
         <v>488</v>
       </c>
-      <c r="D154" s="4"/>
-      <c r="E154" s="4"/>
-      <c r="F154" s="4"/>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A155" s="15"/>
-      <c r="B155" s="4"/>
-      <c r="C155" s="4" t="s">
+      <c r="C155" s="39" t="s">
         <v>489</v>
       </c>
-      <c r="D155" s="4"/>
-      <c r="E155" s="4"/>
-      <c r="F155" s="4"/>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A156" s="15"/>
-      <c r="B156" s="4"/>
-      <c r="C156" s="4" t="s">
+      <c r="C156" s="39" t="s">
         <v>490</v>
       </c>
-      <c r="D156" s="4" t="s">
+      <c r="D156" s="39" t="s">
         <v>414</v>
       </c>
-      <c r="E156" s="4"/>
-      <c r="F156" s="4"/>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A160" s="15"/>
-      <c r="B160" s="4"/>
-      <c r="C160" s="12" t="s">
+      <c r="C160" s="50" t="s">
         <v>423</v>
       </c>
-      <c r="D160" s="4"/>
-      <c r="E160" s="4"/>
-      <c r="F160" s="4"/>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A161" s="15"/>
-      <c r="B161" s="4"/>
-      <c r="C161" s="4" t="s">
+      <c r="C161" s="39" t="s">
         <v>491</v>
       </c>
-      <c r="D161" s="4" t="s">
+      <c r="D161" s="39" t="s">
         <v>427</v>
       </c>
-      <c r="E161" s="4"/>
-      <c r="F161" s="4" t="s">
+      <c r="F161" s="39" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A163" s="15">
+      <c r="A163" s="41">
         <v>11</v>
       </c>
-      <c r="B163" s="19" t="s">
+      <c r="B163" s="51" t="s">
         <v>493</v>
       </c>
-      <c r="C163" s="4"/>
-      <c r="D163" s="4"/>
-      <c r="E163" s="4"/>
-      <c r="F163" s="20" t="s">
+      <c r="F163" s="52" t="s">
         <v>494</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A164" s="15"/>
-      <c r="B164" s="4"/>
-      <c r="C164" s="12" t="s">
+      <c r="C164" s="50" t="s">
         <v>404</v>
       </c>
-      <c r="D164" s="4"/>
-      <c r="E164" s="4"/>
-      <c r="F164" s="4"/>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A165" s="15"/>
-      <c r="B165" s="4"/>
-      <c r="C165" s="4" t="s">
+      <c r="C165" s="39" t="s">
         <v>405</v>
       </c>
-      <c r="D165" s="4" t="s">
+      <c r="D165" s="39" t="s">
         <v>406</v>
       </c>
-      <c r="E165" s="4" t="s">
+      <c r="E165" s="39" t="s">
         <v>407</v>
       </c>
-      <c r="F165" s="4" t="s">
+      <c r="F165" s="39" t="s">
         <v>495</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A166" s="15"/>
-      <c r="B166" s="4"/>
-      <c r="C166" s="4" t="s">
+      <c r="C166" s="39" t="s">
         <v>457</v>
       </c>
-      <c r="D166" s="4" t="s">
+      <c r="D166" s="39" t="s">
         <v>414</v>
       </c>
-      <c r="E166" s="4" t="s">
+      <c r="E166" s="39" t="s">
         <v>407</v>
       </c>
-      <c r="F166" s="4" t="s">
+      <c r="F166" s="39" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A167" s="15"/>
-      <c r="B167" s="4"/>
-      <c r="C167" s="4" t="s">
+      <c r="C167" s="39" t="s">
         <v>459</v>
       </c>
-      <c r="D167" s="4" t="s">
+      <c r="D167" s="39" t="s">
         <v>414</v>
       </c>
-      <c r="E167" s="4" t="s">
+      <c r="E167" s="39" t="s">
         <v>407</v>
       </c>
-      <c r="F167" s="4" t="s">
+      <c r="F167" s="39" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A168" s="15"/>
-      <c r="B168" s="4"/>
-      <c r="C168" s="4" t="s">
+      <c r="C168" s="39" t="s">
         <v>433</v>
       </c>
-      <c r="D168" s="4" t="s">
+      <c r="D168" s="39" t="s">
         <v>406</v>
       </c>
-      <c r="E168" s="4" t="s">
+      <c r="E168" s="39" t="s">
         <v>415</v>
       </c>
-      <c r="F168" s="4" t="s">
+      <c r="F168" s="39" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A170" s="15"/>
-      <c r="B170" s="4"/>
-      <c r="C170" s="12" t="s">
+      <c r="C170" s="50" t="s">
         <v>423</v>
       </c>
-      <c r="D170" s="4"/>
-      <c r="E170" s="4"/>
-      <c r="F170" s="4"/>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A171" s="15"/>
-      <c r="B171" s="4"/>
-      <c r="C171" s="4" t="s">
+      <c r="C171" s="39" t="s">
         <v>499</v>
       </c>
-      <c r="D171" s="4" t="s">
+      <c r="D171" s="39" t="s">
         <v>427</v>
       </c>
-      <c r="E171" s="4" t="s">
+      <c r="E171" s="39" t="s">
         <v>407</v>
       </c>
-      <c r="F171" s="4" t="s">
+      <c r="F171" s="39" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A172" s="15"/>
-      <c r="B172" s="4"/>
-      <c r="C172" s="4" t="s">
+      <c r="C172" s="39" t="s">
         <v>501</v>
       </c>
-      <c r="D172" s="4" t="s">
+      <c r="D172" s="39" t="s">
         <v>427</v>
       </c>
-      <c r="E172" s="4" t="s">
+      <c r="E172" s="39" t="s">
         <v>407</v>
       </c>
-      <c r="F172" s="4" t="s">
+      <c r="F172" s="39" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A180" s="23" t="s">
+      <c r="A180" s="43" t="s">
         <v>503</v>
       </c>
-      <c r="B180" s="23"/>
-      <c r="C180" s="23"/>
-      <c r="D180" s="23"/>
-      <c r="E180" s="23"/>
-      <c r="F180" s="23"/>
+      <c r="B180" s="43"/>
+      <c r="C180" s="43"/>
+      <c r="D180" s="43"/>
+      <c r="E180" s="43"/>
+      <c r="F180" s="43"/>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A182" s="15">
+      <c r="A182" s="41">
         <v>11</v>
       </c>
-      <c r="B182" s="19" t="s">
+      <c r="B182" s="51" t="s">
         <v>504</v>
       </c>
-      <c r="C182" s="4"/>
-      <c r="D182" s="4"/>
-      <c r="E182" s="4"/>
-      <c r="F182" s="20" t="s">
+      <c r="F182" s="52" t="s">
         <v>505</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A183" s="15"/>
-      <c r="B183" s="4"/>
-      <c r="C183" s="12" t="s">
+      <c r="C183" s="50" t="s">
         <v>404</v>
       </c>
-      <c r="D183" s="4"/>
-      <c r="E183" s="4"/>
-      <c r="F183" s="4"/>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A184" s="15"/>
-      <c r="B184" s="4"/>
-      <c r="C184" s="4" t="s">
+      <c r="C184" s="39" t="s">
         <v>405</v>
       </c>
-      <c r="D184" s="4"/>
-      <c r="E184" s="4"/>
-      <c r="F184" s="4"/>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A186" s="15"/>
-      <c r="B186" s="4"/>
-      <c r="C186" s="4" t="s">
+      <c r="C186" s="39" t="s">
         <v>506</v>
       </c>
-      <c r="D186" s="4"/>
-      <c r="E186" s="4"/>
-      <c r="F186" s="4"/>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A188" s="15"/>
-      <c r="B188" s="4"/>
-      <c r="C188" s="12" t="s">
+      <c r="C188" s="50" t="s">
         <v>423</v>
       </c>
-      <c r="D188" s="4"/>
-      <c r="E188" s="4"/>
-      <c r="F188" s="4"/>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A189" s="15"/>
-      <c r="B189" s="4"/>
-      <c r="C189" s="4" t="s">
+      <c r="C189" s="39" t="s">
         <v>507</v>
       </c>
-      <c r="D189" s="4" t="s">
+      <c r="D189" s="39" t="s">
         <v>427</v>
       </c>
-      <c r="E189" s="4"/>
-      <c r="F189" s="4" t="s">
+      <c r="F189" s="39" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A193" s="15">
+      <c r="A193" s="41">
         <v>12</v>
       </c>
-      <c r="B193" s="19" t="s">
+      <c r="B193" s="51" t="s">
         <v>509</v>
       </c>
-      <c r="C193" s="4"/>
-      <c r="D193" s="4"/>
-      <c r="E193" s="4"/>
-      <c r="F193" s="20" t="s">
+      <c r="F193" s="52" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A194" s="15"/>
-      <c r="B194" s="4"/>
-      <c r="C194" s="12" t="s">
+      <c r="C194" s="50" t="s">
         <v>404</v>
       </c>
-      <c r="D194" s="4"/>
-      <c r="E194" s="4"/>
-      <c r="F194" s="4"/>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A195" s="15"/>
-      <c r="B195" s="4"/>
-      <c r="C195" s="4" t="s">
+      <c r="C195" s="39" t="s">
         <v>405</v>
       </c>
-      <c r="D195" s="4" t="s">
+      <c r="D195" s="39" t="s">
         <v>406</v>
       </c>
-      <c r="E195" s="4" t="s">
+      <c r="E195" s="39" t="s">
         <v>407</v>
       </c>
-      <c r="F195" s="4"/>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A197" s="15"/>
-      <c r="B197" s="4"/>
-      <c r="C197" s="4" t="s">
+      <c r="C197" s="39" t="s">
         <v>510</v>
       </c>
-      <c r="D197" s="4" t="s">
+      <c r="D197" s="39" t="s">
         <v>414</v>
       </c>
-      <c r="E197" s="4" t="s">
+      <c r="E197" s="39" t="s">
         <v>407</v>
       </c>
-      <c r="F197" s="4"/>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A198" s="15"/>
-      <c r="B198" s="4"/>
-      <c r="C198" s="4" t="s">
+      <c r="C198" s="39" t="s">
         <v>422</v>
       </c>
-      <c r="D198" s="4"/>
-      <c r="E198" s="4"/>
-      <c r="F198" s="4"/>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A199" s="15"/>
-      <c r="B199" s="4"/>
-      <c r="C199" s="12" t="s">
+      <c r="C199" s="50" t="s">
         <v>423</v>
       </c>
-      <c r="D199" s="4"/>
-      <c r="E199" s="4"/>
-      <c r="F199" s="4"/>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A200" s="15"/>
-      <c r="B200" s="4"/>
-      <c r="C200" s="4" t="s">
+      <c r="C200" s="39" t="s">
         <v>507</v>
       </c>
-      <c r="D200" s="4" t="s">
+      <c r="D200" s="39" t="s">
         <v>427</v>
       </c>
-      <c r="E200" s="4"/>
-      <c r="F200" s="4" t="s">
+      <c r="F200" s="39" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A202" s="15">
+      <c r="A202" s="41">
         <v>13</v>
       </c>
-      <c r="B202" s="19" t="s">
+      <c r="B202" s="51" t="s">
         <v>512</v>
       </c>
-      <c r="C202" s="4"/>
-      <c r="D202" s="4"/>
-      <c r="E202" s="4"/>
-      <c r="F202" s="4"/>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A203" s="15"/>
-      <c r="B203" s="4"/>
-      <c r="C203" s="12" t="s">
+      <c r="C203" s="50" t="s">
         <v>404</v>
       </c>
-      <c r="D203" s="4"/>
-      <c r="E203" s="4"/>
-      <c r="F203" s="20" t="s">
+      <c r="F203" s="52" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A204" s="15"/>
-      <c r="B204" s="4"/>
-      <c r="C204" s="4" t="s">
+      <c r="C204" s="39" t="s">
         <v>405</v>
       </c>
-      <c r="D204" s="4"/>
-      <c r="E204" s="4"/>
-      <c r="F204" s="4"/>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A208" s="15"/>
-      <c r="B208" s="4"/>
-      <c r="C208" s="12" t="s">
+      <c r="C208" s="50" t="s">
         <v>423</v>
       </c>
-      <c r="D208" s="4"/>
-      <c r="E208" s="4"/>
-      <c r="F208" s="4"/>
     </row>
     <row r="209" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C209" s="4" t="s">
+      <c r="C209" s="39" t="s">
         <v>513</v>
       </c>
-      <c r="D209" s="4" t="s">
+      <c r="D209" s="39" t="s">
         <v>427</v>
       </c>
-      <c r="E209" s="4" t="s">
+      <c r="E209" s="39" t="s">
         <v>407</v>
       </c>
     </row>
@@ -7364,7 +6770,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" style="8" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" style="7" customWidth="1"/>
     <col min="2" max="2" width="34.42578125" customWidth="1"/>
     <col min="3" max="3" width="32.140625" customWidth="1"/>
     <col min="4" max="4" width="28.28515625" customWidth="1"/>
@@ -7372,33 +6778,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="37" t="s">
         <v>514</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="37" t="s">
         <v>515</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>516</v>
       </c>
       <c r="B5" t="s">
@@ -7406,37 +6812,37 @@
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="7" t="s">
         <v>518</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="7" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="9" t="s">
         <v>520</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="9" t="s">
         <v>521</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="E13" s="9" t="s">
         <v>522</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="F13" s="9" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="8">
+      <c r="A14" s="7">
         <v>1</v>
       </c>
     </row>
@@ -7466,33 +6872,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="37" t="s">
         <v>523</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="9" t="s">
         <v>524</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="9" t="s">
         <v>525</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="9" t="s">
         <v>526</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="9" t="s">
         <v>221</v>
       </c>
     </row>

--- a/service/document/ServiceDescription.xlsx
+++ b/service/document/ServiceDescription.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\WORKSPACE\DATN\education_social_network\service\document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\DATN\education_social_network\service\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1041" uniqueCount="546">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="551">
   <si>
     <t>SOCIAL NETWORK SUPPORT FOR EDUCATION: FUNCTION DESCRIPTION</t>
   </si>
@@ -1670,9 +1670,6 @@
     <t>Qua form với name cho trước, giới hạn dung lượng 4M, hỗ trợ các kiểu: jpg/jpeg, png, gif</t>
   </si>
   <si>
-    <t>/files/{:file_id}</t>
-  </si>
-  <si>
     <t>/files/info/{:file_id}</t>
   </si>
   <si>
@@ -1680,12 +1677,30 @@
   </si>
   <si>
     <t>/files/image</t>
+  </si>
+  <si>
+    <t>/files/get/{:file_id}</t>
+  </si>
+  <si>
+    <t>/files/delete/{:file_id}</t>
+  </si>
+  <si>
+    <t>Lấy thông tin tất cả file</t>
+  </si>
+  <si>
+    <t>/files/test/list</t>
+  </si>
+  <si>
+    <t>Đang test, sau sẽ bỏ</t>
+  </si>
+  <si>
+    <t>Các chức năng cần đăng nhập, hiện tại chưa cần đăng nhập</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2037,6 +2052,22 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2067,43 +2098,27 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2392,10 +2407,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.140625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="40.5703125" customWidth="1"/>
-    <col min="3" max="3" width="55.5703125" customWidth="1"/>
-    <col min="4" max="4" width="26.5703125" customWidth="1"/>
+    <col min="1" max="1" width="24.125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="40.625" customWidth="1"/>
+    <col min="3" max="3" width="55.625" customWidth="1"/>
+    <col min="4" max="4" width="26.625" customWidth="1"/>
     <col min="5" max="5" width="35" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2674,11 +2689,11 @@
       <c r="B35" s="2"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="27" t="s">
+      <c r="A36" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="B36" s="27"/>
-      <c r="C36" s="27"/>
+      <c r="B36" s="37"/>
+      <c r="C36" s="37"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
@@ -3286,25 +3301,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:L284"/>
+  <dimension ref="A2:L289"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F271" sqref="F271"/>
+    <sheetView tabSelected="1" topLeftCell="B244" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E290" sqref="E290"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" style="14" customWidth="1"/>
-    <col min="2" max="2" width="27.7109375" style="14" customWidth="1"/>
-    <col min="3" max="3" width="26.5703125" style="14" customWidth="1"/>
-    <col min="4" max="5" width="17.42578125" style="14" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" style="14" customWidth="1"/>
-    <col min="7" max="9" width="14.7109375" style="14" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="14" customWidth="1"/>
-    <col min="11" max="11" width="24.42578125" style="14" customWidth="1"/>
-    <col min="12" max="12" width="24.28515625" style="14" customWidth="1"/>
-    <col min="13" max="13" width="23.42578125" style="14" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="14"/>
+    <col min="1" max="1" width="6.875" style="14" customWidth="1"/>
+    <col min="2" max="2" width="27.75" style="14" customWidth="1"/>
+    <col min="3" max="3" width="26.625" style="14" customWidth="1"/>
+    <col min="4" max="5" width="17.375" style="14" customWidth="1"/>
+    <col min="6" max="6" width="16.875" style="14" customWidth="1"/>
+    <col min="7" max="9" width="14.75" style="14" customWidth="1"/>
+    <col min="10" max="10" width="14.375" style="14" customWidth="1"/>
+    <col min="11" max="11" width="24.375" style="14" customWidth="1"/>
+    <col min="12" max="12" width="24.25" style="14" customWidth="1"/>
+    <col min="13" max="13" width="23.375" style="14" customWidth="1"/>
+    <col min="14" max="16384" width="9.125" style="14"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -3414,13 +3429,13 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="31" t="s">
+      <c r="A33" s="41" t="s">
         <v>189</v>
       </c>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
+      <c r="B33" s="41"/>
+      <c r="C33" s="41"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="41"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="16" t="s">
@@ -3648,60 +3663,60 @@
     <row r="73" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="74" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A76" s="30" t="s">
+      <c r="A76" s="40" t="s">
         <v>226</v>
       </c>
-      <c r="B76" s="30"/>
-      <c r="C76" s="30"/>
-      <c r="D76" s="30"/>
-      <c r="E76" s="30"/>
-      <c r="F76" s="30"/>
-      <c r="G76" s="30"/>
-      <c r="H76" s="30"/>
-      <c r="I76" s="30"/>
-      <c r="J76" s="30"/>
-      <c r="K76" s="30"/>
-      <c r="L76" s="30"/>
+      <c r="B76" s="40"/>
+      <c r="C76" s="40"/>
+      <c r="D76" s="40"/>
+      <c r="E76" s="40"/>
+      <c r="F76" s="40"/>
+      <c r="G76" s="40"/>
+      <c r="H76" s="40"/>
+      <c r="I76" s="40"/>
+      <c r="J76" s="40"/>
+      <c r="K76" s="40"/>
+      <c r="L76" s="40"/>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A77" s="28" t="s">
+      <c r="A77" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="B77" s="28" t="s">
+      <c r="B77" s="38" t="s">
         <v>227</v>
       </c>
-      <c r="C77" s="35" t="s">
+      <c r="C77" s="45" t="s">
         <v>228</v>
       </c>
-      <c r="D77" s="28" t="s">
+      <c r="D77" s="38" t="s">
         <v>229</v>
       </c>
-      <c r="E77" s="28" t="s">
+      <c r="E77" s="38" t="s">
         <v>230</v>
       </c>
-      <c r="F77" s="28" t="s">
+      <c r="F77" s="38" t="s">
         <v>231</v>
       </c>
-      <c r="G77" s="32" t="s">
+      <c r="G77" s="42" t="s">
         <v>232</v>
       </c>
-      <c r="H77" s="33"/>
-      <c r="I77" s="33"/>
-      <c r="J77" s="34"/>
-      <c r="K77" s="28" t="s">
+      <c r="H77" s="43"/>
+      <c r="I77" s="43"/>
+      <c r="J77" s="44"/>
+      <c r="K77" s="38" t="s">
         <v>233</v>
       </c>
-      <c r="L77" s="28" t="s">
+      <c r="L77" s="38" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A78" s="29"/>
-      <c r="B78" s="29"/>
-      <c r="C78" s="36"/>
-      <c r="D78" s="29"/>
-      <c r="E78" s="29"/>
-      <c r="F78" s="29"/>
+      <c r="A78" s="39"/>
+      <c r="B78" s="39"/>
+      <c r="C78" s="46"/>
+      <c r="D78" s="39"/>
+      <c r="E78" s="39"/>
+      <c r="F78" s="39"/>
       <c r="G78" s="23" t="s">
         <v>234</v>
       </c>
@@ -3714,8 +3729,8 @@
       <c r="J78" s="23" t="s">
         <v>237</v>
       </c>
-      <c r="K78" s="29"/>
-      <c r="L78" s="29"/>
+      <c r="K78" s="39"/>
+      <c r="L78" s="39"/>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F79" s="14" t="s">
@@ -5120,6 +5135,9 @@
       <c r="B262" s="24" t="s">
         <v>527</v>
       </c>
+      <c r="L262" s="4" t="s">
+        <v>550</v>
+      </c>
     </row>
     <row r="263" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C263" s="14" t="s">
@@ -5132,9 +5150,9 @@
         <v>248</v>
       </c>
       <c r="F263" s="14" t="s">
-        <v>544</v>
-      </c>
-      <c r="L263" s="14" t="s">
+        <v>543</v>
+      </c>
+      <c r="L263" s="4" t="s">
         <v>539</v>
       </c>
     </row>
@@ -5159,7 +5177,7 @@
         <v>248</v>
       </c>
       <c r="F271" s="4" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="L271" s="14" t="s">
         <v>541</v>
@@ -5175,8 +5193,8 @@
       <c r="E276" s="14" t="s">
         <v>248</v>
       </c>
-      <c r="F276" s="14" t="s">
-        <v>542</v>
+      <c r="F276" s="4" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="280" spans="3:6" x14ac:dyDescent="0.25">
@@ -5189,8 +5207,8 @@
       <c r="E280" s="14" t="s">
         <v>248</v>
       </c>
-      <c r="F280" s="14" t="s">
-        <v>542</v>
+      <c r="F280" s="4" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="284" spans="3:6" x14ac:dyDescent="0.25">
@@ -5204,7 +5222,24 @@
         <v>248</v>
       </c>
       <c r="F284" s="14" t="s">
-        <v>543</v>
+        <v>542</v>
+      </c>
+    </row>
+    <row r="289" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C289" s="4" t="s">
+        <v>547</v>
+      </c>
+      <c r="D289" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="E289" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="F289" s="4" t="s">
+        <v>548</v>
+      </c>
+      <c r="L289" s="4" t="s">
+        <v>549</v>
       </c>
     </row>
   </sheetData>
@@ -5234,190 +5269,190 @@
       <selection activeCell="F130" sqref="F130"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="41" customWidth="1"/>
-    <col min="2" max="2" width="24.42578125" style="39" customWidth="1"/>
-    <col min="3" max="3" width="22" style="39" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" style="39" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" style="39" customWidth="1"/>
-    <col min="6" max="6" width="19.5703125" style="39" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="39"/>
+    <col min="1" max="1" width="8.75" style="28" customWidth="1"/>
+    <col min="2" max="2" width="24.375" style="27" customWidth="1"/>
+    <col min="3" max="3" width="22" style="27" customWidth="1"/>
+    <col min="4" max="4" width="15.75" style="27" customWidth="1"/>
+    <col min="5" max="5" width="13.125" style="27" customWidth="1"/>
+    <col min="6" max="6" width="19.625" style="27" customWidth="1"/>
+    <col min="7" max="16384" width="9.125" style="27"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="49" t="s">
         <v>375</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="51" t="s">
         <v>376</v>
       </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="41">
+      <c r="A5" s="28">
         <v>1</v>
       </c>
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="27" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C6" s="39" t="s">
+      <c r="C6" s="27" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C7" s="39" t="s">
+      <c r="C7" s="27" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C8" s="39" t="s">
+      <c r="C8" s="27" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C9" s="39" t="s">
+      <c r="C9" s="27" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="41">
+      <c r="A10" s="28">
         <v>2</v>
       </c>
-      <c r="B10" s="39" t="s">
+      <c r="B10" s="27" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C11" s="39" t="s">
+      <c r="C11" s="27" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C12" s="42" t="s">
+      <c r="C12" s="29" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C13" s="42" t="s">
+      <c r="C13" s="29" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="41">
+      <c r="A15" s="28">
         <v>3</v>
       </c>
-      <c r="B15" s="39" t="s">
+      <c r="B15" s="27" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C16" s="39" t="s">
+      <c r="C16" s="27" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C17" s="42" t="s">
+      <c r="C17" s="29" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C18" s="42"/>
+      <c r="C18" s="29"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="41">
+      <c r="A19" s="28">
         <v>4</v>
       </c>
-      <c r="B19" s="39" t="s">
+      <c r="B19" s="27" t="s">
         <v>389</v>
       </c>
-      <c r="C19" s="42" t="s">
+      <c r="C19" s="29" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C20" s="39" t="s">
+      <c r="C20" s="27" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="43" t="s">
+      <c r="A22" s="48" t="s">
         <v>392</v>
       </c>
-      <c r="B22" s="43"/>
-      <c r="C22" s="43"/>
+      <c r="B22" s="48"/>
+      <c r="C22" s="48"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="39" t="s">
+      <c r="B23" s="27" t="s">
         <v>393</v>
       </c>
-      <c r="C23" s="39" t="s">
+      <c r="C23" s="27" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="39" t="s">
+      <c r="B24" s="27" t="s">
         <v>395</v>
       </c>
-      <c r="C24" s="39" t="s">
+      <c r="C24" s="27" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="38" t="s">
+      <c r="A27" s="49" t="s">
         <v>397</v>
       </c>
-      <c r="B27" s="38"/>
-      <c r="C27" s="38"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="38"/>
+      <c r="B27" s="49"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="49"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="44" t="s">
+      <c r="A29" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="B29" s="44" t="s">
+      <c r="B29" s="52" t="s">
         <v>398</v>
       </c>
-      <c r="C29" s="45" t="s">
+      <c r="C29" s="50" t="s">
         <v>220</v>
       </c>
-      <c r="D29" s="45"/>
-      <c r="E29" s="45"/>
-      <c r="F29" s="45"/>
+      <c r="D29" s="50"/>
+      <c r="E29" s="50"/>
+      <c r="F29" s="50"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="44"/>
-      <c r="B30" s="44"/>
-      <c r="C30" s="46" t="s">
+      <c r="A30" s="52"/>
+      <c r="B30" s="52"/>
+      <c r="C30" s="30" t="s">
         <v>234</v>
       </c>
-      <c r="D30" s="46" t="s">
+      <c r="D30" s="30" t="s">
         <v>235</v>
       </c>
-      <c r="E30" s="46" t="s">
+      <c r="E30" s="30" t="s">
         <v>399</v>
       </c>
-      <c r="F30" s="46" t="s">
+      <c r="F30" s="30" t="s">
         <v>400</v>
       </c>
     </row>
@@ -5432,1314 +5467,1314 @@
       <c r="F31" s="47"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="48">
+      <c r="A32" s="31">
         <v>1</v>
       </c>
-      <c r="B32" s="49" t="s">
+      <c r="B32" s="32" t="s">
         <v>402</v>
       </c>
-      <c r="F32" s="39" t="s">
+      <c r="F32" s="27" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C33" s="50" t="s">
+      <c r="C33" s="33" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C34" s="39" t="s">
+      <c r="C34" s="27" t="s">
         <v>405</v>
       </c>
-      <c r="D34" s="39" t="s">
+      <c r="D34" s="27" t="s">
         <v>406</v>
       </c>
-      <c r="E34" s="39" t="s">
+      <c r="E34" s="27" t="s">
         <v>407</v>
       </c>
-      <c r="F34" s="39" t="s">
+      <c r="F34" s="27" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C35" s="39" t="s">
+      <c r="C35" s="27" t="s">
         <v>409</v>
       </c>
-      <c r="D35" s="39" t="s">
+      <c r="D35" s="27" t="s">
         <v>406</v>
       </c>
-      <c r="E35" s="39" t="s">
+      <c r="E35" s="27" t="s">
         <v>407</v>
       </c>
-      <c r="F35" s="39" t="s">
+      <c r="F35" s="27" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C36" s="39" t="s">
+      <c r="C36" s="27" t="s">
         <v>411</v>
       </c>
-      <c r="D36" s="39" t="s">
+      <c r="D36" s="27" t="s">
         <v>406</v>
       </c>
-      <c r="E36" s="39" t="s">
+      <c r="E36" s="27" t="s">
         <v>407</v>
       </c>
-      <c r="F36" s="39" t="s">
+      <c r="F36" s="27" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C37" s="39" t="s">
+      <c r="C37" s="27" t="s">
         <v>412</v>
       </c>
-      <c r="D37" s="39" t="s">
+      <c r="D37" s="27" t="s">
         <v>406</v>
       </c>
-      <c r="E37" s="39" t="s">
+      <c r="E37" s="27" t="s">
         <v>407</v>
       </c>
-      <c r="F37" s="39" t="s">
+      <c r="F37" s="27" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C38" s="39" t="s">
+      <c r="C38" s="27" t="s">
         <v>413</v>
       </c>
-      <c r="D38" s="39" t="s">
+      <c r="D38" s="27" t="s">
         <v>414</v>
       </c>
-      <c r="E38" s="39" t="s">
+      <c r="E38" s="27" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C39" s="39" t="s">
+      <c r="C39" s="27" t="s">
         <v>416</v>
       </c>
-      <c r="D39" s="39" t="s">
+      <c r="D39" s="27" t="s">
         <v>406</v>
       </c>
-      <c r="E39" s="39" t="s">
+      <c r="E39" s="27" t="s">
         <v>415</v>
       </c>
-      <c r="F39" s="39" t="s">
+      <c r="F39" s="27" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C40" s="39" t="s">
+      <c r="C40" s="27" t="s">
         <v>418</v>
       </c>
-      <c r="D40" s="39" t="s">
+      <c r="D40" s="27" t="s">
         <v>406</v>
       </c>
-      <c r="E40" s="39" t="s">
+      <c r="E40" s="27" t="s">
         <v>415</v>
       </c>
-      <c r="F40" s="39" t="s">
+      <c r="F40" s="27" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C41" s="39" t="s">
+      <c r="C41" s="27" t="s">
         <v>419</v>
       </c>
-      <c r="D41" s="39" t="s">
+      <c r="D41" s="27" t="s">
         <v>406</v>
       </c>
-      <c r="E41" s="39" t="s">
+      <c r="E41" s="27" t="s">
         <v>407</v>
       </c>
-      <c r="F41" s="39" t="s">
+      <c r="F41" s="27" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C42" s="39" t="s">
+      <c r="C42" s="27" t="s">
         <v>421</v>
       </c>
-      <c r="D42" s="39" t="s">
+      <c r="D42" s="27" t="s">
         <v>406</v>
       </c>
-      <c r="E42" s="39" t="s">
+      <c r="E42" s="27" t="s">
         <v>415</v>
       </c>
-      <c r="F42" s="39" t="s">
+      <c r="F42" s="27" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C43" s="39" t="s">
+      <c r="C43" s="27" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C44" s="50" t="s">
+      <c r="C44" s="33" t="s">
         <v>423</v>
       </c>
-      <c r="D44" s="39" t="s">
+      <c r="D44" s="27" t="s">
         <v>424</v>
       </c>
-      <c r="E44" s="39" t="s">
+      <c r="E44" s="27" t="s">
         <v>407</v>
       </c>
-      <c r="F44" s="39" t="s">
+      <c r="F44" s="27" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C45" s="39" t="s">
+      <c r="C45" s="27" t="s">
         <v>426</v>
       </c>
-      <c r="D45" s="39" t="s">
+      <c r="D45" s="27" t="s">
         <v>427</v>
       </c>
-      <c r="E45" s="39" t="s">
+      <c r="E45" s="27" t="s">
         <v>407</v>
       </c>
-      <c r="F45" s="39" t="s">
+      <c r="F45" s="27" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C46" s="39" t="s">
+      <c r="C46" s="27" t="s">
         <v>429</v>
       </c>
-      <c r="D46" s="39" t="s">
+      <c r="D46" s="27" t="s">
         <v>427</v>
       </c>
-      <c r="E46" s="39" t="s">
+      <c r="E46" s="27" t="s">
         <v>407</v>
       </c>
-      <c r="F46" s="39" t="s">
+      <c r="F46" s="27" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="41">
+      <c r="A48" s="28">
         <v>2</v>
       </c>
-      <c r="B48" s="51" t="s">
+      <c r="B48" s="34" t="s">
         <v>431</v>
       </c>
-      <c r="F48" s="39" t="s">
+      <c r="F48" s="27" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C49" s="50" t="s">
+      <c r="C49" s="33" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C50" s="39" t="s">
+      <c r="C50" s="27" t="s">
         <v>405</v>
       </c>
-      <c r="D50" s="39" t="s">
+      <c r="D50" s="27" t="s">
         <v>406</v>
       </c>
-      <c r="E50" s="39" t="s">
+      <c r="E50" s="27" t="s">
         <v>407</v>
       </c>
-      <c r="F50" s="39" t="s">
+      <c r="F50" s="27" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C51" s="39" t="s">
+      <c r="C51" s="27" t="s">
         <v>234</v>
       </c>
-      <c r="D51" s="39" t="s">
+      <c r="D51" s="27" t="s">
         <v>406</v>
       </c>
-      <c r="E51" s="39" t="s">
+      <c r="E51" s="27" t="s">
         <v>407</v>
       </c>
-      <c r="F51" s="39" t="s">
+      <c r="F51" s="27" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C52" s="39" t="s">
+      <c r="C52" s="27" t="s">
         <v>433</v>
       </c>
-      <c r="D52" s="39" t="s">
+      <c r="D52" s="27" t="s">
         <v>406</v>
       </c>
-      <c r="E52" s="39" t="s">
+      <c r="E52" s="27" t="s">
         <v>415</v>
       </c>
-      <c r="F52" s="39" t="s">
+      <c r="F52" s="27" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C53" s="39" t="s">
+      <c r="C53" s="27" t="s">
         <v>416</v>
       </c>
-      <c r="D53" s="39" t="s">
+      <c r="D53" s="27" t="s">
         <v>406</v>
       </c>
-      <c r="E53" s="39" t="s">
+      <c r="E53" s="27" t="s">
         <v>415</v>
       </c>
-      <c r="F53" s="39" t="s">
+      <c r="F53" s="27" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C54" s="39" t="s">
+      <c r="C54" s="27" t="s">
         <v>418</v>
       </c>
-      <c r="D54" s="39" t="s">
+      <c r="D54" s="27" t="s">
         <v>406</v>
       </c>
-      <c r="E54" s="39" t="s">
+      <c r="E54" s="27" t="s">
         <v>415</v>
       </c>
-      <c r="F54" s="39" t="s">
+      <c r="F54" s="27" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C55" s="39" t="s">
+      <c r="C55" s="27" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C56" s="50" t="s">
+      <c r="C56" s="33" t="s">
         <v>423</v>
       </c>
-      <c r="D56" s="39" t="s">
+      <c r="D56" s="27" t="s">
         <v>424</v>
       </c>
-      <c r="E56" s="39" t="s">
+      <c r="E56" s="27" t="s">
         <v>407</v>
       </c>
-      <c r="F56" s="39" t="s">
+      <c r="F56" s="27" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C57" s="39" t="s">
+      <c r="C57" s="27" t="s">
         <v>435</v>
       </c>
-      <c r="D57" s="39" t="s">
+      <c r="D57" s="27" t="s">
         <v>427</v>
       </c>
-      <c r="E57" s="39" t="s">
+      <c r="E57" s="27" t="s">
         <v>407</v>
       </c>
-      <c r="F57" s="39" t="s">
+      <c r="F57" s="27" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C58" s="39" t="s">
+      <c r="C58" s="27" t="s">
         <v>437</v>
       </c>
-      <c r="D58" s="39" t="s">
+      <c r="D58" s="27" t="s">
         <v>427</v>
       </c>
-      <c r="E58" s="39" t="s">
+      <c r="E58" s="27" t="s">
         <v>407</v>
       </c>
-      <c r="F58" s="39" t="s">
+      <c r="F58" s="27" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="41">
+      <c r="A60" s="28">
         <v>3</v>
       </c>
-      <c r="B60" s="51" t="s">
+      <c r="B60" s="34" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C61" s="50" t="s">
+      <c r="C61" s="33" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C62" s="39" t="s">
+      <c r="C62" s="27" t="s">
         <v>405</v>
       </c>
-      <c r="D62" s="39" t="s">
+      <c r="D62" s="27" t="s">
         <v>406</v>
       </c>
-      <c r="E62" s="39" t="s">
+      <c r="E62" s="27" t="s">
         <v>407</v>
       </c>
-      <c r="F62" s="39" t="s">
+      <c r="F62" s="27" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C63" s="39" t="s">
+      <c r="C63" s="27" t="s">
         <v>439</v>
       </c>
-      <c r="D63" s="39" t="s">
+      <c r="D63" s="27" t="s">
         <v>406</v>
       </c>
-      <c r="E63" s="39" t="s">
+      <c r="E63" s="27" t="s">
         <v>407</v>
       </c>
-      <c r="F63" s="39" t="s">
+      <c r="F63" s="27" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C64" s="39" t="s">
+      <c r="C64" s="27" t="s">
         <v>440</v>
       </c>
-      <c r="D64" s="39" t="s">
+      <c r="D64" s="27" t="s">
         <v>441</v>
       </c>
-      <c r="E64" s="39" t="s">
+      <c r="E64" s="27" t="s">
         <v>407</v>
       </c>
-      <c r="F64" s="39" t="s">
+      <c r="F64" s="27" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C65" s="39" t="s">
+      <c r="C65" s="27" t="s">
         <v>442</v>
       </c>
-      <c r="D65" s="39" t="s">
+      <c r="D65" s="27" t="s">
         <v>406</v>
       </c>
-      <c r="E65" s="39" t="s">
+      <c r="E65" s="27" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C66" s="39" t="s">
+      <c r="C66" s="27" t="s">
         <v>443</v>
       </c>
-      <c r="D66" s="39" t="s">
+      <c r="D66" s="27" t="s">
         <v>414</v>
       </c>
-      <c r="E66" s="39" t="s">
+      <c r="E66" s="27" t="s">
         <v>407</v>
       </c>
-      <c r="F66" s="39" t="s">
+      <c r="F66" s="27" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C67" s="39" t="s">
+      <c r="C67" s="27" t="s">
         <v>444</v>
       </c>
-      <c r="D67" s="39" t="s">
+      <c r="D67" s="27" t="s">
         <v>414</v>
       </c>
-      <c r="E67" s="39" t="s">
+      <c r="E67" s="27" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C68" s="39" t="s">
+      <c r="C68" s="27" t="s">
         <v>445</v>
       </c>
-      <c r="D68" s="39" t="s">
+      <c r="D68" s="27" t="s">
         <v>446</v>
       </c>
-      <c r="E68" s="39" t="s">
+      <c r="E68" s="27" t="s">
         <v>407</v>
       </c>
-      <c r="F68" s="39" t="s">
+      <c r="F68" s="27" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C69" s="50" t="s">
+      <c r="C69" s="33" t="s">
         <v>423</v>
       </c>
-      <c r="D69" s="39" t="s">
+      <c r="D69" s="27" t="s">
         <v>424</v>
       </c>
-      <c r="E69" s="39" t="s">
+      <c r="E69" s="27" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C70" s="39" t="s">
+      <c r="C70" s="27" t="s">
         <v>448</v>
       </c>
-      <c r="D70" s="39" t="s">
+      <c r="D70" s="27" t="s">
         <v>427</v>
       </c>
-      <c r="E70" s="39" t="s">
+      <c r="E70" s="27" t="s">
         <v>407</v>
       </c>
-      <c r="F70" s="39" t="s">
+      <c r="F70" s="27" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="41">
+      <c r="A72" s="28">
         <v>4</v>
       </c>
-      <c r="B72" s="51" t="s">
+      <c r="B72" s="34" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C73" s="50" t="s">
+      <c r="C73" s="33" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C74" s="39" t="s">
+      <c r="C74" s="27" t="s">
         <v>405</v>
       </c>
-      <c r="D74" s="39" t="s">
+      <c r="D74" s="27" t="s">
         <v>406</v>
       </c>
-      <c r="E74" s="39" t="s">
+      <c r="E74" s="27" t="s">
         <v>407</v>
       </c>
-      <c r="F74" s="39" t="s">
+      <c r="F74" s="27" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C75" s="39" t="s">
+      <c r="C75" s="27" t="s">
         <v>440</v>
       </c>
-      <c r="D75" s="39" t="s">
+      <c r="D75" s="27" t="s">
         <v>406</v>
       </c>
-      <c r="E75" s="39" t="s">
+      <c r="E75" s="27" t="s">
         <v>407</v>
       </c>
-      <c r="F75" s="39" t="s">
+      <c r="F75" s="27" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C76" s="39" t="s">
+      <c r="C76" s="27" t="s">
         <v>443</v>
       </c>
-      <c r="D76" s="39" t="s">
+      <c r="D76" s="27" t="s">
         <v>414</v>
       </c>
-      <c r="E76" s="39" t="s">
+      <c r="E76" s="27" t="s">
         <v>407</v>
       </c>
-      <c r="F76" s="39" t="s">
+      <c r="F76" s="27" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C77" s="39" t="s">
+      <c r="C77" s="27" t="s">
         <v>444</v>
       </c>
-      <c r="D77" s="39" t="s">
+      <c r="D77" s="27" t="s">
         <v>414</v>
       </c>
-      <c r="E77" s="39" t="s">
+      <c r="E77" s="27" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C78" s="39" t="s">
+      <c r="C78" s="27" t="s">
         <v>445</v>
       </c>
-      <c r="D78" s="39" t="s">
+      <c r="D78" s="27" t="s">
         <v>446</v>
       </c>
-      <c r="E78" s="39" t="s">
+      <c r="E78" s="27" t="s">
         <v>407</v>
       </c>
-      <c r="F78" s="39" t="s">
+      <c r="F78" s="27" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C79" s="50" t="s">
+      <c r="C79" s="33" t="s">
         <v>423</v>
       </c>
-      <c r="D79" s="39" t="s">
+      <c r="D79" s="27" t="s">
         <v>424</v>
       </c>
-      <c r="E79" s="39" t="s">
+      <c r="E79" s="27" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C80" s="39" t="s">
+      <c r="C80" s="27" t="s">
         <v>452</v>
       </c>
-      <c r="D80" s="39" t="s">
+      <c r="D80" s="27" t="s">
         <v>427</v>
       </c>
-      <c r="E80" s="39" t="s">
+      <c r="E80" s="27" t="s">
         <v>407</v>
       </c>
-      <c r="F80" s="39" t="s">
+      <c r="F80" s="27" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="41">
+      <c r="A83" s="28">
         <v>5</v>
       </c>
-      <c r="B83" s="51" t="s">
+      <c r="B83" s="34" t="s">
         <v>453</v>
       </c>
-      <c r="F83" s="52" t="s">
+      <c r="F83" s="35" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C84" s="50" t="s">
+      <c r="C84" s="33" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C85" s="39" t="s">
+      <c r="C85" s="27" t="s">
         <v>405</v>
       </c>
-      <c r="D85" s="39" t="s">
+      <c r="D85" s="27" t="s">
         <v>406</v>
       </c>
-      <c r="E85" s="39" t="s">
+      <c r="E85" s="27" t="s">
         <v>407</v>
       </c>
-      <c r="F85" s="39" t="s">
+      <c r="F85" s="27" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C86" s="39" t="s">
+      <c r="C86" s="27" t="s">
         <v>234</v>
       </c>
-      <c r="D86" s="39" t="s">
+      <c r="D86" s="27" t="s">
         <v>406</v>
       </c>
-      <c r="E86" s="39" t="s">
+      <c r="E86" s="27" t="s">
         <v>407</v>
       </c>
-      <c r="F86" s="39" t="s">
+      <c r="F86" s="27" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C87" s="39" t="s">
+      <c r="C87" s="27" t="s">
         <v>433</v>
       </c>
-      <c r="D87" s="39" t="s">
+      <c r="D87" s="27" t="s">
         <v>406</v>
       </c>
-      <c r="E87" s="39" t="s">
+      <c r="E87" s="27" t="s">
         <v>415</v>
       </c>
-      <c r="F87" s="39" t="s">
+      <c r="F87" s="27" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C90" s="50" t="s">
+      <c r="C90" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="F90" s="39" t="s">
+      <c r="F90" s="27" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C91" s="39" t="s">
+      <c r="C91" s="27" t="s">
         <v>457</v>
       </c>
-      <c r="D91" s="39" t="s">
+      <c r="D91" s="27" t="s">
         <v>414</v>
       </c>
-      <c r="E91" s="39" t="s">
+      <c r="E91" s="27" t="s">
         <v>407</v>
       </c>
-      <c r="F91" s="39" t="s">
+      <c r="F91" s="27" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C92" s="39" t="s">
+      <c r="C92" s="27" t="s">
         <v>459</v>
       </c>
-      <c r="D92" s="39" t="s">
+      <c r="D92" s="27" t="s">
         <v>414</v>
       </c>
-      <c r="E92" s="39" t="s">
+      <c r="E92" s="27" t="s">
         <v>407</v>
       </c>
-      <c r="F92" s="39" t="s">
+      <c r="F92" s="27" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C93" s="39" t="s">
+      <c r="C93" s="27" t="s">
         <v>461</v>
       </c>
-      <c r="D93" s="39" t="s">
+      <c r="D93" s="27" t="s">
         <v>406</v>
       </c>
-      <c r="E93" s="39" t="s">
+      <c r="E93" s="27" t="s">
         <v>415</v>
       </c>
-      <c r="F93" s="39" t="s">
+      <c r="F93" s="27" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C94" s="39" t="s">
+      <c r="C94" s="27" t="s">
         <v>463</v>
       </c>
-      <c r="D94" s="39" t="s">
+      <c r="D94" s="27" t="s">
         <v>406</v>
       </c>
-      <c r="E94" s="39" t="s">
+      <c r="E94" s="27" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C96" s="50" t="s">
+      <c r="C96" s="33" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C97" s="39" t="s">
+      <c r="C97" s="27" t="s">
         <v>464</v>
       </c>
-      <c r="D97" s="39" t="s">
+      <c r="D97" s="27" t="s">
         <v>427</v>
       </c>
-      <c r="E97" s="39" t="s">
+      <c r="E97" s="27" t="s">
         <v>407</v>
       </c>
-      <c r="F97" s="39" t="s">
+      <c r="F97" s="27" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101" s="41">
+      <c r="A101" s="28">
         <v>6</v>
       </c>
-      <c r="B101" s="51" t="s">
+      <c r="B101" s="34" t="s">
         <v>466</v>
       </c>
-      <c r="F101" s="52" t="s">
+      <c r="F101" s="35" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C102" s="50" t="s">
+      <c r="C102" s="33" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C103" s="39" t="s">
+      <c r="C103" s="27" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C104" s="39" t="s">
+      <c r="C104" s="27" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C106" s="50" t="s">
+      <c r="C106" s="33" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C111" s="50" t="s">
+      <c r="C111" s="33" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C112" s="39" t="s">
+      <c r="C112" s="27" t="s">
         <v>469</v>
       </c>
-      <c r="D112" s="39" t="s">
+      <c r="D112" s="27" t="s">
         <v>427</v>
       </c>
-      <c r="E112" s="39" t="s">
+      <c r="E112" s="27" t="s">
         <v>407</v>
       </c>
-      <c r="F112" s="39" t="s">
+      <c r="F112" s="27" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A114" s="41">
+      <c r="A114" s="28">
         <v>7</v>
       </c>
-      <c r="B114" s="51" t="s">
+      <c r="B114" s="34" t="s">
         <v>471</v>
       </c>
-      <c r="F114" s="39" t="s">
+      <c r="F114" s="27" t="s">
         <v>472</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C115" s="50" t="s">
+      <c r="C115" s="33" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C116" s="39" t="s">
+      <c r="C116" s="27" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C117" s="39" t="s">
+      <c r="C117" s="27" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C118" s="39" t="s">
+      <c r="C118" s="27" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C120" s="50" t="s">
+      <c r="C120" s="33" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C121" s="39" t="s">
+      <c r="C121" s="27" t="s">
         <v>473</v>
       </c>
-      <c r="D121" s="39" t="s">
+      <c r="D121" s="27" t="s">
         <v>427</v>
       </c>
-      <c r="E121" s="39" t="s">
+      <c r="E121" s="27" t="s">
         <v>407</v>
       </c>
-      <c r="F121" s="39" t="s">
+      <c r="F121" s="27" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A125" s="41">
+      <c r="A125" s="28">
         <v>8</v>
       </c>
-      <c r="B125" s="51" t="s">
+      <c r="B125" s="34" t="s">
         <v>475</v>
       </c>
-      <c r="F125" s="39" t="s">
+      <c r="F125" s="27" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C126" s="50" t="s">
+      <c r="C126" s="33" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C127" s="39" t="s">
+      <c r="C127" s="27" t="s">
         <v>405</v>
       </c>
-      <c r="D127" s="39" t="s">
+      <c r="D127" s="27" t="s">
         <v>406</v>
       </c>
-      <c r="E127" s="39" t="s">
+      <c r="E127" s="27" t="s">
         <v>407</v>
       </c>
-      <c r="F127" s="39" t="s">
+      <c r="F127" s="27" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C128" s="39" t="s">
+      <c r="C128" s="27" t="s">
         <v>234</v>
       </c>
-      <c r="D128" s="39" t="s">
+      <c r="D128" s="27" t="s">
         <v>406</v>
       </c>
-      <c r="E128" s="39" t="s">
+      <c r="E128" s="27" t="s">
         <v>407</v>
       </c>
-      <c r="F128" s="39" t="s">
+      <c r="F128" s="27" t="s">
         <v>536</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C129" s="39" t="s">
+      <c r="C129" s="27" t="s">
         <v>478</v>
       </c>
-      <c r="D129" s="39" t="s">
+      <c r="D129" s="27" t="s">
         <v>446</v>
       </c>
-      <c r="E129" s="39" t="s">
+      <c r="E129" s="27" t="s">
         <v>407</v>
       </c>
-      <c r="F129" s="39" t="s">
+      <c r="F129" s="27" t="s">
         <v>538</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C130" s="39" t="s">
+      <c r="C130" s="27" t="s">
         <v>235</v>
       </c>
-      <c r="D130" s="39" t="s">
+      <c r="D130" s="27" t="s">
         <v>406</v>
       </c>
-      <c r="E130" s="39" t="s">
+      <c r="E130" s="27" t="s">
         <v>407</v>
       </c>
-      <c r="F130" s="39" t="s">
+      <c r="F130" s="27" t="s">
         <v>479</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C131" s="39" t="s">
+      <c r="C131" s="27" t="s">
         <v>480</v>
       </c>
-      <c r="D131" s="39" t="s">
+      <c r="D131" s="27" t="s">
         <v>414</v>
       </c>
-      <c r="E131" s="39" t="s">
+      <c r="E131" s="27" t="s">
         <v>407</v>
       </c>
-      <c r="F131" s="39" t="s">
+      <c r="F131" s="27" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C132" s="39" t="s">
+      <c r="C132" s="27" t="s">
         <v>442</v>
       </c>
-      <c r="D132" s="39" t="s">
+      <c r="D132" s="27" t="s">
         <v>406</v>
       </c>
-      <c r="E132" s="39" t="s">
+      <c r="E132" s="27" t="s">
         <v>415</v>
       </c>
-      <c r="F132" s="39" t="s">
+      <c r="F132" s="27" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C133" s="39" t="s">
+      <c r="C133" s="27" t="s">
         <v>481</v>
       </c>
-      <c r="D133" s="39" t="s">
+      <c r="D133" s="27" t="s">
         <v>446</v>
       </c>
-      <c r="E133" s="39" t="s">
+      <c r="E133" s="27" t="s">
         <v>415</v>
       </c>
-      <c r="F133" s="39" t="s">
+      <c r="F133" s="27" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C134" s="39" t="s">
+      <c r="C134" s="27" t="s">
         <v>532</v>
       </c>
-      <c r="D134" s="39" t="s">
+      <c r="D134" s="27" t="s">
         <v>406</v>
       </c>
-      <c r="E134" s="39" t="s">
+      <c r="E134" s="27" t="s">
         <v>415</v>
       </c>
-      <c r="F134" s="39" t="s">
+      <c r="F134" s="27" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C135" s="39" t="s">
+      <c r="C135" s="27" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C136" s="50" t="s">
+      <c r="C136" s="33" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C137" s="39" t="s">
+      <c r="C137" s="27" t="s">
         <v>533</v>
       </c>
-      <c r="D137" s="39" t="s">
+      <c r="D137" s="27" t="s">
         <v>534</v>
       </c>
-      <c r="E137" s="39" t="s">
+      <c r="E137" s="27" t="s">
         <v>407</v>
       </c>
-      <c r="F137" s="39" t="s">
+      <c r="F137" s="27" t="s">
         <v>535</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C138" s="53" t="s">
+      <c r="C138" s="36" t="s">
         <v>483</v>
       </c>
-      <c r="D138" s="39" t="s">
+      <c r="D138" s="27" t="s">
         <v>427</v>
       </c>
-      <c r="F138" s="39" t="s">
+      <c r="F138" s="27" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A140" s="41">
+      <c r="A140" s="28">
         <v>9</v>
       </c>
-      <c r="B140" s="51" t="s">
+      <c r="B140" s="34" t="s">
         <v>485</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C141" s="50" t="s">
+      <c r="C141" s="33" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C142" s="39" t="s">
+      <c r="C142" s="27" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C143" s="39" t="s">
+      <c r="C143" s="27" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C144" s="39" t="s">
+      <c r="C144" s="27" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C145" s="39" t="s">
+      <c r="C145" s="27" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C146" s="39" t="s">
+      <c r="C146" s="27" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C147" s="50" t="s">
+      <c r="C147" s="33" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C148" s="39" t="s">
+      <c r="C148" s="27" t="s">
         <v>486</v>
       </c>
-      <c r="D148" s="39" t="s">
+      <c r="D148" s="27" t="s">
         <v>427</v>
       </c>
-      <c r="F148" s="39" t="s">
+      <c r="F148" s="27" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A152" s="41">
+      <c r="A152" s="28">
         <v>10</v>
       </c>
-      <c r="B152" s="51" t="s">
+      <c r="B152" s="34" t="s">
         <v>487</v>
       </c>
-      <c r="F152" s="52" t="s">
+      <c r="F152" s="35" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C153" s="50" t="s">
+      <c r="C153" s="33" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C154" s="39" t="s">
+      <c r="C154" s="27" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C155" s="39" t="s">
+      <c r="C155" s="27" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C156" s="39" t="s">
+      <c r="C156" s="27" t="s">
         <v>490</v>
       </c>
-      <c r="D156" s="39" t="s">
+      <c r="D156" s="27" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C160" s="50" t="s">
+      <c r="C160" s="33" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C161" s="39" t="s">
+      <c r="C161" s="27" t="s">
         <v>491</v>
       </c>
-      <c r="D161" s="39" t="s">
+      <c r="D161" s="27" t="s">
         <v>427</v>
       </c>
-      <c r="F161" s="39" t="s">
+      <c r="F161" s="27" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A163" s="41">
+      <c r="A163" s="28">
         <v>11</v>
       </c>
-      <c r="B163" s="51" t="s">
+      <c r="B163" s="34" t="s">
         <v>493</v>
       </c>
-      <c r="F163" s="52" t="s">
+      <c r="F163" s="35" t="s">
         <v>494</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C164" s="50" t="s">
+      <c r="C164" s="33" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C165" s="39" t="s">
+      <c r="C165" s="27" t="s">
         <v>405</v>
       </c>
-      <c r="D165" s="39" t="s">
+      <c r="D165" s="27" t="s">
         <v>406</v>
       </c>
-      <c r="E165" s="39" t="s">
+      <c r="E165" s="27" t="s">
         <v>407</v>
       </c>
-      <c r="F165" s="39" t="s">
+      <c r="F165" s="27" t="s">
         <v>495</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C166" s="39" t="s">
+      <c r="C166" s="27" t="s">
         <v>457</v>
       </c>
-      <c r="D166" s="39" t="s">
+      <c r="D166" s="27" t="s">
         <v>414</v>
       </c>
-      <c r="E166" s="39" t="s">
+      <c r="E166" s="27" t="s">
         <v>407</v>
       </c>
-      <c r="F166" s="39" t="s">
+      <c r="F166" s="27" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C167" s="39" t="s">
+      <c r="C167" s="27" t="s">
         <v>459</v>
       </c>
-      <c r="D167" s="39" t="s">
+      <c r="D167" s="27" t="s">
         <v>414</v>
       </c>
-      <c r="E167" s="39" t="s">
+      <c r="E167" s="27" t="s">
         <v>407</v>
       </c>
-      <c r="F167" s="39" t="s">
+      <c r="F167" s="27" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C168" s="39" t="s">
+      <c r="C168" s="27" t="s">
         <v>433</v>
       </c>
-      <c r="D168" s="39" t="s">
+      <c r="D168" s="27" t="s">
         <v>406</v>
       </c>
-      <c r="E168" s="39" t="s">
+      <c r="E168" s="27" t="s">
         <v>415</v>
       </c>
-      <c r="F168" s="39" t="s">
+      <c r="F168" s="27" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C170" s="50" t="s">
+      <c r="C170" s="33" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C171" s="39" t="s">
+      <c r="C171" s="27" t="s">
         <v>499</v>
       </c>
-      <c r="D171" s="39" t="s">
+      <c r="D171" s="27" t="s">
         <v>427</v>
       </c>
-      <c r="E171" s="39" t="s">
+      <c r="E171" s="27" t="s">
         <v>407</v>
       </c>
-      <c r="F171" s="39" t="s">
+      <c r="F171" s="27" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C172" s="39" t="s">
+      <c r="C172" s="27" t="s">
         <v>501</v>
       </c>
-      <c r="D172" s="39" t="s">
+      <c r="D172" s="27" t="s">
         <v>427</v>
       </c>
-      <c r="E172" s="39" t="s">
+      <c r="E172" s="27" t="s">
         <v>407</v>
       </c>
-      <c r="F172" s="39" t="s">
+      <c r="F172" s="27" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A180" s="43" t="s">
+      <c r="A180" s="48" t="s">
         <v>503</v>
       </c>
-      <c r="B180" s="43"/>
-      <c r="C180" s="43"/>
-      <c r="D180" s="43"/>
-      <c r="E180" s="43"/>
-      <c r="F180" s="43"/>
+      <c r="B180" s="48"/>
+      <c r="C180" s="48"/>
+      <c r="D180" s="48"/>
+      <c r="E180" s="48"/>
+      <c r="F180" s="48"/>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A182" s="41">
+      <c r="A182" s="28">
         <v>11</v>
       </c>
-      <c r="B182" s="51" t="s">
+      <c r="B182" s="34" t="s">
         <v>504</v>
       </c>
-      <c r="F182" s="52" t="s">
+      <c r="F182" s="35" t="s">
         <v>505</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C183" s="50" t="s">
+      <c r="C183" s="33" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C184" s="39" t="s">
+      <c r="C184" s="27" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C186" s="39" t="s">
+      <c r="C186" s="27" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C188" s="50" t="s">
+      <c r="C188" s="33" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C189" s="39" t="s">
+      <c r="C189" s="27" t="s">
         <v>507</v>
       </c>
-      <c r="D189" s="39" t="s">
+      <c r="D189" s="27" t="s">
         <v>427</v>
       </c>
-      <c r="F189" s="39" t="s">
+      <c r="F189" s="27" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A193" s="41">
+      <c r="A193" s="28">
         <v>12</v>
       </c>
-      <c r="B193" s="51" t="s">
+      <c r="B193" s="34" t="s">
         <v>509</v>
       </c>
-      <c r="F193" s="52" t="s">
+      <c r="F193" s="35" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C194" s="50" t="s">
+      <c r="C194" s="33" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C195" s="39" t="s">
+      <c r="C195" s="27" t="s">
         <v>405</v>
       </c>
-      <c r="D195" s="39" t="s">
+      <c r="D195" s="27" t="s">
         <v>406</v>
       </c>
-      <c r="E195" s="39" t="s">
+      <c r="E195" s="27" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C197" s="39" t="s">
+      <c r="C197" s="27" t="s">
         <v>510</v>
       </c>
-      <c r="D197" s="39" t="s">
+      <c r="D197" s="27" t="s">
         <v>414</v>
       </c>
-      <c r="E197" s="39" t="s">
+      <c r="E197" s="27" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C198" s="39" t="s">
+      <c r="C198" s="27" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C199" s="50" t="s">
+      <c r="C199" s="33" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C200" s="39" t="s">
+      <c r="C200" s="27" t="s">
         <v>507</v>
       </c>
-      <c r="D200" s="39" t="s">
+      <c r="D200" s="27" t="s">
         <v>427</v>
       </c>
-      <c r="F200" s="39" t="s">
+      <c r="F200" s="27" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A202" s="41">
+      <c r="A202" s="28">
         <v>13</v>
       </c>
-      <c r="B202" s="51" t="s">
+      <c r="B202" s="34" t="s">
         <v>512</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C203" s="50" t="s">
+      <c r="C203" s="33" t="s">
         <v>404</v>
       </c>
-      <c r="F203" s="52" t="s">
+      <c r="F203" s="35" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C204" s="39" t="s">
+      <c r="C204" s="27" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C208" s="50" t="s">
+      <c r="C208" s="33" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="209" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C209" s="39" t="s">
+      <c r="C209" s="27" t="s">
         <v>513</v>
       </c>
-      <c r="D209" s="39" t="s">
+      <c r="D209" s="27" t="s">
         <v>427</v>
       </c>
-      <c r="E209" s="39" t="s">
+      <c r="E209" s="27" t="s">
         <v>407</v>
       </c>
     </row>
@@ -6770,38 +6805,38 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" style="7" customWidth="1"/>
-    <col min="2" max="2" width="34.42578125" customWidth="1"/>
-    <col min="3" max="3" width="32.140625" customWidth="1"/>
-    <col min="4" max="4" width="28.28515625" customWidth="1"/>
-    <col min="5" max="5" width="23.5703125" customWidth="1"/>
+    <col min="1" max="1" width="13.75" style="7" customWidth="1"/>
+    <col min="2" max="2" width="34.375" customWidth="1"/>
+    <col min="3" max="3" width="32.125" customWidth="1"/>
+    <col min="4" max="4" width="28.25" customWidth="1"/>
+    <col min="5" max="5" width="23.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="53" t="s">
         <v>514</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
+      <c r="O1" s="53"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="53" t="s">
         <v>515</v>
       </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
@@ -6867,26 +6902,26 @@
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="26.42578125" customWidth="1"/>
-    <col min="4" max="4" width="28.85546875" customWidth="1"/>
+    <col min="3" max="3" width="26.375" customWidth="1"/>
+    <col min="4" max="4" width="28.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="53" t="s">
         <v>523</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">

--- a/service/document/ServiceDescription.xlsx
+++ b/service/document/ServiceDescription.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11745" tabRatio="702" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11745" tabRatio="702" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="FUNCTION_DESCRIPTION" sheetId="3" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="551">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1078" uniqueCount="570">
   <si>
     <t>SOCIAL NETWORK SUPPORT FOR EDUCATION: FUNCTION DESCRIPTION</t>
   </si>
@@ -1271,21 +1271,9 @@
     <t>UNIQUE, MAXLENGTH</t>
   </si>
   <si>
-    <t>Password</t>
-  </si>
-  <si>
     <t>MAXLENGTH</t>
   </si>
   <si>
-    <t>FirstName</t>
-  </si>
-  <si>
-    <t>LastName</t>
-  </si>
-  <si>
-    <t>Birthday</t>
-  </si>
-  <si>
     <t>DateTime</t>
   </si>
   <si>
@@ -1301,15 +1289,6 @@
     <t>ProfilePhotoSource</t>
   </si>
   <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>UNIQUE, CHECK FORMAT</t>
-  </si>
-  <si>
-    <t>SDT</t>
-  </si>
-  <si>
     <t>…</t>
   </si>
   <si>
@@ -1328,9 +1307,6 @@
     <t>Enum</t>
   </si>
   <si>
-    <t>Student, Teacher, SystemAdmin…(hoặc mỗi loại trường thông tin dạng isStudent…)</t>
-  </si>
-  <si>
     <t>UserActiveStatus</t>
   </si>
   <si>
@@ -1695,6 +1671,87 @@
   </si>
   <si>
     <t>Các chức năng cần đăng nhập, hiện tại chưa cần đăng nhập</t>
+  </si>
+  <si>
+    <t>[0, 1, 2] -&gt;[NONE, MALE, FEMALE]</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text </t>
+  </si>
+  <si>
+    <t>Array&lt;String&gt;</t>
+  </si>
+  <si>
+    <t>[nickname1, nickname2, …]</t>
+  </si>
+  <si>
+    <t>birthday</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>coverImageID</t>
+  </si>
+  <si>
+    <t>profileImageID</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>quote</t>
+  </si>
+  <si>
+    <t>nickname</t>
+  </si>
+  <si>
+    <t>skills</t>
+  </si>
+  <si>
+    <t>Array&lt;Skill&gt;</t>
+  </si>
+  <si>
+    <t>Default</t>
+  </si>
+  <si>
+    <t>Array&lt;Work&gt;</t>
+  </si>
+  <si>
+    <t>worked</t>
+  </si>
+  <si>
+    <t>language</t>
+  </si>
+  <si>
+    <t>Array&lt;Language&gt;</t>
+  </si>
+  <si>
+    <t>lifeEvent</t>
+  </si>
+  <si>
+    <t>Array&lt;LifeEvent&gt;</t>
+  </si>
+  <si>
+    <t>classs</t>
+  </si>
+  <si>
+    <t>Array&lt;Class&gt;</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>Array&lt;User&gt;</t>
+  </si>
+  <si>
+    <t>[User, Teacher, System]=[0, 10, 100]</t>
   </si>
 </sst>
 </file>
@@ -1937,15 +1994,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -1996,11 +2044,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2023,12 +2080,12 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2040,7 +2097,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2068,16 +2125,10 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2092,22 +2143,25 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2119,6 +2173,9 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2689,11 +2746,11 @@
       <c r="B35" s="2"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="37" t="s">
+      <c r="A36" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="B36" s="37"/>
-      <c r="C36" s="37"/>
+      <c r="B36" s="38"/>
+      <c r="C36" s="38"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
@@ -3303,7 +3360,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L289"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B244" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="B94" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="E290" sqref="E290"/>
     </sheetView>
   </sheetViews>
@@ -3429,13 +3486,13 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="41" t="s">
+      <c r="A33" s="39" t="s">
         <v>189</v>
       </c>
-      <c r="B33" s="41"/>
-      <c r="C33" s="41"/>
-      <c r="D33" s="41"/>
-      <c r="E33" s="41"/>
+      <c r="B33" s="39"/>
+      <c r="C33" s="39"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="39"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="16" t="s">
@@ -3663,60 +3720,60 @@
     <row r="73" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="74" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A76" s="40" t="s">
+      <c r="A76" s="47" t="s">
         <v>226</v>
       </c>
-      <c r="B76" s="40"/>
-      <c r="C76" s="40"/>
-      <c r="D76" s="40"/>
-      <c r="E76" s="40"/>
-      <c r="F76" s="40"/>
-      <c r="G76" s="40"/>
-      <c r="H76" s="40"/>
-      <c r="I76" s="40"/>
-      <c r="J76" s="40"/>
-      <c r="K76" s="40"/>
-      <c r="L76" s="40"/>
+      <c r="B76" s="47"/>
+      <c r="C76" s="47"/>
+      <c r="D76" s="47"/>
+      <c r="E76" s="47"/>
+      <c r="F76" s="47"/>
+      <c r="G76" s="47"/>
+      <c r="H76" s="47"/>
+      <c r="I76" s="47"/>
+      <c r="J76" s="47"/>
+      <c r="K76" s="47"/>
+      <c r="L76" s="47"/>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A77" s="38" t="s">
+      <c r="A77" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="B77" s="38" t="s">
+      <c r="B77" s="43" t="s">
         <v>227</v>
       </c>
       <c r="C77" s="45" t="s">
         <v>228</v>
       </c>
-      <c r="D77" s="38" t="s">
+      <c r="D77" s="43" t="s">
         <v>229</v>
       </c>
-      <c r="E77" s="38" t="s">
+      <c r="E77" s="43" t="s">
         <v>230</v>
       </c>
-      <c r="F77" s="38" t="s">
+      <c r="F77" s="43" t="s">
         <v>231</v>
       </c>
-      <c r="G77" s="42" t="s">
+      <c r="G77" s="40" t="s">
         <v>232</v>
       </c>
-      <c r="H77" s="43"/>
-      <c r="I77" s="43"/>
-      <c r="J77" s="44"/>
-      <c r="K77" s="38" t="s">
+      <c r="H77" s="41"/>
+      <c r="I77" s="41"/>
+      <c r="J77" s="42"/>
+      <c r="K77" s="43" t="s">
         <v>233</v>
       </c>
-      <c r="L77" s="38" t="s">
+      <c r="L77" s="43" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A78" s="39"/>
-      <c r="B78" s="39"/>
+      <c r="A78" s="44"/>
+      <c r="B78" s="44"/>
       <c r="C78" s="46"/>
-      <c r="D78" s="39"/>
-      <c r="E78" s="39"/>
-      <c r="F78" s="39"/>
+      <c r="D78" s="44"/>
+      <c r="E78" s="44"/>
+      <c r="F78" s="44"/>
       <c r="G78" s="23" t="s">
         <v>234</v>
       </c>
@@ -3729,8 +3786,8 @@
       <c r="J78" s="23" t="s">
         <v>237</v>
       </c>
-      <c r="K78" s="39"/>
-      <c r="L78" s="39"/>
+      <c r="K78" s="44"/>
+      <c r="L78" s="44"/>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F79" s="14" t="s">
@@ -5133,15 +5190,15 @@
         <v>123</v>
       </c>
       <c r="B262" s="24" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="L262" s="4" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
     </row>
     <row r="263" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C263" s="14" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="D263" s="14" t="s">
         <v>243</v>
@@ -5150,10 +5207,10 @@
         <v>248</v>
       </c>
       <c r="F263" s="14" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="L263" s="4" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
     </row>
     <row r="264" spans="1:12" x14ac:dyDescent="0.25">
@@ -5168,7 +5225,7 @@
     </row>
     <row r="271" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C271" s="14" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="D271" s="14" t="s">
         <v>243</v>
@@ -5177,15 +5234,15 @@
         <v>248</v>
       </c>
       <c r="F271" s="4" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="L271" s="14" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
     </row>
     <row r="276" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C276" s="14" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="D276" s="14" t="s">
         <v>303</v>
@@ -5194,12 +5251,12 @@
         <v>248</v>
       </c>
       <c r="F276" s="4" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
     </row>
     <row r="280" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C280" s="14" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="D280" s="14" t="s">
         <v>308</v>
@@ -5208,12 +5265,12 @@
         <v>248</v>
       </c>
       <c r="F280" s="4" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
     </row>
     <row r="284" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C284" s="14" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="D284" s="14" t="s">
         <v>303</v>
@@ -5222,12 +5279,12 @@
         <v>248</v>
       </c>
       <c r="F284" s="14" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
     </row>
     <row r="289" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C289" s="4" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="D289" s="4" t="s">
         <v>303</v>
@@ -5236,25 +5293,25 @@
         <v>248</v>
       </c>
       <c r="F289" s="4" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="L289" s="4" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="K77:K78"/>
+    <mergeCell ref="L77:L78"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="A76:L76"/>
+    <mergeCell ref="E77:E78"/>
     <mergeCell ref="A33:E33"/>
     <mergeCell ref="G77:J77"/>
     <mergeCell ref="B77:B78"/>
     <mergeCell ref="C77:C78"/>
     <mergeCell ref="D77:D78"/>
     <mergeCell ref="F77:F78"/>
-    <mergeCell ref="K77:K78"/>
-    <mergeCell ref="L77:L78"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="A76:L76"/>
-    <mergeCell ref="E77:E78"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="37" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -5263,10 +5320,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N209"/>
+  <dimension ref="A1:N222"/>
   <sheetViews>
-    <sheetView topLeftCell="A117" workbookViewId="0">
-      <selection activeCell="F130" sqref="F130"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="F58" sqref="F58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5299,11 +5356,11 @@
       <c r="N1" s="49"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="50" t="s">
         <v>376</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="28">
@@ -5369,15 +5426,15 @@
         <v>387</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C17" s="29" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C18" s="29"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="28">
         <v>4</v>
       </c>
@@ -5388,19 +5445,19 @@
         <v>390</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C20" s="27" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="48" t="s">
         <v>392</v>
       </c>
       <c r="B22" s="48"/>
       <c r="C22" s="48"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B23" s="27" t="s">
         <v>393</v>
       </c>
@@ -5408,7 +5465,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B24" s="27" t="s">
         <v>395</v>
       </c>
@@ -5416,7 +5473,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="49" t="s">
         <v>397</v>
       </c>
@@ -5425,24 +5482,26 @@
       <c r="D27" s="49"/>
       <c r="E27" s="49"/>
       <c r="F27" s="49"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="52" t="s">
+      <c r="G27" s="49"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="B29" s="52" t="s">
+      <c r="B29" s="51" t="s">
         <v>398</v>
       </c>
-      <c r="C29" s="50" t="s">
+      <c r="C29" s="53" t="s">
         <v>220</v>
       </c>
-      <c r="D29" s="50"/>
-      <c r="E29" s="50"/>
-      <c r="F29" s="50"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="52"/>
-      <c r="B30" s="52"/>
+      <c r="D29" s="54"/>
+      <c r="E29" s="54"/>
+      <c r="F29" s="54"/>
+      <c r="G29" s="54"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="51"/>
+      <c r="B30" s="51"/>
       <c r="C30" s="30" t="s">
         <v>234</v>
       </c>
@@ -5455,18 +5514,22 @@
       <c r="F30" s="30" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="47" t="s">
+      <c r="G30" s="37" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="55" t="s">
         <v>401</v>
       </c>
-      <c r="B31" s="47"/>
-      <c r="C31" s="47"/>
-      <c r="D31" s="47"/>
-      <c r="E31" s="47"/>
-      <c r="F31" s="47"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B31" s="55"/>
+      <c r="C31" s="55"/>
+      <c r="D31" s="55"/>
+      <c r="E31" s="55"/>
+      <c r="F31" s="55"/>
+      <c r="G31" s="55"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="31">
         <v>1</v>
       </c>
@@ -5477,14 +5540,14 @@
         <v>403</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C33" s="33" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C34" s="27" t="s">
-        <v>405</v>
+    <row r="34" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C34" s="4" t="s">
+        <v>246</v>
       </c>
       <c r="D34" s="27" t="s">
         <v>406</v>
@@ -5496,9 +5559,9 @@
         <v>408</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C35" s="27" t="s">
-        <v>409</v>
+    <row r="35" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C35" s="4" t="s">
+        <v>250</v>
       </c>
       <c r="D35" s="27" t="s">
         <v>406</v>
@@ -5507,314 +5570,290 @@
         <v>407</v>
       </c>
       <c r="F35" s="27" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C36" s="27" t="s">
-        <v>411</v>
+        <v>409</v>
+      </c>
+    </row>
+    <row r="36" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C36" s="4" t="s">
+        <v>252</v>
       </c>
       <c r="D36" s="27" t="s">
         <v>406</v>
       </c>
-      <c r="E36" s="27" t="s">
+      <c r="E36" s="4" t="s">
         <v>407</v>
       </c>
       <c r="F36" s="27" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C37" s="27" t="s">
-        <v>412</v>
+        <v>409</v>
+      </c>
+    </row>
+    <row r="37" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C37" s="4" t="s">
+        <v>255</v>
       </c>
       <c r="D37" s="27" t="s">
         <v>406</v>
       </c>
-      <c r="E37" s="27" t="s">
+      <c r="E37" s="4" t="s">
         <v>407</v>
       </c>
       <c r="F37" s="27" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C38" s="27" t="s">
-        <v>413</v>
-      </c>
-      <c r="D38" s="27" t="s">
-        <v>414</v>
+        <v>409</v>
+      </c>
+    </row>
+    <row r="38" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C38" s="4" t="s">
+        <v>548</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>549</v>
       </c>
       <c r="E38" s="27" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C39" s="27" t="s">
-        <v>416</v>
+        <v>411</v>
+      </c>
+    </row>
+    <row r="39" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C39" s="4" t="s">
+        <v>550</v>
       </c>
       <c r="D39" s="27" t="s">
         <v>406</v>
       </c>
       <c r="E39" s="27" t="s">
-        <v>415</v>
-      </c>
-      <c r="F39" s="27" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C40" s="27" t="s">
-        <v>418</v>
+        <v>411</v>
+      </c>
+    </row>
+    <row r="40" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C40" s="4" t="s">
+        <v>551</v>
       </c>
       <c r="D40" s="27" t="s">
         <v>406</v>
       </c>
       <c r="E40" s="27" t="s">
-        <v>415</v>
-      </c>
-      <c r="F40" s="27" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C41" s="27" t="s">
-        <v>419</v>
+        <v>411</v>
+      </c>
+    </row>
+    <row r="41" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C41" s="4" t="s">
+        <v>256</v>
       </c>
       <c r="D41" s="27" t="s">
         <v>406</v>
       </c>
-      <c r="E41" s="27" t="s">
-        <v>407</v>
-      </c>
-      <c r="F41" s="27" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C42" s="27" t="s">
-        <v>421</v>
+      <c r="E41" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="42" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C42" s="4" t="s">
+        <v>552</v>
       </c>
       <c r="D42" s="27" t="s">
         <v>406</v>
       </c>
       <c r="E42" s="27" t="s">
+        <v>411</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="43" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C43" s="4" t="s">
+        <v>553</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="44" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C44" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>544</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="45" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C45" s="4" t="s">
+        <v>554</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>545</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="46" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C46" s="4" t="s">
+        <v>555</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>546</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="47" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C47" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="48" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C48" s="4" t="s">
+        <v>560</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>559</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C49" s="4" t="s">
+        <v>561</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>562</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C50" s="4" t="s">
+        <v>563</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>564</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C51" s="4" t="s">
+        <v>565</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>566</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C52" s="4" t="s">
+        <v>567</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>568</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C56" s="27" t="s">
         <v>415</v>
       </c>
-      <c r="F42" s="27" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C43" s="27" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C44" s="33" t="s">
-        <v>423</v>
-      </c>
-      <c r="D44" s="27" t="s">
-        <v>424</v>
-      </c>
-      <c r="E44" s="27" t="s">
-        <v>407</v>
-      </c>
-      <c r="F44" s="27" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C45" s="27" t="s">
-        <v>426</v>
-      </c>
-      <c r="D45" s="27" t="s">
-        <v>427</v>
-      </c>
-      <c r="E45" s="27" t="s">
-        <v>407</v>
-      </c>
-      <c r="F45" s="27" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C46" s="27" t="s">
-        <v>429</v>
-      </c>
-      <c r="D46" s="27" t="s">
-        <v>427</v>
-      </c>
-      <c r="E46" s="27" t="s">
-        <v>407</v>
-      </c>
-      <c r="F46" s="27" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="28">
-        <v>2</v>
-      </c>
-      <c r="B48" s="34" t="s">
-        <v>431</v>
-      </c>
-      <c r="F48" s="27" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C49" s="33" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C50" s="27" t="s">
-        <v>405</v>
-      </c>
-      <c r="D50" s="27" t="s">
-        <v>406</v>
-      </c>
-      <c r="E50" s="27" t="s">
-        <v>407</v>
-      </c>
-      <c r="F50" s="27" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C51" s="27" t="s">
-        <v>234</v>
-      </c>
-      <c r="D51" s="27" t="s">
-        <v>406</v>
-      </c>
-      <c r="E51" s="27" t="s">
-        <v>407</v>
-      </c>
-      <c r="F51" s="27" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C52" s="27" t="s">
-        <v>433</v>
-      </c>
-      <c r="D52" s="27" t="s">
-        <v>406</v>
-      </c>
-      <c r="E52" s="27" t="s">
-        <v>415</v>
-      </c>
-      <c r="F52" s="27" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C53" s="27" t="s">
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C57" s="33" t="s">
         <v>416</v>
       </c>
-      <c r="D53" s="27" t="s">
-        <v>406</v>
-      </c>
-      <c r="E53" s="27" t="s">
-        <v>415</v>
-      </c>
-      <c r="F53" s="27" t="s">
+      <c r="D57" s="27" t="s">
         <v>417</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C54" s="27" t="s">
-        <v>418</v>
-      </c>
-      <c r="D54" s="27" t="s">
-        <v>406</v>
-      </c>
-      <c r="E54" s="27" t="s">
-        <v>415</v>
-      </c>
-      <c r="F54" s="27" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C55" s="27" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C56" s="33" t="s">
-        <v>423</v>
-      </c>
-      <c r="D56" s="27" t="s">
-        <v>424</v>
-      </c>
-      <c r="E56" s="27" t="s">
-        <v>407</v>
-      </c>
-      <c r="F56" s="27" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C57" s="27" t="s">
-        <v>435</v>
-      </c>
-      <c r="D57" s="27" t="s">
-        <v>427</v>
       </c>
       <c r="E57" s="27" t="s">
         <v>407</v>
       </c>
       <c r="F57" s="27" t="s">
-        <v>436</v>
+        <v>418</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" s="27" t="s">
-        <v>437</v>
+        <v>419</v>
       </c>
       <c r="D58" s="27" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="E58" s="27" t="s">
         <v>407</v>
       </c>
-      <c r="F58" s="27" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="28">
-        <v>3</v>
-      </c>
-      <c r="B60" s="34" t="s">
-        <v>243</v>
+      <c r="F58" s="4" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C59" s="27" t="s">
+        <v>421</v>
+      </c>
+      <c r="D59" s="27" t="s">
+        <v>420</v>
+      </c>
+      <c r="E59" s="27" t="s">
+        <v>407</v>
+      </c>
+      <c r="F59" s="27" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C61" s="33" t="s">
+      <c r="A61" s="28">
+        <v>2</v>
+      </c>
+      <c r="B61" s="34" t="s">
+        <v>423</v>
+      </c>
+      <c r="F61" s="27" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C62" s="33" t="s">
         <v>404</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C62" s="27" t="s">
-        <v>405</v>
-      </c>
-      <c r="D62" s="27" t="s">
-        <v>406</v>
-      </c>
-      <c r="E62" s="27" t="s">
-        <v>407</v>
-      </c>
-      <c r="F62" s="27" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" s="27" t="s">
-        <v>439</v>
+        <v>405</v>
       </c>
       <c r="D63" s="27" t="s">
         <v>406</v>
@@ -5823,128 +5862,128 @@
         <v>407</v>
       </c>
       <c r="F63" s="27" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" s="27" t="s">
-        <v>440</v>
+        <v>234</v>
       </c>
       <c r="D64" s="27" t="s">
-        <v>441</v>
+        <v>406</v>
       </c>
       <c r="E64" s="27" t="s">
         <v>407</v>
       </c>
       <c r="F64" s="27" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" s="27" t="s">
-        <v>442</v>
+        <v>425</v>
       </c>
       <c r="D65" s="27" t="s">
         <v>406</v>
       </c>
       <c r="E65" s="27" t="s">
-        <v>415</v>
+        <v>411</v>
+      </c>
+      <c r="F65" s="27" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" s="27" t="s">
-        <v>443</v>
+        <v>412</v>
       </c>
       <c r="D66" s="27" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="E66" s="27" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="F66" s="27" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" s="27" t="s">
-        <v>444</v>
+        <v>414</v>
       </c>
       <c r="D67" s="27" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="E67" s="27" t="s">
-        <v>407</v>
+        <v>411</v>
+      </c>
+      <c r="F67" s="27" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" s="27" t="s">
-        <v>445</v>
-      </c>
-      <c r="D68" s="27" t="s">
-        <v>446</v>
-      </c>
-      <c r="E68" s="27" t="s">
-        <v>407</v>
-      </c>
-      <c r="F68" s="27" t="s">
-        <v>447</v>
+        <v>415</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" s="33" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="D69" s="27" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="E69" s="27" t="s">
         <v>407</v>
       </c>
+      <c r="F69" s="27" t="s">
+        <v>426</v>
+      </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" s="27" t="s">
-        <v>448</v>
+        <v>427</v>
       </c>
       <c r="D70" s="27" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="E70" s="27" t="s">
         <v>407</v>
       </c>
       <c r="F70" s="27" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="28">
-        <v>4</v>
-      </c>
-      <c r="B72" s="34" t="s">
-        <v>450</v>
+        <v>428</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C71" s="27" t="s">
+        <v>429</v>
+      </c>
+      <c r="D71" s="27" t="s">
+        <v>420</v>
+      </c>
+      <c r="E71" s="27" t="s">
+        <v>407</v>
+      </c>
+      <c r="F71" s="27" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C73" s="33" t="s">
+      <c r="A73" s="28">
+        <v>3</v>
+      </c>
+      <c r="B73" s="34" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C74" s="33" t="s">
         <v>404</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C74" s="27" t="s">
-        <v>405</v>
-      </c>
-      <c r="D74" s="27" t="s">
-        <v>406</v>
-      </c>
-      <c r="E74" s="27" t="s">
-        <v>407</v>
-      </c>
-      <c r="F74" s="27" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" s="27" t="s">
-        <v>440</v>
+        <v>405</v>
       </c>
       <c r="D75" s="27" t="s">
         <v>406</v>
@@ -5953,270 +5992,364 @@
         <v>407</v>
       </c>
       <c r="F75" s="27" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" s="27" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="D76" s="27" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="E76" s="27" t="s">
         <v>407</v>
       </c>
       <c r="F76" s="27" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" s="27" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
       <c r="D77" s="27" t="s">
-        <v>414</v>
+        <v>433</v>
       </c>
       <c r="E77" s="27" t="s">
         <v>407</v>
       </c>
+      <c r="F77" s="27" t="s">
+        <v>409</v>
+      </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C78" s="27" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
       <c r="D78" s="27" t="s">
-        <v>446</v>
+        <v>406</v>
       </c>
       <c r="E78" s="27" t="s">
-        <v>407</v>
-      </c>
-      <c r="F78" s="27" t="s">
-        <v>451</v>
+        <v>411</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C79" s="33" t="s">
-        <v>423</v>
+      <c r="C79" s="27" t="s">
+        <v>435</v>
       </c>
       <c r="D79" s="27" t="s">
-        <v>424</v>
+        <v>410</v>
       </c>
       <c r="E79" s="27" t="s">
         <v>407</v>
       </c>
+      <c r="F79" s="27" t="s">
+        <v>413</v>
+      </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" s="27" t="s">
-        <v>452</v>
+        <v>436</v>
       </c>
       <c r="D80" s="27" t="s">
-        <v>427</v>
+        <v>410</v>
       </c>
       <c r="E80" s="27" t="s">
         <v>407</v>
       </c>
-      <c r="F80" s="27" t="s">
-        <v>449</v>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C81" s="27" t="s">
+        <v>437</v>
+      </c>
+      <c r="D81" s="27" t="s">
+        <v>438</v>
+      </c>
+      <c r="E81" s="27" t="s">
+        <v>407</v>
+      </c>
+      <c r="F81" s="27" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C82" s="33" t="s">
+        <v>416</v>
+      </c>
+      <c r="D82" s="27" t="s">
+        <v>417</v>
+      </c>
+      <c r="E82" s="27" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="28">
-        <v>5</v>
-      </c>
-      <c r="B83" s="34" t="s">
-        <v>453</v>
-      </c>
-      <c r="F83" s="35" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C84" s="33" t="s">
+      <c r="C83" s="27" t="s">
+        <v>440</v>
+      </c>
+      <c r="D83" s="27" t="s">
+        <v>420</v>
+      </c>
+      <c r="E83" s="27" t="s">
+        <v>407</v>
+      </c>
+      <c r="F83" s="27" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="28">
+        <v>4</v>
+      </c>
+      <c r="B85" s="34" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C86" s="33" t="s">
         <v>404</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C85" s="27" t="s">
-        <v>405</v>
-      </c>
-      <c r="D85" s="27" t="s">
-        <v>406</v>
-      </c>
-      <c r="E85" s="27" t="s">
-        <v>407</v>
-      </c>
-      <c r="F85" s="27" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C86" s="27" t="s">
-        <v>234</v>
-      </c>
-      <c r="D86" s="27" t="s">
-        <v>406</v>
-      </c>
-      <c r="E86" s="27" t="s">
-        <v>407</v>
-      </c>
-      <c r="F86" s="27" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C87" s="27" t="s">
-        <v>433</v>
+        <v>405</v>
       </c>
       <c r="D87" s="27" t="s">
         <v>406</v>
       </c>
       <c r="E87" s="27" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="F87" s="27" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C88" s="27" t="s">
+        <v>432</v>
+      </c>
+      <c r="D88" s="27" t="s">
+        <v>406</v>
+      </c>
+      <c r="E88" s="27" t="s">
+        <v>407</v>
+      </c>
+      <c r="F88" s="27" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C89" s="27" t="s">
+        <v>435</v>
+      </c>
+      <c r="D89" s="27" t="s">
         <v>410</v>
       </c>
+      <c r="E89" s="27" t="s">
+        <v>407</v>
+      </c>
+      <c r="F89" s="27" t="s">
+        <v>413</v>
+      </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C90" s="33" t="s">
-        <v>455</v>
-      </c>
-      <c r="F90" s="27" t="s">
-        <v>456</v>
+      <c r="C90" s="27" t="s">
+        <v>436</v>
+      </c>
+      <c r="D90" s="27" t="s">
+        <v>410</v>
+      </c>
+      <c r="E90" s="27" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C91" s="27" t="s">
-        <v>457</v>
+        <v>437</v>
       </c>
       <c r="D91" s="27" t="s">
-        <v>414</v>
+        <v>438</v>
       </c>
       <c r="E91" s="27" t="s">
         <v>407</v>
       </c>
       <c r="F91" s="27" t="s">
-        <v>458</v>
+        <v>443</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C92" s="27" t="s">
-        <v>459</v>
+      <c r="C92" s="33" t="s">
+        <v>416</v>
       </c>
       <c r="D92" s="27" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="E92" s="27" t="s">
         <v>407</v>
       </c>
-      <c r="F92" s="27" t="s">
-        <v>460</v>
-      </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C93" s="27" t="s">
-        <v>461</v>
+        <v>444</v>
       </c>
       <c r="D93" s="27" t="s">
+        <v>420</v>
+      </c>
+      <c r="E93" s="27" t="s">
+        <v>407</v>
+      </c>
+      <c r="F93" s="27" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="28">
+        <v>5</v>
+      </c>
+      <c r="B96" s="34" t="s">
+        <v>445</v>
+      </c>
+      <c r="F96" s="35" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="97" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C97" s="33" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="98" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C98" s="27" t="s">
+        <v>405</v>
+      </c>
+      <c r="D98" s="27" t="s">
         <v>406</v>
       </c>
-      <c r="E93" s="27" t="s">
-        <v>415</v>
-      </c>
-      <c r="F93" s="27" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C94" s="27" t="s">
-        <v>463</v>
-      </c>
-      <c r="D94" s="27" t="s">
+      <c r="E98" s="27" t="s">
+        <v>407</v>
+      </c>
+      <c r="F98" s="27" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="99" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C99" s="27" t="s">
+        <v>234</v>
+      </c>
+      <c r="D99" s="27" t="s">
         <v>406</v>
       </c>
-      <c r="E94" s="27" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C96" s="33" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C97" s="27" t="s">
-        <v>464</v>
-      </c>
-      <c r="D97" s="27" t="s">
-        <v>427</v>
-      </c>
-      <c r="E97" s="27" t="s">
+      <c r="E99" s="27" t="s">
         <v>407</v>
       </c>
-      <c r="F97" s="27" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101" s="28">
-        <v>6</v>
-      </c>
-      <c r="B101" s="34" t="s">
-        <v>466</v>
-      </c>
-      <c r="F101" s="35" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C102" s="33" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C103" s="27" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F99" s="27" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="100" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C100" s="27" t="s">
+        <v>425</v>
+      </c>
+      <c r="D100" s="27" t="s">
+        <v>406</v>
+      </c>
+      <c r="E100" s="27" t="s">
+        <v>411</v>
+      </c>
+      <c r="F100" s="27" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="103" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C103" s="33" t="s">
+        <v>447</v>
+      </c>
+      <c r="F103" s="27" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="104" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C104" s="27" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C106" s="33" t="s">
+        <v>449</v>
+      </c>
+      <c r="D104" s="27" t="s">
+        <v>410</v>
+      </c>
+      <c r="E104" s="27" t="s">
+        <v>407</v>
+      </c>
+      <c r="F104" s="27" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="105" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C105" s="27" t="s">
+        <v>451</v>
+      </c>
+      <c r="D105" s="27" t="s">
+        <v>410</v>
+      </c>
+      <c r="E105" s="27" t="s">
+        <v>407</v>
+      </c>
+      <c r="F105" s="27" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="106" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C106" s="27" t="s">
+        <v>453</v>
+      </c>
+      <c r="D106" s="27" t="s">
+        <v>406</v>
+      </c>
+      <c r="E106" s="27" t="s">
+        <v>411</v>
+      </c>
+      <c r="F106" s="27" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="107" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C107" s="27" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C111" s="33" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C112" s="27" t="s">
-        <v>469</v>
-      </c>
-      <c r="D112" s="27" t="s">
-        <v>427</v>
-      </c>
-      <c r="E112" s="27" t="s">
+      <c r="D107" s="27" t="s">
+        <v>406</v>
+      </c>
+      <c r="E107" s="27" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="109" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C109" s="33" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="110" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C110" s="27" t="s">
+        <v>456</v>
+      </c>
+      <c r="D110" s="27" t="s">
+        <v>420</v>
+      </c>
+      <c r="E110" s="27" t="s">
         <v>407</v>
       </c>
-      <c r="F112" s="27" t="s">
-        <v>470</v>
+      <c r="F110" s="27" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="28">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B114" s="34" t="s">
-        <v>471</v>
-      </c>
-      <c r="F114" s="27" t="s">
-        <v>472</v>
+        <v>458</v>
+      </c>
+      <c r="F114" s="35" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
@@ -6231,564 +6364,612 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C117" s="27" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C118" s="27" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C120" s="33" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C121" s="27" t="s">
-        <v>473</v>
-      </c>
-      <c r="D121" s="27" t="s">
-        <v>427</v>
-      </c>
-      <c r="E121" s="27" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C119" s="33" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C124" s="33" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C125" s="27" t="s">
+        <v>461</v>
+      </c>
+      <c r="D125" s="27" t="s">
+        <v>420</v>
+      </c>
+      <c r="E125" s="27" t="s">
         <v>407</v>
       </c>
-      <c r="F121" s="27" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A125" s="28">
-        <v>8</v>
-      </c>
-      <c r="B125" s="34" t="s">
-        <v>475</v>
-      </c>
       <c r="F125" s="27" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C126" s="33" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127" s="28">
+        <v>7</v>
+      </c>
+      <c r="B127" s="34" t="s">
+        <v>463</v>
+      </c>
+      <c r="F127" s="27" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C128" s="33" t="s">
         <v>404</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C127" s="27" t="s">
-        <v>405</v>
-      </c>
-      <c r="D127" s="27" t="s">
-        <v>406</v>
-      </c>
-      <c r="E127" s="27" t="s">
-        <v>407</v>
-      </c>
-      <c r="F127" s="27" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C128" s="27" t="s">
-        <v>234</v>
-      </c>
-      <c r="D128" s="27" t="s">
-        <v>406</v>
-      </c>
-      <c r="E128" s="27" t="s">
-        <v>407</v>
-      </c>
-      <c r="F128" s="27" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C129" s="27" t="s">
-        <v>478</v>
-      </c>
-      <c r="D129" s="27" t="s">
-        <v>446</v>
-      </c>
-      <c r="E129" s="27" t="s">
-        <v>407</v>
-      </c>
-      <c r="F129" s="27" t="s">
-        <v>538</v>
+        <v>405</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C130" s="27" t="s">
-        <v>235</v>
-      </c>
-      <c r="D130" s="27" t="s">
-        <v>406</v>
-      </c>
-      <c r="E130" s="27" t="s">
-        <v>407</v>
-      </c>
-      <c r="F130" s="27" t="s">
-        <v>479</v>
+        <v>460</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C131" s="27" t="s">
-        <v>480</v>
-      </c>
-      <c r="D131" s="27" t="s">
-        <v>414</v>
-      </c>
-      <c r="E131" s="27" t="s">
-        <v>407</v>
-      </c>
-      <c r="F131" s="27" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C132" s="27" t="s">
-        <v>442</v>
-      </c>
-      <c r="D132" s="27" t="s">
-        <v>406</v>
-      </c>
-      <c r="E132" s="27" t="s">
-        <v>415</v>
-      </c>
-      <c r="F132" s="27" t="s">
-        <v>482</v>
+        <v>432</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C133" s="27" t="s">
-        <v>481</v>
-      </c>
-      <c r="D133" s="27" t="s">
-        <v>446</v>
-      </c>
-      <c r="E133" s="27" t="s">
-        <v>415</v>
-      </c>
-      <c r="F133" s="27" t="s">
-        <v>482</v>
+      <c r="C133" s="33" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C134" s="27" t="s">
-        <v>532</v>
+        <v>465</v>
       </c>
       <c r="D134" s="27" t="s">
+        <v>420</v>
+      </c>
+      <c r="E134" s="27" t="s">
+        <v>407</v>
+      </c>
+      <c r="F134" s="27" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138" s="28">
+        <v>8</v>
+      </c>
+      <c r="B138" s="34" t="s">
+        <v>467</v>
+      </c>
+      <c r="F138" s="27" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C139" s="33" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C140" s="27" t="s">
+        <v>405</v>
+      </c>
+      <c r="D140" s="27" t="s">
         <v>406</v>
       </c>
-      <c r="E134" s="27" t="s">
-        <v>415</v>
-      </c>
-      <c r="F134" s="27" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C135" s="27" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C136" s="33" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C137" s="27" t="s">
-        <v>533</v>
-      </c>
-      <c r="D137" s="27" t="s">
-        <v>534</v>
-      </c>
-      <c r="E137" s="27" t="s">
+      <c r="E140" s="27" t="s">
         <v>407</v>
       </c>
-      <c r="F137" s="27" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C138" s="36" t="s">
-        <v>483</v>
-      </c>
-      <c r="D138" s="27" t="s">
-        <v>427</v>
-      </c>
-      <c r="F138" s="27" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A140" s="28">
-        <v>9</v>
-      </c>
-      <c r="B140" s="34" t="s">
-        <v>485</v>
+      <c r="F140" s="27" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C141" s="33" t="s">
-        <v>404</v>
+      <c r="C141" s="27" t="s">
+        <v>234</v>
+      </c>
+      <c r="D141" s="27" t="s">
+        <v>406</v>
+      </c>
+      <c r="E141" s="27" t="s">
+        <v>407</v>
+      </c>
+      <c r="F141" s="27" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C142" s="27" t="s">
-        <v>405</v>
+        <v>470</v>
+      </c>
+      <c r="D142" s="27" t="s">
+        <v>438</v>
+      </c>
+      <c r="E142" s="27" t="s">
+        <v>407</v>
+      </c>
+      <c r="F142" s="27" t="s">
+        <v>530</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C143" s="27" t="s">
-        <v>234</v>
+        <v>235</v>
+      </c>
+      <c r="D143" s="27" t="s">
+        <v>406</v>
+      </c>
+      <c r="E143" s="27" t="s">
+        <v>407</v>
+      </c>
+      <c r="F143" s="27" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C144" s="27" t="s">
-        <v>480</v>
+        <v>472</v>
+      </c>
+      <c r="D144" s="27" t="s">
+        <v>410</v>
+      </c>
+      <c r="E144" s="27" t="s">
+        <v>407</v>
+      </c>
+      <c r="F144" s="27" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C145" s="27" t="s">
-        <v>442</v>
+        <v>434</v>
+      </c>
+      <c r="D145" s="27" t="s">
+        <v>406</v>
+      </c>
+      <c r="E145" s="27" t="s">
+        <v>411</v>
+      </c>
+      <c r="F145" s="27" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C146" s="27" t="s">
-        <v>422</v>
+        <v>473</v>
+      </c>
+      <c r="D146" s="27" t="s">
+        <v>438</v>
+      </c>
+      <c r="E146" s="27" t="s">
+        <v>411</v>
+      </c>
+      <c r="F146" s="27" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C147" s="33" t="s">
-        <v>423</v>
+      <c r="C147" s="27" t="s">
+        <v>524</v>
+      </c>
+      <c r="D147" s="27" t="s">
+        <v>406</v>
+      </c>
+      <c r="E147" s="27" t="s">
+        <v>411</v>
+      </c>
+      <c r="F147" s="27" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C148" s="27" t="s">
-        <v>486</v>
-      </c>
-      <c r="D148" s="27" t="s">
-        <v>427</v>
-      </c>
-      <c r="F148" s="27" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A152" s="28">
-        <v>10</v>
-      </c>
-      <c r="B152" s="34" t="s">
-        <v>487</v>
-      </c>
-      <c r="F152" s="35" t="s">
-        <v>467</v>
+        <v>415</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C149" s="33" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C150" s="27" t="s">
+        <v>525</v>
+      </c>
+      <c r="D150" s="27" t="s">
+        <v>526</v>
+      </c>
+      <c r="E150" s="27" t="s">
+        <v>407</v>
+      </c>
+      <c r="F150" s="27" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C151" s="36" t="s">
+        <v>475</v>
+      </c>
+      <c r="D151" s="27" t="s">
+        <v>420</v>
+      </c>
+      <c r="F151" s="27" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C153" s="33" t="s">
+      <c r="A153" s="28">
+        <v>9</v>
+      </c>
+      <c r="B153" s="34" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C154" s="33" t="s">
         <v>404</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C154" s="27" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C155" s="27" t="s">
-        <v>489</v>
+        <v>405</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C156" s="27" t="s">
-        <v>490</v>
-      </c>
-      <c r="D156" s="27" t="s">
-        <v>414</v>
+        <v>234</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C157" s="27" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C158" s="27" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C159" s="27" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C160" s="33" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C161" s="27" t="s">
-        <v>491</v>
+        <v>478</v>
       </c>
       <c r="D161" s="27" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="F161" s="27" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A163" s="28">
-        <v>11</v>
-      </c>
-      <c r="B163" s="34" t="s">
-        <v>493</v>
-      </c>
-      <c r="F163" s="35" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C164" s="33" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A165" s="28">
+        <v>10</v>
+      </c>
+      <c r="B165" s="34" t="s">
+        <v>479</v>
+      </c>
+      <c r="F165" s="35" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C166" s="33" t="s">
         <v>404</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C165" s="27" t="s">
-        <v>405</v>
-      </c>
-      <c r="D165" s="27" t="s">
-        <v>406</v>
-      </c>
-      <c r="E165" s="27" t="s">
-        <v>407</v>
-      </c>
-      <c r="F165" s="27" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C166" s="27" t="s">
-        <v>457</v>
-      </c>
-      <c r="D166" s="27" t="s">
-        <v>414</v>
-      </c>
-      <c r="E166" s="27" t="s">
-        <v>407</v>
-      </c>
-      <c r="F166" s="27" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C167" s="27" t="s">
-        <v>459</v>
-      </c>
-      <c r="D167" s="27" t="s">
-        <v>414</v>
-      </c>
-      <c r="E167" s="27" t="s">
-        <v>407</v>
-      </c>
-      <c r="F167" s="27" t="s">
-        <v>497</v>
+        <v>480</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C168" s="27" t="s">
-        <v>433</v>
-      </c>
-      <c r="D168" s="27" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C169" s="27" t="s">
+        <v>482</v>
+      </c>
+      <c r="D169" s="27" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C173" s="33" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C174" s="27" t="s">
+        <v>483</v>
+      </c>
+      <c r="D174" s="27" t="s">
+        <v>420</v>
+      </c>
+      <c r="F174" s="27" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A176" s="28">
+        <v>11</v>
+      </c>
+      <c r="B176" s="34" t="s">
+        <v>485</v>
+      </c>
+      <c r="F176" s="35" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="177" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C177" s="33" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="178" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C178" s="27" t="s">
+        <v>405</v>
+      </c>
+      <c r="D178" s="27" t="s">
         <v>406</v>
       </c>
-      <c r="E168" s="27" t="s">
-        <v>415</v>
-      </c>
-      <c r="F168" s="27" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C170" s="33" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C171" s="27" t="s">
-        <v>499</v>
-      </c>
-      <c r="D171" s="27" t="s">
-        <v>427</v>
-      </c>
-      <c r="E171" s="27" t="s">
+      <c r="E178" s="27" t="s">
         <v>407</v>
       </c>
-      <c r="F171" s="27" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C172" s="27" t="s">
-        <v>501</v>
-      </c>
-      <c r="D172" s="27" t="s">
-        <v>427</v>
-      </c>
-      <c r="E172" s="27" t="s">
+      <c r="F178" s="27" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="179" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C179" s="27" t="s">
+        <v>449</v>
+      </c>
+      <c r="D179" s="27" t="s">
+        <v>410</v>
+      </c>
+      <c r="E179" s="27" t="s">
         <v>407</v>
       </c>
-      <c r="F172" s="27" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A180" s="48" t="s">
-        <v>503</v>
-      </c>
-      <c r="B180" s="48"/>
-      <c r="C180" s="48"/>
-      <c r="D180" s="48"/>
-      <c r="E180" s="48"/>
-      <c r="F180" s="48"/>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A182" s="28">
+      <c r="F179" s="27" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="180" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C180" s="27" t="s">
+        <v>451</v>
+      </c>
+      <c r="D180" s="27" t="s">
+        <v>410</v>
+      </c>
+      <c r="E180" s="27" t="s">
+        <v>407</v>
+      </c>
+      <c r="F180" s="27" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="181" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C181" s="27" t="s">
+        <v>425</v>
+      </c>
+      <c r="D181" s="27" t="s">
+        <v>406</v>
+      </c>
+      <c r="E181" s="27" t="s">
+        <v>411</v>
+      </c>
+      <c r="F181" s="27" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="183" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C183" s="33" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="184" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C184" s="27" t="s">
+        <v>491</v>
+      </c>
+      <c r="D184" s="27" t="s">
+        <v>420</v>
+      </c>
+      <c r="E184" s="27" t="s">
+        <v>407</v>
+      </c>
+      <c r="F184" s="27" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="185" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C185" s="27" t="s">
+        <v>493</v>
+      </c>
+      <c r="D185" s="27" t="s">
+        <v>420</v>
+      </c>
+      <c r="E185" s="27" t="s">
+        <v>407</v>
+      </c>
+      <c r="F185" s="27" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A193" s="48" t="s">
+        <v>495</v>
+      </c>
+      <c r="B193" s="48"/>
+      <c r="C193" s="48"/>
+      <c r="D193" s="48"/>
+      <c r="E193" s="48"/>
+      <c r="F193" s="48"/>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A195" s="28">
         <v>11</v>
       </c>
-      <c r="B182" s="34" t="s">
-        <v>504</v>
-      </c>
-      <c r="F182" s="35" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C183" s="33" t="s">
+      <c r="B195" s="34" t="s">
+        <v>496</v>
+      </c>
+      <c r="F195" s="35" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C196" s="33" t="s">
         <v>404</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C184" s="27" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C186" s="27" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C188" s="33" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C189" s="27" t="s">
-        <v>507</v>
-      </c>
-      <c r="D189" s="27" t="s">
-        <v>427</v>
-      </c>
-      <c r="F189" s="27" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A193" s="28">
-        <v>12</v>
-      </c>
-      <c r="B193" s="34" t="s">
-        <v>509</v>
-      </c>
-      <c r="F193" s="35" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C194" s="33" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C195" s="27" t="s">
-        <v>405</v>
-      </c>
-      <c r="D195" s="27" t="s">
-        <v>406</v>
-      </c>
-      <c r="E195" s="27" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C197" s="27" t="s">
-        <v>510</v>
-      </c>
-      <c r="D197" s="27" t="s">
-        <v>414</v>
-      </c>
-      <c r="E197" s="27" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C199" s="27" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C201" s="33" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C202" s="27" t="s">
+        <v>499</v>
+      </c>
+      <c r="D202" s="27" t="s">
+        <v>420</v>
+      </c>
+      <c r="F202" s="27" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A206" s="28">
+        <v>12</v>
+      </c>
+      <c r="B206" s="34" t="s">
+        <v>501</v>
+      </c>
+      <c r="F206" s="35" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C207" s="33" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C208" s="27" t="s">
+        <v>405</v>
+      </c>
+      <c r="D208" s="27" t="s">
+        <v>406</v>
+      </c>
+      <c r="E208" s="27" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C198" s="27" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C199" s="33" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C200" s="27" t="s">
-        <v>507</v>
-      </c>
-      <c r="D200" s="27" t="s">
-        <v>427</v>
-      </c>
-      <c r="F200" s="27" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A202" s="28">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C210" s="27" t="s">
+        <v>502</v>
+      </c>
+      <c r="D210" s="27" t="s">
+        <v>410</v>
+      </c>
+      <c r="E210" s="27" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C211" s="27" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C212" s="33" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C213" s="27" t="s">
+        <v>499</v>
+      </c>
+      <c r="D213" s="27" t="s">
+        <v>420</v>
+      </c>
+      <c r="F213" s="27" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A215" s="28">
         <v>13</v>
       </c>
-      <c r="B202" s="34" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C203" s="33" t="s">
+      <c r="B215" s="34" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C216" s="33" t="s">
         <v>404</v>
       </c>
-      <c r="F203" s="35" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C204" s="27" t="s">
+      <c r="F216" s="35" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C217" s="27" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C208" s="33" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="209" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C209" s="27" t="s">
-        <v>513</v>
-      </c>
-      <c r="D209" s="27" t="s">
-        <v>427</v>
-      </c>
-      <c r="E209" s="27" t="s">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C221" s="33" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C222" s="27" t="s">
+        <v>505</v>
+      </c>
+      <c r="D222" s="27" t="s">
+        <v>420</v>
+      </c>
+      <c r="E222" s="27" t="s">
         <v>407</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="A180:F180"/>
+  <mergeCells count="7">
+    <mergeCell ref="A193:F193"/>
     <mergeCell ref="A1:N1"/>
-    <mergeCell ref="A27:F27"/>
-    <mergeCell ref="C29:F29"/>
     <mergeCell ref="A22:C22"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="A29:A30"/>
     <mergeCell ref="B29:B30"/>
+    <mergeCell ref="A27:G27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -6813,47 +6994,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
-        <v>514</v>
-      </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
+      <c r="A1" s="52" t="s">
+        <v>506</v>
+      </c>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="53" t="s">
-        <v>515</v>
-      </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
+      <c r="A3" s="52" t="s">
+        <v>507</v>
+      </c>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="B5" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
@@ -6861,16 +7042,16 @@
         <v>3</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>5</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="F13" s="9" t="s">
         <v>221</v>
@@ -6907,31 +7088,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
-        <v>523</v>
-      </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
+      <c r="A1" s="52" t="s">
+        <v>515</v>
+      </c>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>221</v>

--- a/service/document/ServiceDescription.xlsx
+++ b/service/document/ServiceDescription.xlsx
@@ -1310,9 +1310,6 @@
     <t>UserActiveStatus</t>
   </si>
   <si>
-    <t>active; wating vertify; deleted</t>
-  </si>
-  <si>
     <t>GROUP(CLASS)</t>
   </si>
   <si>
@@ -1752,6 +1749,9 @@
   </si>
   <si>
     <t>[User, Teacher, System]=[0, 10, 100]</t>
+  </si>
+  <si>
+    <t>NEW, BLOCK, NORMAL, DELETED…</t>
   </si>
 </sst>
 </file>
@@ -5190,15 +5190,15 @@
         <v>123</v>
       </c>
       <c r="B262" s="24" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="L262" s="4" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="263" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C263" s="14" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D263" s="14" t="s">
         <v>243</v>
@@ -5207,10 +5207,10 @@
         <v>248</v>
       </c>
       <c r="F263" s="14" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="L263" s="4" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="264" spans="1:12" x14ac:dyDescent="0.25">
@@ -5225,7 +5225,7 @@
     </row>
     <row r="271" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C271" s="14" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D271" s="14" t="s">
         <v>243</v>
@@ -5234,15 +5234,15 @@
         <v>248</v>
       </c>
       <c r="F271" s="4" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="L271" s="14" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="276" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C276" s="14" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D276" s="14" t="s">
         <v>303</v>
@@ -5251,12 +5251,12 @@
         <v>248</v>
       </c>
       <c r="F276" s="4" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="280" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C280" s="14" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D280" s="14" t="s">
         <v>308</v>
@@ -5265,12 +5265,12 @@
         <v>248</v>
       </c>
       <c r="F280" s="4" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="284" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C284" s="14" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D284" s="14" t="s">
         <v>303</v>
@@ -5279,12 +5279,12 @@
         <v>248</v>
       </c>
       <c r="F284" s="14" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="289" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C289" s="4" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D289" s="4" t="s">
         <v>303</v>
@@ -5293,10 +5293,10 @@
         <v>248</v>
       </c>
       <c r="F289" s="4" t="s">
+        <v>539</v>
+      </c>
+      <c r="L289" s="4" t="s">
         <v>540</v>
-      </c>
-      <c r="L289" s="4" t="s">
-        <v>541</v>
       </c>
     </row>
   </sheetData>
@@ -5322,8 +5322,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N222"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="F58" sqref="F58"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5515,7 +5515,7 @@
         <v>400</v>
       </c>
       <c r="G30" s="37" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -5603,10 +5603,10 @@
     </row>
     <row r="38" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C38" s="4" t="s">
+        <v>547</v>
+      </c>
+      <c r="D38" s="4" t="s">
         <v>548</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>549</v>
       </c>
       <c r="E38" s="27" t="s">
         <v>411</v>
@@ -5614,7 +5614,7 @@
     </row>
     <row r="39" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C39" s="4" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D39" s="27" t="s">
         <v>406</v>
@@ -5625,7 +5625,7 @@
     </row>
     <row r="40" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C40" s="4" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D40" s="27" t="s">
         <v>406</v>
@@ -5645,12 +5645,12 @@
         <v>411</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="42" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C42" s="4" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D42" s="27" t="s">
         <v>406</v>
@@ -5659,12 +5659,12 @@
         <v>411</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="43" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C43" s="4" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>420</v>
@@ -5673,7 +5673,7 @@
         <v>411</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="44" spans="3:6" x14ac:dyDescent="0.25">
@@ -5681,7 +5681,7 @@
         <v>328</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>411</v>
@@ -5689,10 +5689,10 @@
     </row>
     <row r="45" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C45" s="4" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>411</v>
@@ -5700,24 +5700,24 @@
     </row>
     <row r="46" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C46" s="4" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>411</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="47" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C47" s="4" t="s">
+        <v>555</v>
+      </c>
+      <c r="D47" s="4" t="s">
         <v>556</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>557</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>411</v>
@@ -5725,10 +5725,10 @@
     </row>
     <row r="48" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C48" s="4" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E48" s="4" t="s">
         <v>411</v>
@@ -5736,10 +5736,10 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" s="4" t="s">
+        <v>560</v>
+      </c>
+      <c r="D49" s="4" t="s">
         <v>561</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>562</v>
       </c>
       <c r="E49" s="4" t="s">
         <v>411</v>
@@ -5747,10 +5747,10 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" s="4" t="s">
+        <v>562</v>
+      </c>
+      <c r="D50" s="4" t="s">
         <v>563</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>564</v>
       </c>
       <c r="E50" s="4" t="s">
         <v>411</v>
@@ -5758,10 +5758,10 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" s="4" t="s">
+        <v>564</v>
+      </c>
+      <c r="D51" s="4" t="s">
         <v>565</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>566</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>411</v>
@@ -5769,10 +5769,10 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" s="4" t="s">
+        <v>566</v>
+      </c>
+      <c r="D52" s="4" t="s">
         <v>567</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>568</v>
       </c>
       <c r="E52" s="4" t="s">
         <v>411</v>
@@ -5818,7 +5818,7 @@
         <v>407</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -5831,8 +5831,8 @@
       <c r="E59" s="27" t="s">
         <v>407</v>
       </c>
-      <c r="F59" s="27" t="s">
-        <v>422</v>
+      <c r="F59" s="4" t="s">
+        <v>569</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -5840,10 +5840,10 @@
         <v>2</v>
       </c>
       <c r="B61" s="34" t="s">
+        <v>422</v>
+      </c>
+      <c r="F61" s="27" t="s">
         <v>423</v>
-      </c>
-      <c r="F61" s="27" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -5881,7 +5881,7 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" s="27" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D65" s="27" t="s">
         <v>406</v>
@@ -5937,12 +5937,12 @@
         <v>407</v>
       </c>
       <c r="F69" s="27" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" s="27" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D70" s="27" t="s">
         <v>420</v>
@@ -5951,12 +5951,12 @@
         <v>407</v>
       </c>
       <c r="F70" s="27" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" s="27" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D71" s="27" t="s">
         <v>420</v>
@@ -5965,7 +5965,7 @@
         <v>407</v>
       </c>
       <c r="F71" s="27" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -5997,7 +5997,7 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" s="27" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D76" s="27" t="s">
         <v>406</v>
@@ -6011,10 +6011,10 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" s="27" t="s">
+        <v>431</v>
+      </c>
+      <c r="D77" s="27" t="s">
         <v>432</v>
-      </c>
-      <c r="D77" s="27" t="s">
-        <v>433</v>
       </c>
       <c r="E77" s="27" t="s">
         <v>407</v>
@@ -6025,7 +6025,7 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C78" s="27" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D78" s="27" t="s">
         <v>406</v>
@@ -6036,7 +6036,7 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" s="27" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D79" s="27" t="s">
         <v>410</v>
@@ -6050,7 +6050,7 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" s="27" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D80" s="27" t="s">
         <v>410</v>
@@ -6061,16 +6061,16 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C81" s="27" t="s">
+        <v>436</v>
+      </c>
+      <c r="D81" s="27" t="s">
         <v>437</v>
-      </c>
-      <c r="D81" s="27" t="s">
-        <v>438</v>
       </c>
       <c r="E81" s="27" t="s">
         <v>407</v>
       </c>
       <c r="F81" s="27" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -6086,7 +6086,7 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C83" s="27" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D83" s="27" t="s">
         <v>420</v>
@@ -6095,7 +6095,7 @@
         <v>407</v>
       </c>
       <c r="F83" s="27" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -6103,7 +6103,7 @@
         <v>4</v>
       </c>
       <c r="B85" s="34" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -6127,7 +6127,7 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C88" s="27" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D88" s="27" t="s">
         <v>406</v>
@@ -6141,7 +6141,7 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C89" s="27" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D89" s="27" t="s">
         <v>410</v>
@@ -6155,7 +6155,7 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C90" s="27" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D90" s="27" t="s">
         <v>410</v>
@@ -6166,16 +6166,16 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C91" s="27" t="s">
+        <v>436</v>
+      </c>
+      <c r="D91" s="27" t="s">
         <v>437</v>
-      </c>
-      <c r="D91" s="27" t="s">
-        <v>438</v>
       </c>
       <c r="E91" s="27" t="s">
         <v>407</v>
       </c>
       <c r="F91" s="27" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -6191,7 +6191,7 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C93" s="27" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D93" s="27" t="s">
         <v>420</v>
@@ -6200,7 +6200,7 @@
         <v>407</v>
       </c>
       <c r="F93" s="27" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -6208,10 +6208,10 @@
         <v>5</v>
       </c>
       <c r="B96" s="34" t="s">
+        <v>444</v>
+      </c>
+      <c r="F96" s="35" t="s">
         <v>445</v>
-      </c>
-      <c r="F96" s="35" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="97" spans="3:6" x14ac:dyDescent="0.25">
@@ -6249,7 +6249,7 @@
     </row>
     <row r="100" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C100" s="27" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D100" s="27" t="s">
         <v>406</v>
@@ -6263,15 +6263,15 @@
     </row>
     <row r="103" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C103" s="33" t="s">
+        <v>446</v>
+      </c>
+      <c r="F103" s="27" t="s">
         <v>447</v>
-      </c>
-      <c r="F103" s="27" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="104" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C104" s="27" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D104" s="27" t="s">
         <v>410</v>
@@ -6280,12 +6280,12 @@
         <v>407</v>
       </c>
       <c r="F104" s="27" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="105" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C105" s="27" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D105" s="27" t="s">
         <v>410</v>
@@ -6294,12 +6294,12 @@
         <v>407</v>
       </c>
       <c r="F105" s="27" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="106" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C106" s="27" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D106" s="27" t="s">
         <v>406</v>
@@ -6308,12 +6308,12 @@
         <v>411</v>
       </c>
       <c r="F106" s="27" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="107" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C107" s="27" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D107" s="27" t="s">
         <v>406</v>
@@ -6329,7 +6329,7 @@
     </row>
     <row r="110" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C110" s="27" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D110" s="27" t="s">
         <v>420</v>
@@ -6338,7 +6338,7 @@
         <v>407</v>
       </c>
       <c r="F110" s="27" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
@@ -6346,10 +6346,10 @@
         <v>6</v>
       </c>
       <c r="B114" s="34" t="s">
+        <v>457</v>
+      </c>
+      <c r="F114" s="35" t="s">
         <v>458</v>
-      </c>
-      <c r="F114" s="35" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
@@ -6364,12 +6364,12 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C117" s="27" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C119" s="33" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
@@ -6379,7 +6379,7 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C125" s="27" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D125" s="27" t="s">
         <v>420</v>
@@ -6388,7 +6388,7 @@
         <v>407</v>
       </c>
       <c r="F125" s="27" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
@@ -6396,10 +6396,10 @@
         <v>7</v>
       </c>
       <c r="B127" s="34" t="s">
+        <v>462</v>
+      </c>
+      <c r="F127" s="27" t="s">
         <v>463</v>
-      </c>
-      <c r="F127" s="27" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
@@ -6414,12 +6414,12 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C130" s="27" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C131" s="27" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
@@ -6429,7 +6429,7 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C134" s="27" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D134" s="27" t="s">
         <v>420</v>
@@ -6438,7 +6438,7 @@
         <v>407</v>
       </c>
       <c r="F134" s="27" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
@@ -6446,10 +6446,10 @@
         <v>8</v>
       </c>
       <c r="B138" s="34" t="s">
+        <v>466</v>
+      </c>
+      <c r="F138" s="27" t="s">
         <v>467</v>
-      </c>
-      <c r="F138" s="27" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
@@ -6468,7 +6468,7 @@
         <v>407</v>
       </c>
       <c r="F140" s="27" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
@@ -6482,21 +6482,21 @@
         <v>407</v>
       </c>
       <c r="F141" s="27" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C142" s="27" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D142" s="27" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E142" s="27" t="s">
         <v>407</v>
       </c>
       <c r="F142" s="27" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
@@ -6510,12 +6510,12 @@
         <v>407</v>
       </c>
       <c r="F143" s="27" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C144" s="27" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D144" s="27" t="s">
         <v>410</v>
@@ -6524,12 +6524,12 @@
         <v>407</v>
       </c>
       <c r="F144" s="27" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C145" s="27" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D145" s="27" t="s">
         <v>406</v>
@@ -6538,26 +6538,26 @@
         <v>411</v>
       </c>
       <c r="F145" s="27" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C146" s="27" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D146" s="27" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E146" s="27" t="s">
         <v>411</v>
       </c>
       <c r="F146" s="27" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C147" s="27" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D147" s="27" t="s">
         <v>406</v>
@@ -6566,7 +6566,7 @@
         <v>411</v>
       </c>
       <c r="F147" s="27" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
@@ -6581,27 +6581,27 @@
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C150" s="27" t="s">
+        <v>524</v>
+      </c>
+      <c r="D150" s="27" t="s">
         <v>525</v>
-      </c>
-      <c r="D150" s="27" t="s">
-        <v>526</v>
       </c>
       <c r="E150" s="27" t="s">
         <v>407</v>
       </c>
       <c r="F150" s="27" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C151" s="36" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D151" s="27" t="s">
         <v>420</v>
       </c>
       <c r="F151" s="27" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
@@ -6609,7 +6609,7 @@
         <v>9</v>
       </c>
       <c r="B153" s="34" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
@@ -6629,12 +6629,12 @@
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C157" s="27" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C158" s="27" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
@@ -6649,13 +6649,13 @@
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C161" s="27" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D161" s="27" t="s">
         <v>420</v>
       </c>
       <c r="F161" s="27" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
@@ -6663,10 +6663,10 @@
         <v>10</v>
       </c>
       <c r="B165" s="34" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F165" s="35" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
@@ -6676,17 +6676,17 @@
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C167" s="27" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C168" s="27" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C169" s="27" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D169" s="27" t="s">
         <v>410</v>
@@ -6699,13 +6699,13 @@
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C174" s="27" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D174" s="27" t="s">
         <v>420</v>
       </c>
       <c r="F174" s="27" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
@@ -6713,10 +6713,10 @@
         <v>11</v>
       </c>
       <c r="B176" s="34" t="s">
+        <v>484</v>
+      </c>
+      <c r="F176" s="35" t="s">
         <v>485</v>
-      </c>
-      <c r="F176" s="35" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="177" spans="3:6" x14ac:dyDescent="0.25">
@@ -6735,12 +6735,12 @@
         <v>407</v>
       </c>
       <c r="F178" s="27" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="179" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C179" s="27" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D179" s="27" t="s">
         <v>410</v>
@@ -6749,12 +6749,12 @@
         <v>407</v>
       </c>
       <c r="F179" s="27" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="180" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C180" s="27" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D180" s="27" t="s">
         <v>410</v>
@@ -6763,12 +6763,12 @@
         <v>407</v>
       </c>
       <c r="F180" s="27" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="181" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C181" s="27" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D181" s="27" t="s">
         <v>406</v>
@@ -6777,7 +6777,7 @@
         <v>411</v>
       </c>
       <c r="F181" s="27" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="183" spans="3:6" x14ac:dyDescent="0.25">
@@ -6787,7 +6787,7 @@
     </row>
     <row r="184" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C184" s="27" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D184" s="27" t="s">
         <v>420</v>
@@ -6796,12 +6796,12 @@
         <v>407</v>
       </c>
       <c r="F184" s="27" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="185" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C185" s="27" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D185" s="27" t="s">
         <v>420</v>
@@ -6810,12 +6810,12 @@
         <v>407</v>
       </c>
       <c r="F185" s="27" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" s="48" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B193" s="48"/>
       <c r="C193" s="48"/>
@@ -6828,10 +6828,10 @@
         <v>11</v>
       </c>
       <c r="B195" s="34" t="s">
+        <v>495</v>
+      </c>
+      <c r="F195" s="35" t="s">
         <v>496</v>
-      </c>
-      <c r="F195" s="35" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
@@ -6846,7 +6846,7 @@
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C199" s="27" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
@@ -6856,13 +6856,13 @@
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C202" s="27" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D202" s="27" t="s">
         <v>420</v>
       </c>
       <c r="F202" s="27" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
@@ -6870,10 +6870,10 @@
         <v>12</v>
       </c>
       <c r="B206" s="34" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F206" s="35" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
@@ -6894,7 +6894,7 @@
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C210" s="27" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D210" s="27" t="s">
         <v>410</v>
@@ -6915,13 +6915,13 @@
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C213" s="27" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D213" s="27" t="s">
         <v>420</v>
       </c>
       <c r="F213" s="27" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
@@ -6929,7 +6929,7 @@
         <v>13</v>
       </c>
       <c r="B215" s="34" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
@@ -6937,7 +6937,7 @@
         <v>404</v>
       </c>
       <c r="F216" s="35" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
@@ -6952,7 +6952,7 @@
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C222" s="27" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D222" s="27" t="s">
         <v>420</v>
@@ -6995,7 +6995,7 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="52" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B1" s="52"/>
       <c r="C1" s="52"/>
@@ -7014,27 +7014,27 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="52" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B3" s="52"/>
       <c r="C3" s="52"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="B5" t="s">
         <v>508</v>
-      </c>
-      <c r="B5" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
@@ -7042,16 +7042,16 @@
         <v>3</v>
       </c>
       <c r="B13" s="9" t="s">
+        <v>511</v>
+      </c>
+      <c r="C13" s="9" t="s">
         <v>512</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>513</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>5</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="F13" s="9" t="s">
         <v>221</v>
@@ -7089,7 +7089,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="52" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B1" s="52"/>
       <c r="C1" s="52"/>
@@ -7106,13 +7106,13 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
+        <v>515</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>516</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="C3" s="9" t="s">
         <v>517</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>518</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>221</v>
